--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sardjoe\OneDrive - Stichting Deltares\Documents\04. Deltares Projecten\04.160. EPIC Response Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D413B0A-0247-4A22-B30E-99841F61E778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65A3F4D-8B9A-467B-9D5A-A26AAAEE8E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="5175" windowWidth="21600" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyagencyactionsquestions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>Program areas</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Programs</t>
   </si>
   <si>
+    <t>Program description</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Question</t>
   </si>
   <si>
@@ -49,24 +52,43 @@
     <t>Water Resource Management</t>
   </si>
   <si>
+    <t xml:space="preserve">The dominant paradigm for WRM is “integrated water resources management (IWRM)”. While there is no official definition of IWRM, a commonly used definition is that it is “a process which promotes the coordinated development and management of water, land and related resources in order to maximize economic and social welfare in an equitable manner without compromising the sustainability of vital ecosystems and the environment” (GWP 2000). Recognized at the international level more than 30 years ago at the 1992 Earth Summit in Rio de Janeiro, Target 6.5 of Sustainable Development Goal 6 on Clean Water and Sanitation calls for the implementation of IWRM at all levels by 2030. 
+The basic objective of WRM is the management of water as a natural resource, the use of which is fundamental to all socioeconomic activities, but which at the same time plays a vital ecological function that needs to be protected. As such, WRM seeks to allocate water among different user sectors (such as water supply, agriculture, industry, and power generation) and water users. It promotes the development of water resources while also seeking to prevent or minimize water pollution and to ensure appropriate water quality. It sets and enforces minimum or environmental flows to enable people to meet basic needs and to protect aquatic ecosystems and the livelihoods of those who depend on those ecosystems. Many of the programs identified in the upper part of the EPIC Response Framework fall under the general, but not necessarily exclusive, domain of the WRM framework, including river basin planning, water resources infrastructure, and adaptable water allocation. It follows that an effective national framework for hydro-climatic risk management system generally requires a functional and comprehensive national framework for WRM. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Is this an example question?</t>
   </si>
   <si>
     <t>Disaster Risk Management</t>
   </si>
   <si>
+    <t>DRM is a broad topic that has seen significant evolution over recent years, encapsulated by the recent Sendai Framework for Disaster Risk Reduction 2015-2030. Among the four priorities of the Sendai Framework is Priority 2: “Strengthening disaster risk governance to manage disaster risk”. This priority notes “the vital role of disaster risk governance at the national, regional and global levels in terms of the management of disaster risk reduction and ensuring the coherence of national and local frameworks of laws, regulations and public policies that, by defining roles and responsibilities, guide, encourage and incentivize the public and private sectors to take action and address disaster risk.”   
+Floods and droughts are invariably included among the types of natural hazards that are subject to a disaster risk management (DRM) framework along with storms, earthquakes, volcanoes, and disease outbreaks, as well as anthropogenic hazards such as transportation and industrial accidents. It follows  that, as with WRM, an effective national framework for hydro-climatic risk management includes the need for an effective, functional, and comprehensive national DRM framework.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> When did you add these examples?</t>
   </si>
   <si>
     <t>Drought Risk Management</t>
   </si>
   <si>
+    <t>Drought risk management is a complex endeavor that requires both WRM and DRM perspectives, but also necessitates going beyond these traditional domains. International recognition of the importance of droughts was reflected in the 1994 United Nations Convention to Combat Desertification (UNCCD) which calls upon decision makers and water and land managers to take a proactive, coordinated, and holistic approach to drought risk management.   
+The modern conception of WRM includes both “blue” and “green” water. Blue water is mainly water stored in rivers, reservoirs, lakes, and accessible groundwater aquifers, and is available for uses such as hydropower, water supply, and irrigation. Green water refers to the water that originates from precipitation, is stored in unsaturated soil, and is absorbed and undergoes transpiration by plants or is evaporated directly from the soil. Green water plays an irreplaceable role in global ecosystems and food production, accounting for around 80 percent of global food production and exclusively sustaining grassland and forest ecosystems (Liu and Yang 2010).  
+WRM policies, institutions, and infrastructure have, however, historically evolved to manage primarily blue water. Drought not only affects traditional blue water uses, but also has a profound impact on green water, particularly as regards agriculture and natural resources management. These domains thus must also be explicitly incorporated into drought risk management systems. Healthy land provides natural storage for fresh water. If it is degraded, it cannot perform that function. Managing land better and massively scaling up land rehabilitation are essential for building drought resilience and water security. Land restoration is the cheapest and often the most effective solution to improving water storage, mitigating impacts of drought, and addressing biodiversity loss. 
+DRM evolved primarily in response to immediate and devastating natural shocks such as earthquakes, storms, floods, and landslides. Drought, in contrast, is generally a slow-moving natural disaster in which the extent of the impact only emerges over time, sometimes years, and the understanding of future impacts are limited by the accuracy of weather and climate forecasts and socioeconomic drivers. Some of the elements of a DRM framework, such as efforts to mitigate hazards and the activation of emergency support systems, can also naturally be applied to drought risk management.
+In summary, although WRM and DRM are intimately linked to drought management, it is generally necessary to develop a specific drought framework that incorporates the unique elements of drought monitoring, impact assessment, and risk characterization, in addition to providing the basis for drought agricultural response and recovery programs. In some poorer countries with large rural populations, WRM and DRM frameworks may not even exist or may be underdeveloped, and in such cases the burden of managing droughts may fall primarily on the agriculture agency and local governments.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Can we add more examples?</t>
   </si>
   <si>
     <t>Flood Risk Management</t>
   </si>
   <si>
+    <t>In many countries, the combination of WRM, DRM, and Hrydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
+The European Union’s Water Framework Directive  and Floods Directive , between them require member states to adopt a common approach to river basin management and flood risk assessment and management planning. As shown in figure 3.4, in Japan there are three major interlocking laws related to flood risk management, the DRM Act, the River Act (which acts as a water resources law), and a specific Flood Protection Act. In the United States, the Federal Interagency Floodplain Management Task Force helps bring together all water-related agencies and was established under the 1975 Water Resources and Development Act</t>
+  </si>
+  <si>
     <t xml:space="preserve"> You will be adding more</t>
   </si>
   <si>
@@ -76,145 +98,309 @@
     <t>Local Government</t>
   </si>
   <si>
+    <t xml:space="preserve">Local governments play pivotal roles in responding to flood and drought disasters (World Bank 2019). As highlighted in Chapter 12, local governments need to work in concert with national DRM agencies to respond to floods. They serve as one of many channels to warn about floods, to help evacuate residents, to ensure public safety, to provide relief to impacted people, and to help guide recovery efforts. Chapter 11 notes how local governments can work in concert with national agencies on drought issues; they can help disseminate information as the drought unfolds, implement emergency drought measures, administer drought assistance, and support social protection programs.
+Local governments also play important roles in flood and drought risk mitigation (Gencer 2017). Chapter 10 on floodplain management highlights their central role in land use planning, building regulations, and preparing local flood mitigation plans. They also oversee urban water supply and drought contingency plans, as highlighted in Chapter 5. Local governments invest in localized water resources infrastructure to mitigate flood and drought hazards, including stormwater drainage systems, local flood control projects, and water supply and sanitation systems (typically through their water utilities). The capacity and authority of local governments to contribute to hydro-climatic risk management varies considerably among, and sometimes within, countries. A 2017 survey examined the authority, capacity, and responsibilities of 151 cities around the world with respect to disaster risk reduction. </t>
+  </si>
+  <si>
     <t>Public Participation &amp; Stakeholder Engagement</t>
   </si>
   <si>
+    <t>Agencies need to engage with the public and stakeholders to have effective programs for multiple reasons. First, the information that stakeholders bring to the program design is crucial to ensuring its success. Second, any program ultimately seeks to influence the decisions and actions of the impacted public and thus their understanding and acceptance is necessary. Third, public monitoring and participation generate incentives and pressure for the agency to continuously improve the program.
+Ideally, public participation operationalizes a two-way communication avenue between agencies implementing programs and the communities they serve where both can inform, learn, and benefit from the process. The International Association for Public Participation (IAP2) has developed core principles that should be internalized by all agencies and incorporated into each program highlighted in this report. 
+While there are numerous advantages associated with public participation and stakeholder engagement, if not properly structured and targeted it may not be fully successful and can even be counterproductive. For example, a substandard public participation process can amplify privileged voices and underrepresent marginalized groups, resulting in so-called elite capture. To implement effective public participation and stakeholder engagement, agencies must make it a priority, generate a robust knowledge base of the circumstances and conflicting interests of the communities they serve, build capacity and train staff, develop targeted and inclusive participatory processes, and allocate the necessary time and budget.</t>
+  </si>
+  <si>
     <t>Social Inclusion</t>
   </si>
   <si>
+    <t>In every country, certain groups face barriers that prevent them from fully participating in the nation’s political, economic, and social life. These groups may, to varying degrees, be excluded from political processes, economic opportunities, and government services. Social inclusion has been defined as the process of improving the terms on which individuals and groups take part in society—improving the ability, opportunity, and dignity of disadvantaged people (World Bank 2020). Individuals or groups can be marginalized in terms of their socioeconomic status, age, gender, sexual orientation, race, ethnicity, religion, disability, or citizenship status, among other factors. Marginalized individuals and groups can be found in all countries across the development spectrum. 
+Social inclusion matters in and of itself, emanating from the principles of human rights and social justice. It also matters because social exclusion can carry substantial social, political, and economic costs. Exclusion often has a negative impact on human capital, preventing individuals from achieving their full potential at multiple levels, resulting in lowered education levels and impaired health. There is ample evidence that human capital is closely correlated with economic development (World Bank 2013). Moreover, excluding large groups of people can destabilize society, generating political unrest or civil strife.</t>
+  </si>
+  <si>
     <t>Education &amp; Risk Communication</t>
   </si>
   <si>
+    <t xml:space="preserve">Each agency should strive to help educate the general public and promote professional development. Educational programs increase public awareness and knowledge about sector issues. In doing so, they provide the public and professionals with the necessary evidence to make informed decisions and to take responsible action. Since education has strong public good characteristics, the agency should use part of its budget and professional expertise for educational programs. These can be delivered directly by the agency or in partnership with professional organizations, universities, schools, civil society, and businesses. The agency can provide grants or technical assistance to its partner organizations to further support educational activities. Risk communication is often distinguished from emergency or crisis communication. Risk communication needs to be done before a hazardous event occurs to inform the public about their potential exposure and to encourage them to engage in precautionary measures to avoid, reduce, and transfer these risks. Emergency communication is then used to inform people once the event is imminent or underway. After the emergency or crisis, risk communication comes into play again to help present what occurred on the basis of lessons learned (OECD 2016a). Communicating hydro-climatic risk, especially in the context of a changing climate, is challenging. Estimating risks embodies many complex concepts, including at its core the probabilistic assessment of different hazard levels—which is typically beyond the level of most non-experts to fully grasp and act upon. Research on risk communication has shown that risk is best understood when the communication is simple, tangible, relevant, and personal.  Risk should be communicated in a way that is not only clear and quantifiable, but also that leads people to recognize how they could be personally affected and that motivates them to act. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Scientific Collaboration </t>
   </si>
   <si>
+    <t>The scientific complexity of hydro-climatic risk management is enormous. The expertise to address this complexity, for both social and natural sciences, spans a broad range of organizations, including national agencies, research institutes, international organizations, and the private sector. The traditional model of a “supplier” of scientific information—such as a research institute, and a “user” of the information—such as a national agency, is outdated. There is a growing recognition of the need to have both science-informed policy and policy-informed science to deal with climate adaptation (Daniels and others 2020). In other words, scientific organizations and national agencies need to effectively collaborate to generate effective science applied to flood and drought risk management. Collaboration between national agencies and the research community to generate science-informed policy and policy-informed science is not an easy task. A recent framework proposed by the Stockholm Environment Institute provides some general guidelines. Key elements include: (1) improving the way participants work together by designing co-exploration and co-production processes that bring together different fields across the science-society interface; (2) working together to understand or define decision-relevant needs of the agency; and (3) increasing the capacity for collaboration by building strong networks (Daniels and others 2020).</t>
+  </si>
+  <si>
     <t>Open Data</t>
   </si>
   <si>
+    <t>We are living in the “Information Age” where the access and control of information is the defining characteristic of our time. This Age fosters disruptive technologies and new ways of doing business that can both be chaotic and transforming. The national agencies involved in hydro-climatic risk management, including WRM, DRM, Hydro-met, agriculture, and natural resources management agencies, produce large amounts of information. This information can take various forms, such as on-ground and space-based monitoring data, GIS-based maps, model codes, and reports. Making this information freely available to other agencies and the public can turbocharge advances in flood and drought management through three pathways: 
+First, since the different programs in the Framework are interrelated, sharing information will allow agencies to do their work better and collaborate more productively in a joined-up manner. As an example, information on watershed health collected by the natural resources agency serves as a critical input to river basin planning exercises led by the WRM agency. These types of linkages exist throughout all programs highlighted in this report.
+Second, open data produces a better-informed public that can engage more effectively with national agencies, resulting in more effective programs. Since information is power, open data can be used to hold national governments and their agencies more accountable and increase transparency. Open data can also help different groups make better informed risk management decisions, ideally complemented with education and risk communication programs.
+Finally, open data can help drive innovation, economic growth, and environmental sustainability. As highlighted in the section on scientific collaboration, much of the expertise for managing flood and drought risks and adapting to a changing climate exists outside of national agencies. Providing these scientific and research organizations with information will enable them to undertake more accurate studies and propose better solutions. As a corollary, publicly-funded research should also be brought into the public domain, and some private companies may also find it beneficial to publicly share information. Open data will also help the private sector to develop products that can help to reduce hydro-climatic risks. As an example, the insurance industry needs extensive information—much of it collected by government—to formulate and properly price flood or drought insurance.</t>
+  </si>
+  <si>
     <t>Hydrological and Meteorological Services</t>
   </si>
   <si>
     <t>National Framework for NMS/NHS Services</t>
   </si>
   <si>
+    <t>Meteorological services are often governed by a national meteorological law. If there is a combined NMS/NHS, then the law also includes hydrological topics. In other cases, hydrological issues are typically addressed through the water resources law. In cases where there are separate meteorological and hydrological laws, it is extremely important to make sure that these two legal and regulatory regimes are seamlessly integrated.
+The basic legal and regulatory framework for hydro-met services has been described in detail in a 2013 World Bank report entitled “Weather and Climate Resilience” (Rogers and Tsirkunov 2013). Some of the key topics to be addressed include defining a clear mandate, including all relevant actors beyond the NMS/NHS, open data principles, revenue generation, research and development, and authorization to arrange for joint monitoring and forecasting of meteorological and hydrological disasters among government agencies. 
+Hydromet laws need to evolve quickly to adjust to changing technology and to meet the increasing demands from users, specifically from the WRM, DRM, and Drought Communities. Often there is an overemphasis on NMS/NHS functions with insufficient attention paid to the broader need of providing weather and hydrological services. This can result in obligations and regulations imposed on others and insufficient accountability for what the NMS/NHS should produce.</t>
+  </si>
+  <si>
     <t>National Water Data Program</t>
   </si>
   <si>
+    <t xml:space="preserve">The collection of hydrological data is often spread out across multiple national agencies that collect different types of information, for example surface water, groundwater, and water quality. Ideally, there would be a single (or potentially multiple) program to consolidate this information and make it freely and easily accessible to the public. There are various approaches for doing this, including creation of hydro-informatics centers, open water data initiatives, and the establishment of national water data systems. Ideally the NHS or natural resources management agency should be mandated to facilitate a national water data program and enter into interagency agreements and operational protocols to ensure the smooth flow of high-quality data. This would generate enormous value added for water-related planning, design of water infrastructure, and research. Every agency working on hydro-climatic risk management would benefit from combining their water-related information through a national water data program. </t>
+  </si>
+  <si>
     <t>Drought Monitoring and Impact Assessment</t>
   </si>
   <si>
+    <t>This topic is explored in depth in Chapter 11, which notes that droughts generally evolve gradually over time, cover large areas, and have broad social, economic, and environmental impacts. A national drought monitoring program is usually the best approach, requiring a nexus of cooperation among NMS/NHS, WRM, agriculture, and DRM agencies. The NMS/NHS plays a critical role in monitoring drought hazards by providing analysis on “dryness” conditions (World Bank 2019). However, this hydro-met information is only part of the story, as droughts are assessed primarily by their impacts on farmers, cities, and the environment. The NMS/NHS needs to work closely with the other agencies, local governments, and other parties to better understand vulnerabilities, risks, and appropriate drought response actions. The National Drought Framework discussed in Chapter 3 should help facilitate interagency agreements and operational protocols to ensure this nexus operates smoothly.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flood Forecasting and Warning </t>
   </si>
   <si>
+    <t xml:space="preserve">This topic is explored in depth in Chapter 12, which notes that different types of flood require different approaches. Flood forecasts and warning require a cooperation nexus among the NMS/NHS, WRM, and DRM agencies. Clear interagency agreements and operational protocols need to be developed to ensure that this nexus operates efficiently. One option is to establish a National Flood Center which can foster collaboration and flexibility to handle a variety of floods. </t>
+  </si>
+  <si>
     <t>Agrometeorological Advisory Services</t>
   </si>
   <si>
+    <t>Agro-Climate Advisory Services: As highlighted in Chapter 11, farmers are particularly prone to be affected by fluctuations in weather and by extreme hydro-climatic events, particularly droughts. It is estimated that 20-80 percent of the inter-annual variability of crop yields is associated with weather phenomena, and 5-10 percent of national agricultural production losses are associated with climate variability (WMO 2019). NMS/NHS can team with agriculture agencies to help farmers better cope with climate variability and extreme events through the provision of agro-climate advisory services. Farmers receive information at different time scales to help them make informed decisions. For example, weather forecasts up to a week in advance can help them make decisions regarding planting and harvesting, fertilizer application, and irrigation requirements. Seasonal forecasts on the order of months can inform cropping decisions and livestock strategies.</t>
+  </si>
+  <si>
     <t xml:space="preserve">National Climate Assessment </t>
   </si>
   <si>
+    <t xml:space="preserve">An NCA helps to inform the country about already observed changes, the current status of the climate, and anticipated trends for the future.  It typically provides analysis of the effects of climate change on the environment, agriculture, health, water resources, and coastal areas, and includes an analysis of flood and drought risks. An NCA can help guide adaptation actions across society by informing planning at all levels, influencing private investment decisions, and spurring actions to enhance climate resilience. The development of an NCA needs to be a collaborative effort with many national agencies, as well as other stakeholders. Although lead responsibility for the formulation of an NCA will vary by country, in every case the NMS/NHS needs to be front-and-center in the process as the leading authority on climate. 
+An NCA is a complex undertaking and less-affluent countries may need international assistance. Global experience has shown that the process of formulating an NCA and pondering the manifold impacts of climate change and its attendant risks is as important as the actual report—which in any case needs to be periodically updated. The various national agencies can build upon the knowledge gained through the NCA to develop more climate-sensitive sector strategies. </t>
+  </si>
+  <si>
     <t>Flood and Drought Risk Mitigation and Contingency Planning</t>
   </si>
   <si>
     <t>Integrated River Basin Planning</t>
   </si>
   <si>
-    <t>Do you have the system(s) in place to foster correct institutional arrangements?</t>
+    <t xml:space="preserve">River basin plans guide the development, management, allocation, and use of water and related resources within a specific geographical area. Ideally, this is an actual river basin, but in some cases the planning area may be limited due to transboundary constraints or in order to ensure a more tractable planning size. In some countries, a single river basin is simply too large to plan as a single unit, so it is necessary to divide it into sub-basins. River basin plans are typically integrated plans, addressing water quantity, water quality, surface water and groundwater, and the protection of water and aquatic ecosystems while enabling the integration of upstream and downstream interests. Basin plans should also include issues such as institutional responsibilities, implementation arrangements, budgets, and monitoring. </t>
   </si>
   <si>
     <t>Coastal Zone Management Planning</t>
   </si>
   <si>
+    <t xml:space="preserve">More than 600 million people, around 10 percent of the global population, live in coastal areas that are less than 10 meters above sea level (UN 2017). These areas are particularly vulnerable to flooding from storms and the associated storm surges that drive seawater onto coastal flood plains. Coastal zones can also be vulnerable to water shortages and droughts with the additional risk of saline intrusion (and therefore contaminated groundwater) as a result of groundwater over-abstraction. Climate change also directly impacts coastal communities due to rising sea levels and increasing storm frequencies and magnitudes in many areas. 
+The most comprehensive paradigm for coastal zone management is Integrated Coastal Zone Management (ICZM), a multi-sectoral, stakeholder-informed coastal zone equivalent of river basin planning, which seeks to promote economic development in the coastal zone while also protecting valuable coastal ecosystems. These ecosystems are often important for tourism and fisheries, and act as coastal barriers against storm surges. Unlike river basin planning, ICZM has not been fully mainstreamed into most countries’ planning processes, probably reflecting the complexity of the exercise. 
+Particularly in countries or coastal areas with extensive deltas, coastal zone planning must of necessity be linked to river basin management planning. That is because the delta represents the terminus of a river basin, where freshwater flows mix with seawater and bring sediments, nutrients, and pollutants that have a profound impact on coastal ecosystems. ICZM is also fundamentally intertwined with marine spatial planning by virtue of common geomorphological dynamics and the ecosystems providing services (such as flood protection) and goods to coastal economies.
+Coastal zone management plans provide the overall framework for flood management programs operating in coastal areas and should help inform local flood management plans for jurisdictions located along the coastline. They also help in establishing priorities for investments related to coastal barrier management, including protection and restoration activities, and the prioritization of areas where “hard” coastal defenses such as sea dikes or flood walls may be necessary. </t>
+  </si>
+  <si>
     <t>Urban Water Supply Planning</t>
   </si>
   <si>
+    <t>Urban water supply and sanitation utilities (hereafter “water utilities”) typically prepare master plans to define system-wide strategies and guide capital improvement projects to cope with population growth, regulatory requirements, and infrastructure renewal needs. In order to ensure that current, medium- and long-term water needs can be met, such master plans usually also include what are described in this report as an Urban Water Supply Plan (UWSP) that helps to mitigate drought risks by identifying potential supply-side and demand-side options. Potential supply-side options may include the construction of infrastructure in the form of new reservoirs, long-distance conveyance structures, water reclamation and desalination plants, development of new groundwater wellfields, and the purchase of water from bulk suppliers. Potential demand-side options may include reducing physical losses, promoting water conservation, and adjusting water pricing. Water quality may also be factored into a water supply plan, as poor raw water quality can potentially reduce the availability of potable water.</t>
+  </si>
+  <si>
     <t>Irrigation Water Supply Planning</t>
   </si>
   <si>
+    <t>Irrigation service providers are usually the largest users of water in a river basin and are accordingly also key stakeholders in river basin management planning. The notion of the irrigation service provider encompasses a range of different actors depending on the national context and may include an irrigation department in a ministry (such as the agriculture ministry or even the WRM ministry), a separate irrigation ministry, a semi-autonomous national or regional public irrigation agency, or farmer-managed water user organizations (variously described as “irrigation districts”, “water communities”, or “water user associations”), which may have their own direct access to water sources or which may in turn be supplied in bulk by public irrigation service providers. 
+Because of the volumes of water involved, irrigation service providers are generally required to demonstrate more flexibility in their water allocations than are other uses such as water utilities or hydropower operators, and thus play a critical role in basin drought contingency plans. At the same time, though, reduced irrigation water availability may reduce crop production (and therefore influence food prices and food security) and adversely affect rural livelihoods. 
+In order to ensure sustainable and long-term operation, best practice suggests that irrigation service providers should periodically prepare irrigation scheme master plans that cover all aspects of their service, including asset management and capital planning. Ideally too, and depending on the socioeconomic context, an irrigation service provider should prepare an Irrigation Water Supply Plan (IWSP) that looks at long-term resource planning to ensure that adequate water is available to meet farmers’ existing and future uses, particularly considering changing cropping patterns and climate change. This involves balancing water supply and demand alternatives, while also considering water quality, to ensure long-term sustainability. 
+There are typically several critical elements in an IWSP. It should include seasonal and monthly water budgets based on quantifying all inflow and outflow components for the service area, such as: crop water use, non-beneficial evaporation, groundwater seepage, and return flows. The IWSP should present water management objectives based on the water budget as a guide to improve system efficiency or meet other objectives. This should include a program of actions to help meet these objectives, including various water conservation approaches. In many schemes there is a need to first improve flow measurement and water control within the canal network through a modernization program. 
+It is also important to ensure that irrigation service providers prepare a Drought Plan describing actions for drought preparedness as well as allocations of water supply during drought conditions. Unlike urban WSCPs, the IWSP Drought Plan may not need to be a stand-alone document as irrigation service providers generally have more flexibility during drought periods than urban water utilities which are required to maintain minimum service levels to protect public health.</t>
+  </si>
+  <si>
     <t>Local Flood Risk Mitigation Planning</t>
   </si>
   <si>
+    <t>Missing</t>
+  </si>
+  <si>
     <t>Healthy Watersheds</t>
   </si>
   <si>
     <t>Agriculture Policies and Climate Smart Agriculture</t>
   </si>
   <si>
+    <t>Agricultural Economic Policies:  Agricultural economic policies can have a significant impact on land use, sometimes motivating farmers to grow inappropriate crops and utilize excessive amounts of water. To ensure food security and in conjunction with the Green Revolution starting in the 1960s, many governments adopted subsidy programs to promote the production of key staple crops (such as rice, wheat, and maize), support poor farmers, and keep food prices low. This helped to both combat rural poverty and ensure food security. These subsidies took the forms of below-cost irrigation water, subsidized inputs such as fertilizers and pesticides, and crop price support programs. Although in many countries these policies did in fact increase the supply of cheap food and address food security concerns, they also contributed to land degradation and water use inefficiency (Pingali 2012).
+Adjusting these agricultural policies to ensure the availability of nutritious food for the poor while reducing the environmental impacts of agriculture is the paramount agriculture policy imperative for the 21st century. It will not be politically easy, as many vested interests have emerged around existing subsidy regimes and governments are understandably wary about tampering with policies that may affect the production of food staples. Yet a Green Revolution 2.0 (GR2.0) is needed—and is emerging—to meet the world’s food demands, ensure environmental sustainability, and meet the challenges of climate change. 
+By 2050, the global population is projected to increase by about one-third, which will require a 70 percent increase in food production. GR 2.0 needs to not only increase basic cereal productivity (for example, wheat, rice, and corn) to meet the demand for staples, but also to make more land available for higher value and more nutritious crops, such as fruits, vegetables, and legumes. In addition, it should allow for the movement of labor out of agriculture when other economic opportunities provide greater returns. GR 2.0 must also improve the tolerance of crops to stresses, both climatic and biotic (pest and disease). Improved varieties that are tolerant to drought or excess water would enhance smallholder productivity in marginal environments and provide tools to adapt to climate change (Pingali 2012).
+Agriculture agencies, working in collaboration with farmers and agribusiness, need to show leadership in this transition to a GR 2.0. They can adjust agricultural policies to focus on improving productivity, gradually reducing subsidies that distort incentives for sustainable land management, and fund programs that support climate-smart agriculture. Governments can also work with the private sector and farmers to promote the use of new technologies, such as a greater focus on precision agriculture, the internet of things (IoT) and the use of big data—sometimes referred to as “agriculture 4.0” (De Clercq and others 2018). 
+Climate-Smart Agriculture Programs: Agricultural water and soil conservation programs have historically been a focus area for mitigating drought hazards. As an example, the U.S. Soil Conservation Service was created in response to the great Dust Bowl in the American prairies in the 1930s. In response to climate change, the approach has been broadened to include climate-smart agriculture (CSA). CSA aims to improve agricultural and livestock productivity while delivering greater resilience to climate change and lowering greenhouse gas emissions.</t>
+  </si>
+  <si>
     <t>Forest Management</t>
   </si>
   <si>
+    <t xml:space="preserve">The natural resources agency has several different options for managing forests on public lands depending on the specific context. Although this is a vast and complex topic, table 7.2 below presents four general management approaches for illustrative purposes.  These approaches are not mutually exclusive. For example, within the same forest areas, the natural resources agency may reserve some land for conservation, ensure sustainable forestry in public and private lands, and enter into arrangements with local communities including indigenous groups. </t>
+  </si>
+  <si>
     <t>Wetlands Management</t>
   </si>
   <si>
+    <t>There are a variety of approaches to wetlands management which are summarized below in table 7.4. As with forest management, these approaches are not mutually exclusive. National wetlands management programs might be linked to global efforts, particularly the Ramsar Convention, which currently has 171 Contracting Parties. The Ramsar Convention’s mission is “the conservation and wise use of all wetlands through local and national actions and international cooperation, as a contribution towards achieving sustainable development throughout the world.” National programs might benefit from the resources and analytical work provided with the Ramsar bodies (in particular from the Scientific and Technical Review Panel). They also can contribute to global monitoring efforts such as the Global Wetland Outlook.</t>
+  </si>
+  <si>
     <t>Local Watershed Management Organizations</t>
   </si>
   <si>
+    <t xml:space="preserve">These organizations can help provide a critical link between national agencies and local communities. This linkage is important because national agencies may have substantial financial resources and technical expertise, but communities often have a better sense of local priorities and are responsible for undertaking many of the actions supported by various natural resources management and agricultural programs. 
+In practice, WaMOs can follow hydrological or political boundaries and take on a variety of different forms and geographical coverage. In some cases, they may be legally constituted organizations that operate independently of the government. In other cases, the local government may have a specialized unit that helps organize and represent the community in its interactions with national agencies. An important consideration is that a WaMO needs to be able to take a broad landscape perspective within its area of jurisdiction and to understand how that area is nested into a larger watershed perspective. Agriculture and natural resources agencies should support and nurture WaMOs for a variety of reasons. WaMOs serve as an ideal conduit for public outreach and communication programs. WaMOs can also serve as a channel for implementing programs, either through block grants to WaMOs or helping to link potential beneficiaries with specific agency programs. WaMOs can also help national agencies better address social inclusion issues by providing linkages with marginalized groups such as indigenous groups, women, and landless populations. National agency support for WaMOs can take many forms, including helping in their legal establishment, funding, and providing technical assistance and training. </t>
+  </si>
+  <si>
     <t>Watershed Planning</t>
   </si>
   <si>
+    <t>Local WaMOs working in partnership with natural resources and agriculture agencies can help address issues on a relatively small scale. It is important also to have a periodic (for example every five years) planning or assessment exercise that looks at the entire watershed and identifies key problems, objectives, and high priority activities. A watershed management plan provides an opportunity for the agriculture, natural resources, and WRM agencies to examine the effectiveness of their various programs to promote healthy watersheds and adjust where necessary. It also gives local WaMOs an opportunity to better understand how their jurisdictions are affected by and contribute to larger watershed dynamics. 
+Information from watershed monitoring is an important input for watershed management plans. This should be focused on aspects such as the ecological conditions and trends of key natural assets (such as strategic wetlands, forests, soil erosion, water quality and quantity, and floods and droughts), helping establish cause-and-effect relationships between natural assets and ecosystem services, and informing and updating the implementation and effectiveness of specialized programs. A strong and continuous watershed monitoring program can provide a structured framework for adaptive watershed management by associating indicator thresholds with management activities (Shames and others 2017). 
+Watershed planning should be done in a collaborative process with all relevant agencies, and in a participatory manner with a wide range of stakeholders including the local WaMOs. The watershed management plan should feed into the river basin plan and vice versa. This collaborative arrangement between the various agencies is a classic example of the type of joined-up government approach required to address hydro-climatic risk management.</t>
+  </si>
+  <si>
     <t>Water Resources Infrastructure</t>
   </si>
   <si>
     <t>Water Resources Investment Policy</t>
   </si>
   <si>
+    <t>There is a clear need to increase funding for upgrading and constructing new water resources infrastructure, particularly to address the increasing hazards associated with climate change (HLPW 2018). WRI generates a mix of public and private benefits, yet it is generally funded by the government. Since public budgets are constrained, policies should be adopted which promote the efficient use of these funds. Investment efficiency is also important from an equity perspective because in many cases the costs (in terms of high levels of public subsidies) for WRI are borne by all taxpayers while the benefits go only to a much smaller group. Finally, national WRM agencies that depend entirely on a general budget and operate in a non-commercial manner may potentially be driven by political motivations, rent seeking, or local elite capture that distorts the decision-making process (Molle 2008).
+Ideally, WRI investment decisions should be guided by sophisticated economic and environmental analysis to determine whether a proposal is justified from a broad economic perspective; this also helps to ensure a reasonable project size and cost. An economic analysis is used to determine whether a proposed project will be a worthwhile investment. It would account for all benefits and costs regardless of who is affected. An economic analysis allows for fair comparisons to be made between alternatives and demonstrates why a proposed project can be considered the best solution to meet the overall objectives. More sophisticated economic analysis can consider environmental and social costs and benefits and thus provides a useful tool, along with the technical, financial, environmental, and social assessments, to appraise a project. It is particularly important to consider the co-benefits of associated green infrastructure when analyzing a project proposal (Browder and others 2019). Ideally, economic analysis should be integrated into a broader environmental and social impact assessment (ESIA) that can be used as the government’s primary decision-making document. 
+Although WRI is typically financed by the government, there are opportunities to recover some costs by charging water users, for example by selling bulk water supply to water utilities and irrigation schemes or by generating power from multi-purpose dams. Methods for allocating costs for multi-purpose reservoirs and water conveyance systems have been developed, allowing for more equitable cost recovery policies from water users (OCDE 2017).
+In many cases, the national government will help fund local flood control projects or the development of new water sources such as reservoirs or groundwater well fields. When funds are offered on a 100 percent grant basis there is a tendency for local governments to overbuild and undermaintain the WRI. Thus, adopting reasonable cost-sharing policies will encourage local governments to make better economic decisions, since the use of their scarce funds is also at stake. Attaching conditions to national funding of local WRI can also be used to incentivize local governments to adopt better and lower-cost management practices, for example by promoting the use of non-structural approaches for flood management or water conservation.</t>
+  </si>
+  <si>
     <t>Dam Safety</t>
   </si>
   <si>
+    <t xml:space="preserve">Dams comprise critical infrastructure to meet increasing demands for water, food, energy, and flood control. The failure of a dam can potentially have catastrophic impacts in terms of downstream flooding, as well as by removing an asset that communities are reliant upon to reduce flood hazards and to supply water. The two most common causes of dam failure are “overtopping” of earth dams, and foundation problems that are sometimes triggered by earthquakes. The proximate causes of dam failures, however, are often complex and myriad, and could include factors such as inappropriate design standards, bad siting decisions, poor construction, inadequate monitoring and maintenance, poor operational decisions, and lack of emergency planning. Dam safety programs are intended to address these shortcomings by ensuring a comprehensive life cycle approach.
+Dams are typically owned and operated by a wide variety of organizations. WRM agencies may themselves operate dams for multi-purpose use such as flood control, water supply, hydropower, and recreation. Energy agencies or companies may operate dams primarily for hydropower but may also include other uses. Agriculture agencies, and individual irrigation surface providers, often rely upon dams to provide water supply for irrigation systems. Water utilities often own and operate their own reservoirs to meet their water supply needs. Many of these dams are typically either constructed from soil or concrete, with a wide variation in dam and associated reservoir size. Ensuring that all these dams are regulated under an appropriate national dam safety management program is an indispensable element of hydro-climatic risk management.
+The core principle of dam safety management is the notion of shared responsibility. The owner is responsible for ensuring the safety of a dam, for operating and maintaining it in a safe condition, and for ultimately assuming criminal and civil liability in the event of a failure. The dam safety regulator is responsible for protecting the safety of the public by establishing dam safety standards and ensuring that these are fully implemented. </t>
+  </si>
+  <si>
     <t>Flood Infrastructure Safety</t>
   </si>
   <si>
+    <t xml:space="preserve">River and coastal flood control infrastructure provide many of the same functions as dams—essentially holding water back—and faces many of the same risks. Flood control embankments can include levees that protect land that is normally dry but that may be occasionally flooded, and dikes that protect land that would naturally be underwater most of the time. Tidal gates are important for coastal flood control and can help protect against storm surges. Large pump stations that help evacuate flood waters are critical elements of many flood control systems.
+Flood embankments are typically constructed from soil and are sometimes armored with concrete. They are prone to collapse when overtopped and they can suffer foundation failures like dams do. Flood walls are constructed from concrete, and in some cases steel, and may also fail from overtopping or foundation failures. Flood embankments may also be integrated into transport infrastructure, with roads or railway lines situated on top of the embankments. In some cases, specific sections of flood embankments may be designed to be easily breached (these are called fuse plugs). When flood levels in a river are dangerously high, the fuse plugs allow water to be channeled into areas that pose the lowest risk, such as agricultural areas with minimal numbers of structures. Although a flood control infrastructure failure is generally not as immediately catastrophic as a dam failure, it can have a significant impact over a large geographical region as river or coastal flood waters pour into low-lying areas. As an example, the devastating floods in New Orleans during Hurricane Katrina in 2005 were caused primarily by the failure of levees (ASCE 2017).
+Like dams, flood control infrastructure is often owned or operated by multiple entities. Larger infrastructure is typically constructed by the WRM agency, which may keep control of operations or maintenance or turn them over to local governments. In some cases, local governments or private industries, such as industrial estates, may construct their own flood control infrastructure. However, a basic challenge for flood safety can be identifying precisely who owns the infrastructure or sections of flood embankments and who is therefore responsible for maintaining them and ensuring their integrity. This is because many flood embankments have been built up and extended over decades or even over centuries. Consequently, few were originally designed or constructed to modern standards. In addition, records of their construction and historical performance may not exist. Moreover, they may stand for much of their lives without being loaded to design capacity, which can create a false sense of security in the level of protection they will provide.
+Flood infrastructure is typically composed of long linear structures that are only as strong as their weakest links. The structures can suffer from several potential deficiencies, such as old age, poor construction, and inadequate maintenance. They can also experience damage from burrowing animals and human activity, such as illegal construction on or adjacent to flood control infrastructures, illegal sand exploitation and storage of building materials, and overloaded vehicles travelling on embankments. They also are typically subject to encroachments by third-party objects that are constructed or installed over, under, or through the structures. Those encroachments can adversely affect flood control infrastructure integrity, but are not always fully recorded or documented. </t>
+  </si>
+  <si>
     <t>Water Allocation and Groundwater Management</t>
   </si>
   <si>
     <t>Flexible Water Allocation</t>
   </si>
   <si>
+    <t>WRM agencies should manage water allocations to ensure that water is not overallocated and that there is enough slack in the system to help mitigate drought impacts. This includes having a formal system of adaptable water allocations whereby water can be transferred from lower value users to higher value users, for example through administrative decisions, negotiated settlements, or water markets.</t>
+  </si>
+  <si>
     <t>Conjunctive Groundwater Management</t>
   </si>
   <si>
+    <t>This program involves balancing surface water and groundwater use, including managed groundwater recharge where possible, and ensuring that groundwater is available as a strategic reserve to help meet demand during droughts. Where groundwater aquifers exist, they provide an ideal water storage option. Too often, however, aquifers are overexploited resulting in unsustainable yields thus diminishing their effectiveness as strategic sources of water during droughts.</t>
+  </si>
+  <si>
     <t>Floodplain Management</t>
   </si>
   <si>
     <t>Floodplain Mapping</t>
   </si>
   <si>
+    <t>To properly manage river and coastal floodplains, the hazards should be well understood and communicated to local governments and the public. This is an enormously complex and continuous process that the DRM or WRM agency typically manages due to the technical challenges involved. It cannot be done quickly and needs to be constantly updated as flood hazards change over time due to climate change, watershed development, and new water resources infrastructure.</t>
+  </si>
+  <si>
     <t>Floodplain Regulation</t>
   </si>
   <si>
+    <t xml:space="preserve">Floodplain regulation helps to reduce exposure and vulnerability of people and assets and has two dimensions: (1) a permitting process to authorize development and activities; and (2) standards and codes to reduce the vulnerability of buildings and facilities. Land use management is generally a local government responsibility, and local governments should have their own specific floodplain management units. Some countries have even created multi-jurisdictional floodplain authorities to manage entire river or coastal stretches. The DRM agency has an important role to play in helping local governments by defining permitting guidelines and developing uniform standards. In some cases, the DRM agency may be legally mandated to oversee the implementation of local government floodplain regulations. </t>
+  </si>
+  <si>
     <t>Local Flood Mitigation Planning</t>
   </si>
   <si>
+    <t>River basin and coastal management planning are the tools generally used to reduce overall flood hazards at the regional level with a focus on watershed health and large-scale water resources infrastructure. Local flood mitigation planning plays an important complementary role to basin planning, and may often be part of a broader multi-hazard local government mitigation plan that includes other potential threats, such as earthquakes, landslides, and fires. Local flood mitigation plans go beyond regulation to proactively manage risks by identifying priority actions, such as refining land use plans and regulations, identifying infrastructure projects, conserving and restoring natural systems, and implementing educational and awareness programs. The DRM agency has an important role in providing guidelines and technical assistance to local governments in the formulation of flood mitigation plans. In some cases, the DRM agency may be legally mandated to oversee local government flood mitigation plans.</t>
+  </si>
+  <si>
     <t>Drought Monitoring</t>
   </si>
   <si>
     <t xml:space="preserve"> Drought Monitoring Program</t>
   </si>
   <si>
+    <t xml:space="preserve">A comprehensive Drought Monitoring Program (DMP) encompasses two interrelated activities: (1) the monitoring and forecasting of meteorological and hydrological conditions; and (2) the assessment of actual and potential on-the-ground drought impacts and risks. The DMP should classify and report on the level of drought for specific regions of the country. The designations often range from 1 to 5, from a low level (1) of “abnormally dry” to the highest level (5) of “an exceptional drought”. The designation of a drought level is important because it should help communicate the relative severity of the drought to different parts of the country and trigger actions identified in the National Drought Plan.
+A drought monitoring program identifies climate and water supply trends and detects the emergence or probability of occurrence of droughts, usually by categorizing severity through a percentile ranking approach, and the likely impacts associated with each category. The information can be used to communicate broadly to the general public, as well as to inform specific regional, local, and sector-specific drought management plans and actions. This information can be used to trigger drought mitigation and response measures, as well as disaster declarations and eligibility for drought-related programs, such as disaster relief, insurance, and eligibility for low-interest loans. It can also be used to help inform food relief efforts, water tanker truck deliveries, and other policy and management responses. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> WRM Drought Response</t>
   </si>
   <si>
+    <t xml:space="preserve">During droughts, water use needs to be coordinated at the basin level to ensure water allocations are in alignment with the overall basin drought contingency plan. As highlighted in Chapter 9, the WRM agency should ideally administer a water use permit system that has clear rules of priority during periods of water shortage or drought. Ideally, this permit system would be flexible enough to accommodate priority and equitable use of water during droughts, either through administrative decisions by the WRM agency—preferably within the context of deliberations within the Drought Committee—or through a water rights trading system. The role of conjunctive groundwater management was also highlighted in Chapter 9, underscoring the need to facilitate the storage of water in aquifers during non-drought periods and then abstracting groundwater for use during droughts. The challenge is to ensure that the sustainable yield of an aquifer is not exceeded over the long run.
+The WRM agency often, but not always, serves as the anchor agency for the Drought Committee. In regions where cities, industries, and farms rely heavily on surface water or groundwater, particularly when delivered through regional water conveyance systems, the WRM agency has a critical role to play in drought response. As a core member of the Drought Committee, it should monitor and report on the implementation of the various drought management measures, as well as the overall water balance at the river basin level. The WRM agency also has a central role to play in drought communication and public outreach during droughts, reaching out through its various channels to create a culture of water conservation and water use efficiency. The WRM agency can build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Agriculture Drought Response</t>
   </si>
   <si>
+    <t xml:space="preserve">Agriculture, including both crop and livestock production, is an inherently risky endeavor and subject to many types of natural hazards, such as droughts, floods, pestilence, fires, tornadoes, and hail. Agriculture is also confronted with many market risks, such as price fluctuations, logistical interruptions, and sudden export restrictions. Therefore, it is important that the agriculture agency develop a sector-wide agriculture risk management program that considers all risks in a holistic manner to help farmer and livestock producers cope with this broad range of uncertainties (World Bank 2016).
+As highlighted in Chapter 6, climate-smart agriculture programs can help mitigate potential drought impacts by promoting improved agronomic practices. When a severe drought does strike, however, agricultural disaster support programs can be powerful tools to protect the livelihoods of agriculturalists. Such programs can also help de-risk the agricultural sector and contribute to increasing agricultural output through improved access to credit and encouraging agricultural investments. 
+Agricultural disaster support is generally organized around two approaches: (1) direct government-administered relief; and (2) relief administered through agricultural insurance. Direct relief programs provide financial support, such as payments or concessional loans, to agriculturalists who suffer damages due to natural hazards. Natural hazard insurance programs, on the other hand, are typically established, regulated, and subsidized through the agriculture agency, which works through insurance companies that offer plans to agriculturalists. Specialized direct relief or insurance programs are required to deal with different types of producers, for example different programs may be required for annual crops, perennial crops such as orchards or plantations, and livestock. 
+Depending on the specific country context, there may be a mix of direct relief programs and insurance programs. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Social Protection Drought Response</t>
   </si>
   <si>
+    <t xml:space="preserve">Dedicated agricultural disaster support programs may function well in middle-income countries where the agriculture sector is commercialized, and where agriculturalists have the capacity to apply for assistance. In many developing countries, however, farming and livestock production is managed in a more informal and often subsistence level, and different approaches focused on social protection are required to help rural households respond and recover from droughts (and from floods, for which social protection programs are discussed in Chapter 12). Even with commercialized agriculture, agricultural disaster support programs may not be enough to meet the needs of the impacted population. For example, people employed on farms or who operate as sharecroppers may lose their jobs due to droughts. In addition to their economic impacts, droughts in rural communities may also have deep and long-lasting social impacts related to malnutrition and lack of access to water and sanitation. They can have a profound short-term impact on health as well as longer term impacts such as childhood stunting or lack of access to schooling.
+For these reasons, countries should have preconceived programs for ensuring food and water security in rural areas impacted by natural disasters. Social protection programs that help facilitate effective drought responses in rural areas include offering traditional safety nets and, in extreme conditions, humanitarian aid. </t>
+  </si>
+  <si>
     <t>Flood Monitoring</t>
   </si>
   <si>
+    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
+The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
+For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
+For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
+  </si>
+  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
+    <t>Emergency preparedness and response for floods should take place at many levels: national, regional, local, private sector, and households. The National DRM Plan should include a specific component on disaster response that establishes a standard Emergency Management System (EMS) that allows for multi-agency and multi-jurisdictional responses to emergencies. Some key elements include (1) definition of command structure; (2) regional EOCs; (3) emergency warning dissemination system; (4) master civil defense mutual aid agreements; and (5) multi-agency coordination processes. 
+Although this system is set up to manage all types of emergencies, such as earthquakes, fires, storms, and floods, there also needs to be flood-specific emergency preparedness plans and response actions. The EMS serves to coordinate the actions of the key actors, including relevant national agencies and local governments, and emergency responders such as police, fire, and the military as necessary. The EMS should include provisions as necessary for mobilizing the national level Disaster Management Committee which often consists of Cabinet-level officials and may be chaired by the Executive. 
+For river flooding, the WRM agency should prepare a River Basin Flood Contingency Plan as discussed in Chapter 6, which looks at different flood scenarios and operational responses. The WRM agency should also have a Flood Control Center which serves as the focal point for flood monitoring, forecasting, and operations, working in close collaboration with the DRM agency. In partnership with the DRM agency, the WRM agency also has an important role to play in flood preparedness. Raising awareness about flood risk and emergency response with local governments, businesses, and the private sector is an important preparedness activity. The WRM agency can also provide flood fighting training for its staff, other agencies, and local governments. Finally, the WRM agency should periodically coordinate with the DRM agency and local governments to prepare for local flood and emergency risk management and response.
+Local governments are generally the first responders in a flood emergency, with national assets being deployed as needed—and sometimes with delay. Paralleling the process at the national level, local governments should have Multi-Hazard Mitigation Plans as discussed in Chapter 10 that include floods and should also have Local Emergency Response Plans. To the extent that either river or coastal storms and floods are an issue for the local government, there may be specific Flood Emergency Plans. The local Emergency and Flood Response Plans typically include elements such as: (1) the emergency management organization structure; (2) policies, responsibilities, and procedures to respond to floods; and (3) approaches for after-flood analyses and follow-on activities. Floodplain mapping provides critical information on the potential extent and impacts of floods which can help inform the Emergency Response Plan and flood response actions.</t>
+  </si>
+  <si>
     <t>Flood Disaster Recovery</t>
   </si>
   <si>
+    <t xml:space="preserve">The PDNA should help identify flood impacts and scope out the recovery process, including needs for: (1) housing; (2) restoring public infrastructure and public facilities; (3) restoring business and other organizational assets; and (4) restoring livelihoods. As highlighted in the previous section on flood relief, the PDNA should also identify initiatives to assist impacted people while they are waiting for recovery support. 
+Disaster recovery programs should have dedicated components to meet different needs. For households, support can be provided to repair, replace, or relocate housing. For local governments, support can be provided for emergency works, such as debris removal or flood protection measures, or more permanent works such as roads, water infrastructure, public buildings, and other public utilities. Recovery support can also be provided to businesses and other organizations such as centers of worship or community centers. Finally, recovery support can be provided for flood hazard mitigation projects such as new structural or nature-based projects. 
+Disaster recovery support can be provided in the form of grants, concessional loans, or through subsidized insurance programs. Typically, eligibility for disaster recovery support (except for insurance) is contingent upon a Disaster Declaration, often issued by the Executive. 
+It is important to note that these disaster recovery programs, usually administered or overseen by the DRM agency, can be employed to address a wide variety of potential disasters, for example storms, earthquakes, and fires, as well as floods. However, since the core principle in any disaster recovery effort is to “build back better”, it is important that the programs be tailored to help mitigate the hazard that caused the disaster. For example, if an earthquake resulted in significant destruction of buildings, the DRM agency should ensure adequate buildings regulations in terms of seismic design and require that the buildings regulations are utilized in the reconstruction process. 
+For floods, the disaster recovery programs should consider the principles of floodplain management outlined in Chapter 10 and centered on the PARA concept: protect, avoid, retreat, or accommodate. If these principles are not employed, then the government is potentially creating a moral hazard: people and businesses may not take preventative steps to reduce flood risks on the expectation that future losses will be reimbursed through disaster recovery programs. </t>
+  </si>
+  <si>
     <t>Disaster Risk Financing</t>
   </si>
   <si>
     <t>Disaster Risk Financing Instruments</t>
   </si>
   <si>
+    <t xml:space="preserve">Extreme hydro-climatic events can cause significant financial and economic shocks to households, the private sector, and government budgets. Floods and droughts therefore form a contingent liability for governments since they cause unexpected expenditures and loss of fiscal revenues. Having access to adequate and timely financial resources for response and recovery reduces the impact of these shocks and helps the economy bounce back quickly. A lack of such resources causes a delay in the provision of life-saving responses and pushes back the reconstruction of critical public and private structures, facilities, and infrastructure, which brings higher long-term impacts of a disaster and a more significant effect on poverty and development.
+There are a variety of risk financing instruments, each with specific characteristics that make each type well-suited to address certain situations but less effective in others. The optimal mix of instruments depends on the overall fiscal situation of the country as well as its disaster risk profile. </t>
+  </si>
+  <si>
     <t>Disaster Risk Financing National Sector Framework</t>
+  </si>
+  <si>
+    <t>Two sets of laws provide the foundation for the legal and regulatory framework for disaster risk finance: budgetary laws and DRM laws. The budgetary law should explicitly authorize the finance agency to develop and implement a disaster risk financing strategy. Another important element concerns the process by which the is budget allocated, and level of discretionary funding by national agencies or local governments to accommodate the needs during the response, relief, and recovery phases. The budget law should also include a provision for a national disaster fund, including guidelines for the size of the fund, and its utilization. Of importance are the emergency procurement procedures that may need to be employed to rapidly respond to disaster needs.
+The DRM law should mandate the DRM agency to work with the finance agency to develop a disaster risk financing strategy. The role of the DRM agency in administering or overseeing disaster funds should be outlined in the DRM or budget law. The law should require the DRM agency to develop procedures for recommending or declaring a state of national emergency, as this may be used to trigger contingent credit lines or provide access to a national disaster fund.</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1076,7 +1262,7 @@
     <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,364 +1272,610 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sardjoe\OneDrive - Stichting Deltares\Documents\04. Deltares Projecten\04.160. EPIC Response Framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65A3F4D-8B9A-467B-9D5A-A26AAAEE8E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E73816E-204F-4255-AC9F-7E3480C5DA07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyagencyactionsquestions" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>Program areas</t>
   </si>
@@ -361,12 +357,6 @@
     <t>Flood Monitoring</t>
   </si>
   <si>
-    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
-The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
-For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
-For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
-  </si>
-  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
@@ -407,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,13 +1238,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
@@ -1262,7 +1252,7 @@
     <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1402,7 +1392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1430,7 +1420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1458,7 +1448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1472,7 +1462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1500,7 +1490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1514,7 +1504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1528,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1542,7 +1532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1556,7 +1546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1570,7 +1560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1584,7 +1574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1612,7 +1602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1626,7 +1616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1640,7 +1630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1654,7 +1644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1668,7 +1658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1682,7 +1672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1696,7 +1686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1710,7 +1700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -1724,7 +1714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1738,7 +1728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -1752,7 +1742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -1766,7 +1756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -1780,7 +1770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -1794,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1808,73 +1798,59 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>98</v>
       </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
       <c r="D42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1885,6 +1861,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FD03EABF3F2FB448DAE5CD2CE5D353B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98b843f414b1d31b21b2b135980a1ce8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be3c9163-79a1-42b6-a061-0833e6c3add8" xmlns:ns4="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed93da940882836d4864d93d9a5709d2" ns3:_="" ns4:_="">
     <xsd:import namespace="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
@@ -2113,29 +2104,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E212196B-B49A-43BA-8AC6-8FBD0AC5973D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E212196B-B49A-43BA-8AC6-8FBD0AC5973D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
+    <ds:schemaRef ds:uri="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/ana_nunezsanchez_deltares_nl/Documents/Documents/Floods and Droughts/EPIC Response Tool/Software/Excel Sheets/Key Agency Actions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E73816E-204F-4255-AC9F-7E3480C5DA07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C794C6BE-A05E-462A-BB6D-259F93852F73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9BEC3344-B31C-4C81-9958-1B5FDE9EF8EC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyagencyactionsquestions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="241">
+  <si>
+    <t xml:space="preserve"> Question</t>
+  </si>
+  <si>
+    <t>Local Government</t>
+  </si>
+  <si>
+    <t>Social Inclusion</t>
+  </si>
+  <si>
+    <t>Forest Management</t>
+  </si>
+  <si>
+    <t>Wetlands Management</t>
+  </si>
   <si>
     <t>Program areas</t>
   </si>
@@ -36,36 +51,135 @@
     <t>Programs</t>
   </si>
   <si>
+    <t>National Sectoral Frameworks</t>
+  </si>
+  <si>
+    <t>Whole-of-Society Approach</t>
+  </si>
+  <si>
+    <t>Public Participation &amp; Stakeholder Engagement</t>
+  </si>
+  <si>
+    <t>Education &amp; Risk Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific Collaboration </t>
+  </si>
+  <si>
+    <t>Open Data</t>
+  </si>
+  <si>
+    <t>Hydrological and Meteorological Services</t>
+  </si>
+  <si>
+    <t>National Framework for NMS/NHS Services</t>
+  </si>
+  <si>
+    <t>Flood and Drought Risk Mitigation and Contingency Planning</t>
+  </si>
+  <si>
+    <t>Integrated River Basin Planning</t>
+  </si>
+  <si>
+    <t>Coastal Zone Management Planning</t>
+  </si>
+  <si>
+    <t>Urban Water Supply Planning</t>
+  </si>
+  <si>
+    <t>Irrigation Water Supply Planning</t>
+  </si>
+  <si>
+    <t>Local Flood Risk Mitigation Planning</t>
+  </si>
+  <si>
+    <t>Healthy Watersheds</t>
+  </si>
+  <si>
+    <t>Agriculture Policies and Climate Smart Agriculture</t>
+  </si>
+  <si>
+    <t>Local Watershed Management Organizations</t>
+  </si>
+  <si>
+    <t>Watershed Planning</t>
+  </si>
+  <si>
+    <t>Water Resources Infrastructure</t>
+  </si>
+  <si>
+    <t>Water Resources Investment Policy</t>
+  </si>
+  <si>
+    <t>Dam Safety</t>
+  </si>
+  <si>
+    <t>Flood Infrastructure Safety</t>
+  </si>
+  <si>
+    <t>Water Allocation and Groundwater Management</t>
+  </si>
+  <si>
+    <t>Flexible Water Allocation</t>
+  </si>
+  <si>
+    <t>Conjunctive Groundwater Management</t>
+  </si>
+  <si>
+    <t>Floodplain Management</t>
+  </si>
+  <si>
+    <t>Floodplain Mapping</t>
+  </si>
+  <si>
+    <t>Floodplain Regulation</t>
+  </si>
+  <si>
+    <t>Local Flood Mitigation Planning</t>
+  </si>
+  <si>
+    <t>Drought Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drought Monitoring Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WRM Drought Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agriculture Drought Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Social Protection Drought Response</t>
+  </si>
+  <si>
+    <t>Flood Monitoring</t>
+  </si>
+  <si>
+    <t>Flood Emergency Preparedness, Response, and Relief</t>
+  </si>
+  <si>
+    <t>Flood Disaster Recovery</t>
+  </si>
+  <si>
+    <t>Disaster Risk Financing</t>
+  </si>
+  <si>
+    <t>Disaster Risk Financing Instruments</t>
+  </si>
+  <si>
+    <t>Disaster Risk Financing National Sector Framework</t>
+  </si>
+  <si>
     <t>Program description</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Question</t>
-  </si>
-  <si>
-    <t>National Sectoral Frameworks</t>
-  </si>
-  <si>
-    <t>Water Resource Management</t>
   </si>
   <si>
     <t xml:space="preserve">The dominant paradigm for WRM is “integrated water resources management (IWRM)”. While there is no official definition of IWRM, a commonly used definition is that it is “a process which promotes the coordinated development and management of water, land and related resources in order to maximize economic and social welfare in an equitable manner without compromising the sustainability of vital ecosystems and the environment” (GWP 2000). Recognized at the international level more than 30 years ago at the 1992 Earth Summit in Rio de Janeiro, Target 6.5 of Sustainable Development Goal 6 on Clean Water and Sanitation calls for the implementation of IWRM at all levels by 2030. 
 The basic objective of WRM is the management of water as a natural resource, the use of which is fundamental to all socioeconomic activities, but which at the same time plays a vital ecological function that needs to be protected. As such, WRM seeks to allocate water among different user sectors (such as water supply, agriculture, industry, and power generation) and water users. It promotes the development of water resources while also seeking to prevent or minimize water pollution and to ensure appropriate water quality. It sets and enforces minimum or environmental flows to enable people to meet basic needs and to protect aquatic ecosystems and the livelihoods of those who depend on those ecosystems. Many of the programs identified in the upper part of the EPIC Response Framework fall under the general, but not necessarily exclusive, domain of the WRM framework, including river basin planning, water resources infrastructure, and adaptable water allocation. It follows that an effective national framework for hydro-climatic risk management system generally requires a functional and comprehensive national framework for WRM. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Is this an example question?</t>
-  </si>
-  <si>
-    <t>Disaster Risk Management</t>
-  </si>
-  <si>
     <t>DRM is a broad topic that has seen significant evolution over recent years, encapsulated by the recent Sendai Framework for Disaster Risk Reduction 2015-2030. Among the four priorities of the Sendai Framework is Priority 2: “Strengthening disaster risk governance to manage disaster risk”. This priority notes “the vital role of disaster risk governance at the national, regional and global levels in terms of the management of disaster risk reduction and ensuring the coherence of national and local frameworks of laws, regulations and public policies that, by defining roles and responsibilities, guide, encourage and incentivize the public and private sectors to take action and address disaster risk.”   
 Floods and droughts are invariably included among the types of natural hazards that are subject to a disaster risk management (DRM) framework along with storms, earthquakes, volcanoes, and disease outbreaks, as well as anthropogenic hazards such as transportation and industrial accidents. It follows  that, as with WRM, an effective national framework for hydro-climatic risk management includes the need for an effective, functional, and comprehensive national DRM framework.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> When did you add these examples?</t>
-  </si>
-  <si>
-    <t>Drought Risk Management</t>
   </si>
   <si>
     <t>Drought risk management is a complex endeavor that requires both WRM and DRM perspectives, but also necessitates going beyond these traditional domains. International recognition of the importance of droughts was reflected in the 1994 United Nations Convention to Combat Desertification (UNCCD) which calls upon decision makers and water and land managers to take a proactive, coordinated, and holistic approach to drought risk management.   
@@ -75,30 +189,12 @@
 In summary, although WRM and DRM are intimately linked to drought management, it is generally necessary to develop a specific drought framework that incorporates the unique elements of drought monitoring, impact assessment, and risk characterization, in addition to providing the basis for drought agricultural response and recovery programs. In some poorer countries with large rural populations, WRM and DRM frameworks may not even exist or may be underdeveloped, and in such cases the burden of managing droughts may fall primarily on the agriculture agency and local governments.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Can we add more examples?</t>
-  </si>
-  <si>
-    <t>Flood Risk Management</t>
-  </si>
-  <si>
     <t>In many countries, the combination of WRM, DRM, and Hrydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
 The European Union’s Water Framework Directive  and Floods Directive , between them require member states to adopt a common approach to river basin management and flood risk assessment and management planning. As shown in figure 3.4, in Japan there are three major interlocking laws related to flood risk management, the DRM Act, the River Act (which acts as a water resources law), and a specific Flood Protection Act. In the United States, the Federal Interagency Floodplain Management Task Force helps bring together all water-related agencies and was established under the 1975 Water Resources and Development Act</t>
   </si>
   <si>
-    <t xml:space="preserve"> You will be adding more</t>
-  </si>
-  <si>
-    <t>Whole-of-Society Approach</t>
-  </si>
-  <si>
-    <t>Local Government</t>
-  </si>
-  <si>
     <t xml:space="preserve">Local governments play pivotal roles in responding to flood and drought disasters (World Bank 2019). As highlighted in Chapter 12, local governments need to work in concert with national DRM agencies to respond to floods. They serve as one of many channels to warn about floods, to help evacuate residents, to ensure public safety, to provide relief to impacted people, and to help guide recovery efforts. Chapter 11 notes how local governments can work in concert with national agencies on drought issues; they can help disseminate information as the drought unfolds, implement emergency drought measures, administer drought assistance, and support social protection programs.
 Local governments also play important roles in flood and drought risk mitigation (Gencer 2017). Chapter 10 on floodplain management highlights their central role in land use planning, building regulations, and preparing local flood mitigation plans. They also oversee urban water supply and drought contingency plans, as highlighted in Chapter 5. Local governments invest in localized water resources infrastructure to mitigate flood and drought hazards, including stormwater drainage systems, local flood control projects, and water supply and sanitation systems (typically through their water utilities). The capacity and authority of local governments to contribute to hydro-climatic risk management varies considerably among, and sometimes within, countries. A 2017 survey examined the authority, capacity, and responsibilities of 151 cities around the world with respect to disaster risk reduction. </t>
-  </si>
-  <si>
-    <t>Public Participation &amp; Stakeholder Engagement</t>
   </si>
   <si>
     <t>Agencies need to engage with the public and stakeholders to have effective programs for multiple reasons. First, the information that stakeholders bring to the program design is crucial to ensuring its success. Second, any program ultimately seeks to influence the decisions and actions of the impacted public and thus their understanding and acceptance is necessary. Third, public monitoring and participation generate incentives and pressure for the agency to continuously improve the program.
@@ -106,26 +202,14 @@
 While there are numerous advantages associated with public participation and stakeholder engagement, if not properly structured and targeted it may not be fully successful and can even be counterproductive. For example, a substandard public participation process can amplify privileged voices and underrepresent marginalized groups, resulting in so-called elite capture. To implement effective public participation and stakeholder engagement, agencies must make it a priority, generate a robust knowledge base of the circumstances and conflicting interests of the communities they serve, build capacity and train staff, develop targeted and inclusive participatory processes, and allocate the necessary time and budget.</t>
   </si>
   <si>
-    <t>Social Inclusion</t>
-  </si>
-  <si>
     <t>In every country, certain groups face barriers that prevent them from fully participating in the nation’s political, economic, and social life. These groups may, to varying degrees, be excluded from political processes, economic opportunities, and government services. Social inclusion has been defined as the process of improving the terms on which individuals and groups take part in society—improving the ability, opportunity, and dignity of disadvantaged people (World Bank 2020). Individuals or groups can be marginalized in terms of their socioeconomic status, age, gender, sexual orientation, race, ethnicity, religion, disability, or citizenship status, among other factors. Marginalized individuals and groups can be found in all countries across the development spectrum. 
 Social inclusion matters in and of itself, emanating from the principles of human rights and social justice. It also matters because social exclusion can carry substantial social, political, and economic costs. Exclusion often has a negative impact on human capital, preventing individuals from achieving their full potential at multiple levels, resulting in lowered education levels and impaired health. There is ample evidence that human capital is closely correlated with economic development (World Bank 2013). Moreover, excluding large groups of people can destabilize society, generating political unrest or civil strife.</t>
   </si>
   <si>
-    <t>Education &amp; Risk Communication</t>
-  </si>
-  <si>
     <t xml:space="preserve">Each agency should strive to help educate the general public and promote professional development. Educational programs increase public awareness and knowledge about sector issues. In doing so, they provide the public and professionals with the necessary evidence to make informed decisions and to take responsible action. Since education has strong public good characteristics, the agency should use part of its budget and professional expertise for educational programs. These can be delivered directly by the agency or in partnership with professional organizations, universities, schools, civil society, and businesses. The agency can provide grants or technical assistance to its partner organizations to further support educational activities. Risk communication is often distinguished from emergency or crisis communication. Risk communication needs to be done before a hazardous event occurs to inform the public about their potential exposure and to encourage them to engage in precautionary measures to avoid, reduce, and transfer these risks. Emergency communication is then used to inform people once the event is imminent or underway. After the emergency or crisis, risk communication comes into play again to help present what occurred on the basis of lessons learned (OECD 2016a). Communicating hydro-climatic risk, especially in the context of a changing climate, is challenging. Estimating risks embodies many complex concepts, including at its core the probabilistic assessment of different hazard levels—which is typically beyond the level of most non-experts to fully grasp and act upon. Research on risk communication has shown that risk is best understood when the communication is simple, tangible, relevant, and personal.  Risk should be communicated in a way that is not only clear and quantifiable, but also that leads people to recognize how they could be personally affected and that motivates them to act. </t>
   </si>
   <si>
-    <t xml:space="preserve">Scientific Collaboration </t>
-  </si>
-  <si>
     <t>The scientific complexity of hydro-climatic risk management is enormous. The expertise to address this complexity, for both social and natural sciences, spans a broad range of organizations, including national agencies, research institutes, international organizations, and the private sector. The traditional model of a “supplier” of scientific information—such as a research institute, and a “user” of the information—such as a national agency, is outdated. There is a growing recognition of the need to have both science-informed policy and policy-informed science to deal with climate adaptation (Daniels and others 2020). In other words, scientific organizations and national agencies need to effectively collaborate to generate effective science applied to flood and drought risk management. Collaboration between national agencies and the research community to generate science-informed policy and policy-informed science is not an easy task. A recent framework proposed by the Stockholm Environment Institute provides some general guidelines. Key elements include: (1) improving the way participants work together by designing co-exploration and co-production processes that bring together different fields across the science-society interface; (2) working together to understand or define decision-relevant needs of the agency; and (3) increasing the capacity for collaboration by building strong networks (Daniels and others 2020).</t>
-  </si>
-  <si>
-    <t>Open Data</t>
   </si>
   <si>
     <t>We are living in the “Information Age” where the access and control of information is the defining characteristic of our time. This Age fosters disruptive technologies and new ways of doing business that can both be chaotic and transforming. The national agencies involved in hydro-climatic risk management, including WRM, DRM, Hydro-met, agriculture, and natural resources management agencies, produce large amounts of information. This information can take various forms, such as on-ground and space-based monitoring data, GIS-based maps, model codes, and reports. Making this information freely available to other agencies and the public can turbocharge advances in flood and drought management through three pathways: 
@@ -134,58 +218,12 @@
 Finally, open data can help drive innovation, economic growth, and environmental sustainability. As highlighted in the section on scientific collaboration, much of the expertise for managing flood and drought risks and adapting to a changing climate exists outside of national agencies. Providing these scientific and research organizations with information will enable them to undertake more accurate studies and propose better solutions. As a corollary, publicly-funded research should also be brought into the public domain, and some private companies may also find it beneficial to publicly share information. Open data will also help the private sector to develop products that can help to reduce hydro-climatic risks. As an example, the insurance industry needs extensive information—much of it collected by government—to formulate and properly price flood or drought insurance.</t>
   </si>
   <si>
-    <t>Hydrological and Meteorological Services</t>
-  </si>
-  <si>
-    <t>National Framework for NMS/NHS Services</t>
-  </si>
-  <si>
     <t>Meteorological services are often governed by a national meteorological law. If there is a combined NMS/NHS, then the law also includes hydrological topics. In other cases, hydrological issues are typically addressed through the water resources law. In cases where there are separate meteorological and hydrological laws, it is extremely important to make sure that these two legal and regulatory regimes are seamlessly integrated.
 The basic legal and regulatory framework for hydro-met services has been described in detail in a 2013 World Bank report entitled “Weather and Climate Resilience” (Rogers and Tsirkunov 2013). Some of the key topics to be addressed include defining a clear mandate, including all relevant actors beyond the NMS/NHS, open data principles, revenue generation, research and development, and authorization to arrange for joint monitoring and forecasting of meteorological and hydrological disasters among government agencies. 
 Hydromet laws need to evolve quickly to adjust to changing technology and to meet the increasing demands from users, specifically from the WRM, DRM, and Drought Communities. Often there is an overemphasis on NMS/NHS functions with insufficient attention paid to the broader need of providing weather and hydrological services. This can result in obligations and regulations imposed on others and insufficient accountability for what the NMS/NHS should produce.</t>
   </si>
   <si>
-    <t>National Water Data Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The collection of hydrological data is often spread out across multiple national agencies that collect different types of information, for example surface water, groundwater, and water quality. Ideally, there would be a single (or potentially multiple) program to consolidate this information and make it freely and easily accessible to the public. There are various approaches for doing this, including creation of hydro-informatics centers, open water data initiatives, and the establishment of national water data systems. Ideally the NHS or natural resources management agency should be mandated to facilitate a national water data program and enter into interagency agreements and operational protocols to ensure the smooth flow of high-quality data. This would generate enormous value added for water-related planning, design of water infrastructure, and research. Every agency working on hydro-climatic risk management would benefit from combining their water-related information through a national water data program. </t>
-  </si>
-  <si>
-    <t>Drought Monitoring and Impact Assessment</t>
-  </si>
-  <si>
-    <t>This topic is explored in depth in Chapter 11, which notes that droughts generally evolve gradually over time, cover large areas, and have broad social, economic, and environmental impacts. A national drought monitoring program is usually the best approach, requiring a nexus of cooperation among NMS/NHS, WRM, agriculture, and DRM agencies. The NMS/NHS plays a critical role in monitoring drought hazards by providing analysis on “dryness” conditions (World Bank 2019). However, this hydro-met information is only part of the story, as droughts are assessed primarily by their impacts on farmers, cities, and the environment. The NMS/NHS needs to work closely with the other agencies, local governments, and other parties to better understand vulnerabilities, risks, and appropriate drought response actions. The National Drought Framework discussed in Chapter 3 should help facilitate interagency agreements and operational protocols to ensure this nexus operates smoothly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flood Forecasting and Warning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This topic is explored in depth in Chapter 12, which notes that different types of flood require different approaches. Flood forecasts and warning require a cooperation nexus among the NMS/NHS, WRM, and DRM agencies. Clear interagency agreements and operational protocols need to be developed to ensure that this nexus operates efficiently. One option is to establish a National Flood Center which can foster collaboration and flexibility to handle a variety of floods. </t>
-  </si>
-  <si>
-    <t>Agrometeorological Advisory Services</t>
-  </si>
-  <si>
-    <t>Agro-Climate Advisory Services: As highlighted in Chapter 11, farmers are particularly prone to be affected by fluctuations in weather and by extreme hydro-climatic events, particularly droughts. It is estimated that 20-80 percent of the inter-annual variability of crop yields is associated with weather phenomena, and 5-10 percent of national agricultural production losses are associated with climate variability (WMO 2019). NMS/NHS can team with agriculture agencies to help farmers better cope with climate variability and extreme events through the provision of agro-climate advisory services. Farmers receive information at different time scales to help them make informed decisions. For example, weather forecasts up to a week in advance can help them make decisions regarding planting and harvesting, fertilizer application, and irrigation requirements. Seasonal forecasts on the order of months can inform cropping decisions and livestock strategies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Climate Assessment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An NCA helps to inform the country about already observed changes, the current status of the climate, and anticipated trends for the future.  It typically provides analysis of the effects of climate change on the environment, agriculture, health, water resources, and coastal areas, and includes an analysis of flood and drought risks. An NCA can help guide adaptation actions across society by informing planning at all levels, influencing private investment decisions, and spurring actions to enhance climate resilience. The development of an NCA needs to be a collaborative effort with many national agencies, as well as other stakeholders. Although lead responsibility for the formulation of an NCA will vary by country, in every case the NMS/NHS needs to be front-and-center in the process as the leading authority on climate. 
-An NCA is a complex undertaking and less-affluent countries may need international assistance. Global experience has shown that the process of formulating an NCA and pondering the manifold impacts of climate change and its attendant risks is as important as the actual report—which in any case needs to be periodically updated. The various national agencies can build upon the knowledge gained through the NCA to develop more climate-sensitive sector strategies. </t>
-  </si>
-  <si>
-    <t>Flood and Drought Risk Mitigation and Contingency Planning</t>
-  </si>
-  <si>
-    <t>Integrated River Basin Planning</t>
-  </si>
-  <si>
     <t xml:space="preserve">River basin plans guide the development, management, allocation, and use of water and related resources within a specific geographical area. Ideally, this is an actual river basin, but in some cases the planning area may be limited due to transboundary constraints or in order to ensure a more tractable planning size. In some countries, a single river basin is simply too large to plan as a single unit, so it is necessary to divide it into sub-basins. River basin plans are typically integrated plans, addressing water quantity, water quality, surface water and groundwater, and the protection of water and aquatic ecosystems while enabling the integration of upstream and downstream interests. Basin plans should also include issues such as institutional responsibilities, implementation arrangements, budgets, and monitoring. </t>
-  </si>
-  <si>
-    <t>Coastal Zone Management Planning</t>
   </si>
   <si>
     <t xml:space="preserve">More than 600 million people, around 10 percent of the global population, live in coastal areas that are less than 10 meters above sea level (UN 2017). These areas are particularly vulnerable to flooding from storms and the associated storm surges that drive seawater onto coastal flood plains. Coastal zones can also be vulnerable to water shortages and droughts with the additional risk of saline intrusion (and therefore contaminated groundwater) as a result of groundwater over-abstraction. Climate change also directly impacts coastal communities due to rising sea levels and increasing storm frequencies and magnitudes in many areas. 
@@ -194,13 +232,7 @@
 Coastal zone management plans provide the overall framework for flood management programs operating in coastal areas and should help inform local flood management plans for jurisdictions located along the coastline. They also help in establishing priorities for investments related to coastal barrier management, including protection and restoration activities, and the prioritization of areas where “hard” coastal defenses such as sea dikes or flood walls may be necessary. </t>
   </si>
   <si>
-    <t>Urban Water Supply Planning</t>
-  </si>
-  <si>
     <t>Urban water supply and sanitation utilities (hereafter “water utilities”) typically prepare master plans to define system-wide strategies and guide capital improvement projects to cope with population growth, regulatory requirements, and infrastructure renewal needs. In order to ensure that current, medium- and long-term water needs can be met, such master plans usually also include what are described in this report as an Urban Water Supply Plan (UWSP) that helps to mitigate drought risks by identifying potential supply-side and demand-side options. Potential supply-side options may include the construction of infrastructure in the form of new reservoirs, long-distance conveyance structures, water reclamation and desalination plants, development of new groundwater wellfields, and the purchase of water from bulk suppliers. Potential demand-side options may include reducing physical losses, promoting water conservation, and adjusting water pricing. Water quality may also be factored into a water supply plan, as poor raw water quality can potentially reduce the availability of potable water.</t>
-  </si>
-  <si>
-    <t>Irrigation Water Supply Planning</t>
   </si>
   <si>
     <t>Irrigation service providers are usually the largest users of water in a river basin and are accordingly also key stakeholders in river basin management planning. The notion of the irrigation service provider encompasses a range of different actors depending on the national context and may include an irrigation department in a ministry (such as the agriculture ministry or even the WRM ministry), a separate irrigation ministry, a semi-autonomous national or regional public irrigation agency, or farmer-managed water user organizations (variously described as “irrigation districts”, “water communities”, or “water user associations”), which may have their own direct access to water sources or which may in turn be supplied in bulk by public irrigation service providers. 
@@ -210,18 +242,6 @@
 It is also important to ensure that irrigation service providers prepare a Drought Plan describing actions for drought preparedness as well as allocations of water supply during drought conditions. Unlike urban WSCPs, the IWSP Drought Plan may not need to be a stand-alone document as irrigation service providers generally have more flexibility during drought periods than urban water utilities which are required to maintain minimum service levels to protect public health.</t>
   </si>
   <si>
-    <t>Local Flood Risk Mitigation Planning</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>Healthy Watersheds</t>
-  </si>
-  <si>
-    <t>Agriculture Policies and Climate Smart Agriculture</t>
-  </si>
-  <si>
     <t>Agricultural Economic Policies:  Agricultural economic policies can have a significant impact on land use, sometimes motivating farmers to grow inappropriate crops and utilize excessive amounts of water. To ensure food security and in conjunction with the Green Revolution starting in the 1960s, many governments adopted subsidy programs to promote the production of key staple crops (such as rice, wheat, and maize), support poor farmers, and keep food prices low. This helped to both combat rural poverty and ensure food security. These subsidies took the forms of below-cost irrigation water, subsidized inputs such as fertilizers and pesticides, and crop price support programs. Although in many countries these policies did in fact increase the supply of cheap food and address food security concerns, they also contributed to land degradation and water use inefficiency (Pingali 2012).
 Adjusting these agricultural policies to ensure the availability of nutritious food for the poor while reducing the environmental impacts of agriculture is the paramount agriculture policy imperative for the 21st century. It will not be politically easy, as many vested interests have emerged around existing subsidy regimes and governments are understandably wary about tampering with policies that may affect the production of food staples. Yet a Green Revolution 2.0 (GR2.0) is needed—and is emerging—to meet the world’s food demands, ensure environmental sustainability, and meet the challenges of climate change. 
 By 2050, the global population is projected to increase by about one-third, which will require a 70 percent increase in food production. GR 2.0 needs to not only increase basic cereal productivity (for example, wheat, rice, and corn) to meet the demand for staples, but also to make more land available for higher value and more nutritious crops, such as fruits, vegetables, and legumes. In addition, it should allow for the movement of labor out of agriculture when other economic opportunities provide greater returns. GR 2.0 must also improve the tolerance of crops to stresses, both climatic and biotic (pest and disease). Improved varieties that are tolerant to drought or excess water would enhance smallholder productivity in marginal environments and provide tools to adapt to climate change (Pingali 2012).
@@ -229,37 +249,19 @@
 Climate-Smart Agriculture Programs: Agricultural water and soil conservation programs have historically been a focus area for mitigating drought hazards. As an example, the U.S. Soil Conservation Service was created in response to the great Dust Bowl in the American prairies in the 1930s. In response to climate change, the approach has been broadened to include climate-smart agriculture (CSA). CSA aims to improve agricultural and livestock productivity while delivering greater resilience to climate change and lowering greenhouse gas emissions.</t>
   </si>
   <si>
-    <t>Forest Management</t>
-  </si>
-  <si>
     <t xml:space="preserve">The natural resources agency has several different options for managing forests on public lands depending on the specific context. Although this is a vast and complex topic, table 7.2 below presents four general management approaches for illustrative purposes.  These approaches are not mutually exclusive. For example, within the same forest areas, the natural resources agency may reserve some land for conservation, ensure sustainable forestry in public and private lands, and enter into arrangements with local communities including indigenous groups. </t>
   </si>
   <si>
-    <t>Wetlands Management</t>
-  </si>
-  <si>
     <t>There are a variety of approaches to wetlands management which are summarized below in table 7.4. As with forest management, these approaches are not mutually exclusive. National wetlands management programs might be linked to global efforts, particularly the Ramsar Convention, which currently has 171 Contracting Parties. The Ramsar Convention’s mission is “the conservation and wise use of all wetlands through local and national actions and international cooperation, as a contribution towards achieving sustainable development throughout the world.” National programs might benefit from the resources and analytical work provided with the Ramsar bodies (in particular from the Scientific and Technical Review Panel). They also can contribute to global monitoring efforts such as the Global Wetland Outlook.</t>
-  </si>
-  <si>
-    <t>Local Watershed Management Organizations</t>
   </si>
   <si>
     <t xml:space="preserve">These organizations can help provide a critical link between national agencies and local communities. This linkage is important because national agencies may have substantial financial resources and technical expertise, but communities often have a better sense of local priorities and are responsible for undertaking many of the actions supported by various natural resources management and agricultural programs. 
 In practice, WaMOs can follow hydrological or political boundaries and take on a variety of different forms and geographical coverage. In some cases, they may be legally constituted organizations that operate independently of the government. In other cases, the local government may have a specialized unit that helps organize and represent the community in its interactions with national agencies. An important consideration is that a WaMO needs to be able to take a broad landscape perspective within its area of jurisdiction and to understand how that area is nested into a larger watershed perspective. Agriculture and natural resources agencies should support and nurture WaMOs for a variety of reasons. WaMOs serve as an ideal conduit for public outreach and communication programs. WaMOs can also serve as a channel for implementing programs, either through block grants to WaMOs or helping to link potential beneficiaries with specific agency programs. WaMOs can also help national agencies better address social inclusion issues by providing linkages with marginalized groups such as indigenous groups, women, and landless populations. National agency support for WaMOs can take many forms, including helping in their legal establishment, funding, and providing technical assistance and training. </t>
-  </si>
-  <si>
-    <t>Watershed Planning</t>
   </si>
   <si>
     <t>Local WaMOs working in partnership with natural resources and agriculture agencies can help address issues on a relatively small scale. It is important also to have a periodic (for example every five years) planning or assessment exercise that looks at the entire watershed and identifies key problems, objectives, and high priority activities. A watershed management plan provides an opportunity for the agriculture, natural resources, and WRM agencies to examine the effectiveness of their various programs to promote healthy watersheds and adjust where necessary. It also gives local WaMOs an opportunity to better understand how their jurisdictions are affected by and contribute to larger watershed dynamics. 
 Information from watershed monitoring is an important input for watershed management plans. This should be focused on aspects such as the ecological conditions and trends of key natural assets (such as strategic wetlands, forests, soil erosion, water quality and quantity, and floods and droughts), helping establish cause-and-effect relationships between natural assets and ecosystem services, and informing and updating the implementation and effectiveness of specialized programs. A strong and continuous watershed monitoring program can provide a structured framework for adaptive watershed management by associating indicator thresholds with management activities (Shames and others 2017). 
 Watershed planning should be done in a collaborative process with all relevant agencies, and in a participatory manner with a wide range of stakeholders including the local WaMOs. The watershed management plan should feed into the river basin plan and vice versa. This collaborative arrangement between the various agencies is a classic example of the type of joined-up government approach required to address hydro-climatic risk management.</t>
-  </si>
-  <si>
-    <t>Water Resources Infrastructure</t>
-  </si>
-  <si>
-    <t>Water Resources Investment Policy</t>
   </si>
   <si>
     <t>There is a clear need to increase funding for upgrading and constructing new water resources infrastructure, particularly to address the increasing hazards associated with climate change (HLPW 2018). WRI generates a mix of public and private benefits, yet it is generally funded by the government. Since public budgets are constrained, policies should be adopted which promote the efficient use of these funds. Investment efficiency is also important from an equity perspective because in many cases the costs (in terms of high levels of public subsidies) for WRI are borne by all taxpayers while the benefits go only to a much smaller group. Finally, national WRM agencies that depend entirely on a general budget and operate in a non-commercial manner may potentially be driven by political motivations, rent seeking, or local elite capture that distorts the decision-making process (Molle 2008).
@@ -268,15 +270,9 @@
 In many cases, the national government will help fund local flood control projects or the development of new water sources such as reservoirs or groundwater well fields. When funds are offered on a 100 percent grant basis there is a tendency for local governments to overbuild and undermaintain the WRI. Thus, adopting reasonable cost-sharing policies will encourage local governments to make better economic decisions, since the use of their scarce funds is also at stake. Attaching conditions to national funding of local WRI can also be used to incentivize local governments to adopt better and lower-cost management practices, for example by promoting the use of non-structural approaches for flood management or water conservation.</t>
   </si>
   <si>
-    <t>Dam Safety</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dams comprise critical infrastructure to meet increasing demands for water, food, energy, and flood control. The failure of a dam can potentially have catastrophic impacts in terms of downstream flooding, as well as by removing an asset that communities are reliant upon to reduce flood hazards and to supply water. The two most common causes of dam failure are “overtopping” of earth dams, and foundation problems that are sometimes triggered by earthquakes. The proximate causes of dam failures, however, are often complex and myriad, and could include factors such as inappropriate design standards, bad siting decisions, poor construction, inadequate monitoring and maintenance, poor operational decisions, and lack of emergency planning. Dam safety programs are intended to address these shortcomings by ensuring a comprehensive life cycle approach.
 Dams are typically owned and operated by a wide variety of organizations. WRM agencies may themselves operate dams for multi-purpose use such as flood control, water supply, hydropower, and recreation. Energy agencies or companies may operate dams primarily for hydropower but may also include other uses. Agriculture agencies, and individual irrigation surface providers, often rely upon dams to provide water supply for irrigation systems. Water utilities often own and operate their own reservoirs to meet their water supply needs. Many of these dams are typically either constructed from soil or concrete, with a wide variation in dam and associated reservoir size. Ensuring that all these dams are regulated under an appropriate national dam safety management program is an indispensable element of hydro-climatic risk management.
 The core principle of dam safety management is the notion of shared responsibility. The owner is responsible for ensuring the safety of a dam, for operating and maintaining it in a safe condition, and for ultimately assuming criminal and civil liability in the event of a failure. The dam safety regulator is responsible for protecting the safety of the public by establishing dam safety standards and ensuring that these are fully implemented. </t>
-  </si>
-  <si>
-    <t>Flood Infrastructure Safety</t>
   </si>
   <si>
     <t xml:space="preserve">River and coastal flood control infrastructure provide many of the same functions as dams—essentially holding water back—and faces many of the same risks. Flood control embankments can include levees that protect land that is normally dry but that may be occasionally flooded, and dikes that protect land that would naturally be underwater most of the time. Tidal gates are important for coastal flood control and can help protect against storm surges. Large pump stations that help evacuate flood waters are critical elements of many flood control systems.
@@ -285,60 +281,27 @@
 Flood infrastructure is typically composed of long linear structures that are only as strong as their weakest links. The structures can suffer from several potential deficiencies, such as old age, poor construction, and inadequate maintenance. They can also experience damage from burrowing animals and human activity, such as illegal construction on or adjacent to flood control infrastructures, illegal sand exploitation and storage of building materials, and overloaded vehicles travelling on embankments. They also are typically subject to encroachments by third-party objects that are constructed or installed over, under, or through the structures. Those encroachments can adversely affect flood control infrastructure integrity, but are not always fully recorded or documented. </t>
   </si>
   <si>
-    <t>Water Allocation and Groundwater Management</t>
-  </si>
-  <si>
-    <t>Flexible Water Allocation</t>
-  </si>
-  <si>
     <t>WRM agencies should manage water allocations to ensure that water is not overallocated and that there is enough slack in the system to help mitigate drought impacts. This includes having a formal system of adaptable water allocations whereby water can be transferred from lower value users to higher value users, for example through administrative decisions, negotiated settlements, or water markets.</t>
   </si>
   <si>
-    <t>Conjunctive Groundwater Management</t>
-  </si>
-  <si>
     <t>This program involves balancing surface water and groundwater use, including managed groundwater recharge where possible, and ensuring that groundwater is available as a strategic reserve to help meet demand during droughts. Where groundwater aquifers exist, they provide an ideal water storage option. Too often, however, aquifers are overexploited resulting in unsustainable yields thus diminishing their effectiveness as strategic sources of water during droughts.</t>
   </si>
   <si>
-    <t>Floodplain Management</t>
-  </si>
-  <si>
-    <t>Floodplain Mapping</t>
-  </si>
-  <si>
     <t>To properly manage river and coastal floodplains, the hazards should be well understood and communicated to local governments and the public. This is an enormously complex and continuous process that the DRM or WRM agency typically manages due to the technical challenges involved. It cannot be done quickly and needs to be constantly updated as flood hazards change over time due to climate change, watershed development, and new water resources infrastructure.</t>
   </si>
   <si>
-    <t>Floodplain Regulation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Floodplain regulation helps to reduce exposure and vulnerability of people and assets and has two dimensions: (1) a permitting process to authorize development and activities; and (2) standards and codes to reduce the vulnerability of buildings and facilities. Land use management is generally a local government responsibility, and local governments should have their own specific floodplain management units. Some countries have even created multi-jurisdictional floodplain authorities to manage entire river or coastal stretches. The DRM agency has an important role to play in helping local governments by defining permitting guidelines and developing uniform standards. In some cases, the DRM agency may be legally mandated to oversee the implementation of local government floodplain regulations. </t>
   </si>
   <si>
-    <t>Local Flood Mitigation Planning</t>
-  </si>
-  <si>
     <t>River basin and coastal management planning are the tools generally used to reduce overall flood hazards at the regional level with a focus on watershed health and large-scale water resources infrastructure. Local flood mitigation planning plays an important complementary role to basin planning, and may often be part of a broader multi-hazard local government mitigation plan that includes other potential threats, such as earthquakes, landslides, and fires. Local flood mitigation plans go beyond regulation to proactively manage risks by identifying priority actions, such as refining land use plans and regulations, identifying infrastructure projects, conserving and restoring natural systems, and implementing educational and awareness programs. The DRM agency has an important role in providing guidelines and technical assistance to local governments in the formulation of flood mitigation plans. In some cases, the DRM agency may be legally mandated to oversee local government flood mitigation plans.</t>
-  </si>
-  <si>
-    <t>Drought Monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drought Monitoring Program</t>
   </si>
   <si>
     <t xml:space="preserve">A comprehensive Drought Monitoring Program (DMP) encompasses two interrelated activities: (1) the monitoring and forecasting of meteorological and hydrological conditions; and (2) the assessment of actual and potential on-the-ground drought impacts and risks. The DMP should classify and report on the level of drought for specific regions of the country. The designations often range from 1 to 5, from a low level (1) of “abnormally dry” to the highest level (5) of “an exceptional drought”. The designation of a drought level is important because it should help communicate the relative severity of the drought to different parts of the country and trigger actions identified in the National Drought Plan.
 A drought monitoring program identifies climate and water supply trends and detects the emergence or probability of occurrence of droughts, usually by categorizing severity through a percentile ranking approach, and the likely impacts associated with each category. The information can be used to communicate broadly to the general public, as well as to inform specific regional, local, and sector-specific drought management plans and actions. This information can be used to trigger drought mitigation and response measures, as well as disaster declarations and eligibility for drought-related programs, such as disaster relief, insurance, and eligibility for low-interest loans. It can also be used to help inform food relief efforts, water tanker truck deliveries, and other policy and management responses. </t>
   </si>
   <si>
-    <t xml:space="preserve"> WRM Drought Response</t>
-  </si>
-  <si>
     <t xml:space="preserve">During droughts, water use needs to be coordinated at the basin level to ensure water allocations are in alignment with the overall basin drought contingency plan. As highlighted in Chapter 9, the WRM agency should ideally administer a water use permit system that has clear rules of priority during periods of water shortage or drought. Ideally, this permit system would be flexible enough to accommodate priority and equitable use of water during droughts, either through administrative decisions by the WRM agency—preferably within the context of deliberations within the Drought Committee—or through a water rights trading system. The role of conjunctive groundwater management was also highlighted in Chapter 9, underscoring the need to facilitate the storage of water in aquifers during non-drought periods and then abstracting groundwater for use during droughts. The challenge is to ensure that the sustainable yield of an aquifer is not exceeded over the long run.
 The WRM agency often, but not always, serves as the anchor agency for the Drought Committee. In regions where cities, industries, and farms rely heavily on surface water or groundwater, particularly when delivered through regional water conveyance systems, the WRM agency has a critical role to play in drought response. As a core member of the Drought Committee, it should monitor and report on the implementation of the various drought management measures, as well as the overall water balance at the river basin level. The WRM agency also has a central role to play in drought communication and public outreach during droughts, reaching out through its various channels to create a culture of water conservation and water use efficiency. The WRM agency can build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agriculture Drought Response</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture, including both crop and livestock production, is an inherently risky endeavor and subject to many types of natural hazards, such as droughts, floods, pestilence, fires, tornadoes, and hail. Agriculture is also confronted with many market risks, such as price fluctuations, logistical interruptions, and sudden export restrictions. Therefore, it is important that the agriculture agency develop a sector-wide agriculture risk management program that considers all risks in a holistic manner to help farmer and livestock producers cope with this broad range of uncertainties (World Bank 2016).
@@ -347,26 +310,20 @@
 Depending on the specific country context, there may be a mix of direct relief programs and insurance programs. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Social Protection Drought Response</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dedicated agricultural disaster support programs may function well in middle-income countries where the agriculture sector is commercialized, and where agriculturalists have the capacity to apply for assistance. In many developing countries, however, farming and livestock production is managed in a more informal and often subsistence level, and different approaches focused on social protection are required to help rural households respond and recover from droughts (and from floods, for which social protection programs are discussed in Chapter 12). Even with commercialized agriculture, agricultural disaster support programs may not be enough to meet the needs of the impacted population. For example, people employed on farms or who operate as sharecroppers may lose their jobs due to droughts. In addition to their economic impacts, droughts in rural communities may also have deep and long-lasting social impacts related to malnutrition and lack of access to water and sanitation. They can have a profound short-term impact on health as well as longer term impacts such as childhood stunting or lack of access to schooling.
 For these reasons, countries should have preconceived programs for ensuring food and water security in rural areas impacted by natural disasters. Social protection programs that help facilitate effective drought responses in rural areas include offering traditional safety nets and, in extreme conditions, humanitarian aid. </t>
   </si>
   <si>
-    <t>Flood Monitoring</t>
-  </si>
-  <si>
-    <t>Flood Emergency Preparedness, Response, and Relief</t>
+    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
+The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
+For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
+For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
   </si>
   <si>
     <t>Emergency preparedness and response for floods should take place at many levels: national, regional, local, private sector, and households. The National DRM Plan should include a specific component on disaster response that establishes a standard Emergency Management System (EMS) that allows for multi-agency and multi-jurisdictional responses to emergencies. Some key elements include (1) definition of command structure; (2) regional EOCs; (3) emergency warning dissemination system; (4) master civil defense mutual aid agreements; and (5) multi-agency coordination processes. 
 Although this system is set up to manage all types of emergencies, such as earthquakes, fires, storms, and floods, there also needs to be flood-specific emergency preparedness plans and response actions. The EMS serves to coordinate the actions of the key actors, including relevant national agencies and local governments, and emergency responders such as police, fire, and the military as necessary. The EMS should include provisions as necessary for mobilizing the national level Disaster Management Committee which often consists of Cabinet-level officials and may be chaired by the Executive. 
 For river flooding, the WRM agency should prepare a River Basin Flood Contingency Plan as discussed in Chapter 6, which looks at different flood scenarios and operational responses. The WRM agency should also have a Flood Control Center which serves as the focal point for flood monitoring, forecasting, and operations, working in close collaboration with the DRM agency. In partnership with the DRM agency, the WRM agency also has an important role to play in flood preparedness. Raising awareness about flood risk and emergency response with local governments, businesses, and the private sector is an important preparedness activity. The WRM agency can also provide flood fighting training for its staff, other agencies, and local governments. Finally, the WRM agency should periodically coordinate with the DRM agency and local governments to prepare for local flood and emergency risk management and response.
 Local governments are generally the first responders in a flood emergency, with national assets being deployed as needed—and sometimes with delay. Paralleling the process at the national level, local governments should have Multi-Hazard Mitigation Plans as discussed in Chapter 10 that include floods and should also have Local Emergency Response Plans. To the extent that either river or coastal storms and floods are an issue for the local government, there may be specific Flood Emergency Plans. The local Emergency and Flood Response Plans typically include elements such as: (1) the emergency management organization structure; (2) policies, responsibilities, and procedures to respond to floods; and (3) approaches for after-flood analyses and follow-on activities. Floodplain mapping provides critical information on the potential extent and impacts of floods which can help inform the Emergency Response Plan and flood response actions.</t>
-  </si>
-  <si>
-    <t>Flood Disaster Recovery</t>
   </si>
   <si>
     <t xml:space="preserve">The PDNA should help identify flood impacts and scope out the recovery process, including needs for: (1) housing; (2) restoring public infrastructure and public facilities; (3) restoring business and other organizational assets; and (4) restoring livelihoods. As highlighted in the previous section on flood relief, the PDNA should also identify initiatives to assist impacted people while they are waiting for recovery support. 
@@ -376,28 +333,488 @@
 For floods, the disaster recovery programs should consider the principles of floodplain management outlined in Chapter 10 and centered on the PARA concept: protect, avoid, retreat, or accommodate. If these principles are not employed, then the government is potentially creating a moral hazard: people and businesses may not take preventative steps to reduce flood risks on the expectation that future losses will be reimbursed through disaster recovery programs. </t>
   </si>
   <si>
-    <t>Disaster Risk Financing</t>
-  </si>
-  <si>
-    <t>Disaster Risk Financing Instruments</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extreme hydro-climatic events can cause significant financial and economic shocks to households, the private sector, and government budgets. Floods and droughts therefore form a contingent liability for governments since they cause unexpected expenditures and loss of fiscal revenues. Having access to adequate and timely financial resources for response and recovery reduces the impact of these shocks and helps the economy bounce back quickly. A lack of such resources causes a delay in the provision of life-saving responses and pushes back the reconstruction of critical public and private structures, facilities, and infrastructure, which brings higher long-term impacts of a disaster and a more significant effect on poverty and development.
 There are a variety of risk financing instruments, each with specific characteristics that make each type well-suited to address certain situations but less effective in others. The optimal mix of instruments depends on the overall fiscal situation of the country as well as its disaster risk profile. </t>
   </si>
   <si>
-    <t>Disaster Risk Financing National Sector Framework</t>
-  </si>
-  <si>
     <t>Two sets of laws provide the foundation for the legal and regulatory framework for disaster risk finance: budgetary laws and DRM laws. The budgetary law should explicitly authorize the finance agency to develop and implement a disaster risk financing strategy. Another important element concerns the process by which the is budget allocated, and level of discretionary funding by national agencies or local governments to accommodate the needs during the response, relief, and recovery phases. The budget law should also include a provision for a national disaster fund, including guidelines for the size of the fund, and its utilization. Of importance are the emergency procurement procedures that may need to be employed to rapidly respond to disaster needs.
 The DRM law should mandate the DRM agency to work with the finance agency to develop a disaster risk financing strategy. The role of the DRM agency in administering or overseeing disaster funds should be outlined in the DRM or budget law. The law should require the DRM agency to develop procedures for recommending or declaring a state of national emergency, as this may be used to trigger contingent credit lines or provide access to a national disaster fund.</t>
+  </si>
+  <si>
+    <t>Does the national WRM agency have key close links with other relevant agencies?</t>
+  </si>
+  <si>
+    <t>Is there funding available for the WRM agency to develop and implement WRM plans?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency seek participation of other relevant agencies, including WRM, hydro-met, agriculture, natural resources management, social welfare, and finance to devleop DRM plans?</t>
+  </si>
+  <si>
+    <t>Does the drought committe have the resources and funds to develop national strategic drought plans?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency participate in the formulation of the national FRM plan?</t>
+  </si>
+  <si>
+    <t>Do national agencies participate in e.g. providing technical assistance to local governments, with the goal to strengthen their capacities and abilities to manage hydro-climatic risks?</t>
+  </si>
+  <si>
+    <t>Do agencies engage with the public and stakeholders, at several stages of the planning processes?</t>
+  </si>
+  <si>
+    <t>NO RELEVANT QUESTIONS</t>
+  </si>
+  <si>
+    <t>Do the agencies promote and provide educational programms to the general public?</t>
+  </si>
+  <si>
+    <t>Do the agencies provide educational programmes for professional development?</t>
+  </si>
+  <si>
+    <t>Are agencies sharing information with each other?</t>
+  </si>
+  <si>
+    <t>Do the agencies maintain a scientific advisory committee?</t>
+  </si>
+  <si>
+    <t>Do agencies maintain an information unit?</t>
+  </si>
+  <si>
+    <t>Are opportunities to ensure public-private partnerships created?</t>
+  </si>
+  <si>
+    <t>Is adequate funding for public meteorological and hydrological services provided?</t>
+  </si>
+  <si>
+    <t>Is the principle of open data encouraged?</t>
+  </si>
+  <si>
+    <t>Are there collaborations with global initiatives?</t>
+  </si>
+  <si>
+    <t>Are institutional arrangements in place such that river basin agencies and committees can recieve adequate funding, training?</t>
+  </si>
+  <si>
+    <t>Are institutional arrangements in place governning the roles of river basin agencies and committees?</t>
+  </si>
+  <si>
+    <t>Are river basin agencies and committees issuing regulations regarding the basin planning processes?</t>
+  </si>
+  <si>
+    <t>Are river basin agencies and committees providing technical planning guidelines for basin planning?</t>
+  </si>
+  <si>
+    <t>Are river basin agencies and committees establishing formal roles for other national agencies?</t>
+  </si>
+  <si>
+    <t>Are river basin agencies and committees ensuring public outreach and stakeholder engagement?</t>
+  </si>
+  <si>
+    <t>Are river basin agencies and committees ensuring the inclusion of all water resource infrastructure projects in river basin plans?</t>
+  </si>
+  <si>
+    <t>Are institutional arrangements in place governning the roles of coastal planning authorities or regional coastal committees?</t>
+  </si>
+  <si>
+    <t>Are institutional arrangements in place such that coastal planning authorities or regional coastal committees can recieve adequate funding, training?</t>
+  </si>
+  <si>
+    <t>Are coastal planning authorities or regional coastal committees issuing regulations or guidance on coastal planning processes?</t>
+  </si>
+  <si>
+    <t>Are coastal planning authorities or regional coastal committees providing technical planning guidelines for coastal planning?</t>
+  </si>
+  <si>
+    <t>Are coastal planning authorities or regional coastal committees establishing formal roles for other national agencies?</t>
+  </si>
+  <si>
+    <t>Are coastal planning authorities or regional coastal committees ensuring public outreach and stakeholder engagement?</t>
+  </si>
+  <si>
+    <t>Are coastal planning authorities or regional coastal committees including all major structural flood control infrastructure in coastal zone management plan?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency of the national WSS agency developing regulations to guide the UWSP's/WSCP's process?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency of the national WSS agency providing support to the water utilities?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency of the national WSS agency ensuring that UWSP's/WDCP's are informed by a public consultation process?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency of the national WSS agency conditioning frant funding or loans to water utilities?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency of the national WSS agency ensuring that they work with local governments?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency and/or the agricultural agency developing regulations to guide the IWSP process?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency and/or the agricultural agency providing technical support to the irrigation service providers?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency and/or the agricultural agency ensuring that the content of the IWSPs is informed by public consultation?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency and/or the agricultural agency conditioning grant funding or loans to irrigation service providers?</t>
+  </si>
+  <si>
+    <t>Do agriculture agencies make environmental sustainability a core agricultural policy objective?</t>
+  </si>
+  <si>
+    <t>Do agriculture agencies create partnerships with farmers and livestock producers?</t>
+  </si>
+  <si>
+    <t>Do agriculture agencies develop CSA practice standards?</t>
+  </si>
+  <si>
+    <t>Do agriculture agencies provide incentive funding or green payments for smaller operations?</t>
+  </si>
+  <si>
+    <t>Do agriculture agencies promote farm sustainability plans?</t>
+  </si>
+  <si>
+    <t>Do agriculture agencies create likages to WRM plans?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency establish dedicated forest management unites?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency prepare a standalone national strategic forestry plan or policy?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency identify forests at risk and prioritize responses?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency designate forsests as protected areas where needed?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency adopt and implement forest management regulations?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency create linkages to WRM plans?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency establish a dedicated wetlands management unit?</t>
+  </si>
+  <si>
+    <t>Does the wetlands management unit prepare a standalone national strategic wetlands plan?</t>
+  </si>
+  <si>
+    <t>Does the wetlands management unit create linkages to WRM plans?</t>
+  </si>
+  <si>
+    <t>Does  the wetlands management unit adopt and implement regulations related to wetlands development?</t>
+  </si>
+  <si>
+    <t>Does  the wetlands management unit develop wetlands management plans for high priority wetlands?</t>
+  </si>
+  <si>
+    <t>Does  the wetlands management unit designate wetlands as protected areas?</t>
+  </si>
+  <si>
+    <t>Does  the wetlands management unit develop a wetlands inventory and prioritize management of wetlands at risk?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency foster institutional arrangements in terms of the establishment of WaMos at the appropriate leel ensuring that they receive adequate resources to effectivily fulfill their functions?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency  provide technical support to the WaMOs?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency build inventives to foster the establishment of WaMOs?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency  support people-centred healthy watershed management?</t>
+  </si>
+  <si>
+    <t>Does the WRM or natural resources agency that is mandated to support watershed management adopt regulations regarding the watershed planning process?</t>
+  </si>
+  <si>
+    <t>Does the WRM or natural resources agency that is mandated to support watershed management provide technical watershed planning guidelines?</t>
+  </si>
+  <si>
+    <t>Does the WRM or natural resources agency that is mandated to support watershed management establish formal roles for relevant national agencies?</t>
+  </si>
+  <si>
+    <t>Does the WRM or natural resources agency that is mandated to support watershed management ensure public outreach and stakeholder engagement?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency develop cost allocation and sharing policies?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency use cost-sharing policies as incentives?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency determine the applicability of dam safety regulations?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency systematically identify dam owners?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency formulate WRM project planning guidance?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency formulate engiineering design and construction standards?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations for reviwing and approving the design and construction of dams?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations for dam safety instpection and monitoring?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations for emergency management plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency deliver dam safety training?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency provide financial support for dam safety modifications?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency establish and maintain a national flood control infrastructure and database or register?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency set up an interagency committee on flood control infrastructure safety?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency establish, implement and periodically review a hazard potential classification system for existing flood control infrastructure?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations and technical guidelines for the maintenance, construction, modification and rehabilitation of flood control infrastructure?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency set out procedures for flood emergency responses?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency provide technical assistance and training to local governments and the owners of flood control infrastructure?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency promote public awareness of and involvement in flood safety progrems?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency certify compliance with the relevant elements of the national flood control infrastructure safety progrem?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency harmonize with basin plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations on water use permitting and water tenure?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency develop water use monitoring systems?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations on wate ruse and reallocation during droughts?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations for the permanent reallocation of water rights?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency define and characterize groundwater aquifers?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency support groundwater management organizations?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency develop aquifer management plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency implement the water use permitting regime for groundwater use?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency incorporate groundwater into basin planning and drought contigency plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency formulate a strategic mapping plan?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency devleop and regulary update the flood mapping technical standards?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency establish an interagency task force and technical advisory committee?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency perform post-flood hazard verification</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agencycreate communications and outreach programs?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency devleop model floodplain ordinances and guidelines?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency oversee floodplan regulation programs?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency provide technical assistance to local communities?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency support a professional association of floodplain managers?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies prepare hazard mitigation planning regulations and guidelines?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies provide technical assistance for the formulation of hazard mitigation plans?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies integrate the Flood Mitigation Plan with the River Basin or Coastal Management Plan?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies provide grant support programs for the implementation of the hazard mitigation program?</t>
+  </si>
+  <si>
+    <t>Do the drought committee and its constituent sector agencies establish the governance document and procedures for the drought monitoring subcommittee?</t>
+  </si>
+  <si>
+    <t>Do the drought committee and its constituent sector agencies develop protocols and guidance for drought monitoring and impact assessments?</t>
+  </si>
+  <si>
+    <t>Do the drought committee and its constituent sector agencies establish procedures for drought declarations?</t>
+  </si>
+  <si>
+    <t>Do the drought committee and its constituent sector agencies operate a drought information center?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency establish a partnership with the NMS/NMHS to provide agro-climatic services?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency set up an agriculture risk management program?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency develop tailored agriculture disaster support programs?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency facilitate an agriculutural insurance program?</t>
+  </si>
+  <si>
+    <t>Do the agriculture agency and the various social protection agencies facilitate the provision of social safety nets during droughts?</t>
+  </si>
+  <si>
+    <t>Do the agriculture agency and the various social protection agencies ensure the flexibility and adaptability of social protection programs?</t>
+  </si>
+  <si>
+    <t>Do the agriculture agency and the various social protection agencies target the rural chronic poor and most vulnerable households?</t>
+  </si>
+  <si>
+    <t>Do the agriculture agency and the various social protection agencies ensure sound governance and accountability mechanisms?</t>
+  </si>
+  <si>
+    <t>Do the agriculture agency and the various social protection agencies build longer term adaptive capacity?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with the Ocean Agency?</t>
+  </si>
+  <si>
+    <t>Is there a collaboration between the NMS/NHS and the WRM Agency?</t>
+  </si>
+  <si>
+    <t>Do the NMS/NHS, WRM and DRM agency consider establishing a national flood forecasting center?</t>
+  </si>
+  <si>
+    <t>Is there a collaboration between the DRM agency and the NMS/NHS and WRM agency issuing flood forecasts?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies formulate a national disaster response plan?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies oversee the Emergency Management System (EMS)?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies assist local governments in preparing emergency response plans?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies operate flood operations centres?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies perpare Rapid Impact Assessment (RIA) and PDNA protocols?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies attend to the needs of poor and margnizalised communities?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies ensure access to resources and funding for emergency response and relief?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies develop a program to provide temporary relief to households?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency administer flood disater recovery programs?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency administer a flood insurance program?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency facilitate recovery for vulnerable groups?</t>
+  </si>
+  <si>
+    <t>Do the finance agency and the DRM agency integrate disaster risk financing into the finance agency?</t>
+  </si>
+  <si>
+    <t>Do the finance agency and the DRM agency develop a disater risk financing strategy?</t>
+  </si>
+  <si>
+    <t>Do the finance agency and the DRM agency regulate the use of disaster risk financing instruments?</t>
+  </si>
+  <si>
+    <t>Do the finance agency and the DRM agency consider international collaboration?</t>
+  </si>
+  <si>
+    <t>Co-production of Services</t>
+  </si>
+  <si>
+    <t>Drought Monitoring and Impact Assessment: droughts generally evolve gradually over time, cover large areas, and have broad social, economic, and environmental impacts. A national drought monitoring program is usually the best approach, requiring a nexus of cooperation among NMS/NHS, WRM, agriculture, and DRM agencies. The NMS/NHS plays a critical role in monitoring drought hazards by providing analysis on “dryness” conditions. However, this hydro-met information is only part of the story, as droughts are assessed primarily by their impacts on farmers, cities, and the environment. The NMS/NHS needs to work closely with the other agencies, local governments, and other parties to better understand vulnerabilities, risks, and appropriate drought response actions. The National Drought Framework should help facilitate interagency agreements and operational protocols to ensure this nexus operates smoothly.</t>
+  </si>
+  <si>
+    <t>Is there a national drought monitoring program in place in which the NMS/NHS works closely with the WRM, agriculture and DRM agencies to gether both dryness conditions as well as its impact on farmers, cities and the environment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood Forecasting and Warning: Different types of flood require different approaches. Flood forecasts and warning require a cooperation nexus among the NMS/NHS, WRM, and DRM agencies. Clear interagency agreements and operational protocols need to be developed to ensure that this nexus operates efficiently. One option is to establish a National Flood Center which can foster collaboration and flexibility to handle a variety of floods. </t>
+  </si>
+  <si>
+    <t>Are clear interagency agreements and operational protocols in place to establish a flood forecasting and warning system in which the NMS/NHS collaborates with the DRM and WRM agencies on river flooding as well as coastal agencies for coastal flooding?</t>
+  </si>
+  <si>
+    <t>Agrometeorological Advisory Services: Farmers are particularly prone to be affected by fluctuations in weather and by extreme hydro-climatic events, particularly droughts. It is estimated that 20-80 percent of the inter-annual variability of crop yields is associated with weather phenomena, and 5-10 percent of national agricultural production losses are associated with climate variability. NMS/NHS can team with agriculture agencies to help farmers better cope with climate variability and extreme events through the provision of agro-climate advisory services. Farmers receive information at different time scales to help them make informed decisions. For example, weather forecasts up to a week in advance can help them make decisions regarding planting and harvesting, fertilizer application, and irrigation requirements. Seasonal forecasts on the order of months can inform cropping decisions and livestock strategies.</t>
+  </si>
+  <si>
+    <t>Are agro-climate services in place where the NMS/NHS collaborated with the agricultural agency to inform farmers of climate variability and/or extreme events?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Climate Assessment helps to inform the country about already observed changes, the current status of the climate, and anticipated trends for the future.  It typically provides analysis of the effects of climate change on the environment, agriculture, health, water resources, and coastal areas, and includes an analysis of flood and drought risks. An NCA can help guide adaptation actions across society by informing planning at all levels, influencing private investment decisions, and spurring actions to enhance climate resilience. The development of an NCA needs to be a collaborative effort with many national agencies, as well as other stakeholders. Although lead responsibility for the formulation of an NCA will vary by country, in every case the NMS/NHS needs to be front-and-center in the process as the leading authority on climate. 
+An NCA is a complex undertaking and less-affluent countries may need international assistance. Global experience has shown that the process of formulating an NCA and pondering the manifold impacts of climate change and its attendant risks is as important as the actual report—which in any case needs to be periodically updated. The various national agencies can build upon the knowledge gained through the NCA to develop more climate-sensitive sector strategies. </t>
+  </si>
+  <si>
+    <t>Are national climate assessments periodically developed where the NMS/NHS collaborates with the WRM, DRM, Agriculture, Natural Resources and other key agencies to assess clmatie change impacts and risks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Water Data Program: The collection of hydrological data is often spread out across multiple national agencies that collect different types of information, for example surface water, groundwater, and water quality. Ideally, there would be a single (or potentially multiple) program to consolidate this information and make it freely and easily accessible to the public. There are various approaches for doing this, including creation of hydro-informatics centers, open water data initiatives, and the establishment of national water data systems. Ideally the NHS or natural resources management agency should be mandated to facilitate a national water data program and enter into interagency agreements and operational protocols to ensure the smooth flow of high-quality data. This would generate enormous value added for water-related planning, design of water infrastructure, and research. Every agency working on hydro-climatic risk management would benefit from combining their water-related information through a national water data program. </t>
+  </si>
+  <si>
+    <t>Is there a national water data program in place with interagency agreements and operational protocols to ensure the flow of information in a national water data system?</t>
+  </si>
+  <si>
+    <t>National Water Resource Management Sector Framework</t>
+  </si>
+  <si>
+    <t>National Disaster Risk Management Sector Framework</t>
+  </si>
+  <si>
+    <t>Overarching National Drought Risk Management Framework</t>
+  </si>
+  <si>
+    <t>Overarching Flood Risk Management Framework</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,8 +949,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,12 +1136,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -880,9 +1297,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1238,620 +1657,2118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>73</v>
+      </c>
+      <c r="D107" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" t="s">
+        <v>74</v>
+      </c>
+      <c r="D111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" t="s">
+        <v>74</v>
+      </c>
+      <c r="D112" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" t="s">
+        <v>75</v>
+      </c>
+      <c r="D115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>76</v>
+      </c>
+      <c r="D117" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" t="s">
+        <v>78</v>
+      </c>
+      <c r="D122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" t="s">
+        <v>78</v>
+      </c>
+      <c r="D123" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C135" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C143" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C146" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C150" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D150" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1861,12 +3778,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1875,11 +3786,17 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FD03EABF3F2FB448DAE5CD2CE5D353B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98b843f414b1d31b21b2b135980a1ce8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be3c9163-79a1-42b6-a061-0833e6c3add8" xmlns:ns4="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed93da940882836d4864d93d9a5709d2" ns3:_="" ns4:_="">
-    <xsd:import namespace="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
-    <xsd:import namespace="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
+    <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <xsd:import namespace="f7620e32-1325-4c29-861c-5840d24c4310"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1888,15 +3805,15 @@
               <xsd:all>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
@@ -1907,7 +3824,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="be3c9163-79a1-42b6-a061-0833e6c3add8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="18fba281-3140-4e33-b78f-87df0c1efb23" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1920,34 +3837,34 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -1970,10 +3887,10 @@
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f7620e32-1325-4c29-861c-5840d24c4310" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1992,14 +3909,14 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2105,15 +4022,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2121,15 +4029,32 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E212196B-B49A-43BA-8AC6-8FBD0AC5973D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6A13AE-37E0-4EFF-97D8-0C2932CFB4EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
-    <ds:schemaRef ds:uri="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>

--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/ana_nunezsanchez_deltares_nl/Documents/Documents/Floods and Droughts/EPIC Response Tool/Software/Excel Sheets/Key Agency Actions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C794C6BE-A05E-462A-BB6D-259F93852F73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9BEC3344-B31C-4C81-9958-1B5FDE9EF8EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D327989-8B05-41B2-A11C-BC9D02C688F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2760" windowWidth="16800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyagencyactionsquestions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="236">
   <si>
     <t xml:space="preserve"> Question</t>
   </si>
@@ -314,12 +314,6 @@
 For these reasons, countries should have preconceived programs for ensuring food and water security in rural areas impacted by natural disasters. Social protection programs that help facilitate effective drought responses in rural areas include offering traditional safety nets and, in extreme conditions, humanitarian aid. </t>
   </si>
   <si>
-    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
-The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
-For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
-For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
-  </si>
-  <si>
     <t>Emergency preparedness and response for floods should take place at many levels: national, regional, local, private sector, and households. The National DRM Plan should include a specific component on disaster response that establishes a standard Emergency Management System (EMS) that allows for multi-agency and multi-jurisdictional responses to emergencies. Some key elements include (1) definition of command structure; (2) regional EOCs; (3) emergency warning dissemination system; (4) master civil defense mutual aid agreements; and (5) multi-agency coordination processes. 
 Although this system is set up to manage all types of emergencies, such as earthquakes, fires, storms, and floods, there also needs to be flood-specific emergency preparedness plans and response actions. The EMS serves to coordinate the actions of the key actors, including relevant national agencies and local governments, and emergency responders such as police, fire, and the military as necessary. The EMS should include provisions as necessary for mobilizing the national level Disaster Management Committee which often consists of Cabinet-level officials and may be chaired by the Executive. 
 For river flooding, the WRM agency should prepare a River Basin Flood Contingency Plan as discussed in Chapter 6, which looks at different flood scenarios and operational responses. The WRM agency should also have a Flood Control Center which serves as the focal point for flood monitoring, forecasting, and operations, working in close collaboration with the DRM agency. In partnership with the DRM agency, the WRM agency also has an important role to play in flood preparedness. Raising awareness about flood risk and emergency response with local governments, businesses, and the private sector is an important preparedness activity. The WRM agency can also provide flood fighting training for its staff, other agencies, and local governments. Finally, the WRM agency should periodically coordinate with the DRM agency and local governments to prepare for local flood and emergency risk management and response.
@@ -705,18 +699,6 @@
   </si>
   <si>
     <t>Do the agriculture agency and the various social protection agencies build longer term adaptive capacity?</t>
-  </si>
-  <si>
-    <t>Does the NMS/NHS collaborate with the Ocean Agency?</t>
-  </si>
-  <si>
-    <t>Is there a collaboration between the NMS/NHS and the WRM Agency?</t>
-  </si>
-  <si>
-    <t>Do the NMS/NHS, WRM and DRM agency consider establishing a national flood forecasting center?</t>
-  </si>
-  <si>
-    <t>Is there a collaboration between the DRM agency and the NMS/NHS and WRM agency issuing flood forecasts?</t>
   </si>
   <si>
     <t>Do the DRM and WRM agencies formulate a national disaster response plan?</t>
@@ -1657,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,13 +1672,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,13 +1686,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,13 +1700,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1732,13 +1714,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1746,13 +1728,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,7 +1748,7 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,7 +1762,7 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,7 +1776,7 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,7 +1790,7 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1822,7 +1804,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1836,7 +1818,7 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,7 +1832,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,7 +1846,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,7 +1860,7 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,7 +1874,7 @@
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,7 +1888,7 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,7 +1902,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,13 +1910,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1942,13 +1924,13 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1956,13 +1938,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1970,13 +1952,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1984,13 +1966,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2004,7 +1986,7 @@
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2018,7 +2000,7 @@
         <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2032,7 +2014,7 @@
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2046,7 +2028,7 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2060,7 +2042,7 @@
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,7 +2056,7 @@
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2088,7 +2070,7 @@
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,7 +2084,7 @@
         <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2116,7 +2098,7 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2130,7 +2112,7 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,7 +2126,7 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,7 +2140,7 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2172,7 +2154,7 @@
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,7 +2168,7 @@
         <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2214,7 +2196,7 @@
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2228,7 +2210,7 @@
         <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2242,7 +2224,7 @@
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,7 +2238,7 @@
         <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2270,7 +2252,7 @@
         <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2284,7 +2266,7 @@
         <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,7 +2280,7 @@
         <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2312,7 +2294,7 @@
         <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2326,7 +2308,7 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2340,7 +2322,7 @@
         <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2354,7 +2336,7 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2368,7 +2350,7 @@
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,7 +2364,7 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,7 +2378,7 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2410,7 +2392,7 @@
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2424,7 +2406,7 @@
         <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2438,7 +2420,7 @@
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2452,7 +2434,7 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2466,7 +2448,7 @@
         <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,7 +2462,7 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2494,7 +2476,7 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2508,7 +2490,7 @@
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,7 +2504,7 @@
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2536,7 +2518,7 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2550,7 +2532,7 @@
         <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2564,7 +2546,7 @@
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2578,7 +2560,7 @@
         <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,7 +2574,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,7 +2588,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2620,7 +2602,7 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2634,7 +2616,7 @@
         <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2648,7 +2630,7 @@
         <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2662,7 +2644,7 @@
         <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2676,7 +2658,7 @@
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2690,7 +2672,7 @@
         <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,7 +2686,7 @@
         <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2718,7 +2700,7 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2732,7 +2714,7 @@
         <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2746,7 +2728,7 @@
         <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,7 +2742,7 @@
         <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2774,7 +2756,7 @@
         <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2788,7 +2770,7 @@
         <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2802,7 +2784,7 @@
         <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,7 +2798,7 @@
         <v>69</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2830,7 +2812,7 @@
         <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2844,7 +2826,7 @@
         <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2858,7 +2840,7 @@
         <v>69</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2872,7 +2854,7 @@
         <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2886,7 +2868,7 @@
         <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2900,7 +2882,7 @@
         <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2914,7 +2896,7 @@
         <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2928,7 +2910,7 @@
         <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2942,7 +2924,7 @@
         <v>70</v>
       </c>
       <c r="D91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2956,7 +2938,7 @@
         <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2970,7 +2952,7 @@
         <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2984,7 +2966,7 @@
         <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2998,7 +2980,7 @@
         <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3012,7 +2994,7 @@
         <v>71</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3026,7 +3008,7 @@
         <v>71</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3040,7 +3022,7 @@
         <v>71</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3054,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3068,7 +3050,7 @@
         <v>72</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3082,7 +3064,7 @@
         <v>72</v>
       </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3096,7 +3078,7 @@
         <v>72</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3110,7 +3092,7 @@
         <v>72</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3124,7 +3106,7 @@
         <v>73</v>
       </c>
       <c r="D104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3138,7 +3120,7 @@
         <v>73</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3152,7 +3134,7 @@
         <v>73</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3166,7 +3148,7 @@
         <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3180,7 +3162,7 @@
         <v>73</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3194,7 +3176,7 @@
         <v>74</v>
       </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3208,7 +3190,7 @@
         <v>74</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3222,7 +3204,7 @@
         <v>74</v>
       </c>
       <c r="D111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3236,7 +3218,7 @@
         <v>74</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3250,7 +3232,7 @@
         <v>75</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3264,7 +3246,7 @@
         <v>75</v>
       </c>
       <c r="D114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3278,7 +3260,7 @@
         <v>75</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3292,7 +3274,7 @@
         <v>75</v>
       </c>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3306,7 +3288,7 @@
         <v>76</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3320,7 +3302,7 @@
         <v>76</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3334,7 +3316,7 @@
         <v>76</v>
       </c>
       <c r="D119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3348,7 +3330,7 @@
         <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3362,7 +3344,7 @@
         <v>77</v>
       </c>
       <c r="D121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3376,7 +3358,7 @@
         <v>78</v>
       </c>
       <c r="D122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3390,7 +3372,7 @@
         <v>78</v>
       </c>
       <c r="D123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3404,7 +3386,7 @@
         <v>78</v>
       </c>
       <c r="D124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3418,7 +3400,7 @@
         <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3432,7 +3414,7 @@
         <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3446,7 +3428,7 @@
         <v>79</v>
       </c>
       <c r="D127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3460,7 +3442,7 @@
         <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3474,7 +3456,7 @@
         <v>79</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3488,7 +3470,7 @@
         <v>79</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3496,13 +3478,13 @@
         <v>41</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3510,13 +3492,13 @@
         <v>41</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3524,13 +3506,13 @@
         <v>41</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3538,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3555,10 +3537,10 @@
         <v>42</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3569,10 +3551,10 @@
         <v>42</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3583,10 +3565,10 @@
         <v>42</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3597,10 +3579,10 @@
         <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3608,13 +3590,13 @@
         <v>41</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3622,13 +3604,13 @@
         <v>41</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3636,69 +3618,69 @@
         <v>41</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3706,69 +3688,13 @@
         <v>44</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3787,12 +3713,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
     <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
@@ -4021,6 +3941,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
   <ds:schemaRefs>
@@ -4030,23 +3956,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6A13AE-37E0-4EFF-97D8-0C2932CFB4EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4063,4 +3972,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\originals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D327989-8B05-41B2-A11C-BC9D02C688F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F572B-2920-4E77-94B2-9C29074E0A7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="2760" windowWidth="16800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="2580" windowWidth="16800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyagencyactionsquestions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="242">
   <si>
     <t xml:space="preserve"> Question</t>
   </si>
@@ -314,6 +314,12 @@
 For these reasons, countries should have preconceived programs for ensuring food and water security in rural areas impacted by natural disasters. Social protection programs that help facilitate effective drought responses in rural areas include offering traditional safety nets and, in extreme conditions, humanitarian aid. </t>
   </si>
   <si>
+    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
+The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
+For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
+For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
+  </si>
+  <si>
     <t>Emergency preparedness and response for floods should take place at many levels: national, regional, local, private sector, and households. The National DRM Plan should include a specific component on disaster response that establishes a standard Emergency Management System (EMS) that allows for multi-agency and multi-jurisdictional responses to emergencies. Some key elements include (1) definition of command structure; (2) regional EOCs; (3) emergency warning dissemination system; (4) master civil defense mutual aid agreements; and (5) multi-agency coordination processes. 
 Although this system is set up to manage all types of emergencies, such as earthquakes, fires, storms, and floods, there also needs to be flood-specific emergency preparedness plans and response actions. The EMS serves to coordinate the actions of the key actors, including relevant national agencies and local governments, and emergency responders such as police, fire, and the military as necessary. The EMS should include provisions as necessary for mobilizing the national level Disaster Management Committee which often consists of Cabinet-level officials and may be chaired by the Executive. 
 For river flooding, the WRM agency should prepare a River Basin Flood Contingency Plan as discussed in Chapter 6, which looks at different flood scenarios and operational responses. The WRM agency should also have a Flood Control Center which serves as the focal point for flood monitoring, forecasting, and operations, working in close collaboration with the DRM agency. In partnership with the DRM agency, the WRM agency also has an important role to play in flood preparedness. Raising awareness about flood risk and emergency response with local governments, businesses, and the private sector is an important preparedness activity. The WRM agency can also provide flood fighting training for its staff, other agencies, and local governments. Finally, the WRM agency should periodically coordinate with the DRM agency and local governments to prepare for local flood and emergency risk management and response.
@@ -701,6 +707,18 @@
     <t>Do the agriculture agency and the various social protection agencies build longer term adaptive capacity?</t>
   </si>
   <si>
+    <t>Does the NMS/NHS collaborate with the Ocean Agency?</t>
+  </si>
+  <si>
+    <t>Is there a collaboration between the NMS/NHS and the WRM Agency?</t>
+  </si>
+  <si>
+    <t>Do the NMS/NHS, WRM and DRM agency consider establishing a national flood forecasting center?</t>
+  </si>
+  <si>
+    <t>Is there a collaboration between the DRM agency and the NMS/NHS and WRM agency issuing flood forecasts?</t>
+  </si>
+  <si>
     <t>Do the DRM and WRM agencies formulate a national disaster response plan?</t>
   </si>
   <si>
@@ -790,6 +808,9 @@
   </si>
   <si>
     <t>Overarching Flood Risk Management Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood Forecasting and Warning </t>
   </si>
 </sst>
 </file>
@@ -1639,21 +1660,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:XFD134"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1667,77 +1688,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1748,10 +1769,10 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1762,10 +1783,10 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1776,10 +1797,10 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1790,10 +1811,10 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1804,10 +1825,10 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1818,10 +1839,10 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1832,10 +1853,10 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1846,10 +1867,10 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1860,10 +1881,10 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1874,10 +1895,10 @@
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1888,10 +1909,10 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1902,80 +1923,80 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1986,10 +2007,10 @@
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2000,10 +2021,10 @@
         <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2014,10 +2035,10 @@
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2028,10 +2049,10 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2042,10 +2063,10 @@
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2056,10 +2077,10 @@
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2070,10 +2091,10 @@
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2084,10 +2105,10 @@
         <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2098,10 +2119,10 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2112,10 +2133,10 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2126,10 +2147,10 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2140,10 +2161,10 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2154,10 +2175,10 @@
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2168,10 +2189,10 @@
         <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2182,10 +2203,10 @@
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2196,10 +2217,10 @@
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2210,10 +2231,10 @@
         <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2224,10 +2245,10 @@
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2238,10 +2259,10 @@
         <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2252,10 +2273,10 @@
         <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2266,10 +2287,10 @@
         <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2280,10 +2301,10 @@
         <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -2294,10 +2315,10 @@
         <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2308,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2322,10 +2343,10 @@
         <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2336,10 +2357,10 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2350,10 +2371,10 @@
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2364,10 +2385,10 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2378,10 +2399,10 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2392,10 +2413,10 @@
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2406,10 +2427,10 @@
         <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2420,10 +2441,10 @@
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2434,10 +2455,10 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2448,10 +2469,10 @@
         <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2462,10 +2483,10 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2476,10 +2497,10 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2490,10 +2511,10 @@
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2504,10 +2525,10 @@
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -2518,10 +2539,10 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -2532,10 +2553,10 @@
         <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -2546,10 +2567,10 @@
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2560,10 +2581,10 @@
         <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -2574,10 +2595,10 @@
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -2588,10 +2609,10 @@
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -2602,10 +2623,10 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -2616,10 +2637,10 @@
         <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -2630,10 +2651,10 @@
         <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -2644,10 +2665,10 @@
         <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2658,10 +2679,10 @@
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2672,10 +2693,10 @@
         <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -2686,10 +2707,10 @@
         <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -2700,10 +2721,10 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -2714,10 +2735,10 @@
         <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -2728,10 +2749,10 @@
         <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -2742,10 +2763,10 @@
         <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -2756,10 +2777,10 @@
         <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -2770,10 +2791,10 @@
         <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -2784,10 +2805,10 @@
         <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>25</v>
       </c>
@@ -2798,10 +2819,10 @@
         <v>69</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>25</v>
       </c>
@@ -2812,10 +2833,10 @@
         <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -2826,10 +2847,10 @@
         <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -2840,10 +2861,10 @@
         <v>69</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -2854,10 +2875,10 @@
         <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -2868,10 +2889,10 @@
         <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -2882,10 +2903,10 @@
         <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -2896,10 +2917,10 @@
         <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2910,10 +2931,10 @@
         <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -2924,10 +2945,10 @@
         <v>70</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -2938,10 +2959,10 @@
         <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -2952,10 +2973,10 @@
         <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -2966,10 +2987,10 @@
         <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -2980,10 +3001,10 @@
         <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -2994,10 +3015,10 @@
         <v>71</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3008,10 +3029,10 @@
         <v>71</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -3022,10 +3043,10 @@
         <v>71</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -3036,10 +3057,10 @@
         <v>72</v>
       </c>
       <c r="D99" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -3050,10 +3071,10 @@
         <v>72</v>
       </c>
       <c r="D100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -3064,10 +3085,10 @@
         <v>72</v>
       </c>
       <c r="D101" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>29</v>
       </c>
@@ -3078,10 +3099,10 @@
         <v>72</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -3092,10 +3113,10 @@
         <v>72</v>
       </c>
       <c r="D103" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -3106,10 +3127,10 @@
         <v>73</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -3120,10 +3141,10 @@
         <v>73</v>
       </c>
       <c r="D105" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -3134,10 +3155,10 @@
         <v>73</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -3148,10 +3169,10 @@
         <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -3162,10 +3183,10 @@
         <v>73</v>
       </c>
       <c r="D108" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -3176,10 +3197,10 @@
         <v>74</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -3190,10 +3211,10 @@
         <v>74</v>
       </c>
       <c r="D110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -3204,10 +3225,10 @@
         <v>74</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -3218,10 +3239,10 @@
         <v>74</v>
       </c>
       <c r="D112" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -3232,10 +3253,10 @@
         <v>75</v>
       </c>
       <c r="D113" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -3246,10 +3267,10 @@
         <v>75</v>
       </c>
       <c r="D114" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -3260,10 +3281,10 @@
         <v>75</v>
       </c>
       <c r="D115" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -3274,10 +3295,10 @@
         <v>75</v>
       </c>
       <c r="D116" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -3288,10 +3309,10 @@
         <v>76</v>
       </c>
       <c r="D117" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -3302,10 +3323,10 @@
         <v>76</v>
       </c>
       <c r="D118" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -3316,10 +3337,10 @@
         <v>76</v>
       </c>
       <c r="D119" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -3330,10 +3351,10 @@
         <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -3344,10 +3365,10 @@
         <v>77</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -3358,10 +3379,10 @@
         <v>78</v>
       </c>
       <c r="D122" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -3372,10 +3393,10 @@
         <v>78</v>
       </c>
       <c r="D123" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -3386,10 +3407,10 @@
         <v>78</v>
       </c>
       <c r="D124" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -3400,10 +3421,10 @@
         <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -3414,10 +3435,10 @@
         <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -3428,10 +3449,10 @@
         <v>79</v>
       </c>
       <c r="D127" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -3442,10 +3463,10 @@
         <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>36</v>
       </c>
@@ -3456,10 +3477,10 @@
         <v>79</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>36</v>
       </c>
@@ -3470,66 +3491,66 @@
         <v>79</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>41</v>
       </c>
@@ -3537,13 +3558,13 @@
         <v>42</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>41</v>
       </c>
@@ -3551,13 +3572,13 @@
         <v>42</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>41</v>
       </c>
@@ -3565,13 +3586,13 @@
         <v>42</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>41</v>
       </c>
@@ -3579,122 +3600,178 @@
         <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>91</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3704,6 +3781,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3712,7 +3795,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
     <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
@@ -3941,13 +4024,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3955,7 +4049,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6A13AE-37E0-4EFF-97D8-0C2932CFB4EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3972,21 +4066,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\originals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F572B-2920-4E77-94B2-9C29074E0A7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5321F-93A1-407F-9BCE-A0DC67505E74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="2580" windowWidth="16800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyagencyactionsquestions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="252">
   <si>
     <t xml:space="preserve"> Question</t>
   </si>
@@ -90,21 +90,12 @@
     <t>Irrigation Water Supply Planning</t>
   </si>
   <si>
-    <t>Local Flood Risk Mitigation Planning</t>
-  </si>
-  <si>
     <t>Healthy Watersheds</t>
   </si>
   <si>
     <t>Agriculture Policies and Climate Smart Agriculture</t>
   </si>
   <si>
-    <t>Local Watershed Management Organizations</t>
-  </si>
-  <si>
-    <t>Watershed Planning</t>
-  </si>
-  <si>
     <t>Water Resources Infrastructure</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>Local Flood Mitigation Planning</t>
   </si>
   <si>
-    <t>Drought Monitoring</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drought Monitoring Program</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t xml:space="preserve"> Social Protection Drought Response</t>
   </si>
   <si>
-    <t>Flood Monitoring</t>
-  </si>
-  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
@@ -166,31 +151,6 @@
   </si>
   <si>
     <t>Disaster Risk Financing Instruments</t>
-  </si>
-  <si>
-    <t>Disaster Risk Financing National Sector Framework</t>
-  </si>
-  <si>
-    <t>Program description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The dominant paradigm for WRM is “integrated water resources management (IWRM)”. While there is no official definition of IWRM, a commonly used definition is that it is “a process which promotes the coordinated development and management of water, land and related resources in order to maximize economic and social welfare in an equitable manner without compromising the sustainability of vital ecosystems and the environment” (GWP 2000). Recognized at the international level more than 30 years ago at the 1992 Earth Summit in Rio de Janeiro, Target 6.5 of Sustainable Development Goal 6 on Clean Water and Sanitation calls for the implementation of IWRM at all levels by 2030. 
-The basic objective of WRM is the management of water as a natural resource, the use of which is fundamental to all socioeconomic activities, but which at the same time plays a vital ecological function that needs to be protected. As such, WRM seeks to allocate water among different user sectors (such as water supply, agriculture, industry, and power generation) and water users. It promotes the development of water resources while also seeking to prevent or minimize water pollution and to ensure appropriate water quality. It sets and enforces minimum or environmental flows to enable people to meet basic needs and to protect aquatic ecosystems and the livelihoods of those who depend on those ecosystems. Many of the programs identified in the upper part of the EPIC Response Framework fall under the general, but not necessarily exclusive, domain of the WRM framework, including river basin planning, water resources infrastructure, and adaptable water allocation. It follows that an effective national framework for hydro-climatic risk management system generally requires a functional and comprehensive national framework for WRM. </t>
-  </si>
-  <si>
-    <t>DRM is a broad topic that has seen significant evolution over recent years, encapsulated by the recent Sendai Framework for Disaster Risk Reduction 2015-2030. Among the four priorities of the Sendai Framework is Priority 2: “Strengthening disaster risk governance to manage disaster risk”. This priority notes “the vital role of disaster risk governance at the national, regional and global levels in terms of the management of disaster risk reduction and ensuring the coherence of national and local frameworks of laws, regulations and public policies that, by defining roles and responsibilities, guide, encourage and incentivize the public and private sectors to take action and address disaster risk.”   
-Floods and droughts are invariably included among the types of natural hazards that are subject to a disaster risk management (DRM) framework along with storms, earthquakes, volcanoes, and disease outbreaks, as well as anthropogenic hazards such as transportation and industrial accidents. It follows  that, as with WRM, an effective national framework for hydro-climatic risk management includes the need for an effective, functional, and comprehensive national DRM framework.</t>
-  </si>
-  <si>
-    <t>Drought risk management is a complex endeavor that requires both WRM and DRM perspectives, but also necessitates going beyond these traditional domains. International recognition of the importance of droughts was reflected in the 1994 United Nations Convention to Combat Desertification (UNCCD) which calls upon decision makers and water and land managers to take a proactive, coordinated, and holistic approach to drought risk management.   
-The modern conception of WRM includes both “blue” and “green” water. Blue water is mainly water stored in rivers, reservoirs, lakes, and accessible groundwater aquifers, and is available for uses such as hydropower, water supply, and irrigation. Green water refers to the water that originates from precipitation, is stored in unsaturated soil, and is absorbed and undergoes transpiration by plants or is evaporated directly from the soil. Green water plays an irreplaceable role in global ecosystems and food production, accounting for around 80 percent of global food production and exclusively sustaining grassland and forest ecosystems (Liu and Yang 2010).  
-WRM policies, institutions, and infrastructure have, however, historically evolved to manage primarily blue water. Drought not only affects traditional blue water uses, but also has a profound impact on green water, particularly as regards agriculture and natural resources management. These domains thus must also be explicitly incorporated into drought risk management systems. Healthy land provides natural storage for fresh water. If it is degraded, it cannot perform that function. Managing land better and massively scaling up land rehabilitation are essential for building drought resilience and water security. Land restoration is the cheapest and often the most effective solution to improving water storage, mitigating impacts of drought, and addressing biodiversity loss. 
-DRM evolved primarily in response to immediate and devastating natural shocks such as earthquakes, storms, floods, and landslides. Drought, in contrast, is generally a slow-moving natural disaster in which the extent of the impact only emerges over time, sometimes years, and the understanding of future impacts are limited by the accuracy of weather and climate forecasts and socioeconomic drivers. Some of the elements of a DRM framework, such as efforts to mitigate hazards and the activation of emergency support systems, can also naturally be applied to drought risk management.
-In summary, although WRM and DRM are intimately linked to drought management, it is generally necessary to develop a specific drought framework that incorporates the unique elements of drought monitoring, impact assessment, and risk characterization, in addition to providing the basis for drought agricultural response and recovery programs. In some poorer countries with large rural populations, WRM and DRM frameworks may not even exist or may be underdeveloped, and in such cases the burden of managing droughts may fall primarily on the agriculture agency and local governments.</t>
-  </si>
-  <si>
-    <t>In many countries, the combination of WRM, DRM, and Hrydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
-The European Union’s Water Framework Directive  and Floods Directive , between them require member states to adopt a common approach to river basin management and flood risk assessment and management planning. As shown in figure 3.4, in Japan there are three major interlocking laws related to flood risk management, the DRM Act, the River Act (which acts as a water resources law), and a specific Flood Protection Act. In the United States, the Federal Interagency Floodplain Management Task Force helps bring together all water-related agencies and was established under the 1975 Water Resources and Development Act</t>
   </si>
   <si>
     <t xml:space="preserve">Local governments play pivotal roles in responding to flood and drought disasters (World Bank 2019). As highlighted in Chapter 12, local governments need to work in concert with national DRM agencies to respond to floods. They serve as one of many channels to warn about floods, to help evacuate residents, to ensure public safety, to provide relief to impacted people, and to help guide recovery efforts. Chapter 11 notes how local governments can work in concert with national agencies on drought issues; they can help disseminate information as the drought unfolds, implement emergency drought measures, administer drought assistance, and support social protection programs.
@@ -223,38 +183,6 @@
 Hydromet laws need to evolve quickly to adjust to changing technology and to meet the increasing demands from users, specifically from the WRM, DRM, and Drought Communities. Often there is an overemphasis on NMS/NHS functions with insufficient attention paid to the broader need of providing weather and hydrological services. This can result in obligations and regulations imposed on others and insufficient accountability for what the NMS/NHS should produce.</t>
   </si>
   <si>
-    <t xml:space="preserve">River basin plans guide the development, management, allocation, and use of water and related resources within a specific geographical area. Ideally, this is an actual river basin, but in some cases the planning area may be limited due to transboundary constraints or in order to ensure a more tractable planning size. In some countries, a single river basin is simply too large to plan as a single unit, so it is necessary to divide it into sub-basins. River basin plans are typically integrated plans, addressing water quantity, water quality, surface water and groundwater, and the protection of water and aquatic ecosystems while enabling the integration of upstream and downstream interests. Basin plans should also include issues such as institutional responsibilities, implementation arrangements, budgets, and monitoring. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 600 million people, around 10 percent of the global population, live in coastal areas that are less than 10 meters above sea level (UN 2017). These areas are particularly vulnerable to flooding from storms and the associated storm surges that drive seawater onto coastal flood plains. Coastal zones can also be vulnerable to water shortages and droughts with the additional risk of saline intrusion (and therefore contaminated groundwater) as a result of groundwater over-abstraction. Climate change also directly impacts coastal communities due to rising sea levels and increasing storm frequencies and magnitudes in many areas. 
-The most comprehensive paradigm for coastal zone management is Integrated Coastal Zone Management (ICZM), a multi-sectoral, stakeholder-informed coastal zone equivalent of river basin planning, which seeks to promote economic development in the coastal zone while also protecting valuable coastal ecosystems. These ecosystems are often important for tourism and fisheries, and act as coastal barriers against storm surges. Unlike river basin planning, ICZM has not been fully mainstreamed into most countries’ planning processes, probably reflecting the complexity of the exercise. 
-Particularly in countries or coastal areas with extensive deltas, coastal zone planning must of necessity be linked to river basin management planning. That is because the delta represents the terminus of a river basin, where freshwater flows mix with seawater and bring sediments, nutrients, and pollutants that have a profound impact on coastal ecosystems. ICZM is also fundamentally intertwined with marine spatial planning by virtue of common geomorphological dynamics and the ecosystems providing services (such as flood protection) and goods to coastal economies.
-Coastal zone management plans provide the overall framework for flood management programs operating in coastal areas and should help inform local flood management plans for jurisdictions located along the coastline. They also help in establishing priorities for investments related to coastal barrier management, including protection and restoration activities, and the prioritization of areas where “hard” coastal defenses such as sea dikes or flood walls may be necessary. </t>
-  </si>
-  <si>
-    <t>Urban water supply and sanitation utilities (hereafter “water utilities”) typically prepare master plans to define system-wide strategies and guide capital improvement projects to cope with population growth, regulatory requirements, and infrastructure renewal needs. In order to ensure that current, medium- and long-term water needs can be met, such master plans usually also include what are described in this report as an Urban Water Supply Plan (UWSP) that helps to mitigate drought risks by identifying potential supply-side and demand-side options. Potential supply-side options may include the construction of infrastructure in the form of new reservoirs, long-distance conveyance structures, water reclamation and desalination plants, development of new groundwater wellfields, and the purchase of water from bulk suppliers. Potential demand-side options may include reducing physical losses, promoting water conservation, and adjusting water pricing. Water quality may also be factored into a water supply plan, as poor raw water quality can potentially reduce the availability of potable water.</t>
-  </si>
-  <si>
-    <t>Irrigation service providers are usually the largest users of water in a river basin and are accordingly also key stakeholders in river basin management planning. The notion of the irrigation service provider encompasses a range of different actors depending on the national context and may include an irrigation department in a ministry (such as the agriculture ministry or even the WRM ministry), a separate irrigation ministry, a semi-autonomous national or regional public irrigation agency, or farmer-managed water user organizations (variously described as “irrigation districts”, “water communities”, or “water user associations”), which may have their own direct access to water sources or which may in turn be supplied in bulk by public irrigation service providers. 
-Because of the volumes of water involved, irrigation service providers are generally required to demonstrate more flexibility in their water allocations than are other uses such as water utilities or hydropower operators, and thus play a critical role in basin drought contingency plans. At the same time, though, reduced irrigation water availability may reduce crop production (and therefore influence food prices and food security) and adversely affect rural livelihoods. 
-In order to ensure sustainable and long-term operation, best practice suggests that irrigation service providers should periodically prepare irrigation scheme master plans that cover all aspects of their service, including asset management and capital planning. Ideally too, and depending on the socioeconomic context, an irrigation service provider should prepare an Irrigation Water Supply Plan (IWSP) that looks at long-term resource planning to ensure that adequate water is available to meet farmers’ existing and future uses, particularly considering changing cropping patterns and climate change. This involves balancing water supply and demand alternatives, while also considering water quality, to ensure long-term sustainability. 
-There are typically several critical elements in an IWSP. It should include seasonal and monthly water budgets based on quantifying all inflow and outflow components for the service area, such as: crop water use, non-beneficial evaporation, groundwater seepage, and return flows. The IWSP should present water management objectives based on the water budget as a guide to improve system efficiency or meet other objectives. This should include a program of actions to help meet these objectives, including various water conservation approaches. In many schemes there is a need to first improve flow measurement and water control within the canal network through a modernization program. 
-It is also important to ensure that irrigation service providers prepare a Drought Plan describing actions for drought preparedness as well as allocations of water supply during drought conditions. Unlike urban WSCPs, the IWSP Drought Plan may not need to be a stand-alone document as irrigation service providers generally have more flexibility during drought periods than urban water utilities which are required to maintain minimum service levels to protect public health.</t>
-  </si>
-  <si>
-    <t>Agricultural Economic Policies:  Agricultural economic policies can have a significant impact on land use, sometimes motivating farmers to grow inappropriate crops and utilize excessive amounts of water. To ensure food security and in conjunction with the Green Revolution starting in the 1960s, many governments adopted subsidy programs to promote the production of key staple crops (such as rice, wheat, and maize), support poor farmers, and keep food prices low. This helped to both combat rural poverty and ensure food security. These subsidies took the forms of below-cost irrigation water, subsidized inputs such as fertilizers and pesticides, and crop price support programs. Although in many countries these policies did in fact increase the supply of cheap food and address food security concerns, they also contributed to land degradation and water use inefficiency (Pingali 2012).
-Adjusting these agricultural policies to ensure the availability of nutritious food for the poor while reducing the environmental impacts of agriculture is the paramount agriculture policy imperative for the 21st century. It will not be politically easy, as many vested interests have emerged around existing subsidy regimes and governments are understandably wary about tampering with policies that may affect the production of food staples. Yet a Green Revolution 2.0 (GR2.0) is needed—and is emerging—to meet the world’s food demands, ensure environmental sustainability, and meet the challenges of climate change. 
-By 2050, the global population is projected to increase by about one-third, which will require a 70 percent increase in food production. GR 2.0 needs to not only increase basic cereal productivity (for example, wheat, rice, and corn) to meet the demand for staples, but also to make more land available for higher value and more nutritious crops, such as fruits, vegetables, and legumes. In addition, it should allow for the movement of labor out of agriculture when other economic opportunities provide greater returns. GR 2.0 must also improve the tolerance of crops to stresses, both climatic and biotic (pest and disease). Improved varieties that are tolerant to drought or excess water would enhance smallholder productivity in marginal environments and provide tools to adapt to climate change (Pingali 2012).
-Agriculture agencies, working in collaboration with farmers and agribusiness, need to show leadership in this transition to a GR 2.0. They can adjust agricultural policies to focus on improving productivity, gradually reducing subsidies that distort incentives for sustainable land management, and fund programs that support climate-smart agriculture. Governments can also work with the private sector and farmers to promote the use of new technologies, such as a greater focus on precision agriculture, the internet of things (IoT) and the use of big data—sometimes referred to as “agriculture 4.0” (De Clercq and others 2018). 
-Climate-Smart Agriculture Programs: Agricultural water and soil conservation programs have historically been a focus area for mitigating drought hazards. As an example, the U.S. Soil Conservation Service was created in response to the great Dust Bowl in the American prairies in the 1930s. In response to climate change, the approach has been broadened to include climate-smart agriculture (CSA). CSA aims to improve agricultural and livestock productivity while delivering greater resilience to climate change and lowering greenhouse gas emissions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The natural resources agency has several different options for managing forests on public lands depending on the specific context. Although this is a vast and complex topic, table 7.2 below presents four general management approaches for illustrative purposes.  These approaches are not mutually exclusive. For example, within the same forest areas, the natural resources agency may reserve some land for conservation, ensure sustainable forestry in public and private lands, and enter into arrangements with local communities including indigenous groups. </t>
-  </si>
-  <si>
-    <t>There are a variety of approaches to wetlands management which are summarized below in table 7.4. As with forest management, these approaches are not mutually exclusive. National wetlands management programs might be linked to global efforts, particularly the Ramsar Convention, which currently has 171 Contracting Parties. The Ramsar Convention’s mission is “the conservation and wise use of all wetlands through local and national actions and international cooperation, as a contribution towards achieving sustainable development throughout the world.” National programs might benefit from the resources and analytical work provided with the Ramsar bodies (in particular from the Scientific and Technical Review Panel). They also can contribute to global monitoring efforts such as the Global Wetland Outlook.</t>
-  </si>
-  <si>
     <t xml:space="preserve">These organizations can help provide a critical link between national agencies and local communities. This linkage is important because national agencies may have substantial financial resources and technical expertise, but communities often have a better sense of local priorities and are responsible for undertaking many of the actions supported by various natural resources management and agricultural programs. 
 In practice, WaMOs can follow hydrological or political boundaries and take on a variety of different forms and geographical coverage. In some cases, they may be legally constituted organizations that operate independently of the government. In other cases, the local government may have a specialized unit that helps organize and represent the community in its interactions with national agencies. An important consideration is that a WaMO needs to be able to take a broad landscape perspective within its area of jurisdiction and to understand how that area is nested into a larger watershed perspective. Agriculture and natural resources agencies should support and nurture WaMOs for a variety of reasons. WaMOs serve as an ideal conduit for public outreach and communication programs. WaMOs can also serve as a channel for implementing programs, either through block grants to WaMOs or helping to link potential beneficiaries with specific agency programs. WaMOs can also help national agencies better address social inclusion issues by providing linkages with marginalized groups such as indigenous groups, women, and landless populations. National agency support for WaMOs can take many forms, including helping in their legal establishment, funding, and providing technical assistance and training. </t>
   </si>
@@ -264,176 +192,6 @@
 Watershed planning should be done in a collaborative process with all relevant agencies, and in a participatory manner with a wide range of stakeholders including the local WaMOs. The watershed management plan should feed into the river basin plan and vice versa. This collaborative arrangement between the various agencies is a classic example of the type of joined-up government approach required to address hydro-climatic risk management.</t>
   </si>
   <si>
-    <t>There is a clear need to increase funding for upgrading and constructing new water resources infrastructure, particularly to address the increasing hazards associated with climate change (HLPW 2018). WRI generates a mix of public and private benefits, yet it is generally funded by the government. Since public budgets are constrained, policies should be adopted which promote the efficient use of these funds. Investment efficiency is also important from an equity perspective because in many cases the costs (in terms of high levels of public subsidies) for WRI are borne by all taxpayers while the benefits go only to a much smaller group. Finally, national WRM agencies that depend entirely on a general budget and operate in a non-commercial manner may potentially be driven by political motivations, rent seeking, or local elite capture that distorts the decision-making process (Molle 2008).
-Ideally, WRI investment decisions should be guided by sophisticated economic and environmental analysis to determine whether a proposal is justified from a broad economic perspective; this also helps to ensure a reasonable project size and cost. An economic analysis is used to determine whether a proposed project will be a worthwhile investment. It would account for all benefits and costs regardless of who is affected. An economic analysis allows for fair comparisons to be made between alternatives and demonstrates why a proposed project can be considered the best solution to meet the overall objectives. More sophisticated economic analysis can consider environmental and social costs and benefits and thus provides a useful tool, along with the technical, financial, environmental, and social assessments, to appraise a project. It is particularly important to consider the co-benefits of associated green infrastructure when analyzing a project proposal (Browder and others 2019). Ideally, economic analysis should be integrated into a broader environmental and social impact assessment (ESIA) that can be used as the government’s primary decision-making document. 
-Although WRI is typically financed by the government, there are opportunities to recover some costs by charging water users, for example by selling bulk water supply to water utilities and irrigation schemes or by generating power from multi-purpose dams. Methods for allocating costs for multi-purpose reservoirs and water conveyance systems have been developed, allowing for more equitable cost recovery policies from water users (OCDE 2017).
-In many cases, the national government will help fund local flood control projects or the development of new water sources such as reservoirs or groundwater well fields. When funds are offered on a 100 percent grant basis there is a tendency for local governments to overbuild and undermaintain the WRI. Thus, adopting reasonable cost-sharing policies will encourage local governments to make better economic decisions, since the use of their scarce funds is also at stake. Attaching conditions to national funding of local WRI can also be used to incentivize local governments to adopt better and lower-cost management practices, for example by promoting the use of non-structural approaches for flood management or water conservation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dams comprise critical infrastructure to meet increasing demands for water, food, energy, and flood control. The failure of a dam can potentially have catastrophic impacts in terms of downstream flooding, as well as by removing an asset that communities are reliant upon to reduce flood hazards and to supply water. The two most common causes of dam failure are “overtopping” of earth dams, and foundation problems that are sometimes triggered by earthquakes. The proximate causes of dam failures, however, are often complex and myriad, and could include factors such as inappropriate design standards, bad siting decisions, poor construction, inadequate monitoring and maintenance, poor operational decisions, and lack of emergency planning. Dam safety programs are intended to address these shortcomings by ensuring a comprehensive life cycle approach.
-Dams are typically owned and operated by a wide variety of organizations. WRM agencies may themselves operate dams for multi-purpose use such as flood control, water supply, hydropower, and recreation. Energy agencies or companies may operate dams primarily for hydropower but may also include other uses. Agriculture agencies, and individual irrigation surface providers, often rely upon dams to provide water supply for irrigation systems. Water utilities often own and operate their own reservoirs to meet their water supply needs. Many of these dams are typically either constructed from soil or concrete, with a wide variation in dam and associated reservoir size. Ensuring that all these dams are regulated under an appropriate national dam safety management program is an indispensable element of hydro-climatic risk management.
-The core principle of dam safety management is the notion of shared responsibility. The owner is responsible for ensuring the safety of a dam, for operating and maintaining it in a safe condition, and for ultimately assuming criminal and civil liability in the event of a failure. The dam safety regulator is responsible for protecting the safety of the public by establishing dam safety standards and ensuring that these are fully implemented. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">River and coastal flood control infrastructure provide many of the same functions as dams—essentially holding water back—and faces many of the same risks. Flood control embankments can include levees that protect land that is normally dry but that may be occasionally flooded, and dikes that protect land that would naturally be underwater most of the time. Tidal gates are important for coastal flood control and can help protect against storm surges. Large pump stations that help evacuate flood waters are critical elements of many flood control systems.
-Flood embankments are typically constructed from soil and are sometimes armored with concrete. They are prone to collapse when overtopped and they can suffer foundation failures like dams do. Flood walls are constructed from concrete, and in some cases steel, and may also fail from overtopping or foundation failures. Flood embankments may also be integrated into transport infrastructure, with roads or railway lines situated on top of the embankments. In some cases, specific sections of flood embankments may be designed to be easily breached (these are called fuse plugs). When flood levels in a river are dangerously high, the fuse plugs allow water to be channeled into areas that pose the lowest risk, such as agricultural areas with minimal numbers of structures. Although a flood control infrastructure failure is generally not as immediately catastrophic as a dam failure, it can have a significant impact over a large geographical region as river or coastal flood waters pour into low-lying areas. As an example, the devastating floods in New Orleans during Hurricane Katrina in 2005 were caused primarily by the failure of levees (ASCE 2017).
-Like dams, flood control infrastructure is often owned or operated by multiple entities. Larger infrastructure is typically constructed by the WRM agency, which may keep control of operations or maintenance or turn them over to local governments. In some cases, local governments or private industries, such as industrial estates, may construct their own flood control infrastructure. However, a basic challenge for flood safety can be identifying precisely who owns the infrastructure or sections of flood embankments and who is therefore responsible for maintaining them and ensuring their integrity. This is because many flood embankments have been built up and extended over decades or even over centuries. Consequently, few were originally designed or constructed to modern standards. In addition, records of their construction and historical performance may not exist. Moreover, they may stand for much of their lives without being loaded to design capacity, which can create a false sense of security in the level of protection they will provide.
-Flood infrastructure is typically composed of long linear structures that are only as strong as their weakest links. The structures can suffer from several potential deficiencies, such as old age, poor construction, and inadequate maintenance. They can also experience damage from burrowing animals and human activity, such as illegal construction on or adjacent to flood control infrastructures, illegal sand exploitation and storage of building materials, and overloaded vehicles travelling on embankments. They also are typically subject to encroachments by third-party objects that are constructed or installed over, under, or through the structures. Those encroachments can adversely affect flood control infrastructure integrity, but are not always fully recorded or documented. </t>
-  </si>
-  <si>
-    <t>WRM agencies should manage water allocations to ensure that water is not overallocated and that there is enough slack in the system to help mitigate drought impacts. This includes having a formal system of adaptable water allocations whereby water can be transferred from lower value users to higher value users, for example through administrative decisions, negotiated settlements, or water markets.</t>
-  </si>
-  <si>
-    <t>This program involves balancing surface water and groundwater use, including managed groundwater recharge where possible, and ensuring that groundwater is available as a strategic reserve to help meet demand during droughts. Where groundwater aquifers exist, they provide an ideal water storage option. Too often, however, aquifers are overexploited resulting in unsustainable yields thus diminishing their effectiveness as strategic sources of water during droughts.</t>
-  </si>
-  <si>
-    <t>To properly manage river and coastal floodplains, the hazards should be well understood and communicated to local governments and the public. This is an enormously complex and continuous process that the DRM or WRM agency typically manages due to the technical challenges involved. It cannot be done quickly and needs to be constantly updated as flood hazards change over time due to climate change, watershed development, and new water resources infrastructure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain regulation helps to reduce exposure and vulnerability of people and assets and has two dimensions: (1) a permitting process to authorize development and activities; and (2) standards and codes to reduce the vulnerability of buildings and facilities. Land use management is generally a local government responsibility, and local governments should have their own specific floodplain management units. Some countries have even created multi-jurisdictional floodplain authorities to manage entire river or coastal stretches. The DRM agency has an important role to play in helping local governments by defining permitting guidelines and developing uniform standards. In some cases, the DRM agency may be legally mandated to oversee the implementation of local government floodplain regulations. </t>
-  </si>
-  <si>
-    <t>River basin and coastal management planning are the tools generally used to reduce overall flood hazards at the regional level with a focus on watershed health and large-scale water resources infrastructure. Local flood mitigation planning plays an important complementary role to basin planning, and may often be part of a broader multi-hazard local government mitigation plan that includes other potential threats, such as earthquakes, landslides, and fires. Local flood mitigation plans go beyond regulation to proactively manage risks by identifying priority actions, such as refining land use plans and regulations, identifying infrastructure projects, conserving and restoring natural systems, and implementing educational and awareness programs. The DRM agency has an important role in providing guidelines and technical assistance to local governments in the formulation of flood mitigation plans. In some cases, the DRM agency may be legally mandated to oversee local government flood mitigation plans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comprehensive Drought Monitoring Program (DMP) encompasses two interrelated activities: (1) the monitoring and forecasting of meteorological and hydrological conditions; and (2) the assessment of actual and potential on-the-ground drought impacts and risks. The DMP should classify and report on the level of drought for specific regions of the country. The designations often range from 1 to 5, from a low level (1) of “abnormally dry” to the highest level (5) of “an exceptional drought”. The designation of a drought level is important because it should help communicate the relative severity of the drought to different parts of the country and trigger actions identified in the National Drought Plan.
-A drought monitoring program identifies climate and water supply trends and detects the emergence or probability of occurrence of droughts, usually by categorizing severity through a percentile ranking approach, and the likely impacts associated with each category. The information can be used to communicate broadly to the general public, as well as to inform specific regional, local, and sector-specific drought management plans and actions. This information can be used to trigger drought mitigation and response measures, as well as disaster declarations and eligibility for drought-related programs, such as disaster relief, insurance, and eligibility for low-interest loans. It can also be used to help inform food relief efforts, water tanker truck deliveries, and other policy and management responses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">During droughts, water use needs to be coordinated at the basin level to ensure water allocations are in alignment with the overall basin drought contingency plan. As highlighted in Chapter 9, the WRM agency should ideally administer a water use permit system that has clear rules of priority during periods of water shortage or drought. Ideally, this permit system would be flexible enough to accommodate priority and equitable use of water during droughts, either through administrative decisions by the WRM agency—preferably within the context of deliberations within the Drought Committee—or through a water rights trading system. The role of conjunctive groundwater management was also highlighted in Chapter 9, underscoring the need to facilitate the storage of water in aquifers during non-drought periods and then abstracting groundwater for use during droughts. The challenge is to ensure that the sustainable yield of an aquifer is not exceeded over the long run.
-The WRM agency often, but not always, serves as the anchor agency for the Drought Committee. In regions where cities, industries, and farms rely heavily on surface water or groundwater, particularly when delivered through regional water conveyance systems, the WRM agency has a critical role to play in drought response. As a core member of the Drought Committee, it should monitor and report on the implementation of the various drought management measures, as well as the overall water balance at the river basin level. The WRM agency also has a central role to play in drought communication and public outreach during droughts, reaching out through its various channels to create a culture of water conservation and water use efficiency. The WRM agency can build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture, including both crop and livestock production, is an inherently risky endeavor and subject to many types of natural hazards, such as droughts, floods, pestilence, fires, tornadoes, and hail. Agriculture is also confronted with many market risks, such as price fluctuations, logistical interruptions, and sudden export restrictions. Therefore, it is important that the agriculture agency develop a sector-wide agriculture risk management program that considers all risks in a holistic manner to help farmer and livestock producers cope with this broad range of uncertainties (World Bank 2016).
-As highlighted in Chapter 6, climate-smart agriculture programs can help mitigate potential drought impacts by promoting improved agronomic practices. When a severe drought does strike, however, agricultural disaster support programs can be powerful tools to protect the livelihoods of agriculturalists. Such programs can also help de-risk the agricultural sector and contribute to increasing agricultural output through improved access to credit and encouraging agricultural investments. 
-Agricultural disaster support is generally organized around two approaches: (1) direct government-administered relief; and (2) relief administered through agricultural insurance. Direct relief programs provide financial support, such as payments or concessional loans, to agriculturalists who suffer damages due to natural hazards. Natural hazard insurance programs, on the other hand, are typically established, regulated, and subsidized through the agriculture agency, which works through insurance companies that offer plans to agriculturalists. Specialized direct relief or insurance programs are required to deal with different types of producers, for example different programs may be required for annual crops, perennial crops such as orchards or plantations, and livestock. 
-Depending on the specific country context, there may be a mix of direct relief programs and insurance programs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dedicated agricultural disaster support programs may function well in middle-income countries where the agriculture sector is commercialized, and where agriculturalists have the capacity to apply for assistance. In many developing countries, however, farming and livestock production is managed in a more informal and often subsistence level, and different approaches focused on social protection are required to help rural households respond and recover from droughts (and from floods, for which social protection programs are discussed in Chapter 12). Even with commercialized agriculture, agricultural disaster support programs may not be enough to meet the needs of the impacted population. For example, people employed on farms or who operate as sharecroppers may lose their jobs due to droughts. In addition to their economic impacts, droughts in rural communities may also have deep and long-lasting social impacts related to malnutrition and lack of access to water and sanitation. They can have a profound short-term impact on health as well as longer term impacts such as childhood stunting or lack of access to schooling.
-For these reasons, countries should have preconceived programs for ensuring food and water security in rural areas impacted by natural disasters. Social protection programs that help facilitate effective drought responses in rural areas include offering traditional safety nets and, in extreme conditions, humanitarian aid. </t>
-  </si>
-  <si>
-    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
-The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
-For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
-For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
-  </si>
-  <si>
-    <t>Emergency preparedness and response for floods should take place at many levels: national, regional, local, private sector, and households. The National DRM Plan should include a specific component on disaster response that establishes a standard Emergency Management System (EMS) that allows for multi-agency and multi-jurisdictional responses to emergencies. Some key elements include (1) definition of command structure; (2) regional EOCs; (3) emergency warning dissemination system; (4) master civil defense mutual aid agreements; and (5) multi-agency coordination processes. 
-Although this system is set up to manage all types of emergencies, such as earthquakes, fires, storms, and floods, there also needs to be flood-specific emergency preparedness plans and response actions. The EMS serves to coordinate the actions of the key actors, including relevant national agencies and local governments, and emergency responders such as police, fire, and the military as necessary. The EMS should include provisions as necessary for mobilizing the national level Disaster Management Committee which often consists of Cabinet-level officials and may be chaired by the Executive. 
-For river flooding, the WRM agency should prepare a River Basin Flood Contingency Plan as discussed in Chapter 6, which looks at different flood scenarios and operational responses. The WRM agency should also have a Flood Control Center which serves as the focal point for flood monitoring, forecasting, and operations, working in close collaboration with the DRM agency. In partnership with the DRM agency, the WRM agency also has an important role to play in flood preparedness. Raising awareness about flood risk and emergency response with local governments, businesses, and the private sector is an important preparedness activity. The WRM agency can also provide flood fighting training for its staff, other agencies, and local governments. Finally, the WRM agency should periodically coordinate with the DRM agency and local governments to prepare for local flood and emergency risk management and response.
-Local governments are generally the first responders in a flood emergency, with national assets being deployed as needed—and sometimes with delay. Paralleling the process at the national level, local governments should have Multi-Hazard Mitigation Plans as discussed in Chapter 10 that include floods and should also have Local Emergency Response Plans. To the extent that either river or coastal storms and floods are an issue for the local government, there may be specific Flood Emergency Plans. The local Emergency and Flood Response Plans typically include elements such as: (1) the emergency management organization structure; (2) policies, responsibilities, and procedures to respond to floods; and (3) approaches for after-flood analyses and follow-on activities. Floodplain mapping provides critical information on the potential extent and impacts of floods which can help inform the Emergency Response Plan and flood response actions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The PDNA should help identify flood impacts and scope out the recovery process, including needs for: (1) housing; (2) restoring public infrastructure and public facilities; (3) restoring business and other organizational assets; and (4) restoring livelihoods. As highlighted in the previous section on flood relief, the PDNA should also identify initiatives to assist impacted people while they are waiting for recovery support. 
-Disaster recovery programs should have dedicated components to meet different needs. For households, support can be provided to repair, replace, or relocate housing. For local governments, support can be provided for emergency works, such as debris removal or flood protection measures, or more permanent works such as roads, water infrastructure, public buildings, and other public utilities. Recovery support can also be provided to businesses and other organizations such as centers of worship or community centers. Finally, recovery support can be provided for flood hazard mitigation projects such as new structural or nature-based projects. 
-Disaster recovery support can be provided in the form of grants, concessional loans, or through subsidized insurance programs. Typically, eligibility for disaster recovery support (except for insurance) is contingent upon a Disaster Declaration, often issued by the Executive. 
-It is important to note that these disaster recovery programs, usually administered or overseen by the DRM agency, can be employed to address a wide variety of potential disasters, for example storms, earthquakes, and fires, as well as floods. However, since the core principle in any disaster recovery effort is to “build back better”, it is important that the programs be tailored to help mitigate the hazard that caused the disaster. For example, if an earthquake resulted in significant destruction of buildings, the DRM agency should ensure adequate buildings regulations in terms of seismic design and require that the buildings regulations are utilized in the reconstruction process. 
-For floods, the disaster recovery programs should consider the principles of floodplain management outlined in Chapter 10 and centered on the PARA concept: protect, avoid, retreat, or accommodate. If these principles are not employed, then the government is potentially creating a moral hazard: people and businesses may not take preventative steps to reduce flood risks on the expectation that future losses will be reimbursed through disaster recovery programs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extreme hydro-climatic events can cause significant financial and economic shocks to households, the private sector, and government budgets. Floods and droughts therefore form a contingent liability for governments since they cause unexpected expenditures and loss of fiscal revenues. Having access to adequate and timely financial resources for response and recovery reduces the impact of these shocks and helps the economy bounce back quickly. A lack of such resources causes a delay in the provision of life-saving responses and pushes back the reconstruction of critical public and private structures, facilities, and infrastructure, which brings higher long-term impacts of a disaster and a more significant effect on poverty and development.
-There are a variety of risk financing instruments, each with specific characteristics that make each type well-suited to address certain situations but less effective in others. The optimal mix of instruments depends on the overall fiscal situation of the country as well as its disaster risk profile. </t>
-  </si>
-  <si>
-    <t>Two sets of laws provide the foundation for the legal and regulatory framework for disaster risk finance: budgetary laws and DRM laws. The budgetary law should explicitly authorize the finance agency to develop and implement a disaster risk financing strategy. Another important element concerns the process by which the is budget allocated, and level of discretionary funding by national agencies or local governments to accommodate the needs during the response, relief, and recovery phases. The budget law should also include a provision for a national disaster fund, including guidelines for the size of the fund, and its utilization. Of importance are the emergency procurement procedures that may need to be employed to rapidly respond to disaster needs.
-The DRM law should mandate the DRM agency to work with the finance agency to develop a disaster risk financing strategy. The role of the DRM agency in administering or overseeing disaster funds should be outlined in the DRM or budget law. The law should require the DRM agency to develop procedures for recommending or declaring a state of national emergency, as this may be used to trigger contingent credit lines or provide access to a national disaster fund.</t>
-  </si>
-  <si>
-    <t>Does the national WRM agency have key close links with other relevant agencies?</t>
-  </si>
-  <si>
-    <t>Is there funding available for the WRM agency to develop and implement WRM plans?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency seek participation of other relevant agencies, including WRM, hydro-met, agriculture, natural resources management, social welfare, and finance to devleop DRM plans?</t>
-  </si>
-  <si>
-    <t>Does the drought committe have the resources and funds to develop national strategic drought plans?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency participate in the formulation of the national FRM plan?</t>
-  </si>
-  <si>
-    <t>Do national agencies participate in e.g. providing technical assistance to local governments, with the goal to strengthen their capacities and abilities to manage hydro-climatic risks?</t>
-  </si>
-  <si>
-    <t>Do agencies engage with the public and stakeholders, at several stages of the planning processes?</t>
-  </si>
-  <si>
-    <t>NO RELEVANT QUESTIONS</t>
-  </si>
-  <si>
-    <t>Do the agencies promote and provide educational programms to the general public?</t>
-  </si>
-  <si>
-    <t>Do the agencies provide educational programmes for professional development?</t>
-  </si>
-  <si>
-    <t>Are agencies sharing information with each other?</t>
-  </si>
-  <si>
-    <t>Do the agencies maintain a scientific advisory committee?</t>
-  </si>
-  <si>
-    <t>Do agencies maintain an information unit?</t>
-  </si>
-  <si>
-    <t>Are opportunities to ensure public-private partnerships created?</t>
-  </si>
-  <si>
-    <t>Is adequate funding for public meteorological and hydrological services provided?</t>
-  </si>
-  <si>
-    <t>Is the principle of open data encouraged?</t>
-  </si>
-  <si>
-    <t>Are there collaborations with global initiatives?</t>
-  </si>
-  <si>
-    <t>Are institutional arrangements in place such that river basin agencies and committees can recieve adequate funding, training?</t>
-  </si>
-  <si>
-    <t>Are institutional arrangements in place governning the roles of river basin agencies and committees?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees issuing regulations regarding the basin planning processes?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees providing technical planning guidelines for basin planning?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees establishing formal roles for other national agencies?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees ensuring public outreach and stakeholder engagement?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees ensuring the inclusion of all water resource infrastructure projects in river basin plans?</t>
-  </si>
-  <si>
-    <t>Are institutional arrangements in place governning the roles of coastal planning authorities or regional coastal committees?</t>
-  </si>
-  <si>
-    <t>Are institutional arrangements in place such that coastal planning authorities or regional coastal committees can recieve adequate funding, training?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees issuing regulations or guidance on coastal planning processes?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees providing technical planning guidelines for coastal planning?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees establishing formal roles for other national agencies?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees ensuring public outreach and stakeholder engagement?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees including all major structural flood control infrastructure in coastal zone management plan?</t>
-  </si>
-  <si>
     <t>Is the WRM agency of the national WSS agency developing regulations to guide the UWSP's/WSCP's process?</t>
   </si>
   <si>
@@ -446,135 +204,24 @@
     <t>Is the WRM agency of the national WSS agency conditioning frant funding or loans to water utilities?</t>
   </si>
   <si>
-    <t>Is the WRM agency of the national WSS agency ensuring that they work with local governments?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency and/or the agricultural agency developing regulations to guide the IWSP process?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency and/or the agricultural agency providing technical support to the irrigation service providers?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency and/or the agricultural agency ensuring that the content of the IWSPs is informed by public consultation?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency and/or the agricultural agency conditioning grant funding or loans to irrigation service providers?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies make environmental sustainability a core agricultural policy objective?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies create partnerships with farmers and livestock producers?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies develop CSA practice standards?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies provide incentive funding or green payments for smaller operations?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies promote farm sustainability plans?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies create likages to WRM plans?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency establish dedicated forest management unites?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency prepare a standalone national strategic forestry plan or policy?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency identify forests at risk and prioritize responses?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency designate forsests as protected areas where needed?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency adopt and implement forest management regulations?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency create linkages to WRM plans?</t>
-  </si>
-  <si>
     <t>Does the natural resources management agency establish a dedicated wetlands management unit?</t>
   </si>
   <si>
-    <t>Does the wetlands management unit prepare a standalone national strategic wetlands plan?</t>
-  </si>
-  <si>
-    <t>Does the wetlands management unit create linkages to WRM plans?</t>
-  </si>
-  <si>
     <t>Does  the wetlands management unit adopt and implement regulations related to wetlands development?</t>
   </si>
   <si>
     <t>Does  the wetlands management unit develop wetlands management plans for high priority wetlands?</t>
   </si>
   <si>
-    <t>Does  the wetlands management unit designate wetlands as protected areas?</t>
-  </si>
-  <si>
     <t>Does  the wetlands management unit develop a wetlands inventory and prioritize management of wetlands at risk?</t>
   </si>
   <si>
-    <t>Does the national agriculture or natural resources agency foster institutional arrangements in terms of the establishment of WaMos at the appropriate leel ensuring that they receive adequate resources to effectivily fulfill their functions?</t>
-  </si>
-  <si>
     <t>Does the national agriculture or natural resources agency  provide technical support to the WaMOs?</t>
   </si>
   <si>
     <t>Does the national agriculture or natural resources agency build inventives to foster the establishment of WaMOs?</t>
   </si>
   <si>
-    <t>Does the national agriculture or natural resources agency  support people-centred healthy watershed management?</t>
-  </si>
-  <si>
-    <t>Does the WRM or natural resources agency that is mandated to support watershed management adopt regulations regarding the watershed planning process?</t>
-  </si>
-  <si>
-    <t>Does the WRM or natural resources agency that is mandated to support watershed management provide technical watershed planning guidelines?</t>
-  </si>
-  <si>
-    <t>Does the WRM or natural resources agency that is mandated to support watershed management establish formal roles for relevant national agencies?</t>
-  </si>
-  <si>
-    <t>Does the WRM or natural resources agency that is mandated to support watershed management ensure public outreach and stakeholder engagement?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency develop cost allocation and sharing policies?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency use cost-sharing policies as incentives?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency determine the applicability of dam safety regulations?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency systematically identify dam owners?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency formulate WRM project planning guidance?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency formulate engiineering design and construction standards?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency adopt regulations for reviwing and approving the design and construction of dams?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency adopt regulations for dam safety instpection and monitoring?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency adopt regulations for emergency management plans?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency deliver dam safety training?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency provide financial support for dam safety modifications?</t>
-  </si>
-  <si>
     <t>Does the WRM agency establish and maintain a national flood control infrastructure and database or register?</t>
   </si>
   <si>
@@ -599,9 +246,6 @@
     <t>Does the WRM agency certify compliance with the relevant elements of the national flood control infrastructure safety progrem?</t>
   </si>
   <si>
-    <t>Does the WRM agency harmonize with basin plans?</t>
-  </si>
-  <si>
     <t>Does the WRM agency adopt regulations on water use permitting and water tenure?</t>
   </si>
   <si>
@@ -629,45 +273,12 @@
     <t>Does the WRM agency incorporate groundwater into basin planning and drought contigency plans?</t>
   </si>
   <si>
-    <t>Does the WRM or DRM agency formulate a strategic mapping plan?</t>
-  </si>
-  <si>
     <t>Does the WRM or DRM agency devleop and regulary update the flood mapping technical standards?</t>
   </si>
   <si>
-    <t>Does the WRM or DRM agency establish an interagency task force and technical advisory committee?</t>
-  </si>
-  <si>
-    <t>Does the WRM or DRM agency perform post-flood hazard verification</t>
-  </si>
-  <si>
-    <t>Does the WRM or DRM agencycreate communications and outreach programs?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency devleop model floodplain ordinances and guidelines?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency oversee floodplan regulation programs?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency provide technical assistance to local communities?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency support a professional association of floodplain managers?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies prepare hazard mitigation planning regulations and guidelines?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies provide technical assistance for the formulation of hazard mitigation plans?</t>
-  </si>
-  <si>
     <t>Do the DRM and WRM agencies integrate the Flood Mitigation Plan with the River Basin or Coastal Management Plan?</t>
   </si>
   <si>
-    <t>Do the DRM and WRM agencies provide grant support programs for the implementation of the hazard mitigation program?</t>
-  </si>
-  <si>
     <t>Do the drought committee and its constituent sector agencies establish the governance document and procedures for the drought monitoring subcommittee?</t>
   </si>
   <si>
@@ -683,15 +294,6 @@
     <t>Does the agriculture agency establish a partnership with the NMS/NMHS to provide agro-climatic services?</t>
   </si>
   <si>
-    <t>Does the agriculture agency set up an agriculture risk management program?</t>
-  </si>
-  <si>
-    <t>Does the agriculture agency develop tailored agriculture disaster support programs?</t>
-  </si>
-  <si>
-    <t>Does the agriculture agency facilitate an agriculutural insurance program?</t>
-  </si>
-  <si>
     <t>Do the agriculture agency and the various social protection agencies facilitate the provision of social safety nets during droughts?</t>
   </si>
   <si>
@@ -707,12 +309,6 @@
     <t>Do the agriculture agency and the various social protection agencies build longer term adaptive capacity?</t>
   </si>
   <si>
-    <t>Does the NMS/NHS collaborate with the Ocean Agency?</t>
-  </si>
-  <si>
-    <t>Is there a collaboration between the NMS/NHS and the WRM Agency?</t>
-  </si>
-  <si>
     <t>Do the NMS/NHS, WRM and DRM agency consider establishing a national flood forecasting center?</t>
   </si>
   <si>
@@ -770,9 +366,6 @@
     <t>Drought Monitoring and Impact Assessment: droughts generally evolve gradually over time, cover large areas, and have broad social, economic, and environmental impacts. A national drought monitoring program is usually the best approach, requiring a nexus of cooperation among NMS/NHS, WRM, agriculture, and DRM agencies. The NMS/NHS plays a critical role in monitoring drought hazards by providing analysis on “dryness” conditions. However, this hydro-met information is only part of the story, as droughts are assessed primarily by their impacts on farmers, cities, and the environment. The NMS/NHS needs to work closely with the other agencies, local governments, and other parties to better understand vulnerabilities, risks, and appropriate drought response actions. The National Drought Framework should help facilitate interagency agreements and operational protocols to ensure this nexus operates smoothly.</t>
   </si>
   <si>
-    <t>Is there a national drought monitoring program in place in which the NMS/NHS works closely with the WRM, agriculture and DRM agencies to gether both dryness conditions as well as its impact on farmers, cities and the environment?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flood Forecasting and Warning: Different types of flood require different approaches. Flood forecasts and warning require a cooperation nexus among the NMS/NHS, WRM, and DRM agencies. Clear interagency agreements and operational protocols need to be developed to ensure that this nexus operates efficiently. One option is to establish a National Flood Center which can foster collaboration and flexibility to handle a variety of floods. </t>
   </si>
   <si>
@@ -780,9 +373,6 @@
   </si>
   <si>
     <t>Agrometeorological Advisory Services: Farmers are particularly prone to be affected by fluctuations in weather and by extreme hydro-climatic events, particularly droughts. It is estimated that 20-80 percent of the inter-annual variability of crop yields is associated with weather phenomena, and 5-10 percent of national agricultural production losses are associated with climate variability. NMS/NHS can team with agriculture agencies to help farmers better cope with climate variability and extreme events through the provision of agro-climate advisory services. Farmers receive information at different time scales to help them make informed decisions. For example, weather forecasts up to a week in advance can help them make decisions regarding planting and harvesting, fertilizer application, and irrigation requirements. Seasonal forecasts on the order of months can inform cropping decisions and livestock strategies.</t>
-  </si>
-  <si>
-    <t>Are agro-climate services in place where the NMS/NHS collaborated with the agricultural agency to inform farmers of climate variability and/or extreme events?</t>
   </si>
   <si>
     <t xml:space="preserve">National Climate Assessment helps to inform the country about already observed changes, the current status of the climate, and anticipated trends for the future.  It typically provides analysis of the effects of climate change on the environment, agriculture, health, water resources, and coastal areas, and includes an analysis of flood and drought risks. An NCA can help guide adaptation actions across society by informing planning at all levels, influencing private investment decisions, and spurring actions to enhance climate resilience. The development of an NCA needs to be a collaborative effort with many national agencies, as well as other stakeholders. Although lead responsibility for the formulation of an NCA will vary by country, in every case the NMS/NHS needs to be front-and-center in the process as the leading authority on climate. 
@@ -795,9 +385,6 @@
     <t xml:space="preserve">National Water Data Program: The collection of hydrological data is often spread out across multiple national agencies that collect different types of information, for example surface water, groundwater, and water quality. Ideally, there would be a single (or potentially multiple) program to consolidate this information and make it freely and easily accessible to the public. There are various approaches for doing this, including creation of hydro-informatics centers, open water data initiatives, and the establishment of national water data systems. Ideally the NHS or natural resources management agency should be mandated to facilitate a national water data program and enter into interagency agreements and operational protocols to ensure the smooth flow of high-quality data. This would generate enormous value added for water-related planning, design of water infrastructure, and research. Every agency working on hydro-climatic risk management would benefit from combining their water-related information through a national water data program. </t>
   </si>
   <si>
-    <t>Is there a national water data program in place with interagency agreements and operational protocols to ensure the flow of information in a national water data system?</t>
-  </si>
-  <si>
     <t>National Water Resource Management Sector Framework</t>
   </si>
   <si>
@@ -810,14 +397,535 @@
     <t>Overarching Flood Risk Management Framework</t>
   </si>
   <si>
+    <t xml:space="preserve"> Modern water resources laws typically require the periodic formulation of a National Strategic WRM Plan that lays out a roadmap for future activities. Such a plan can help a country chart a path towards sustainable, equitable, and long-term WRM, and result in a broad and diverse portfolio of recommended actions to address critical, systemic, and institutional challenges. The formulation of the plan is usually led by the WRM agency but should involve the active participation of all other relevant agencies, including DRM, agriculture, natural resources management, and hydromet. A broad spectrum of other stakeholders should also participate in the process including local governments, the private sector, academia, civil society, and the general public.
+The National Strategic WRM Plan provides a roadmap for policy makers and agencies to help the sector advance and is an ideal mechanism to help foster interagency collaboration and a holistic approach to WRM. It provides an opportunity to assess how the country is performing with respect to flood and drought management, and to propose adjustments to the policies, laws, agencies, programs, and funding to ensure continuous advancement. The National Strategic Plan does not identify measures or make specific investment decisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the national WRM agency prepares a periodic National Strategic WRM Plan together with relevant agencies such as DRM, Agriculture, natural resources management and hydromet as well as other stakeholders? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Agency Actions Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRM laws typically require the periodic formulation of a National Strategic DRM Plan that lays out a roadmap for managing disaster risks. Such a plan typically has four elements which follow the general DRM cycle: (1) prevention and mitigation; (2) preparedness; (3) response; and (4) recovery. The plan can help a country chart a path towards a more resilient future and result in a broad and diverse portfolio of recommended actions to address critical systemic and institutional challenges. The formulation of the plan is led by the DRM agency but should also involve the active participation of other relevant agencies, including WRM, hydro-met, agriculture, natural resources management, social welfare, and finance. A broad spectrum of other stakeholders should also participate in the process, including local governments, the private sector, academia, civil society, and the general public.
+The National Strategic DRM Plan is an ideal mechanism to help foster interagency collaboration and a holistic approach to disaster risk management. It provides an opportunity to assess how the country is performing with respect to flood and drought management, and to propose adjustments to the policies, laws, agencies, programs, and funding to ensure continuous advancement. The Plan does not mandate actions or make specific investment decisions, but rather provides a roadmap for policy makers and agencies to better manage disaster risks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The drought legal framework should require the National Drought Committee to prepare, and periodically update, a National Strategic Drought Plan. This plan is conceptually different to a WRM Plan or a DRM Plan in that it is operationally focused on a single hydro-climatic risk: drought. Both the WRM and DRM Plans should address droughts, albeit from different perspectives. The scope of a National Strategic Drought Plan depends on a country’s physical as well as institutional context, but a well-formulated Plan should do the following:  
+•	Understand drought risks. The Plan should examine vulnerabilities that result in social and economic impacts from recent droughts, characterize risks, and inventory resources at risk. It should also identify trends in hazards, vulnerabilities, and exposure, taking account of uncertainties in order to provide the overall context for the Plan.
+•	Improve interagency and inter-governmental coordination. The Plan should improve who does what and when within the drought management system, and consider opportunities for improving the policies and institutions for drought management.
+•	Prepare for and mitigate drought hazards. The Plan should identify opportunities for reducing drought hazards by improving management of water resources, agricultural systems, and natural resources. That will include management planning, programs, and projects.
+•	Refine drought monitoring and forecasting. The Plan should recommend improvements for long-term monitoring, forecasting, and data collection systems, and systems for tracking the real-time and potential impacts on cities, farms, industry, and the environment as droughts evolve and recede. The Plan also should review and refine the drought categorization or indicator system to track the onset of droughts and to help clearly communicate the severity of drought conditions.
+•	Ensure effective drought communication and education. The Plan should assess the effectiveness of public education campaigns to keep stakeholders and the general public informed of drought risk and efforts to mitigate the hazard. It should also conduct drought response workshops and planning exercises with different government agencies and local governments to prepare for droughts.
+•	Improve drought response and recovery. The Plan should ensure that national agencies and local governments are coordinated properly and sufficiently resourced to provide effective and timely relief from droughts. This includes reviewing the effectiveness of programs to respond to droughts, including water conservation, water allocation, and emergency water supply for cities and towns; agricultural support programs, including insurance, contingency financing, and disaster relief; and social safety nets when vulnerable people lose their livelihoods or in extreme cases, when they face starvation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the National Strategic Drought Plan includes the following aspects: description of drought risks and vulnerabilities; inter-agency coordination arrangements; plans, programs and projects to reduce drought hazards; drought monitoring and forecasting arrangements; and drought communication and education arrangements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your agency have a public engagement or social unit in place? </t>
+  </si>
+  <si>
+    <t>Does your agency have a comprehensive training program so your technical staff know how to interact with the public and other stakeholders?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your agency have a program in place to collaborate with local governments in the implementation of its mandate? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your agency have a team operationalizing socila inclusion within its mandate? </t>
+  </si>
+  <si>
+    <t>Does your agency have a comprehensive training program so your technical staff know how to operationalize social inclusion within its mandate?</t>
+  </si>
+  <si>
+    <t>Does your agency have specific guidelines on how to operationalize public participation and stakeholder engagement within its mandate?</t>
+  </si>
+  <si>
+    <t>Does your agency have specific guidelines on how to operationalizesocial inclusion within its mandate?</t>
+  </si>
+  <si>
+    <t>Does your agency have a recruitment program to ensure that the technical staff is representative of the communities it serves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your agency have an education support plan identifying its priorities and efforts for public and professional education (e.g. direct delivery, partnerships, or funding)? </t>
+  </si>
+  <si>
+    <t>Does your agency promote and provide educational programs related to its mandate to the communities it serves as well as the general public?</t>
+  </si>
+  <si>
+    <t>Does your agency partner with scientific organization to provide educational programmes for professional development?</t>
+  </si>
+  <si>
+    <t>Does your agency have a open data program?</t>
+  </si>
+  <si>
+    <t>Does your agency maintain an information unit promoting open data, interacting with other agencies and establishing cross-agency data platforms is appropriate?</t>
+  </si>
+  <si>
+    <t>Does your agency engages with other agencies in a cross-agency data platform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the NMS/NHS engages in public-private partnerships? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the NMS/NHS collaborate with other agencies (e.g. WRM, DRM, Ageiculture, Drought Committe) to co-produce hydro-met services?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic weather and hydrological services are the foundation for hydro-climatic risk management, but NMS/NHS also need to collaborate with other agencies to offer services on top of this foundation. Ideally, specific programs for the co-production of services should be included in the rmeteorological law as well as the relevent WRM, DRM and Agricultural laws. The way agencies collaborate needs to be further developed among the agencies and can take the form of executive decisions compalling agencies to collaborate, memoranda of understanding, and the promulgation of agency regulations defining the particular interaction between agencies </t>
+  </si>
+  <si>
+    <t>Does the WRM agency foster institutional agreements to establish river basin agencies and river basin committees and ensure that the receive adequate funding and training so they can effectively fulfill their roles?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM Agency issue regulations regarding the basin planning process incluidng period between plans, general scope and format, review and approval as well as the role of the WRM in providing technical and financial assistance? </t>
+  </si>
+  <si>
+    <t>Does the WRM Agency provide technical planning guidelines including general mehtodology, sources of data, modelling approaches, linkages with other sectors and othe planning processes?</t>
+  </si>
+  <si>
+    <t>Does the WRM Agency establish formal roles for other national agencies such as natural resources management, agriculture, DRM, and hydro-met such as formal review or co-formulation?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flood Forecasting and Warning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following activities are typically core responsibilities of WRM to ensure effective river basin planning:
+•	Fostering institutional arrangements, in terms of the establishment of river basin agencies and river basin committees and ensuring they receive adequate funding and training so that they effectively discharge their roles.
+•	Issuing regulations regarding the basin planning process, covering topics such as how often a plan needs to be prepared, the general scope and format of the plan, and the review and approval process. The role of the WRM agency in the basin planning process should clarified, in terms of technical and financial assistance.
+•	Providing technical planning guidelines for basin planning, including general methodology, sources of data, hydrological and hydraulic modelling approaches, linkages with other sectors, and other planning processes. The guidelines should include specific guidance on flood and drought mitigation and contingency planning, particularly taking climate change into account.
+•	Establishing formal roles for other national agencies such as natural resources management, agriculture, disaster risk management, and hydromet agencies. This could include formal review processes or co-formulation of the basin plan with the WRM agency in coordination with the basin agency or committee.
+•	Ensuring public outreach and stakeholder engagement by providing guidance on consultations, responding to feedback, and ensuring transparency. The process should ensure all relevant stakeholder groups are meaningfully engaged, including local governments, significant water users (such as urban water utilities, agricultural water providers, and power companies), civil society, and the general public. Special efforts should be made to accomplish social inclusion by ensuring culturally meaningful participation of marginalized groups. 
+•	Ensuring the inclusion of all water resources infrastructure projects in river basin plans by requiring that all major projects, such as multi-purpose reservoirs or flood control structures, have been incorporated into the basin plan before permits or funding for the projects are provided. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key actions for the agency responsible for coastal zone planning are similar to those for river basin planning and include the following:
+•	Fostering institutional arrangements, in terms of the establishment of coastal planning authorities or regional coastal committees and ensuring that they receive adequate funding and training so that they effectively discharge their roles.
+•	Issuing regulations or guidance on coastal planning processes, covering topics such as the appropriate coastal stretches for planning, how often a plan needs to be prepared, the general scope and format of the plan, and the review and approval process. The role of the natural resources management agency in the coastal planning process should clarified, in terms of technical and financial assistance.
+•	Providing technical planning guidelines for coastal planning, including general methodology, sources of data, coastal modelling approaches, linkages with other sectors, and other planning processes. The guidelines should include specific guidance on coastal flood mitigation actions and contingency plans, particularly taking climate change and sea level rise into account.
+•	Establishing formal roles for other national agencies, such as water resources, agriculture, disaster risk management, and hydro-met agencies. These could include formal review processes or co-formulation of the basin plan with the natural resources management agency in coordination with the coastal planning authority or committee.
+•	Ensuring public outreach and stakeholder engagement by providing guidance on consultations, responding to feedback, and ensuring transparency. The process should ensure all relevant stakeholder groups are meaningfully engaged, including local governments and groups that rely on coastal resources (such as fisher people, the tourist industry, the shipping industry, civil society, and the general public). Special efforts should be made to accomplish social inclusion by ensuring culturally meaningful participation of marginalized groups. 
+•	Requiring the inclusion of all major structural flood control infrastructure in coastal zone management plans, such as sea dikes, sluice gates, and dredging operations. These should be incorporated into the plan before permits or funding for projects are provided. </t>
+  </si>
+  <si>
+    <t>Depending on the prevailing national framework, either the WRM agency or the national WSS agency should be responsible for overseeing UWSPs/WSCPs. Key agency actions include:
+•	Developing regulations to guide the UWSPs/WSCPs process, specifying requirements such as (1) which utilities are required to prepare the plans; (2) the frequency of the plans; (3) the general scope and content of the plans; (4) the process for submitting and reviewing the plans; and (5) sanctions for not complying with the regulations.
+•	Providing technical support to the water utilities by preparing guidelines, conducting workshops, developing tools, and providing program staff to help water utilities prepare comprehensive and useful water management plans, implement water conservation programs, and understand their legal requirements. The development of technical guidance should be done in close collaboration with the national water utility association, which in some cases may take the lead in certain technical areas.
+•	Ensuring that UWSPs/WDCPs are informed by a public consultation process made available to the public, and that they are consistent with and help inform the river basin management plans. This is usually the responsibility of the WRM agency.
+•	Conditioning grant funding or loans to water utilities through the national government on satisfactory compliance with the regulations pertaining to the UWSP/WSCP.
+•	Ensuring that the WRM agency or responsible sector agency works with local governments to have a dedicated program to aid smaller utilities and rural communities at risk of drought and water shortages. Technical and financial assistance information could be provided to help these communities reduce their vulnerability to droughts, including upgrading water supply systems and preparation of contingency plans, which could identify emergency sources of water.</t>
+  </si>
+  <si>
+    <t>Key actions for either the WRM agency and/or agriculture agency include the following.
+Developing regulations to guide the IWSP process, specifying requirements such as: (1) which irrigation service providers are required to prepare the plans; (2) the frequency of the plans; (3) the general scope and content of the plan; (4) the process for submitting and review of the plans; and (5) sanctions for non-compliance with the regulations.
+Providing technical support to the irrigation service providers by preparing guidelines, conducting workshops, developing tools, and providing program staff to help irrigation service provides prepare comprehensive and useful IWSP, implement water conservation programs, and understand their legal requirements. 
+Ensuring that the content of IWSPs is informed by public consultation with the farmers and other users who rely upon the water provided by the irrigation provider. The IWSP should made available to the public and be consistent with and help inform the river basin management plans. This is usually the responsibility of the WRM agency.
+Conditioning grant funding or loans to irrigation service providers through the national government on satisfactory compliance with the regulations pertaining to the IWSP.</t>
+  </si>
+  <si>
+    <t>Agricultural activities are spread over wide areas involving large numbers of people, and thus traditional regulatory programs for land stewardship are difficult to implement. Agriculture agencies will need to develop economic policies and support programs for climate-resilient agriculture that meet the specific agricultural ecological and socioeconomic context using a variety of approaches. Some general considerations are highlighted below:
+•	Make environmental sustainability a core agricultural policy objective:  The environmental impacts of agricultural subsidy policies should be explicitly considered with an aim of gradually reducing subsidies that have negative environmental impacts. Input subsidies for water, fertilizer, and pesticides that provide incentives for overuse could be gradually scaled back. Output subsidies like price supports that encourage farmers to produce resource-intensive crops (such as sugar cane or rice) that may not be suitable for the specific agro-ecological zone could be adjusted. Conversely, agricultural policies could be utilized to promote the production of more environmentally sustainable and potentially more profitable and nutritious products such as fruits, vegetables, and pulses—potentially offering incentives for organic and sustainably produced food.
+•	Create partnerships with farmers and livestock producers: Agriculturalists need to be convinced that CSA activities not only contribute to healthy watersheds, but they must feel confident that these practices will benefit them economically, including becoming more resilient to hydro-climatic extremes. This requires extensive consultation with farmers and livestock producers to share knowledge on CSA programs but also adapt these approaches to meet the specific local needs.
+•	Develop CSA practice standards: As indicated above, there are many potential CSA practices, and the agriculture agency needs to develop clear standards of practice that are suitable for the local context and that can be used to help eligibility for grant funding. 
+•	Provide incentive funding or green payments for smaller operations: Many smallholder operations may not be able to implement CSA activities due to financial constraints, even when those activities are in their broader economic interests. The agriculture agency can develop specialized programs to provide technical and financial assistance to these agriculturists, making payments for activities that meet the practice standards.
+•	Promote farm sustainability plans: Larger and more sophisticated operations should be encouraged to develop farm sustainability plans that draw upon the practice standards. The agriculture agency can provide technical assistance or even grant funding for the formulation of these plans. In some cases, it may be a regulatory requirement to prepare and implement these plans with periodic monitoring by the agency. In some cases, larger farms could also be eligible to receive green payments for modified agricultural practices.
+•	Create linkages to WRM plans: Agricultural land use and practices should be addressed as appropriate in the National Strategic WRM Plans, as well as in river basin plans, to ensure recognition of the role of these practices in flood and drought risk management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some general considerations for the natural resources agency managing forests include:
+•	Establish dedicated forest management units: The agency should set up and maintain dedicated forest management units to oversee specific forest-related programs (such as in upper watersheds or in coastal forests). 
+•	Prepare a standalone national strategic forestry plan or policy: Standalone national strategic forestry plans or policies should be prepared and incorporated into the broader periodic national strategic natural resources management plan. 
+•	Identify forests at risk and prioritize responses: The relative importance of forests in ecological, social, and hydrological terms (including as regards flood mitigation) should be identified and the protection measures should then be prioritized and implemented accordingly. Such measures could include programs for reforestation.
+•	Designate forests as protected areas, where needed: Forests with the greatest need for protection should be designated as protected areas under the natural resources management or protected areas law, particularly those areas that serve as critical watersheds for urban water supplies.
+•	Adopt and implement forest management regulations: Standards of practice for sustainable forestry, including timber harvesting, should be developed. Significant timber harvests on private or public lands should permitted and regulated to ensure sustainability of forest ecosystems. Special approaches may be required for forests that are owned collectively by local communities.
+•	Create linkages to WRM plans: Forest management issues should also be addressed, as appropriate, in the National Strategic WRM Plans as well as in river basin plans to ensure recognition of forests’ role in flood and drought risk management. </t>
+  </si>
+  <si>
+    <t>•	Establish a dedicated wetlands management unit: The natural resources management agency should set up and maintain a dedicated wetland management unit to oversee wetland-related programs in the country. 
+•	Prepare a standalone national strategic wetlands plan: Standalone national strategic wetlands plans should be prepared and incorporated into the broader periodic national strategic natural resources management plan. 
+•	Develop a wetlands inventory and prioritize management of wetlands at risk: A wetlands inventory is instrumental in identifying and cataloguing wetlands as well as in establishing key indicators to monitor trends on the health and services provided by wetlands. The inventory can highlight the relative importance of wetlands in ecological, social, and hydrological terms (including as regards flood mitigation), and help identify the wetlands at risk requiring specific measures.
+•	Designate wetlands as protected areas: Wetlands with the greatest need of protection, including those relevant to the Ramsar Convention, should be designated as protected areas under the natural resource management or protected areas law. 
+•	Develop wetlands management plans for high priority wetlands: Multi-purpose wetlands management plans should be developed for areas where communities rely economically upon wetlands, for example fisheries, agriculture, tourism, or other activities. These plans need into account for the economic needs of the community while ensuring wetlands ecosystem integrity.
+•	Adopt and implement regulations relating to wetlands development: The agency should develop criteria and standards of practice for assessing proposed developments in wetlands, including reclamation (by filling in the wetland). Significant development activities should be subject to an environmental impact assessment and a permitting scheme.
+•	Create linkages to WRM plans. Wetlands management issues should also be addressed, as appropriate, in the National Strategic WRM Plans as well as in river basin plans to ensure recognition of wetlands’ role in flood and drought risk management.</t>
+  </si>
+  <si>
+    <t>Key policy and institutional considerations for the WRM agency include the following:
+•	Formulating WRM project planning guidance: Develop a comprehensive policy that outlines procedures and methodologies for assessing WRI that include, among other items, applicability, guiding principles, general requirements, environmental and social assessment, and relationship to other planning processes. This guidance should be supplemented by additional technical notes that provide more detailed information, for example on methodologies for economic assessment of different types of projects, addressing climate uncertainties and resilience, and valuing ecosystem benefits. Specific guidance on green infrastructure as a special component for different types of WRI would also be useful. This approach would help provide a common framework for assessment of WRI and ensure analytical rigor.
+•	Developing cost allocation and sharing policies: Formulate methodologies for allocating costs between different users for multi-purpose water resource infrastructure projects. The general approach is to consider two types of costs: (1) separable costs which are directly attributable to a single user, for example a hydropower plant for a multi-purpose reservoir; and (2) joint costs that are shared by multiple users, for example the dam that stores water for hydropower, flood control, and water supply for cities and farms. Separable costs are easy to allocate, but there are various approaches to sharing joint costs that can be considered. The WRM agency should have clear cost-sharing policies to ensure that project beneficiaries assume some share of the costs to help inform rational investment decisions. Cost-sharing percentages generally vary by sector according to its financial capacity, and typically go from highest to lowest in the following order: hydropower, urban water supply, agricultural water supply, flood control, and ecosystem protection.
+•	Using cost-sharing policies as incentives: Consider cost-sharing policies for WRI that help to create incentives for more comprehensive risk management approaches. For example, local governments that adopt sound floodplain management programs could be rewarded by having a lower cost-sharing percentage for flood infrastructure. In a similar manner, cities that adopt effective water conservation programs could be rewarded by having a lower cost-sharing percentage for multi-purpose water supply projects such as reservoirs or regional water conveyance facilities. Higher levels of subsidies for green infrastructure, due to its co-benefits and climate resilience, could also be considered.</t>
+  </si>
+  <si>
+    <t>Key policy and institutional considerations for the WRM agency or dam regulator include the following:
+•	Determining the applicability of dam safety regulations: The regulator will need to establish which dams are under its jurisdiction, including potentially different regulatory categories based upon risk. Typically dam height and amount of water impounded are the starting criteria, but evaluations of potential downstream risks in terms of population and assets exposed can also be considered.
+•	Systematically identifying dam owners: The next step is to set up a mechanism to clearly identify the owner or person responsible for dams within the jurisdiction concerned and to set this information out in a publicly accessible form such as a register. It will also be necessary to ensure that existing dams are brought within the dam safety program.
+•	Formulating engineering design and construction standards: The regulator will need to provide guidance on appropriate design criteria for different categories of dams. These design criteria typically include hydrologic, hydraulic, geotechnical, seismic, and structural considerations, along with instrumentation for the dam and its appurtenant structures. General guidelines for construction methodology are also required for regulatory purposes. The regulator may draw upon existing design standards from other organizations, for example the International Commission on Large Dams or the U.S. Bureau of Reclamation.
+•	Adopting regulations for reviewing and approving the design and construction of dams: The regulator will need to lay out clear procedures for the submittal and approval information related to the design, construction, and commissioning of either new dams or modifications to existing dams. There are typically many points in this process that require the formal approval of the regulator before the operator can proceed on to the next phase.
+•	Adopting regulations for dam safety inspection and monitoring: The regulator will need to lay out clear guidelines and procedures for the inspection and monitoring of dams. Dam owners are required to have adequate dam monitoring instrumentation, undertake frequent periodic dam safety inspections, and file reports to the regulator. The regulator in turn should review these reports and undertake its own independent inspections on a periodic basis following well-documented procedures.
+•	Adopting regulations for emergency management plans: The dam safety regulator, along with the national DRM agency, will need to work collaboratively to develop guidelines and procedures for the formulation of dam emergency management plans. These plans guide the actions of the dam operators, downstream communities, and civil defense authorities in the event of a dam emergency that may require release of emergency flows or in the case of a dam breech. Typically, downstream inundation maps are prepared that help guide emergency evacuations and response.
+•	Delivering dam safety training: The dam safety regulator should have a broad and comprehensive program to help its staff, engineering consultants, dam operators, inspectors, and disaster response personnel boost their capacity in all relevant dimensions of dam safety. Since dam safety is a highly technical subject, it requires specialized training in order to minimize the risks of catastrophic failure.
+•	Providing financial support for dam safety modifications: In some cases, a dam operator may not be able to afford the necessary structural modifications necessary to comply with dam safety standards. This is particularly common for smaller dams that provide a water supply for farmers or cities. The consequences of requiring a dam to cease operations due to safety reasons may be unacceptable. The dam safety regulator should thus be empowered to administer a program of financial support to qualified dam owners to help them meet safety standards. This could potentially be offered in the form of grants or concessionary loans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key actions for the WRM agency include: 
+•	Establishing and maintaining a national flood control infrastructure database or register that contains information on the location and ownership of flood control infrastructure. The database or register should be available for public inspection and should contain information about the general condition of the infrastructure and an assessment of the population and structures that would be adversely impacted by its failure.
+•	Setting up an interagency committee on flood control infrastructure safety that should include the DRM agency, local governments, and as appropriate natural resources management and agriculture agencies. 
+•	Establishing, implementing, and periodically reviewing a hazard potential classification system for existing flood control infrastructure to act as the basis of identifying funding needs for priority repairs, rehabilitation, and upgrading of flood control infrastructures. 
+•	Adopting regulations and technical guidelines for the maintenance, construction, modification, and rehabilitation of flood control infrastructure. The regulations and guidelines should also include risk assessment and require decision making based on flood system performance assessment, flood risk analysis, and risk attribution to system segments. 
+•	Setting out procedures for flood emergency responses linked to the Emergency Management System and Local Emergency Response Plans. Responses should be planned for the breaching of embankments and for undertaking emergency repairs. 
+•	Providing technical assistance and training to local governments and the owners of flood control infrastructure about such matters as asset management, maintenance, and risk identification and mitigation, along with the rehabilitation, improvement, or modification of flood control infrastructure. 
+•	Promoting public awareness of and involvement in flood safety programs including risk communication to beneficiary communities and local governments, and mechanisms to allow members of the public to alert the owner of signs of damage or failure.
+•	Certifying compliance with the relevant elements of the national flood control infrastructure safety program as a prerequisite for subsidized or mandatory flood insurance programs. </t>
+  </si>
+  <si>
+    <t>Key policy and institutional considerations for the WRM agency include the following:
+•	Harmonization with Basin Plans: As noted in Chapter 6, river basin management planning provides the foundation for water resources development and management. The WRM agency should ensure that the basin planning regulations include an assessment of available water resources. The WRM agency and the basin planning regulations also should govern how the water is used, including for meeting environmental requirements. The WRM agency should ensure that the basin planning process sets abstraction limits and avoids overallocating water to ensure resilience in the system. The basin plan should have a drought continency plan that flexibly reallocates water based on the level of drought severity and that is consistent with the system of water rights.
+•	Adopting regulations on water use permitting and water tenure: While the basic elements of water use permitting and other water tenure regimes are set out in the water resources law, the WRM agency will typically need to establish regulations to complete the legal framework for the issuance and enforcement of water permits. Some of the key issues include: (1) who is entitled and required to obtain a water permit; (2) the nature of the permit, including location, volume, flow, timing, use, and duration; (3) the level of security conferred by the permit during droughts, and ability to trade, transfer, or lease the permit; and (4) sanctions for non-compliance with water use permit conditions, including fines and potential loss of use rights if these are not provided for in the water resources law. It is important to have a well-defined procedure for ensuring that applications for new permits or the variation of existing permits are grounded in the relevant river basin management plan.
+•	Developing water use monitoring systems: Monitoring water use and ensuring users abide by their use permits is a key responsibility of the WRM agency. Typically, permit holders are required to self-report on their own water use with periodic WRM agency inspections. The WRM agency should develop technical requirements for water measuring devices, including for measuring flows in pipes and open surface flows in rivers and canals. Measuring open surface flows, for example canals in irrigation systems, can be a complex task and the WRM agency should develop standard designs to help ensure accuracy and reliability. Space-based monitoring, for example of cropping patterns and their evapotranspiration use, is an important complement to on-ground flow measurement. Finally, the WRM agency needs to ensure a comprehensive database of permit holders and their water use.
+•	Adopting regulations on water use and reallocation during droughts: Ideally, the basin drought contingency plan would provide a framework for conservation measures and water allocations corresponding to different drought levels, taking into account minimum or environmental flow requirements. The WRM agency should develop regulations to ensure that this process proceeds in an orderly and transparent fashion. One approach is to allocate water on a percentage share basis of the total available water resources rather than on a fixed volumetric amount. During drought periods, the WRM agency determines the total availability of water and each user gets its specified share of the total. This can be further refined so that some users, for example low-value agricultural crops, have their share percentages reduced according to the severity of the drought. In some countries, the WRM agency does not have the legal right to administratively reduce the allocation of water to a user. In these cases, the WRM agency may develop regulations for alternative mechanisms, such as a negotiated sale for temporary reallocation from a lower-value agricultural user to a higher-value urban or industrial user. In the most advanced cases, and where the physical context allows easy transfers of water, the WRM agency may set up water markets to allow for either the temporary or permanent reallocation of water.
+•	Adopting regulations for the permanent reallocation of water rights: The WRM agency should set up mechanisms to facilitate the long-term reallocation of water as necessary using the same general set of approaches: administrative reallocation, negotiated reallocation, or water markets. Longer term reallocations, however, can prove more politically complex, as their economic and social impacts are potentially more permanent. Under ideal conditions, water users should become more efficient and increase the productivity of water (in terms of “yield per drop” or “dollars per drop”) so that the transfer of water does not have negative economic consequences. Therefore, it is vitally important that the WRM agency work with cities, farms, and industries to constantly improve their water efficiency while limiting or even reducing their water allocations over time. Not only does this help the transition to more economically efficient allocations of water, but when droughts do occur the potential negative impacts are tempered as water users have already adapted to using less water.</t>
+  </si>
+  <si>
+    <t>Key policy and institutional considerations for the WRM agency include the following:
+•	Defining and characterizing groundwater aquifers: The WRM agency should undertake the necessary studies to define the basic characteristics of significant aquifers, including surface and sub-surface mapping, geological conditions, and storage volume. To the extent possible, the WRM agency should establish groundwater monitoring systems and look at historical and current groundwater levels, and identify groundwater uses. Based upon this analysis, the WRM agency should attempt to define a sustainable yield for the aquifer to help in the formulation of a groundwater management plan. Characterizing an aquifer is a complex and ongoing process, and thus the WRM agency will need to prioritize its efforts.
+•	Supporting groundwater management organizations: Based upon the defined aquifers, the WRM agency should facilitate the establishment of GwMOs. These organizations can take many forms, ranging from a committee advising the WRM agency, to a localized or village-based organization that has authority to set and enforce rules in accordance with the aquifer plan, to an aquifer-wide agency with responsibility for the overall enforcement of the aquifer management plan, with the general structure framed in the water resources law. The WRM agency will need to develop regulations governing and establishing the GwMOs and help facilitate their start-up and operation. The WRM agency should also provide financial and technical assistance to support GwMOs, for example by providing them with consultant support and funding flow measurement instruments for groundwater wells.
+•	Developing aquifer management plans: The WRM agency will need to work collaboratively with the GwMOs to develop sustainable aquifer management plans. This will require the WRM agency to issue regulations covering the process, objectives, scope, and methodology for developing the plan. The WRM agency may also need to develop technical guidance on specific issues, such as monitoring groundwater levels and water use, approaches to aquifer recharge, and the use of space-based observation tools to assess water use on the basis of crop evapotranspiration.
+•	Implementing the water use permitting regime for groundwater use: The WRM agency will need to implement the system for groundwater permitting, with permits being issued to individual groundwater users or GwMOs. Such permits will usually be similar those for surface water use. The issuance of such permits should take place in accordance with the relevant river basin management plan as well as the aquifer management plan if there is one.
+•	Incorporating groundwater into basin planning and drought contingency plans: The WRM agency should explicitly incorporate groundwater into the basin planning process, integrating information on groundwater and aquifer management plans as they develop over time. Critically, the WRM agency should proactively facilitate the natural and artificial recharge of aquifers wherever possible, for example by ensuring active floodplains and potentially using treated wastewater to recharge aquifers. The use of aquifers as supplemental or emergency supplies during droughts should also be considered in the drought contingency plan.</t>
+  </si>
+  <si>
+    <t>Key agency actions for the WRM or DRM agency include the following:
+•	Formulating a strategic mapping plan: The development of national flood maps is an enormous task that needs to be done systematically and strategically. Ideally, this is done through a periodically updated strategic plan—for example every five years—which identifies priority areas for flood mapping along with the general mapping parameters. The strategic plan should balance the need to produce useful information to guide floodplain development with the desirability of accuracy. For example, the first generation of maps might rely primarily on satellite photos, while the second generation could utilize modelling to estimate the extent and depth of flooding.
+•	Developing and regularly updating flood mapping technical standards: In order to ensure consistency and quality, the agency should develop detailed technical standards to guide the mapping process. There are many technical decision points involved in the mapping process and a consistent approach is required, for example how to calculate return flood periods, topographic mapping requirements, modelling approaches, and how to deal with a changing climate and watershed. Since the mapping process is a long-term process, there are likely to be different versions of technical standards that should be properly documented and understood in the interpretation of map results.
+•	Establishing an Interagency Task Force and Technical Advisory Committee: The agency should establish an interagency task force to help support and guide the mapping process. Neither the DRM agency nor the WRM agency will have all the required information to independently develop river and coastal flood maps, and the interagency task force will allow for the free exchange of information and support as required. The agency should also consider establishing a technical advisory committee of experts to help provide guidance on the technical challenges of flood mapping and potentially resolve any mapping disputes.
+•	Performing post-flood hazard verification: The agency should ensure that it has the capacity and methodology to lead a coordinated effort to collect and disseminate accurate flood data and risk information to aid response and recovery efforts after a flood disaster occurs. This information supports the “Post-Flood Disaster Needs Assessment” discussed in Chapter 11 but also provides actual flood information that complements the flood maps—which are an approximation of reality based upon a set of assumptions. The results of this post-flood hazard verification should be made available through the flood map center to provide additional information on floodplain risks.
+•	Creating communications and outreach programs: The agency should establish a flood map center which serves as the official public source for flood hazard information. The center could provide maps, databases, reports, educational resources, and other tools to help better understand flood risks. Coupled with this there should be an active communications and public outreach program to ensure that the floodplain information is conveyed to policy makers, developers, and the general public. This communications process should concentrate on the period during which maps are being developed or updated, so that communities can provide feedback on the mapping process and be made aware of the implications of floodplain designations. The agency should then work with the local governments to continuously remind the public of floodplain areas and potential risks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key actions for the DRM agency include the following:
+•	Developing model floodplain ordinances and guidelines: The agency should prepare model floodplain ordinances for local governments to build upon. The model ordinances should include various options depending upon the specific local circumstances, for example whether subject to river, coastal, or other flood hazards. The DRM agency should either require a set of national flood resilient codes and standards or identify other suitable national or international codes and standards that local governments can use.  
+•	Overseeing floodplain regulation programs: The agency should periodically visit the local government to provide technical assistance and assure adequate enforcement of floodplain management regulations. This typically consists of a tour of the floodplain, an inspection of permit files, and meetings with local officials. The DRM agency should actively work with the local government and other stakeholders to help them implement their programs, and in extreme cases, and where legally mandated, take enforcement action as necessary.
+•	Providing technical assistance to local communities: The agency should support local communities by providing floodplain information and helping to increase awareness of the perils of flooding and the importance of good floodplain management. The assistance could be provided in the form of outreach, education, general information, or site visits to assist on specific issues. As described in the next section, helping local governments develop flood mitigation plans is an important tool for improving floodplain management. 
+•	Supporting a professional association of floodplain managers: The practice of floodplain management is increasingly being recognized as distinct profession that draws upon expertise from different areas, including hydrology, land use planning, disaster management, civil engineering, and public administration. The agency should support an association of floodplain managers to build the community, share experiences, and build professional capacity. An example of this exists in the United States in the form of the Association of State Floodplain Managers, which offers professional certification on flood plain management. </t>
+  </si>
+  <si>
+    <t>Key agency actions for the DRM and WRM agencies includes the following:
+•	Preparing hazard mitigation planning regulations and guidelines: The DRM agency should prepare a set of regulations governing the preparation, review, and approval of local government hazard mitigation plans. The regulations should include items such as: (1) general plan requirements; (2) periodic planning process; (3) plan contents, including risk assessment, mitigation strategy, and local government approval; and (4) procedures for DRM agency review and approval.
+•	Providing technical assistance for the formulation of hazard mitigation plans: The DRM agency should proactively support local governments in the preparation of their hazard mitigation plans by providing guidelines, training, and support to the process so that local governments can tailor their hazard mitigation plans to specific local circumstances. Since the DRM agency may be responsible for approving the plan, it is important that the DRM agency becomes familiar with local circumstances and provides advice during the planning process.
+•	Integrating the Flood Mitigation Plan with the River Basin or Coastal Management Plan: The WRM agency will need to actively work with the DRM agency and the local government to ensure that flood mitigation actions, particularly with respect to new flood control infrastructure, are consistent with the overall basin or floodplain management plan. The DRM hazard mitigation plan regulations should ensure that the appropriate partner agencies are involved in the planning process, particularly the WRM agency where there are river flood hazards.
+•	Providing grant support program for the implementation of the Hazard Mitigation Program: The DRM agency or the WRM agency should establish a grant program for local governments to help implement priority actions in the flood mitigation plan. The agency will need to develop regulations to govern the administration of this program, including eligibility requirements and criteria for competitive selection of proposals. This will help motivate local governments to undertake flood mitigation plans and implement key actions.</t>
+  </si>
+  <si>
+    <t>Key actions for the Drought Committee and its constituent sector agencies include the following:
+•	Establishing the governance document (the charter and terms for reference) and procedures for the Drought Monitoring Subcommittee: The Drought Committee should establish a formal charter for its monitoring subcommittee, identifying its objectives, membership, procedures, and obligations of the different entities participating in the Monitoring Subcommittee. One of the specialized agencies should serve as the anchor or secretariat for the Subcommittee, typically the Hydromet or WRM agency. The Committee could also potentially include research institutes operating within or outside of the country. As discussed in Chapter 5, it is particularly important to develop linkages with international agencies or centers providing global weather information. In many cases, formal MOUs linking the specialized agencies and institutes to the Subcommittee may be useful. Clear operational procedures for the Subcommittee should also be established, including frequency of meetings, reporting, and decision-making process.
+•	Developing protocols and guidance for drought monitoring and impact assessment: The Subcommittee should develop protocols for operationalizing the production of a drought monitor, as well as risk assessments, that build cross-agency and cross-sectoral agreement on how droughts will be defined and characterized; identify the institutions involved with producing a drought monitor and procedures for updating the monitor; contain feedback mechanisms for validating the monitor with various stakeholder groups; and provide guidance for conducting vulnerability assessments, such as how to quantify costs and characterize the risks faced by key sectors and vulnerable populations. These protocols should also include procedures for constituting IAGs to examine drought impacts and risks in a specific region for a drought event, including the production of “drought situation reports”. These IAGs should include specialized agencies, local governments, and a broad spectrum of stakeholders, including business, agriculture, and civil society. The protocols should ensure that the IAGs produce periodic and structured situation reports over the course of the drought, including a final report after the drought is declared to be over that summarizes the overall social, economic, and environmental impacts of the drought as well as lessons learned. •	Operating a Drought Information Center: Information generated by the Drought Monitoring Program should be easily accessible and freely available to the public through an integrated information system or portal. The information should include the underlying hydrological and metrological data, current and historical drought maps, and situation reports generated by IAGs. The Drought Information Center can also serve a central function in drought education and awareness. During periods of drought, the Information Center has a critical role in disseminating information on the drought status, impacts, and potential risks. The Information Center should support the specialized agencies so they can provide the necessary information to their constituencies through their own public outreach programs. 
+•	Establishing procedures for drought declarations: The Drought Committee should establish clear procedures for agreeing on drought levels for specific regions based upon the recommendations of the Drought Monitoring Subcommittee. Determining a drought level is not a mechanical task, but rather should be a flexible process taking all social, economic, environmental, and political factors into consideration. Nevertheless, there should be a formal process for declaring a certain drought level, preferably including open hearings with public comment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The WRM agency often, but not always, serves as the anchor agency for the Drought Committee. In regions where cities, industries, and farms rely heavily on surface water or groundwater, particularly when delivered through regional water conveyance systems, the WRM agency has a critical role to play in drought response. As a core member of the Drought Committee, it should monitor and report on the implementation of the various drought management measures, as well as the overall water balance at the river basin level. The WRM agency also has a central role to play in drought communication and public outreach during droughts, reaching out through its various channels to create a culture of water conservation and water use efficiency. The WRM agency can build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship. </t>
+  </si>
+  <si>
+    <t>Key actions for the agriculture agency include the following:
+•	Establishing a partnership with the NMS/NMHS to provide agro-climatic services: The agriculture agency should work closely with the NMS/NHMS to develop a program to deliver customized weather, climate, and advisory services for agriculturalists. This typically requires interagency agreements so that the NMS/NHS can provide tailored information needed by the agriculture agency. The agriculture agency will then need to find effective and appropriate channels to disseminate this information, potentially in partnership with the private sector.
+•	Setting up an Agriculture Risk Management Program: The agriculture agency should set up a risk management program that can be used to provide support to farmers to help manage a variety or risks, including natural disasters. Some of the tools to support agriculturalists potentially include insurance or direct-support programs. The program should offer information to producers regarding markets and risk, technical assistance for coping with common risks including hydro-climatic risks, protection from the spread of animal and plant diseases and pests, and assistance for recovering from natural disasters.
+•	Developing tailored Agricultural Disaster Support Programs: The agriculture agency should develop customized support to disaster support programs for different types of producers, for example common annual crops, perennial crops, livestock producers, and specialized niche crops. Each of these programs should have their specific regulations for eligibility, verification, and payment based on sound risk assessment analysis. The different programs may need to be explicitly authorized by the agriculture law. For drought-related impacts, the triggering of support for these programs may be linked to the DMP.
+•	Facilitating an Agricultural Insurance Program: Where appropriate and feasible, the agriculture agency should facilitate the development of a national insurance program. The agency should develop the capacity to undertake agricultural risk assessments and decision support services, such as agricultural statistics and agro-climatic information services. Policies and regulations related to agricultural insurance programs should ensure appropriate risk assessments and encourage comprehensive analysis of agricultural risks to assess the viability of proposed insurance contracts. Typically, a joint task force including the agriculture agency, the finance agency, and insurance companies is necessary to coordinate the development of the agriculture insurance market. A multi-stakeholder working group should also be formulated to advise this task force, comprised of members from farmers’ organizations, (re)insurers, other financial institutions, public sector institutions, development partners, and sector experts. In the case of relatively small economies, the working group might also advocate for an enabling regional policy and regulatory framework to facilitate risk pooling by insurers in countries within the same region.</t>
+  </si>
+  <si>
+    <t>Key actions for the agriculture agency and the various social protection agencies include the following:
+•	Facilitating the provision of social safety nets during droughts: The agriculture agency, being on the front lines of rural development, and the social protection agencies should play facilitating roles in the provision of social safety nets during droughts. This includes coordinating across agencies and helping to define roles and responsibilities for all actors, as well as linkages and information-sharing arrangements with humanitarian actors. The country’s Executive and Cabinet also play crucial roles in coordination and funding support during periods of national crisis. 
+•	Ensuring the flexibility and adaptability of social protection programs: The agriculture agency and the social protection agencies should ensure that the social protection programs have the flexibility to rapidly scale up and are adapted to the needs following a major drought, with pre-established contingency plans and funding mechanisms.
+•	Targeting the rural chronic poor and most vulnerable households: Even when countries have well-established policies and institutions with respect to social protection, large overlaps often occur, along with significant inclusion errors. Resultant gaps leave some members of the poorest and most excluded groups without enough support. Policies that identify and target the poorest families and individuals within these groups during drought emergencies are a critical backstop to avoid devastation. This includes pre-negotiated contracts for hauling and distributing food and water, pre-planned mapping and logistics details for moving food and water, and thorough communications and outreach mechanisms around these emergency distributions.
+•	Ensuring sound governance and accountability mechanisms: The agriculture agency and the social protection agencies should ensure sound governance and accountability mechanisms, with the effective participation of beneficiary groups, proper communication and feedback mechanisms, clear guidelines and safeguards to reduce fiduciary risk, and a system of monitoring and evaluation that allows for measuring impacts and outcomes to inform future efforts.
+•	Building longer term adaptive capacity: During and following a drought, the agriculture agency should prioritize and target the climate-smart agriculture programs discussed in Chapter 6 on the socially vulnerable and drought-impacted population. This helps them recover more quickly and also increase their longer term adaptive capacity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some of the key actions for the NMS/NHS, WRM, and DRM agency include the following:
+•	NMS/NHS collaboration with Ocean Agency: In some countries, the ocean agency is separate from the NMS/NHS. However, since coastal storm surge warnings are both an atmospheric and oceanographic phenomenon, it is critical that the NMS collaborate with the ocean agency both in terms of developing storm surge models and of monitoring oceanographic conditions. This collaboration can be facilitated through an interagency agency agreement, which defines the protocols for information sharing and joint action during potential storm surge situations.
+•	NMS/NHS collaboration with the WRM Agency: In cases where the WRM agency is responsible for river flood forecasting, it will need to work closely with the NMS/NHS to obtain the necessary weather information. The NMS/MHS should provide not only its own weather forecasts, but also draw upon the broader “weather enterprise” to provide the WRM agency with as much information as possible to help inform river flood forecasts. Close collaboration between the NMS/NHS and WRM agency is also necessary during coastal storms, such as hurricanes, to consider potential coastal river interactions. This collaboration can be facilitated through an interagency agreement, or even better through an integrated Flood Forecasting Center.
+•	Consider establishing a National Flood Forecasting Center: Perhaps the most elegant approach to untangling the different forecasting agency responsibilities is to establish a National Flood Forecasting Center, combining meteorology, hydrology, and oceanographic expertise to provide a specialized service. This could function as a partnership between the different agencies and the Center could be equipped to handle all forms of flooding, quickly bringing together the expertise as needed to address specific flood hazard situations.
+•	Collaboration between the DRM agency and the NMS/NHS and WRM agency issuing flood forecasts: The DRM agency must have up-to-date information on flood forecasts to inform its emergency management decisions. This involves consulting with the agency responsible for the flood forecasting in the issuance of emergency warnings, including evacuation orders. The DRM agency typically has a multi-hazard emergency operations center (EOC) to help coordinate emergency responses to coastal or river floods (as well as other threats). To facilitate this cooperation, there should be interagency agreements between the forecasting agency and the DRM agency, ideally with DRM agency staff embedded within the forecasting agency, or vice versa. </t>
+  </si>
+  <si>
+    <t>Some of the key actions for the DRM and WRM agencies include the following:
+•	Formulate a National Disaster Response Plan: The DRM agency should work with key agencies, local governments, and other stakeholders to prepare a National Disaster Response Plan, which provides the framework for responding to natural or human-induced emergencies. Some of the key elements include: (1) identifying potential hazards and likely impacts; (2) defining an EMS, including levels, organizations, functions, activation procedures, and regional emergency operation centers; (3) outlining emergency preparedness actions, including planning, training, exercises, communications, and stockpiling resources and equipment; (4) preparing an “Emergency Response Concept of Operations”, including an alert and warning system, situation reporting, public information, and mutual aid arrangements; (5) presenting a “Relief and Recovery Framework” which outlines programs and actions, including Disaster Declarations; and (6) clarifying the roles of national agencies during disasters, including DRM, WRM, health, social protection, and agriculture agencies.
+•	Oversee the Emergency Management System (EMS): The EMS should be guided by the Emergency Response Concept of Operations, which provides the blueprint for responding to emergencies. The DRM agency should sustain and constantly improve the EMS and ensure that it is always functional and ready to deploy as necessary. This requires constant capacity building, training, and exercises at multiple levels to ensure that all agencies and local governments understand how the EMS works and what their roles are under different emergency situations. The EMS should include specific procedures and actions for river and coastal flooding. The EMS is usually anchored in regional Emergency Operations Centers that are managed by the DRM agency, thus requiring a certain level of decentralization by the DRM agency.
+•	Assist local governments in preparing emergency response plans: The DRM agency should help local governments prepare emergency plans, including specific plans for dealing with floods as appropriate. The plan should also help households, businesses, and other organizations prepare for and respond to floods. The floodplain mapping and local flood mitigation plans are key inputs into the local flood emergency plans. The DRM agency should provide a general format and technical and financial assistance to the local government. The WRM agency should work collaboratively with the DRM agency and local governments to ensure flood-specific issues are included in the plan. Where legally required, the DRM agency should establish clear regulations for the preparation, review, and approval of the local government emergency plans.
+•	Operate flood operations center: The WRM agency should establish flood operations centers as appropriate, for example at the basin level or national level, to serve as the nerve center for monitoring and responding to river floods. The flood center should ideally be co-staffed with NHS and DRM agency personnel so that forecasting, operations, and emergency responses are well coordinated. This usually requires a multi-agency agreement which clearly lays out the functions of the different agencies. The emergency operations center, which serves to respond to all emergencies, should be closely linked to the flood operations center.
+•	Prepare Rapid Impact Assessment (RIA) and PDNA protocols: The DRM agency should prepare procedures and protocols for ensuring rapid deployment of RIA and PDNA teams. This includes having generic terms of reference that can be adjusted to the specific emergency, and interagency agreements that will allow for the rapid mobilization of teams with functions and responsibilities clearly defined beforehand. Of importance in the RIA phase is temporarily restoring utilities and communications, clearing transportation access, and providing temporary housing.
+•	Attend to the needs of poor and marginalized communities: These groups not only tend to have less resilience and are more exposed to floods, but they also typically do not have easy access to formal flood disaster recovery programs or flood insurance. As part of the PDNA process, there should be a focused effort on identifying the most vulnerable households and communities and identifying both their relief and recover needs. This typically requires close collaboration with social and health agencies, as well as with local governments. The PDNA should include an action plan to help address the needs of the vulnerable populations in the relief and recovery process.
+•	Ensure access to resources and funding for emergency response and relief: The DRM agency should work with the national government to ensure access to funding to respond to emergencies and provide relief. As discussed in Chapter 13, it is important for the national government to have emergency funds available or have quick access to disaster financing to ensure that immediate relief needs can be addressed. The DRM agency should also facilitate mutual aid agreements between different national agencies (including the military) and local governments to ensure that they respond to emergencies and provide relief as required without consideration of funding. The DRM agency can help facilitate the reimbursement of costs based on these agreements, potentially drawing upon emergency funds and disaster financing mechanisms. 
+•	Develop a program to provide temporary relief to households: The DRM agency should have a program in place to provide temporary relief for impacted households with clear procedures and criteria that can be applied to any disaster. Potential areas of support include: (1) temporary housing assistance; (2) lodging expenses reimbursement; (3) subsistence payments to cover expenses; and (4) temporary employment opportunities. In cases where flood victims need to move into temporary shelter, there should be provisions for providing all the necessary support include public health and safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some key actions for the DRM agency include the following:
+•	Administer flood disaster recovery programs: The DRM agency should develop regulations to administer tailored recovery programs for different groups, including: (1) households; (2) businesses and other non-governmental organizations; and (3) public infrastructure and utilities. Each of these programs require: (1) clear eligibility criteria; (2) procedures for applying and receiving assistance; (3) requirements for use of funds in order to “build back better;” and (4) clear procurement rules for public infrastructure and utilities. The circumstances under which the DRM agency will directly administer the funds or transfer the responsibility to local governments or other specialized agencies needs to be clearly formulated. In some cases, the national government may directly allocate the funds to the specialized agencies, for example transport, health or energy, or local governments to facilitate rapid recovery. However, it is important that the DRM agency monitor the use of these funds to ensure that “build back better” principles and good floodplain management practices are followed.
+•	Administer a flood insurance program: The DRM agency should work with private insurers to help generate a flood insurance market. To promote informed sharing of risks, the DRM agency will need to work with insurance companies to utilize actuarial data related to flood frequency and damages to assess proposed flood insurance policies and premium rates. A strategic decision will need to be made regarding the level of government subsidy, if any, for the insurance policies. Typically, the policies are partially subsidized to ensure affordable premiums. However, subsidizing flood insurance may create economic incentives to take more risk. The mapping of floodplains, as described in Chapter 10, is essential for understanding flood hazards and assessing risks. 
+The DRM agency will need to clearly delineate who is eligible for flood insurance based upon their location in the floodplain and whether local governments have met minimum floodplain management requirements, such as functional floodplain regulations and ideally a flood mitigation plan. The DRM agency will also need to establish regulations regarding the use of insurance funds to ensure a “build back better” approach. The DRM agency should work closely with the private sector to ensure efficiency and financial stability of the insurance program. The policies can be sold through private insurers who can help market them and ensure rapid damage appraisals and payouts. In some cases, mortgage companies may require evidence of flood insurance if the borrower is in a floodplain. The private insurance companies can help facilitate this information to both the borrowers and mortgage companies. The DRM agency will need to work closely with, and help train, insurance companies so they can adequately sell and honor the insurance policies. To help manage future exposure to flood risks, the agency may transfer some of this risk to private reinsurance companies and capital markets investors; this provides an additional method to fund payment of flood claims after catastrophic flood events.
+•	Facilitating recovery for vulnerable groups: As part of the PDNA protocols, the DRM agency should work with local governments, social protection agencies, and the impacted communities themselves to assess the needs of poor, marginalized, and vulnerable populations. This interagency team, often composed of social, housing, health agencies with local governments, and non-governmental organizations, should develop and implement tailored plans to meet the needs of vulnerable populations. The DRM agency has an important role in monitoring these efforts and may also provide funding to help these organizations deliver necessary social protection measures. </t>
+  </si>
+  <si>
+    <t>Some of the key agency actions for the finance agency and the DRM agency include the following:
+•	Integrate disaster risk financing into the finance agency: Most finance agencies have created fiscal risk management departments to help analyze and mitigate the impact of macro-economic shocks. These departments should also be given the mandate to manage the economic and fiscal impacts of natural disasters. The finance agency will need to collaborate closely with the DRM agency, which is responsible for collecting information on the impacts of disasters and defining the country’s natural disaster risk profile.
+•	Develop a disaster risk financing strategy: The finance agency should develop a strategy for disaster risk financing. Some key elements include conducting a “Public Expenditure Review” to understand the extent of past disaster-related expenditures as well as clear understanding of the country’s disaster risk profile. The National DRM plan highlighted in Chapter 3 is a foundational document for helping to inform—and to reflect—the country’s hydro-climatic risk profile. It should be accepted that no single risk financing instrument can deal with the entire range of small and large disaster shocks. A country’s risk financing strategy should develop a multi-layered approach using a set of solutions in accordance with the contingent risk profile. Finance agencies should analyze the characteristics of each disaster risk financing instrument and develop a comprehensive combination of approaches that best meets their needs. The strategy may also include actions to help create or strengthen national disaster insurance programs.
+•	Regulate the use of disaster risk financing instruments: The finance agency should develop clear regulations for the different risk financing approaches. For example, the rules governing access to the National Disaster Fund should be clearly promulgated. Under some circumstances, the DRM agency may be authorized to directly access the Fund, for example to provide immediate relief, whereas in other circumstances the Executive may need to formally declare a “disaster” before funds are released. The finance ministry should also develop regulations to enable the insurance markets to function effectively and equitably. Establishing clear principles and procedures for the issuance of contingent disaster loans and sovereign CAT bonds is also necessary. 
+•	Consider international collaboration: Given the probabilistic and geographically-specific nature of most hydro-climatic events, countries in the same region are often not hit by disasters at the same time. International collaboration in disaster risk financing through regional risk pools can be a cost-effective and diplomatically interesting mechanism to help meet disaster risk financing needs. Governments should consider such collaborations with regional partners to explore possible international financing mechanisms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watershed Management </t>
+  </si>
+  <si>
+    <t>Drought Monitoring, Response and Recovery</t>
+  </si>
+  <si>
+    <t>Flood Monitoring, Response and Recovery</t>
+  </si>
+  <si>
+    <t>Does the DRM agency seek participation of other relevant agencies, including WRM, hydro-met, agriculture, natural resources management, social welfare, and finance to devleop National Strategic DRM plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM Plan include recommended actions to address critical, systemic and institutional challenges and foster inter agency collaboration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the national drought committe prepares and periodically update a National Strategic Drought Plan together with relevant agencies such as WRM, DRM, Agriculture, natural resources management and hydromet as well as other stakeholders? </t>
+  </si>
+  <si>
+    <t>In many countries, the combination of WRM, DRM, and Hydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
+The European Union’s Water Framework Directive  and Floods Directive , between them require member states to adopt a common approach to river basin management and flood risk assessment and management planning. As shown in figure 3.4, in Japan there are three major interlocking laws related to flood risk management, the DRM Act, the River Act (which acts as a water resources law), and a specific Flood Protection Act. In the United States, the Federal Interagency Floodplain Management Task Force helps bring together all water-related agencies and was established under the 1975 Water Resources and Development Act</t>
+  </si>
+  <si>
+    <t>Does the WRDM, DRM and hydro-met syncrhonized sector frameworks cover all the relevent aspects for flood risk management or is a specific FRM policy needed? if so, do the DRM, WRM, Hydro-met, Agriculture and natural resources management collaborate in the preparation of the FRM policy?</t>
+  </si>
+  <si>
+    <t>Does your agency maintain a scientific advisory committee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do the NMS and NHS, if separate entities, work together semeelsy through mandates included in the national frameworks as well as inter-agency coorperation agreements? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on clear mandates for open data included in national regulation, do the NHS/NMS have a specialized unit that focuses on open data? </t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with other agencies such as WRM, DRM, Agriculture in a national water data program with interagency agreements and operational protocols in placeto ensure the flow of information and water data?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS work closely with the WRM, agriculture and DRM agencies to gether both dryness conditions as well as its impact on farmers, cities and the environment in the national drought monitoring program?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS engage in the implementation of global collaboration initiatives (for example with the WMO)?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with the agricultural agency with clear interagency agreements and operational protocols to provide agro-climate services to farmers such us informing farmers of climate variability and/or extreme events?</t>
+  </si>
+  <si>
+    <t>Does the WRM provide support to basin agencies and committees to ensure public outreach and stakeholder engagement?</t>
+  </si>
+  <si>
+    <t>Does WRM issue regulations to ensure the inclusion of all water resources infrastructure projects, such as multipurpose reservoires or flood control structures, in river basin plans before permits or funding for the projects are provided?</t>
+  </si>
+  <si>
+    <t>Does the WRM Agency issue special guidance and provides support to accomplish social inclusion in river basin planning?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning foster institutional agreements to establish coastal planning authorities or regional coastal committees and ensure that they receive funding and training to fulfill their roles?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning provide technical planning guidelines for coastal planning?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue regulations or guidance on coastal planning processes covering topics such as the appropriate coastal streches for planning, how often a plan needs to be prepared the gneeral scope and format of the pland and the review and approval process?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the natural resources management agency or the agency responsible for coastal zone planning establish formal roles for other national agencies such as WRM, agriculture, DRM, and hydro-met? </t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning provide support to basin agencies and committees to ensure public outreach and stakeholder engagement?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue regulations to ensure the inclusion of all water resources infrastructure projects such as sea dikes, sluice gates and dredging operations, in coastal zone plans before permits or funding for the projects are provided?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue special guidance and provides support to accomplish social inclusion in river basin planning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM agency or the national WSS agency have a dedicated program to work with local government and aid smaller utilities and rural communities at risk of drought and water shortages by providing technical and financial assistance? </t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency developing regulations to guide the IWSP process specifying requirements such as which irrigation service providers are required to prepare the plans, the frequency of the plans, the general scope and content of the plans, the process for plan approval and sanctions for non-compliance?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency providing technical support to the irrigation service providers by preparing guidelines, and providing technical and financial support?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency ensuring that the content of the IWSPs is informed by public consultation with the farmers and other key users?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM agency make sure that the IWSP are consistent with the basin plans? </t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency conditioning grant funding or loans to irrigation service providers to the regulations pertaining the IWSP?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency make environmental sustainability a core agricultural policy objective?</t>
+  </si>
+  <si>
+    <t>Does agriculture agency create partnerships with farmers and livestock producers to implement climate-smart agriculture?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency develop CSA practice standards suitable to the local context and can be used to help eligibility for grant funding?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency provide targeted technical and financial assistance such as incentive funding or green payments for smaller operations?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agencies promote farm sustainability plans for larger and more developed operations by providing technical and financial support or making the preparation of plans a regulatory requirement?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency create likages to WRM plans so agricultural and land use and practices are addressed as appropriate in the National Strategic WRM Plan as well as river basin plans to ensure that these practices are recognized as fundamental part of flood and drought management?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency establish dedicated forest management units to oversee forest-related programs?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency prepare a standalone national strategic forestry plan or policy incorporated inthe the broader periodic national strategic natural resources management plan?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency identify forests at risk and prioritize responses incluidng programs for reforestation?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency designate forsests as protected areas where needed particularly those that serve as critical watersheds for urban water supplies?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency adopt and implement forest management regulations such as standards of practice for sustainable forestry including timber harvesting on private or public lands as wlel as with specific approaches for forests collectively owned by local communities?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency create linkages to WRM plans so forest management issues are addressed in National Strategic WRM Plans as well as river basin plans to ensure the recognition of forests in flood and drought risk management?</t>
+  </si>
+  <si>
+    <t>Does the wetlands management unit prepare a standalone national strategic wetlands plan incoporated in the broader periodic national strategic natural resources management plan?</t>
+  </si>
+  <si>
+    <t>Does  the wetlands management unit designate wetlands as protected areas following the mandate and requirements established in the natural resources management or protected areas law?</t>
+  </si>
+  <si>
+    <t>Does the wetlands management unit create linkages to WRM plans so wetlands management issues are addressed in National Strategic WRM Plans as well as river basin plans to ensure the recognition of wetlands in flood and drought risk management?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency foster institutional arrangements in terms of the establishment of WaMOs at the appropriate leel ensuring that they receive adequate resources to effectivily fulfill their functions?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency that is mandated to support watershed management adopt regulations regarding the watershed planning process?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency that is mandated to support watershed management provide technical watershed planning guidelines including general methodolgy, sources of data, modelling approaches, linkages with other sectors and other planning processes such as basin planning?</t>
+  </si>
+  <si>
+    <t>Does the  agriculture or natural resources agency  support people-centred healthy watershed management by providing guidance to WaMOs on how to work constantly with program beneficiaries to incorporate sucessfull local approaches and adapt healthy watershed programs to their needs?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency that is mandated to support watershed management establish formal roles for relevant national agencies including WRM, natural resources and agriculture?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency that is mandated to support watershed management ensure public outreach and stakeholder engagement by providing guidance on consultations, responding to feedback and ensuring consultations?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency formulate WRM project planning guidance outlining procedures and methodologies for assessmeng WRI that include applicability, guiding principles, general requirements, environmental and social assessment, and relationship wiht other planning processes? Does the WRM agency also prepares additional technical notes providing detailed methodologies on economic assessment, addresing climate uncertainties, valuing ecosystem services or the desing of green infrastructure?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency formulate methodologies for allocating costs between different users for multi-purpose water resources infrastructure projects and cost-sharing policies to ensure that project beneficiaries assume some share of the costos to help inform rational investment decisions?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency use cost-sharing policies as incentives for more comprehensive management approaches?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator determine the applicability of dam safety regulations incluidng different dam categories based upon risk?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator systematically identify dam owners?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regultor formulate enginieering design and construction standards?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator adopt regulations for reviwing and approving the design and construction of dams?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator  adopt regulations for dam safety instpection and monitoring?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator  adopt regulations for emergency management plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator deliver dam safety training?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator provide financial support for dam safety modifications?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency harmonize flexible water allocation with basin plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency formulate a strategic mapping plan that is periodically updated and identify priority areas for flood mapping along wiht the general mapping parameters?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency establish an interagency task force and technical advisory committee to help support and guide the mapping process?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency perform post-flood hazard verification?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency create communications and outreach program to ensure that floodplain information is conveyed to policy makers, developers and the general public? does the WRM or DRM agency support the the creation of a flood map center that provide maps, databases, educational resources and other tools to better undertand flood risks?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency devleop model floodplain ordinances tailored to specific local circumstances such as river, coastal or other flood hazards for local governments to build on? Does the DRM agency require a ser of national flood resilient codes and standards or identify international codes and standards that local government can build on?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency oversee floodplan regulation programs by periodically visiting the local government and provide technical and financial assistance to endure enforcement of floodplain management regulations?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency provide technical assistance to local communities by providing floodplain information and helping to increase awareness of the perils of flooding and the importance of good floodplain management?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency support a professional association of floodplain managers versed in hydrology, land use planning, disaster management, civil ingenieering, and public administration?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies prepare hazard mitigation planning regulations and guidelines that govern the content, preparation, review and approval of local govenrment hazard mitigation plans?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies provide technical assistance for the formulation of hazard mitigation plans by providing guidelines, training and technical support?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies provide grant support programs for local governments to help with the implementation of the hazard mitigation program?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM monitor and report on the implementation of the various drought management measures under its mandate including at the basin level? </t>
+  </si>
+  <si>
+    <t>Does the WRM actively participate in the drought communication and outreach during drought?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency  build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship?</t>
+  </si>
+  <si>
+    <t>Has the agriculture agency set up an agriculture risk management program to support farmers managing a variety of risks including insurance and direct support programs, information to prodicers regarding markets and risk, technical assistance to manage hydro-climatic risks and assistance to recover from natural disasters?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency develop tailored agriculture disaster support programs for different types of producers incluidng regulations for eligibility, verification and payment based on sound risk assessments?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency facilitate an agricultural insurance program where appropriate and feasible?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with the Ocean Agency in developing storm surge models and monitoring oceanographic conditions through an interagency agreement that defines protocols for information sharing  and joint action during potential storm surge situations?</t>
+  </si>
+  <si>
+    <t>Is there a collaboration between the NMS/NHS and the WRM Agency in cases where the WRM agency is responsible for flood forecasts so the NMS/NHS draws from the weather enterprise the information required by the WRM to deliver river flood forecasts as well as coastal storms for river coastal interactions? Is this collaboration facilitated through an inter agency agreement or through a Flood Forecasting Center?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,14 +1060,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,6 +1241,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1300,11 +1408,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1660,18 +1775,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,94 +1796,94 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
+        <v>117</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,13 +1891,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,13 +1961,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,125 +1975,125 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>235</v>
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>227</v>
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>229</v>
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>231</v>
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,139 +2101,136 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>233</v>
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
+        <v>106</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>108</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
+        <v>106</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
+        <v>106</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2127,13 +2238,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" t="s">
-        <v>111</v>
+        <v>146</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,13 +2252,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>112</v>
+        <v>146</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2155,13 +2266,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
+        <v>146</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,13 +2280,13 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>114</v>
+        <v>146</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2183,13 +2294,13 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
+        <v>146</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,13 +2308,13 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
+        <v>146</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,55 +2322,55 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" t="s">
-        <v>120</v>
+        <v>147</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,13 +2378,13 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,13 +2392,13 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>122</v>
+        <v>147</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,13 +2406,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" t="s">
-        <v>123</v>
+        <v>147</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,1470 +2420,1615 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
-        <v>124</v>
+        <v>147</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>20</v>
+      <c r="B47" t="s">
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
         <v>21</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
       <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
       <c r="C58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
       <c r="C59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
         <v>21</v>
       </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
       <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>137</v>
+        <v>150</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
         <v>21</v>
       </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
       <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>138</v>
+        <v>150</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
         <v>21</v>
       </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
       <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" t="s">
-        <v>145</v>
+        <v>151</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" t="s">
-        <v>152</v>
+        <v>48</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>153</v>
+        <v>48</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" t="s">
-        <v>154</v>
+        <v>48</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" t="s">
-        <v>155</v>
+        <v>48</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" t="s">
-        <v>157</v>
+        <v>49</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" t="s">
-        <v>158</v>
+        <v>49</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
+        <v>49</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" t="s">
-        <v>160</v>
+        <v>49</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" t="s">
-        <v>161</v>
+        <v>23</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" t="s">
-        <v>162</v>
+        <v>23</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" t="s">
-        <v>164</v>
+        <v>24</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" t="s">
-        <v>169</v>
+        <v>154</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" t="s">
-        <v>171</v>
+        <v>24</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D95" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D104" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" t="s">
         <v>74</v>
-      </c>
-      <c r="D110" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D111" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C113" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
-        <v>76</v>
-      </c>
-      <c r="D118" t="s">
-        <v>195</v>
+        <v>159</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" t="s">
-        <v>196</v>
+        <v>159</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" t="s">
-        <v>197</v>
+        <v>159</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121" t="s">
-        <v>92</v>
+        <v>159</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>78</v>
-      </c>
-      <c r="D122" t="s">
-        <v>198</v>
+        <v>160</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123" t="s">
-        <v>199</v>
+        <v>160</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D124" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>78</v>
-      </c>
-      <c r="D125" t="s">
-        <v>201</v>
+        <v>160</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D126" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>79</v>
-      </c>
-      <c r="D127" t="s">
-        <v>203</v>
+        <v>161</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>161</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" t="s">
+        <v>163</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" t="s">
         <v>36</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C137" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" t="s">
+        <v>165</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>165</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>165</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>166</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" t="s">
+        <v>166</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149" t="s">
+        <v>166</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" t="s">
+        <v>167</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" t="s">
+        <v>167</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C128" t="s">
-        <v>79</v>
-      </c>
-      <c r="D128" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="C157" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" s="2" t="s">
+      <c r="C158" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="C159" t="s">
+        <v>168</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="D161" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3781,21 +4037,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
     <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
@@ -4024,32 +4265,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6A13AE-37E0-4EFF-97D8-0C2932CFB4EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4066,4 +4297,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5321F-93A1-407F-9BCE-A0DC67505E74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49A478-2CBF-44C5-AD3A-C029175BA41D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyagencyactionsquestions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="253">
   <si>
     <t xml:space="preserve"> Question</t>
   </si>
@@ -919,6 +919,9 @@
   </si>
   <si>
     <t>Is there a collaboration between the NMS/NHS and the WRM Agency in cases where the WRM agency is responsible for flood forecasts so the NMS/NHS draws from the weather enterprise the information required by the WRM to deliver river flood forecasts as well as coastal storms for river coastal interactions? Is this collaboration facilitated through an inter agency agreement or through a Flood Forecasting Center?</t>
+  </si>
+  <si>
+    <t>Do the WRM, DRM and drought national strategic plans provide a platform to advocate for sustainable funding for hydro-met services?</t>
   </si>
 </sst>
 </file>
@@ -1775,17 +1778,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,7 +2128,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2134,8 +2138,8 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
-        <v>179</v>
+      <c r="D25" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,32 +2153,32 @@
         <v>47</v>
       </c>
       <c r="D26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" t="s">
-        <v>139</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
       <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
+      <c r="C28" t="s">
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2185,13 +2189,13 @@
         <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2199,13 +2203,13 @@
         <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2213,10 +2217,10 @@
         <v>106</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" t="s">
-        <v>183</v>
+        <v>108</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,24 +2231,24 @@
         <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,7 +2262,7 @@
         <v>146</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,7 +2276,7 @@
         <v>146</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,7 +2290,7 @@
         <v>146</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,7 +2304,7 @@
         <v>146</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,7 +2318,7 @@
         <v>146</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,21 +2332,21 @@
         <v>146</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>187</v>
+        <v>146</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2356,10 +2360,10 @@
         <v>147</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2370,10 +2374,10 @@
         <v>147</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2383,8 +2387,8 @@
       <c r="C43" t="s">
         <v>147</v>
       </c>
-      <c r="D43" t="s">
-        <v>190</v>
+      <c r="D43" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2397,8 +2401,8 @@
       <c r="C44" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>191</v>
+      <c r="D44" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,7 +2416,7 @@
         <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,7 +2430,7 @@
         <v>147</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,13 +2438,13 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" t="s">
-        <v>50</v>
+        <v>147</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,7 +2458,7 @@
         <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,7 +2472,7 @@
         <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,7 +2486,7 @@
         <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,7 +2500,7 @@
         <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,13 +2508,13 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,7 +2528,7 @@
         <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,7 +2542,7 @@
         <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,7 +2556,7 @@
         <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,21 +2570,21 @@
         <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>200</v>
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,7 +2598,7 @@
         <v>150</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,7 +2612,7 @@
         <v>150</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,7 +2626,7 @@
         <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,7 +2640,7 @@
         <v>150</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,24 +2654,24 @@
         <v>150</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2678,10 +2682,10 @@
         <v>151</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2696,7 @@
         <v>151</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2706,10 +2710,10 @@
         <v>151</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -2720,10 +2724,10 @@
         <v>151</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2734,21 +2738,21 @@
         <v>151</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>54</v>
+        <v>151</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,7 +2766,7 @@
         <v>152</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,7 +2780,7 @@
         <v>152</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,7 +2794,7 @@
         <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,7 +2808,7 @@
         <v>152</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>56</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,7 +2822,7 @@
         <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,7 +2836,7 @@
         <v>152</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,13 +2844,13 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,7 +2864,7 @@
         <v>48</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,7 +2878,7 @@
         <v>48</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,7 +2892,7 @@
         <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>218</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2899,10 +2903,10 @@
         <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,7 +2920,7 @@
         <v>49</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,7 +2934,7 @@
         <v>49</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,21 +2948,21 @@
         <v>49</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,7 +2976,7 @@
         <v>153</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,38 +2990,38 @@
         <v>153</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>22</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>154</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3042,7 +3046,7 @@
         <v>154</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3056,7 +3060,7 @@
         <v>154</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3070,10 +3074,10 @@
         <v>154</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -3084,35 +3088,35 @@
         <v>154</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>22</v>
       </c>
       <c r="B94" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>154</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" t="s">
-        <v>155</v>
-      </c>
-      <c r="D95" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,7 +3130,7 @@
         <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,7 +3144,7 @@
         <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,7 +3158,7 @@
         <v>155</v>
       </c>
       <c r="D98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,7 +3172,7 @@
         <v>155</v>
       </c>
       <c r="D99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,7 +3186,7 @@
         <v>155</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,7 +3200,7 @@
         <v>155</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,21 +3214,21 @@
         <v>155</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,7 +3242,7 @@
         <v>156</v>
       </c>
       <c r="D104" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,7 +3256,7 @@
         <v>156</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3266,7 +3270,7 @@
         <v>156</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,7 +3284,7 @@
         <v>156</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,13 +3292,13 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,7 +3312,7 @@
         <v>157</v>
       </c>
       <c r="D109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3322,7 +3326,7 @@
         <v>157</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,7 +3340,7 @@
         <v>157</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,21 +3354,21 @@
         <v>157</v>
       </c>
       <c r="D112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D113" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3378,7 +3382,7 @@
         <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,7 +3396,7 @@
         <v>158</v>
       </c>
       <c r="D115" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,7 +3410,7 @@
         <v>158</v>
       </c>
       <c r="D116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,7 +3424,7 @@
         <v>158</v>
       </c>
       <c r="D117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,13 +3432,13 @@
         <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>159</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>237</v>
+        <v>158</v>
+      </c>
+      <c r="D118" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,7 +3452,7 @@
         <v>159</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,7 +3466,7 @@
         <v>159</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3476,7 +3480,7 @@
         <v>159</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,13 +3488,13 @@
         <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,7 +3508,7 @@
         <v>160</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,7 +3522,7 @@
         <v>160</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,21 +3536,21 @@
         <v>160</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,7 +3564,7 @@
         <v>161</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,7 +3578,7 @@
         <v>161</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,7 +3592,7 @@
         <v>161</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3596,13 +3600,13 @@
         <v>170</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>161</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>244</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3616,7 +3620,7 @@
         <v>162</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,7 +3634,7 @@
         <v>162</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,13 +3642,13 @@
         <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
-      </c>
-      <c r="C133" t="s">
-        <v>163</v>
+        <v>34</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,7 +3662,7 @@
         <v>163</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,7 +3676,7 @@
         <v>163</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3686,7 +3690,7 @@
         <v>163</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3694,13 +3698,13 @@
         <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3714,7 +3718,7 @@
         <v>164</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3728,21 +3732,21 @@
         <v>164</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>170</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>36</v>
       </c>
       <c r="C140" t="s">
         <v>164</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>87</v>
+      <c r="D140" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,24 +3760,24 @@
         <v>164</v>
       </c>
       <c r="D141" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>170</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>164</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" t="s">
-        <v>165</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>171</v>
       </c>
@@ -3783,8 +3787,8 @@
       <c r="C143" t="s">
         <v>165</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>251</v>
+      <c r="D143" s="5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,7 +3802,7 @@
         <v>165</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3812,7 +3816,7 @@
         <v>165</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3820,13 +3824,13 @@
         <v>171</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3840,7 +3844,7 @@
         <v>166</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,7 +3858,7 @@
         <v>166</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3868,7 +3872,7 @@
         <v>166</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3882,7 +3886,7 @@
         <v>166</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3896,7 +3900,7 @@
         <v>166</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,7 +3914,7 @@
         <v>166</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3924,7 +3928,7 @@
         <v>166</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,13 +3936,13 @@
         <v>171</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3952,7 +3956,7 @@
         <v>167</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3966,21 +3970,21 @@
         <v>167</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C157" t="s">
-        <v>168</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3994,7 +3998,7 @@
         <v>168</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4008,7 +4012,7 @@
         <v>168</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4022,13 +4026,27 @@
         <v>168</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="D161" s="1"/>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="D162" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4037,6 +4055,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
     <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
@@ -4265,22 +4298,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6A13AE-37E0-4EFF-97D8-0C2932CFB4EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4297,29 +4340,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\originals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F572B-2920-4E77-94B2-9C29074E0A7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49A478-2CBF-44C5-AD3A-C029175BA41D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="2580" windowWidth="16800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyagencyactionsquestions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="253">
   <si>
     <t xml:space="preserve"> Question</t>
   </si>
@@ -90,21 +90,12 @@
     <t>Irrigation Water Supply Planning</t>
   </si>
   <si>
-    <t>Local Flood Risk Mitigation Planning</t>
-  </si>
-  <si>
     <t>Healthy Watersheds</t>
   </si>
   <si>
     <t>Agriculture Policies and Climate Smart Agriculture</t>
   </si>
   <si>
-    <t>Local Watershed Management Organizations</t>
-  </si>
-  <si>
-    <t>Watershed Planning</t>
-  </si>
-  <si>
     <t>Water Resources Infrastructure</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>Local Flood Mitigation Planning</t>
   </si>
   <si>
-    <t>Drought Monitoring</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drought Monitoring Program</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t xml:space="preserve"> Social Protection Drought Response</t>
   </si>
   <si>
-    <t>Flood Monitoring</t>
-  </si>
-  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
@@ -166,31 +151,6 @@
   </si>
   <si>
     <t>Disaster Risk Financing Instruments</t>
-  </si>
-  <si>
-    <t>Disaster Risk Financing National Sector Framework</t>
-  </si>
-  <si>
-    <t>Program description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The dominant paradigm for WRM is “integrated water resources management (IWRM)”. While there is no official definition of IWRM, a commonly used definition is that it is “a process which promotes the coordinated development and management of water, land and related resources in order to maximize economic and social welfare in an equitable manner without compromising the sustainability of vital ecosystems and the environment” (GWP 2000). Recognized at the international level more than 30 years ago at the 1992 Earth Summit in Rio de Janeiro, Target 6.5 of Sustainable Development Goal 6 on Clean Water and Sanitation calls for the implementation of IWRM at all levels by 2030. 
-The basic objective of WRM is the management of water as a natural resource, the use of which is fundamental to all socioeconomic activities, but which at the same time plays a vital ecological function that needs to be protected. As such, WRM seeks to allocate water among different user sectors (such as water supply, agriculture, industry, and power generation) and water users. It promotes the development of water resources while also seeking to prevent or minimize water pollution and to ensure appropriate water quality. It sets and enforces minimum or environmental flows to enable people to meet basic needs and to protect aquatic ecosystems and the livelihoods of those who depend on those ecosystems. Many of the programs identified in the upper part of the EPIC Response Framework fall under the general, but not necessarily exclusive, domain of the WRM framework, including river basin planning, water resources infrastructure, and adaptable water allocation. It follows that an effective national framework for hydro-climatic risk management system generally requires a functional and comprehensive national framework for WRM. </t>
-  </si>
-  <si>
-    <t>DRM is a broad topic that has seen significant evolution over recent years, encapsulated by the recent Sendai Framework for Disaster Risk Reduction 2015-2030. Among the four priorities of the Sendai Framework is Priority 2: “Strengthening disaster risk governance to manage disaster risk”. This priority notes “the vital role of disaster risk governance at the national, regional and global levels in terms of the management of disaster risk reduction and ensuring the coherence of national and local frameworks of laws, regulations and public policies that, by defining roles and responsibilities, guide, encourage and incentivize the public and private sectors to take action and address disaster risk.”   
-Floods and droughts are invariably included among the types of natural hazards that are subject to a disaster risk management (DRM) framework along with storms, earthquakes, volcanoes, and disease outbreaks, as well as anthropogenic hazards such as transportation and industrial accidents. It follows  that, as with WRM, an effective national framework for hydro-climatic risk management includes the need for an effective, functional, and comprehensive national DRM framework.</t>
-  </si>
-  <si>
-    <t>Drought risk management is a complex endeavor that requires both WRM and DRM perspectives, but also necessitates going beyond these traditional domains. International recognition of the importance of droughts was reflected in the 1994 United Nations Convention to Combat Desertification (UNCCD) which calls upon decision makers and water and land managers to take a proactive, coordinated, and holistic approach to drought risk management.   
-The modern conception of WRM includes both “blue” and “green” water. Blue water is mainly water stored in rivers, reservoirs, lakes, and accessible groundwater aquifers, and is available for uses such as hydropower, water supply, and irrigation. Green water refers to the water that originates from precipitation, is stored in unsaturated soil, and is absorbed and undergoes transpiration by plants or is evaporated directly from the soil. Green water plays an irreplaceable role in global ecosystems and food production, accounting for around 80 percent of global food production and exclusively sustaining grassland and forest ecosystems (Liu and Yang 2010).  
-WRM policies, institutions, and infrastructure have, however, historically evolved to manage primarily blue water. Drought not only affects traditional blue water uses, but also has a profound impact on green water, particularly as regards agriculture and natural resources management. These domains thus must also be explicitly incorporated into drought risk management systems. Healthy land provides natural storage for fresh water. If it is degraded, it cannot perform that function. Managing land better and massively scaling up land rehabilitation are essential for building drought resilience and water security. Land restoration is the cheapest and often the most effective solution to improving water storage, mitigating impacts of drought, and addressing biodiversity loss. 
-DRM evolved primarily in response to immediate and devastating natural shocks such as earthquakes, storms, floods, and landslides. Drought, in contrast, is generally a slow-moving natural disaster in which the extent of the impact only emerges over time, sometimes years, and the understanding of future impacts are limited by the accuracy of weather and climate forecasts and socioeconomic drivers. Some of the elements of a DRM framework, such as efforts to mitigate hazards and the activation of emergency support systems, can also naturally be applied to drought risk management.
-In summary, although WRM and DRM are intimately linked to drought management, it is generally necessary to develop a specific drought framework that incorporates the unique elements of drought monitoring, impact assessment, and risk characterization, in addition to providing the basis for drought agricultural response and recovery programs. In some poorer countries with large rural populations, WRM and DRM frameworks may not even exist or may be underdeveloped, and in such cases the burden of managing droughts may fall primarily on the agriculture agency and local governments.</t>
-  </si>
-  <si>
-    <t>In many countries, the combination of WRM, DRM, and Hrydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
-The European Union’s Water Framework Directive  and Floods Directive , between them require member states to adopt a common approach to river basin management and flood risk assessment and management planning. As shown in figure 3.4, in Japan there are three major interlocking laws related to flood risk management, the DRM Act, the River Act (which acts as a water resources law), and a specific Flood Protection Act. In the United States, the Federal Interagency Floodplain Management Task Force helps bring together all water-related agencies and was established under the 1975 Water Resources and Development Act</t>
   </si>
   <si>
     <t xml:space="preserve">Local governments play pivotal roles in responding to flood and drought disasters (World Bank 2019). As highlighted in Chapter 12, local governments need to work in concert with national DRM agencies to respond to floods. They serve as one of many channels to warn about floods, to help evacuate residents, to ensure public safety, to provide relief to impacted people, and to help guide recovery efforts. Chapter 11 notes how local governments can work in concert with national agencies on drought issues; they can help disseminate information as the drought unfolds, implement emergency drought measures, administer drought assistance, and support social protection programs.
@@ -223,38 +183,6 @@
 Hydromet laws need to evolve quickly to adjust to changing technology and to meet the increasing demands from users, specifically from the WRM, DRM, and Drought Communities. Often there is an overemphasis on NMS/NHS functions with insufficient attention paid to the broader need of providing weather and hydrological services. This can result in obligations and regulations imposed on others and insufficient accountability for what the NMS/NHS should produce.</t>
   </si>
   <si>
-    <t xml:space="preserve">River basin plans guide the development, management, allocation, and use of water and related resources within a specific geographical area. Ideally, this is an actual river basin, but in some cases the planning area may be limited due to transboundary constraints or in order to ensure a more tractable planning size. In some countries, a single river basin is simply too large to plan as a single unit, so it is necessary to divide it into sub-basins. River basin plans are typically integrated plans, addressing water quantity, water quality, surface water and groundwater, and the protection of water and aquatic ecosystems while enabling the integration of upstream and downstream interests. Basin plans should also include issues such as institutional responsibilities, implementation arrangements, budgets, and monitoring. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 600 million people, around 10 percent of the global population, live in coastal areas that are less than 10 meters above sea level (UN 2017). These areas are particularly vulnerable to flooding from storms and the associated storm surges that drive seawater onto coastal flood plains. Coastal zones can also be vulnerable to water shortages and droughts with the additional risk of saline intrusion (and therefore contaminated groundwater) as a result of groundwater over-abstraction. Climate change also directly impacts coastal communities due to rising sea levels and increasing storm frequencies and magnitudes in many areas. 
-The most comprehensive paradigm for coastal zone management is Integrated Coastal Zone Management (ICZM), a multi-sectoral, stakeholder-informed coastal zone equivalent of river basin planning, which seeks to promote economic development in the coastal zone while also protecting valuable coastal ecosystems. These ecosystems are often important for tourism and fisheries, and act as coastal barriers against storm surges. Unlike river basin planning, ICZM has not been fully mainstreamed into most countries’ planning processes, probably reflecting the complexity of the exercise. 
-Particularly in countries or coastal areas with extensive deltas, coastal zone planning must of necessity be linked to river basin management planning. That is because the delta represents the terminus of a river basin, where freshwater flows mix with seawater and bring sediments, nutrients, and pollutants that have a profound impact on coastal ecosystems. ICZM is also fundamentally intertwined with marine spatial planning by virtue of common geomorphological dynamics and the ecosystems providing services (such as flood protection) and goods to coastal economies.
-Coastal zone management plans provide the overall framework for flood management programs operating in coastal areas and should help inform local flood management plans for jurisdictions located along the coastline. They also help in establishing priorities for investments related to coastal barrier management, including protection and restoration activities, and the prioritization of areas where “hard” coastal defenses such as sea dikes or flood walls may be necessary. </t>
-  </si>
-  <si>
-    <t>Urban water supply and sanitation utilities (hereafter “water utilities”) typically prepare master plans to define system-wide strategies and guide capital improvement projects to cope with population growth, regulatory requirements, and infrastructure renewal needs. In order to ensure that current, medium- and long-term water needs can be met, such master plans usually also include what are described in this report as an Urban Water Supply Plan (UWSP) that helps to mitigate drought risks by identifying potential supply-side and demand-side options. Potential supply-side options may include the construction of infrastructure in the form of new reservoirs, long-distance conveyance structures, water reclamation and desalination plants, development of new groundwater wellfields, and the purchase of water from bulk suppliers. Potential demand-side options may include reducing physical losses, promoting water conservation, and adjusting water pricing. Water quality may also be factored into a water supply plan, as poor raw water quality can potentially reduce the availability of potable water.</t>
-  </si>
-  <si>
-    <t>Irrigation service providers are usually the largest users of water in a river basin and are accordingly also key stakeholders in river basin management planning. The notion of the irrigation service provider encompasses a range of different actors depending on the national context and may include an irrigation department in a ministry (such as the agriculture ministry or even the WRM ministry), a separate irrigation ministry, a semi-autonomous national or regional public irrigation agency, or farmer-managed water user organizations (variously described as “irrigation districts”, “water communities”, or “water user associations”), which may have their own direct access to water sources or which may in turn be supplied in bulk by public irrigation service providers. 
-Because of the volumes of water involved, irrigation service providers are generally required to demonstrate more flexibility in their water allocations than are other uses such as water utilities or hydropower operators, and thus play a critical role in basin drought contingency plans. At the same time, though, reduced irrigation water availability may reduce crop production (and therefore influence food prices and food security) and adversely affect rural livelihoods. 
-In order to ensure sustainable and long-term operation, best practice suggests that irrigation service providers should periodically prepare irrigation scheme master plans that cover all aspects of their service, including asset management and capital planning. Ideally too, and depending on the socioeconomic context, an irrigation service provider should prepare an Irrigation Water Supply Plan (IWSP) that looks at long-term resource planning to ensure that adequate water is available to meet farmers’ existing and future uses, particularly considering changing cropping patterns and climate change. This involves balancing water supply and demand alternatives, while also considering water quality, to ensure long-term sustainability. 
-There are typically several critical elements in an IWSP. It should include seasonal and monthly water budgets based on quantifying all inflow and outflow components for the service area, such as: crop water use, non-beneficial evaporation, groundwater seepage, and return flows. The IWSP should present water management objectives based on the water budget as a guide to improve system efficiency or meet other objectives. This should include a program of actions to help meet these objectives, including various water conservation approaches. In many schemes there is a need to first improve flow measurement and water control within the canal network through a modernization program. 
-It is also important to ensure that irrigation service providers prepare a Drought Plan describing actions for drought preparedness as well as allocations of water supply during drought conditions. Unlike urban WSCPs, the IWSP Drought Plan may not need to be a stand-alone document as irrigation service providers generally have more flexibility during drought periods than urban water utilities which are required to maintain minimum service levels to protect public health.</t>
-  </si>
-  <si>
-    <t>Agricultural Economic Policies:  Agricultural economic policies can have a significant impact on land use, sometimes motivating farmers to grow inappropriate crops and utilize excessive amounts of water. To ensure food security and in conjunction with the Green Revolution starting in the 1960s, many governments adopted subsidy programs to promote the production of key staple crops (such as rice, wheat, and maize), support poor farmers, and keep food prices low. This helped to both combat rural poverty and ensure food security. These subsidies took the forms of below-cost irrigation water, subsidized inputs such as fertilizers and pesticides, and crop price support programs. Although in many countries these policies did in fact increase the supply of cheap food and address food security concerns, they also contributed to land degradation and water use inefficiency (Pingali 2012).
-Adjusting these agricultural policies to ensure the availability of nutritious food for the poor while reducing the environmental impacts of agriculture is the paramount agriculture policy imperative for the 21st century. It will not be politically easy, as many vested interests have emerged around existing subsidy regimes and governments are understandably wary about tampering with policies that may affect the production of food staples. Yet a Green Revolution 2.0 (GR2.0) is needed—and is emerging—to meet the world’s food demands, ensure environmental sustainability, and meet the challenges of climate change. 
-By 2050, the global population is projected to increase by about one-third, which will require a 70 percent increase in food production. GR 2.0 needs to not only increase basic cereal productivity (for example, wheat, rice, and corn) to meet the demand for staples, but also to make more land available for higher value and more nutritious crops, such as fruits, vegetables, and legumes. In addition, it should allow for the movement of labor out of agriculture when other economic opportunities provide greater returns. GR 2.0 must also improve the tolerance of crops to stresses, both climatic and biotic (pest and disease). Improved varieties that are tolerant to drought or excess water would enhance smallholder productivity in marginal environments and provide tools to adapt to climate change (Pingali 2012).
-Agriculture agencies, working in collaboration with farmers and agribusiness, need to show leadership in this transition to a GR 2.0. They can adjust agricultural policies to focus on improving productivity, gradually reducing subsidies that distort incentives for sustainable land management, and fund programs that support climate-smart agriculture. Governments can also work with the private sector and farmers to promote the use of new technologies, such as a greater focus on precision agriculture, the internet of things (IoT) and the use of big data—sometimes referred to as “agriculture 4.0” (De Clercq and others 2018). 
-Climate-Smart Agriculture Programs: Agricultural water and soil conservation programs have historically been a focus area for mitigating drought hazards. As an example, the U.S. Soil Conservation Service was created in response to the great Dust Bowl in the American prairies in the 1930s. In response to climate change, the approach has been broadened to include climate-smart agriculture (CSA). CSA aims to improve agricultural and livestock productivity while delivering greater resilience to climate change and lowering greenhouse gas emissions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The natural resources agency has several different options for managing forests on public lands depending on the specific context. Although this is a vast and complex topic, table 7.2 below presents four general management approaches for illustrative purposes.  These approaches are not mutually exclusive. For example, within the same forest areas, the natural resources agency may reserve some land for conservation, ensure sustainable forestry in public and private lands, and enter into arrangements with local communities including indigenous groups. </t>
-  </si>
-  <si>
-    <t>There are a variety of approaches to wetlands management which are summarized below in table 7.4. As with forest management, these approaches are not mutually exclusive. National wetlands management programs might be linked to global efforts, particularly the Ramsar Convention, which currently has 171 Contracting Parties. The Ramsar Convention’s mission is “the conservation and wise use of all wetlands through local and national actions and international cooperation, as a contribution towards achieving sustainable development throughout the world.” National programs might benefit from the resources and analytical work provided with the Ramsar bodies (in particular from the Scientific and Technical Review Panel). They also can contribute to global monitoring efforts such as the Global Wetland Outlook.</t>
-  </si>
-  <si>
     <t xml:space="preserve">These organizations can help provide a critical link between national agencies and local communities. This linkage is important because national agencies may have substantial financial resources and technical expertise, but communities often have a better sense of local priorities and are responsible for undertaking many of the actions supported by various natural resources management and agricultural programs. 
 In practice, WaMOs can follow hydrological or political boundaries and take on a variety of different forms and geographical coverage. In some cases, they may be legally constituted organizations that operate independently of the government. In other cases, the local government may have a specialized unit that helps organize and represent the community in its interactions with national agencies. An important consideration is that a WaMO needs to be able to take a broad landscape perspective within its area of jurisdiction and to understand how that area is nested into a larger watershed perspective. Agriculture and natural resources agencies should support and nurture WaMOs for a variety of reasons. WaMOs serve as an ideal conduit for public outreach and communication programs. WaMOs can also serve as a channel for implementing programs, either through block grants to WaMOs or helping to link potential beneficiaries with specific agency programs. WaMOs can also help national agencies better address social inclusion issues by providing linkages with marginalized groups such as indigenous groups, women, and landless populations. National agency support for WaMOs can take many forms, including helping in their legal establishment, funding, and providing technical assistance and training. </t>
   </si>
@@ -264,176 +192,6 @@
 Watershed planning should be done in a collaborative process with all relevant agencies, and in a participatory manner with a wide range of stakeholders including the local WaMOs. The watershed management plan should feed into the river basin plan and vice versa. This collaborative arrangement between the various agencies is a classic example of the type of joined-up government approach required to address hydro-climatic risk management.</t>
   </si>
   <si>
-    <t>There is a clear need to increase funding for upgrading and constructing new water resources infrastructure, particularly to address the increasing hazards associated with climate change (HLPW 2018). WRI generates a mix of public and private benefits, yet it is generally funded by the government. Since public budgets are constrained, policies should be adopted which promote the efficient use of these funds. Investment efficiency is also important from an equity perspective because in many cases the costs (in terms of high levels of public subsidies) for WRI are borne by all taxpayers while the benefits go only to a much smaller group. Finally, national WRM agencies that depend entirely on a general budget and operate in a non-commercial manner may potentially be driven by political motivations, rent seeking, or local elite capture that distorts the decision-making process (Molle 2008).
-Ideally, WRI investment decisions should be guided by sophisticated economic and environmental analysis to determine whether a proposal is justified from a broad economic perspective; this also helps to ensure a reasonable project size and cost. An economic analysis is used to determine whether a proposed project will be a worthwhile investment. It would account for all benefits and costs regardless of who is affected. An economic analysis allows for fair comparisons to be made between alternatives and demonstrates why a proposed project can be considered the best solution to meet the overall objectives. More sophisticated economic analysis can consider environmental and social costs and benefits and thus provides a useful tool, along with the technical, financial, environmental, and social assessments, to appraise a project. It is particularly important to consider the co-benefits of associated green infrastructure when analyzing a project proposal (Browder and others 2019). Ideally, economic analysis should be integrated into a broader environmental and social impact assessment (ESIA) that can be used as the government’s primary decision-making document. 
-Although WRI is typically financed by the government, there are opportunities to recover some costs by charging water users, for example by selling bulk water supply to water utilities and irrigation schemes or by generating power from multi-purpose dams. Methods for allocating costs for multi-purpose reservoirs and water conveyance systems have been developed, allowing for more equitable cost recovery policies from water users (OCDE 2017).
-In many cases, the national government will help fund local flood control projects or the development of new water sources such as reservoirs or groundwater well fields. When funds are offered on a 100 percent grant basis there is a tendency for local governments to overbuild and undermaintain the WRI. Thus, adopting reasonable cost-sharing policies will encourage local governments to make better economic decisions, since the use of their scarce funds is also at stake. Attaching conditions to national funding of local WRI can also be used to incentivize local governments to adopt better and lower-cost management practices, for example by promoting the use of non-structural approaches for flood management or water conservation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dams comprise critical infrastructure to meet increasing demands for water, food, energy, and flood control. The failure of a dam can potentially have catastrophic impacts in terms of downstream flooding, as well as by removing an asset that communities are reliant upon to reduce flood hazards and to supply water. The two most common causes of dam failure are “overtopping” of earth dams, and foundation problems that are sometimes triggered by earthquakes. The proximate causes of dam failures, however, are often complex and myriad, and could include factors such as inappropriate design standards, bad siting decisions, poor construction, inadequate monitoring and maintenance, poor operational decisions, and lack of emergency planning. Dam safety programs are intended to address these shortcomings by ensuring a comprehensive life cycle approach.
-Dams are typically owned and operated by a wide variety of organizations. WRM agencies may themselves operate dams for multi-purpose use such as flood control, water supply, hydropower, and recreation. Energy agencies or companies may operate dams primarily for hydropower but may also include other uses. Agriculture agencies, and individual irrigation surface providers, often rely upon dams to provide water supply for irrigation systems. Water utilities often own and operate their own reservoirs to meet their water supply needs. Many of these dams are typically either constructed from soil or concrete, with a wide variation in dam and associated reservoir size. Ensuring that all these dams are regulated under an appropriate national dam safety management program is an indispensable element of hydro-climatic risk management.
-The core principle of dam safety management is the notion of shared responsibility. The owner is responsible for ensuring the safety of a dam, for operating and maintaining it in a safe condition, and for ultimately assuming criminal and civil liability in the event of a failure. The dam safety regulator is responsible for protecting the safety of the public by establishing dam safety standards and ensuring that these are fully implemented. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">River and coastal flood control infrastructure provide many of the same functions as dams—essentially holding water back—and faces many of the same risks. Flood control embankments can include levees that protect land that is normally dry but that may be occasionally flooded, and dikes that protect land that would naturally be underwater most of the time. Tidal gates are important for coastal flood control and can help protect against storm surges. Large pump stations that help evacuate flood waters are critical elements of many flood control systems.
-Flood embankments are typically constructed from soil and are sometimes armored with concrete. They are prone to collapse when overtopped and they can suffer foundation failures like dams do. Flood walls are constructed from concrete, and in some cases steel, and may also fail from overtopping or foundation failures. Flood embankments may also be integrated into transport infrastructure, with roads or railway lines situated on top of the embankments. In some cases, specific sections of flood embankments may be designed to be easily breached (these are called fuse plugs). When flood levels in a river are dangerously high, the fuse plugs allow water to be channeled into areas that pose the lowest risk, such as agricultural areas with minimal numbers of structures. Although a flood control infrastructure failure is generally not as immediately catastrophic as a dam failure, it can have a significant impact over a large geographical region as river or coastal flood waters pour into low-lying areas. As an example, the devastating floods in New Orleans during Hurricane Katrina in 2005 were caused primarily by the failure of levees (ASCE 2017).
-Like dams, flood control infrastructure is often owned or operated by multiple entities. Larger infrastructure is typically constructed by the WRM agency, which may keep control of operations or maintenance or turn them over to local governments. In some cases, local governments or private industries, such as industrial estates, may construct their own flood control infrastructure. However, a basic challenge for flood safety can be identifying precisely who owns the infrastructure or sections of flood embankments and who is therefore responsible for maintaining them and ensuring their integrity. This is because many flood embankments have been built up and extended over decades or even over centuries. Consequently, few were originally designed or constructed to modern standards. In addition, records of their construction and historical performance may not exist. Moreover, they may stand for much of their lives without being loaded to design capacity, which can create a false sense of security in the level of protection they will provide.
-Flood infrastructure is typically composed of long linear structures that are only as strong as their weakest links. The structures can suffer from several potential deficiencies, such as old age, poor construction, and inadequate maintenance. They can also experience damage from burrowing animals and human activity, such as illegal construction on or adjacent to flood control infrastructures, illegal sand exploitation and storage of building materials, and overloaded vehicles travelling on embankments. They also are typically subject to encroachments by third-party objects that are constructed or installed over, under, or through the structures. Those encroachments can adversely affect flood control infrastructure integrity, but are not always fully recorded or documented. </t>
-  </si>
-  <si>
-    <t>WRM agencies should manage water allocations to ensure that water is not overallocated and that there is enough slack in the system to help mitigate drought impacts. This includes having a formal system of adaptable water allocations whereby water can be transferred from lower value users to higher value users, for example through administrative decisions, negotiated settlements, or water markets.</t>
-  </si>
-  <si>
-    <t>This program involves balancing surface water and groundwater use, including managed groundwater recharge where possible, and ensuring that groundwater is available as a strategic reserve to help meet demand during droughts. Where groundwater aquifers exist, they provide an ideal water storage option. Too often, however, aquifers are overexploited resulting in unsustainable yields thus diminishing their effectiveness as strategic sources of water during droughts.</t>
-  </si>
-  <si>
-    <t>To properly manage river and coastal floodplains, the hazards should be well understood and communicated to local governments and the public. This is an enormously complex and continuous process that the DRM or WRM agency typically manages due to the technical challenges involved. It cannot be done quickly and needs to be constantly updated as flood hazards change over time due to climate change, watershed development, and new water resources infrastructure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floodplain regulation helps to reduce exposure and vulnerability of people and assets and has two dimensions: (1) a permitting process to authorize development and activities; and (2) standards and codes to reduce the vulnerability of buildings and facilities. Land use management is generally a local government responsibility, and local governments should have their own specific floodplain management units. Some countries have even created multi-jurisdictional floodplain authorities to manage entire river or coastal stretches. The DRM agency has an important role to play in helping local governments by defining permitting guidelines and developing uniform standards. In some cases, the DRM agency may be legally mandated to oversee the implementation of local government floodplain regulations. </t>
-  </si>
-  <si>
-    <t>River basin and coastal management planning are the tools generally used to reduce overall flood hazards at the regional level with a focus on watershed health and large-scale water resources infrastructure. Local flood mitigation planning plays an important complementary role to basin planning, and may often be part of a broader multi-hazard local government mitigation plan that includes other potential threats, such as earthquakes, landslides, and fires. Local flood mitigation plans go beyond regulation to proactively manage risks by identifying priority actions, such as refining land use plans and regulations, identifying infrastructure projects, conserving and restoring natural systems, and implementing educational and awareness programs. The DRM agency has an important role in providing guidelines and technical assistance to local governments in the formulation of flood mitigation plans. In some cases, the DRM agency may be legally mandated to oversee local government flood mitigation plans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comprehensive Drought Monitoring Program (DMP) encompasses two interrelated activities: (1) the monitoring and forecasting of meteorological and hydrological conditions; and (2) the assessment of actual and potential on-the-ground drought impacts and risks. The DMP should classify and report on the level of drought for specific regions of the country. The designations often range from 1 to 5, from a low level (1) of “abnormally dry” to the highest level (5) of “an exceptional drought”. The designation of a drought level is important because it should help communicate the relative severity of the drought to different parts of the country and trigger actions identified in the National Drought Plan.
-A drought monitoring program identifies climate and water supply trends and detects the emergence or probability of occurrence of droughts, usually by categorizing severity through a percentile ranking approach, and the likely impacts associated with each category. The information can be used to communicate broadly to the general public, as well as to inform specific regional, local, and sector-specific drought management plans and actions. This information can be used to trigger drought mitigation and response measures, as well as disaster declarations and eligibility for drought-related programs, such as disaster relief, insurance, and eligibility for low-interest loans. It can also be used to help inform food relief efforts, water tanker truck deliveries, and other policy and management responses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">During droughts, water use needs to be coordinated at the basin level to ensure water allocations are in alignment with the overall basin drought contingency plan. As highlighted in Chapter 9, the WRM agency should ideally administer a water use permit system that has clear rules of priority during periods of water shortage or drought. Ideally, this permit system would be flexible enough to accommodate priority and equitable use of water during droughts, either through administrative decisions by the WRM agency—preferably within the context of deliberations within the Drought Committee—or through a water rights trading system. The role of conjunctive groundwater management was also highlighted in Chapter 9, underscoring the need to facilitate the storage of water in aquifers during non-drought periods and then abstracting groundwater for use during droughts. The challenge is to ensure that the sustainable yield of an aquifer is not exceeded over the long run.
-The WRM agency often, but not always, serves as the anchor agency for the Drought Committee. In regions where cities, industries, and farms rely heavily on surface water or groundwater, particularly when delivered through regional water conveyance systems, the WRM agency has a critical role to play in drought response. As a core member of the Drought Committee, it should monitor and report on the implementation of the various drought management measures, as well as the overall water balance at the river basin level. The WRM agency also has a central role to play in drought communication and public outreach during droughts, reaching out through its various channels to create a culture of water conservation and water use efficiency. The WRM agency can build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture, including both crop and livestock production, is an inherently risky endeavor and subject to many types of natural hazards, such as droughts, floods, pestilence, fires, tornadoes, and hail. Agriculture is also confronted with many market risks, such as price fluctuations, logistical interruptions, and sudden export restrictions. Therefore, it is important that the agriculture agency develop a sector-wide agriculture risk management program that considers all risks in a holistic manner to help farmer and livestock producers cope with this broad range of uncertainties (World Bank 2016).
-As highlighted in Chapter 6, climate-smart agriculture programs can help mitigate potential drought impacts by promoting improved agronomic practices. When a severe drought does strike, however, agricultural disaster support programs can be powerful tools to protect the livelihoods of agriculturalists. Such programs can also help de-risk the agricultural sector and contribute to increasing agricultural output through improved access to credit and encouraging agricultural investments. 
-Agricultural disaster support is generally organized around two approaches: (1) direct government-administered relief; and (2) relief administered through agricultural insurance. Direct relief programs provide financial support, such as payments or concessional loans, to agriculturalists who suffer damages due to natural hazards. Natural hazard insurance programs, on the other hand, are typically established, regulated, and subsidized through the agriculture agency, which works through insurance companies that offer plans to agriculturalists. Specialized direct relief or insurance programs are required to deal with different types of producers, for example different programs may be required for annual crops, perennial crops such as orchards or plantations, and livestock. 
-Depending on the specific country context, there may be a mix of direct relief programs and insurance programs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dedicated agricultural disaster support programs may function well in middle-income countries where the agriculture sector is commercialized, and where agriculturalists have the capacity to apply for assistance. In many developing countries, however, farming and livestock production is managed in a more informal and often subsistence level, and different approaches focused on social protection are required to help rural households respond and recover from droughts (and from floods, for which social protection programs are discussed in Chapter 12). Even with commercialized agriculture, agricultural disaster support programs may not be enough to meet the needs of the impacted population. For example, people employed on farms or who operate as sharecroppers may lose their jobs due to droughts. In addition to their economic impacts, droughts in rural communities may also have deep and long-lasting social impacts related to malnutrition and lack of access to water and sanitation. They can have a profound short-term impact on health as well as longer term impacts such as childhood stunting or lack of access to schooling.
-For these reasons, countries should have preconceived programs for ensuring food and water security in rural areas impacted by natural disasters. Social protection programs that help facilitate effective drought responses in rural areas include offering traditional safety nets and, in extreme conditions, humanitarian aid. </t>
-  </si>
-  <si>
-    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
-The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
-For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
-For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
-  </si>
-  <si>
-    <t>Emergency preparedness and response for floods should take place at many levels: national, regional, local, private sector, and households. The National DRM Plan should include a specific component on disaster response that establishes a standard Emergency Management System (EMS) that allows for multi-agency and multi-jurisdictional responses to emergencies. Some key elements include (1) definition of command structure; (2) regional EOCs; (3) emergency warning dissemination system; (4) master civil defense mutual aid agreements; and (5) multi-agency coordination processes. 
-Although this system is set up to manage all types of emergencies, such as earthquakes, fires, storms, and floods, there also needs to be flood-specific emergency preparedness plans and response actions. The EMS serves to coordinate the actions of the key actors, including relevant national agencies and local governments, and emergency responders such as police, fire, and the military as necessary. The EMS should include provisions as necessary for mobilizing the national level Disaster Management Committee which often consists of Cabinet-level officials and may be chaired by the Executive. 
-For river flooding, the WRM agency should prepare a River Basin Flood Contingency Plan as discussed in Chapter 6, which looks at different flood scenarios and operational responses. The WRM agency should also have a Flood Control Center which serves as the focal point for flood monitoring, forecasting, and operations, working in close collaboration with the DRM agency. In partnership with the DRM agency, the WRM agency also has an important role to play in flood preparedness. Raising awareness about flood risk and emergency response with local governments, businesses, and the private sector is an important preparedness activity. The WRM agency can also provide flood fighting training for its staff, other agencies, and local governments. Finally, the WRM agency should periodically coordinate with the DRM agency and local governments to prepare for local flood and emergency risk management and response.
-Local governments are generally the first responders in a flood emergency, with national assets being deployed as needed—and sometimes with delay. Paralleling the process at the national level, local governments should have Multi-Hazard Mitigation Plans as discussed in Chapter 10 that include floods and should also have Local Emergency Response Plans. To the extent that either river or coastal storms and floods are an issue for the local government, there may be specific Flood Emergency Plans. The local Emergency and Flood Response Plans typically include elements such as: (1) the emergency management organization structure; (2) policies, responsibilities, and procedures to respond to floods; and (3) approaches for after-flood analyses and follow-on activities. Floodplain mapping provides critical information on the potential extent and impacts of floods which can help inform the Emergency Response Plan and flood response actions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The PDNA should help identify flood impacts and scope out the recovery process, including needs for: (1) housing; (2) restoring public infrastructure and public facilities; (3) restoring business and other organizational assets; and (4) restoring livelihoods. As highlighted in the previous section on flood relief, the PDNA should also identify initiatives to assist impacted people while they are waiting for recovery support. 
-Disaster recovery programs should have dedicated components to meet different needs. For households, support can be provided to repair, replace, or relocate housing. For local governments, support can be provided for emergency works, such as debris removal or flood protection measures, or more permanent works such as roads, water infrastructure, public buildings, and other public utilities. Recovery support can also be provided to businesses and other organizations such as centers of worship or community centers. Finally, recovery support can be provided for flood hazard mitigation projects such as new structural or nature-based projects. 
-Disaster recovery support can be provided in the form of grants, concessional loans, or through subsidized insurance programs. Typically, eligibility for disaster recovery support (except for insurance) is contingent upon a Disaster Declaration, often issued by the Executive. 
-It is important to note that these disaster recovery programs, usually administered or overseen by the DRM agency, can be employed to address a wide variety of potential disasters, for example storms, earthquakes, and fires, as well as floods. However, since the core principle in any disaster recovery effort is to “build back better”, it is important that the programs be tailored to help mitigate the hazard that caused the disaster. For example, if an earthquake resulted in significant destruction of buildings, the DRM agency should ensure adequate buildings regulations in terms of seismic design and require that the buildings regulations are utilized in the reconstruction process. 
-For floods, the disaster recovery programs should consider the principles of floodplain management outlined in Chapter 10 and centered on the PARA concept: protect, avoid, retreat, or accommodate. If these principles are not employed, then the government is potentially creating a moral hazard: people and businesses may not take preventative steps to reduce flood risks on the expectation that future losses will be reimbursed through disaster recovery programs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extreme hydro-climatic events can cause significant financial and economic shocks to households, the private sector, and government budgets. Floods and droughts therefore form a contingent liability for governments since they cause unexpected expenditures and loss of fiscal revenues. Having access to adequate and timely financial resources for response and recovery reduces the impact of these shocks and helps the economy bounce back quickly. A lack of such resources causes a delay in the provision of life-saving responses and pushes back the reconstruction of critical public and private structures, facilities, and infrastructure, which brings higher long-term impacts of a disaster and a more significant effect on poverty and development.
-There are a variety of risk financing instruments, each with specific characteristics that make each type well-suited to address certain situations but less effective in others. The optimal mix of instruments depends on the overall fiscal situation of the country as well as its disaster risk profile. </t>
-  </si>
-  <si>
-    <t>Two sets of laws provide the foundation for the legal and regulatory framework for disaster risk finance: budgetary laws and DRM laws. The budgetary law should explicitly authorize the finance agency to develop and implement a disaster risk financing strategy. Another important element concerns the process by which the is budget allocated, and level of discretionary funding by national agencies or local governments to accommodate the needs during the response, relief, and recovery phases. The budget law should also include a provision for a national disaster fund, including guidelines for the size of the fund, and its utilization. Of importance are the emergency procurement procedures that may need to be employed to rapidly respond to disaster needs.
-The DRM law should mandate the DRM agency to work with the finance agency to develop a disaster risk financing strategy. The role of the DRM agency in administering or overseeing disaster funds should be outlined in the DRM or budget law. The law should require the DRM agency to develop procedures for recommending or declaring a state of national emergency, as this may be used to trigger contingent credit lines or provide access to a national disaster fund.</t>
-  </si>
-  <si>
-    <t>Does the national WRM agency have key close links with other relevant agencies?</t>
-  </si>
-  <si>
-    <t>Is there funding available for the WRM agency to develop and implement WRM plans?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency seek participation of other relevant agencies, including WRM, hydro-met, agriculture, natural resources management, social welfare, and finance to devleop DRM plans?</t>
-  </si>
-  <si>
-    <t>Does the drought committe have the resources and funds to develop national strategic drought plans?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency participate in the formulation of the national FRM plan?</t>
-  </si>
-  <si>
-    <t>Do national agencies participate in e.g. providing technical assistance to local governments, with the goal to strengthen their capacities and abilities to manage hydro-climatic risks?</t>
-  </si>
-  <si>
-    <t>Do agencies engage with the public and stakeholders, at several stages of the planning processes?</t>
-  </si>
-  <si>
-    <t>NO RELEVANT QUESTIONS</t>
-  </si>
-  <si>
-    <t>Do the agencies promote and provide educational programms to the general public?</t>
-  </si>
-  <si>
-    <t>Do the agencies provide educational programmes for professional development?</t>
-  </si>
-  <si>
-    <t>Are agencies sharing information with each other?</t>
-  </si>
-  <si>
-    <t>Do the agencies maintain a scientific advisory committee?</t>
-  </si>
-  <si>
-    <t>Do agencies maintain an information unit?</t>
-  </si>
-  <si>
-    <t>Are opportunities to ensure public-private partnerships created?</t>
-  </si>
-  <si>
-    <t>Is adequate funding for public meteorological and hydrological services provided?</t>
-  </si>
-  <si>
-    <t>Is the principle of open data encouraged?</t>
-  </si>
-  <si>
-    <t>Are there collaborations with global initiatives?</t>
-  </si>
-  <si>
-    <t>Are institutional arrangements in place such that river basin agencies and committees can recieve adequate funding, training?</t>
-  </si>
-  <si>
-    <t>Are institutional arrangements in place governning the roles of river basin agencies and committees?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees issuing regulations regarding the basin planning processes?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees providing technical planning guidelines for basin planning?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees establishing formal roles for other national agencies?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees ensuring public outreach and stakeholder engagement?</t>
-  </si>
-  <si>
-    <t>Are river basin agencies and committees ensuring the inclusion of all water resource infrastructure projects in river basin plans?</t>
-  </si>
-  <si>
-    <t>Are institutional arrangements in place governning the roles of coastal planning authorities or regional coastal committees?</t>
-  </si>
-  <si>
-    <t>Are institutional arrangements in place such that coastal planning authorities or regional coastal committees can recieve adequate funding, training?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees issuing regulations or guidance on coastal planning processes?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees providing technical planning guidelines for coastal planning?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees establishing formal roles for other national agencies?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees ensuring public outreach and stakeholder engagement?</t>
-  </si>
-  <si>
-    <t>Are coastal planning authorities or regional coastal committees including all major structural flood control infrastructure in coastal zone management plan?</t>
-  </si>
-  <si>
     <t>Is the WRM agency of the national WSS agency developing regulations to guide the UWSP's/WSCP's process?</t>
   </si>
   <si>
@@ -446,135 +204,24 @@
     <t>Is the WRM agency of the national WSS agency conditioning frant funding or loans to water utilities?</t>
   </si>
   <si>
-    <t>Is the WRM agency of the national WSS agency ensuring that they work with local governments?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency and/or the agricultural agency developing regulations to guide the IWSP process?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency and/or the agricultural agency providing technical support to the irrigation service providers?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency and/or the agricultural agency ensuring that the content of the IWSPs is informed by public consultation?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency and/or the agricultural agency conditioning grant funding or loans to irrigation service providers?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies make environmental sustainability a core agricultural policy objective?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies create partnerships with farmers and livestock producers?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies develop CSA practice standards?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies provide incentive funding or green payments for smaller operations?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies promote farm sustainability plans?</t>
-  </si>
-  <si>
-    <t>Do agriculture agencies create likages to WRM plans?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency establish dedicated forest management unites?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency prepare a standalone national strategic forestry plan or policy?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency identify forests at risk and prioritize responses?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency designate forsests as protected areas where needed?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency adopt and implement forest management regulations?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency create linkages to WRM plans?</t>
-  </si>
-  <si>
     <t>Does the natural resources management agency establish a dedicated wetlands management unit?</t>
   </si>
   <si>
-    <t>Does the wetlands management unit prepare a standalone national strategic wetlands plan?</t>
-  </si>
-  <si>
-    <t>Does the wetlands management unit create linkages to WRM plans?</t>
-  </si>
-  <si>
     <t>Does  the wetlands management unit adopt and implement regulations related to wetlands development?</t>
   </si>
   <si>
     <t>Does  the wetlands management unit develop wetlands management plans for high priority wetlands?</t>
   </si>
   <si>
-    <t>Does  the wetlands management unit designate wetlands as protected areas?</t>
-  </si>
-  <si>
     <t>Does  the wetlands management unit develop a wetlands inventory and prioritize management of wetlands at risk?</t>
   </si>
   <si>
-    <t>Does the national agriculture or natural resources agency foster institutional arrangements in terms of the establishment of WaMos at the appropriate leel ensuring that they receive adequate resources to effectivily fulfill their functions?</t>
-  </si>
-  <si>
     <t>Does the national agriculture or natural resources agency  provide technical support to the WaMOs?</t>
   </si>
   <si>
     <t>Does the national agriculture or natural resources agency build inventives to foster the establishment of WaMOs?</t>
   </si>
   <si>
-    <t>Does the national agriculture or natural resources agency  support people-centred healthy watershed management?</t>
-  </si>
-  <si>
-    <t>Does the WRM or natural resources agency that is mandated to support watershed management adopt regulations regarding the watershed planning process?</t>
-  </si>
-  <si>
-    <t>Does the WRM or natural resources agency that is mandated to support watershed management provide technical watershed planning guidelines?</t>
-  </si>
-  <si>
-    <t>Does the WRM or natural resources agency that is mandated to support watershed management establish formal roles for relevant national agencies?</t>
-  </si>
-  <si>
-    <t>Does the WRM or natural resources agency that is mandated to support watershed management ensure public outreach and stakeholder engagement?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency develop cost allocation and sharing policies?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency use cost-sharing policies as incentives?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency determine the applicability of dam safety regulations?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency systematically identify dam owners?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency formulate WRM project planning guidance?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency formulate engiineering design and construction standards?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency adopt regulations for reviwing and approving the design and construction of dams?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency adopt regulations for dam safety instpection and monitoring?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency adopt regulations for emergency management plans?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency deliver dam safety training?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency provide financial support for dam safety modifications?</t>
-  </si>
-  <si>
     <t>Does the WRM agency establish and maintain a national flood control infrastructure and database or register?</t>
   </si>
   <si>
@@ -599,9 +246,6 @@
     <t>Does the WRM agency certify compliance with the relevant elements of the national flood control infrastructure safety progrem?</t>
   </si>
   <si>
-    <t>Does the WRM agency harmonize with basin plans?</t>
-  </si>
-  <si>
     <t>Does the WRM agency adopt regulations on water use permitting and water tenure?</t>
   </si>
   <si>
@@ -629,45 +273,12 @@
     <t>Does the WRM agency incorporate groundwater into basin planning and drought contigency plans?</t>
   </si>
   <si>
-    <t>Does the WRM or DRM agency formulate a strategic mapping plan?</t>
-  </si>
-  <si>
     <t>Does the WRM or DRM agency devleop and regulary update the flood mapping technical standards?</t>
   </si>
   <si>
-    <t>Does the WRM or DRM agency establish an interagency task force and technical advisory committee?</t>
-  </si>
-  <si>
-    <t>Does the WRM or DRM agency perform post-flood hazard verification</t>
-  </si>
-  <si>
-    <t>Does the WRM or DRM agencycreate communications and outreach programs?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency devleop model floodplain ordinances and guidelines?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency oversee floodplan regulation programs?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency provide technical assistance to local communities?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency support a professional association of floodplain managers?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies prepare hazard mitigation planning regulations and guidelines?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies provide technical assistance for the formulation of hazard mitigation plans?</t>
-  </si>
-  <si>
     <t>Do the DRM and WRM agencies integrate the Flood Mitigation Plan with the River Basin or Coastal Management Plan?</t>
   </si>
   <si>
-    <t>Do the DRM and WRM agencies provide grant support programs for the implementation of the hazard mitigation program?</t>
-  </si>
-  <si>
     <t>Do the drought committee and its constituent sector agencies establish the governance document and procedures for the drought monitoring subcommittee?</t>
   </si>
   <si>
@@ -683,15 +294,6 @@
     <t>Does the agriculture agency establish a partnership with the NMS/NMHS to provide agro-climatic services?</t>
   </si>
   <si>
-    <t>Does the agriculture agency set up an agriculture risk management program?</t>
-  </si>
-  <si>
-    <t>Does the agriculture agency develop tailored agriculture disaster support programs?</t>
-  </si>
-  <si>
-    <t>Does the agriculture agency facilitate an agriculutural insurance program?</t>
-  </si>
-  <si>
     <t>Do the agriculture agency and the various social protection agencies facilitate the provision of social safety nets during droughts?</t>
   </si>
   <si>
@@ -707,12 +309,6 @@
     <t>Do the agriculture agency and the various social protection agencies build longer term adaptive capacity?</t>
   </si>
   <si>
-    <t>Does the NMS/NHS collaborate with the Ocean Agency?</t>
-  </si>
-  <si>
-    <t>Is there a collaboration between the NMS/NHS and the WRM Agency?</t>
-  </si>
-  <si>
     <t>Do the NMS/NHS, WRM and DRM agency consider establishing a national flood forecasting center?</t>
   </si>
   <si>
@@ -770,9 +366,6 @@
     <t>Drought Monitoring and Impact Assessment: droughts generally evolve gradually over time, cover large areas, and have broad social, economic, and environmental impacts. A national drought monitoring program is usually the best approach, requiring a nexus of cooperation among NMS/NHS, WRM, agriculture, and DRM agencies. The NMS/NHS plays a critical role in monitoring drought hazards by providing analysis on “dryness” conditions. However, this hydro-met information is only part of the story, as droughts are assessed primarily by their impacts on farmers, cities, and the environment. The NMS/NHS needs to work closely with the other agencies, local governments, and other parties to better understand vulnerabilities, risks, and appropriate drought response actions. The National Drought Framework should help facilitate interagency agreements and operational protocols to ensure this nexus operates smoothly.</t>
   </si>
   <si>
-    <t>Is there a national drought monitoring program in place in which the NMS/NHS works closely with the WRM, agriculture and DRM agencies to gether both dryness conditions as well as its impact on farmers, cities and the environment?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flood Forecasting and Warning: Different types of flood require different approaches. Flood forecasts and warning require a cooperation nexus among the NMS/NHS, WRM, and DRM agencies. Clear interagency agreements and operational protocols need to be developed to ensure that this nexus operates efficiently. One option is to establish a National Flood Center which can foster collaboration and flexibility to handle a variety of floods. </t>
   </si>
   <si>
@@ -780,9 +373,6 @@
   </si>
   <si>
     <t>Agrometeorological Advisory Services: Farmers are particularly prone to be affected by fluctuations in weather and by extreme hydro-climatic events, particularly droughts. It is estimated that 20-80 percent of the inter-annual variability of crop yields is associated with weather phenomena, and 5-10 percent of national agricultural production losses are associated with climate variability. NMS/NHS can team with agriculture agencies to help farmers better cope with climate variability and extreme events through the provision of agro-climate advisory services. Farmers receive information at different time scales to help them make informed decisions. For example, weather forecasts up to a week in advance can help them make decisions regarding planting and harvesting, fertilizer application, and irrigation requirements. Seasonal forecasts on the order of months can inform cropping decisions and livestock strategies.</t>
-  </si>
-  <si>
-    <t>Are agro-climate services in place where the NMS/NHS collaborated with the agricultural agency to inform farmers of climate variability and/or extreme events?</t>
   </si>
   <si>
     <t xml:space="preserve">National Climate Assessment helps to inform the country about already observed changes, the current status of the climate, and anticipated trends for the future.  It typically provides analysis of the effects of climate change on the environment, agriculture, health, water resources, and coastal areas, and includes an analysis of flood and drought risks. An NCA can help guide adaptation actions across society by informing planning at all levels, influencing private investment decisions, and spurring actions to enhance climate resilience. The development of an NCA needs to be a collaborative effort with many national agencies, as well as other stakeholders. Although lead responsibility for the formulation of an NCA will vary by country, in every case the NMS/NHS needs to be front-and-center in the process as the leading authority on climate. 
@@ -795,9 +385,6 @@
     <t xml:space="preserve">National Water Data Program: The collection of hydrological data is often spread out across multiple national agencies that collect different types of information, for example surface water, groundwater, and water quality. Ideally, there would be a single (or potentially multiple) program to consolidate this information and make it freely and easily accessible to the public. There are various approaches for doing this, including creation of hydro-informatics centers, open water data initiatives, and the establishment of national water data systems. Ideally the NHS or natural resources management agency should be mandated to facilitate a national water data program and enter into interagency agreements and operational protocols to ensure the smooth flow of high-quality data. This would generate enormous value added for water-related planning, design of water infrastructure, and research. Every agency working on hydro-climatic risk management would benefit from combining their water-related information through a national water data program. </t>
   </si>
   <si>
-    <t>Is there a national water data program in place with interagency agreements and operational protocols to ensure the flow of information in a national water data system?</t>
-  </si>
-  <si>
     <t>National Water Resource Management Sector Framework</t>
   </si>
   <si>
@@ -810,14 +397,538 @@
     <t>Overarching Flood Risk Management Framework</t>
   </si>
   <si>
+    <t xml:space="preserve"> Modern water resources laws typically require the periodic formulation of a National Strategic WRM Plan that lays out a roadmap for future activities. Such a plan can help a country chart a path towards sustainable, equitable, and long-term WRM, and result in a broad and diverse portfolio of recommended actions to address critical, systemic, and institutional challenges. The formulation of the plan is usually led by the WRM agency but should involve the active participation of all other relevant agencies, including DRM, agriculture, natural resources management, and hydromet. A broad spectrum of other stakeholders should also participate in the process including local governments, the private sector, academia, civil society, and the general public.
+The National Strategic WRM Plan provides a roadmap for policy makers and agencies to help the sector advance and is an ideal mechanism to help foster interagency collaboration and a holistic approach to WRM. It provides an opportunity to assess how the country is performing with respect to flood and drought management, and to propose adjustments to the policies, laws, agencies, programs, and funding to ensure continuous advancement. The National Strategic Plan does not identify measures or make specific investment decisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the national WRM agency prepares a periodic National Strategic WRM Plan together with relevant agencies such as DRM, Agriculture, natural resources management and hydromet as well as other stakeholders? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Agency Actions Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRM laws typically require the periodic formulation of a National Strategic DRM Plan that lays out a roadmap for managing disaster risks. Such a plan typically has four elements which follow the general DRM cycle: (1) prevention and mitigation; (2) preparedness; (3) response; and (4) recovery. The plan can help a country chart a path towards a more resilient future and result in a broad and diverse portfolio of recommended actions to address critical systemic and institutional challenges. The formulation of the plan is led by the DRM agency but should also involve the active participation of other relevant agencies, including WRM, hydro-met, agriculture, natural resources management, social welfare, and finance. A broad spectrum of other stakeholders should also participate in the process, including local governments, the private sector, academia, civil society, and the general public.
+The National Strategic DRM Plan is an ideal mechanism to help foster interagency collaboration and a holistic approach to disaster risk management. It provides an opportunity to assess how the country is performing with respect to flood and drought management, and to propose adjustments to the policies, laws, agencies, programs, and funding to ensure continuous advancement. The Plan does not mandate actions or make specific investment decisions, but rather provides a roadmap for policy makers and agencies to better manage disaster risks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The drought legal framework should require the National Drought Committee to prepare, and periodically update, a National Strategic Drought Plan. This plan is conceptually different to a WRM Plan or a DRM Plan in that it is operationally focused on a single hydro-climatic risk: drought. Both the WRM and DRM Plans should address droughts, albeit from different perspectives. The scope of a National Strategic Drought Plan depends on a country’s physical as well as institutional context, but a well-formulated Plan should do the following:  
+•	Understand drought risks. The Plan should examine vulnerabilities that result in social and economic impacts from recent droughts, characterize risks, and inventory resources at risk. It should also identify trends in hazards, vulnerabilities, and exposure, taking account of uncertainties in order to provide the overall context for the Plan.
+•	Improve interagency and inter-governmental coordination. The Plan should improve who does what and when within the drought management system, and consider opportunities for improving the policies and institutions for drought management.
+•	Prepare for and mitigate drought hazards. The Plan should identify opportunities for reducing drought hazards by improving management of water resources, agricultural systems, and natural resources. That will include management planning, programs, and projects.
+•	Refine drought monitoring and forecasting. The Plan should recommend improvements for long-term monitoring, forecasting, and data collection systems, and systems for tracking the real-time and potential impacts on cities, farms, industry, and the environment as droughts evolve and recede. The Plan also should review and refine the drought categorization or indicator system to track the onset of droughts and to help clearly communicate the severity of drought conditions.
+•	Ensure effective drought communication and education. The Plan should assess the effectiveness of public education campaigns to keep stakeholders and the general public informed of drought risk and efforts to mitigate the hazard. It should also conduct drought response workshops and planning exercises with different government agencies and local governments to prepare for droughts.
+•	Improve drought response and recovery. The Plan should ensure that national agencies and local governments are coordinated properly and sufficiently resourced to provide effective and timely relief from droughts. This includes reviewing the effectiveness of programs to respond to droughts, including water conservation, water allocation, and emergency water supply for cities and towns; agricultural support programs, including insurance, contingency financing, and disaster relief; and social safety nets when vulnerable people lose their livelihoods or in extreme cases, when they face starvation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the National Strategic Drought Plan includes the following aspects: description of drought risks and vulnerabilities; inter-agency coordination arrangements; plans, programs and projects to reduce drought hazards; drought monitoring and forecasting arrangements; and drought communication and education arrangements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your agency have a public engagement or social unit in place? </t>
+  </si>
+  <si>
+    <t>Does your agency have a comprehensive training program so your technical staff know how to interact with the public and other stakeholders?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your agency have a program in place to collaborate with local governments in the implementation of its mandate? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your agency have a team operationalizing socila inclusion within its mandate? </t>
+  </si>
+  <si>
+    <t>Does your agency have a comprehensive training program so your technical staff know how to operationalize social inclusion within its mandate?</t>
+  </si>
+  <si>
+    <t>Does your agency have specific guidelines on how to operationalize public participation and stakeholder engagement within its mandate?</t>
+  </si>
+  <si>
+    <t>Does your agency have specific guidelines on how to operationalizesocial inclusion within its mandate?</t>
+  </si>
+  <si>
+    <t>Does your agency have a recruitment program to ensure that the technical staff is representative of the communities it serves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your agency have an education support plan identifying its priorities and efforts for public and professional education (e.g. direct delivery, partnerships, or funding)? </t>
+  </si>
+  <si>
+    <t>Does your agency promote and provide educational programs related to its mandate to the communities it serves as well as the general public?</t>
+  </si>
+  <si>
+    <t>Does your agency partner with scientific organization to provide educational programmes for professional development?</t>
+  </si>
+  <si>
+    <t>Does your agency have a open data program?</t>
+  </si>
+  <si>
+    <t>Does your agency maintain an information unit promoting open data, interacting with other agencies and establishing cross-agency data platforms is appropriate?</t>
+  </si>
+  <si>
+    <t>Does your agency engages with other agencies in a cross-agency data platform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the NMS/NHS engages in public-private partnerships? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the NMS/NHS collaborate with other agencies (e.g. WRM, DRM, Ageiculture, Drought Committe) to co-produce hydro-met services?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic weather and hydrological services are the foundation for hydro-climatic risk management, but NMS/NHS also need to collaborate with other agencies to offer services on top of this foundation. Ideally, specific programs for the co-production of services should be included in the rmeteorological law as well as the relevent WRM, DRM and Agricultural laws. The way agencies collaborate needs to be further developed among the agencies and can take the form of executive decisions compalling agencies to collaborate, memoranda of understanding, and the promulgation of agency regulations defining the particular interaction between agencies </t>
+  </si>
+  <si>
+    <t>Does the WRM agency foster institutional agreements to establish river basin agencies and river basin committees and ensure that the receive adequate funding and training so they can effectively fulfill their roles?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM Agency issue regulations regarding the basin planning process incluidng period between plans, general scope and format, review and approval as well as the role of the WRM in providing technical and financial assistance? </t>
+  </si>
+  <si>
+    <t>Does the WRM Agency provide technical planning guidelines including general mehtodology, sources of data, modelling approaches, linkages with other sectors and othe planning processes?</t>
+  </si>
+  <si>
+    <t>Does the WRM Agency establish formal roles for other national agencies such as natural resources management, agriculture, DRM, and hydro-met such as formal review or co-formulation?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flood Forecasting and Warning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following activities are typically core responsibilities of WRM to ensure effective river basin planning:
+•	Fostering institutional arrangements, in terms of the establishment of river basin agencies and river basin committees and ensuring they receive adequate funding and training so that they effectively discharge their roles.
+•	Issuing regulations regarding the basin planning process, covering topics such as how often a plan needs to be prepared, the general scope and format of the plan, and the review and approval process. The role of the WRM agency in the basin planning process should clarified, in terms of technical and financial assistance.
+•	Providing technical planning guidelines for basin planning, including general methodology, sources of data, hydrological and hydraulic modelling approaches, linkages with other sectors, and other planning processes. The guidelines should include specific guidance on flood and drought mitigation and contingency planning, particularly taking climate change into account.
+•	Establishing formal roles for other national agencies such as natural resources management, agriculture, disaster risk management, and hydromet agencies. This could include formal review processes or co-formulation of the basin plan with the WRM agency in coordination with the basin agency or committee.
+•	Ensuring public outreach and stakeholder engagement by providing guidance on consultations, responding to feedback, and ensuring transparency. The process should ensure all relevant stakeholder groups are meaningfully engaged, including local governments, significant water users (such as urban water utilities, agricultural water providers, and power companies), civil society, and the general public. Special efforts should be made to accomplish social inclusion by ensuring culturally meaningful participation of marginalized groups. 
+•	Ensuring the inclusion of all water resources infrastructure projects in river basin plans by requiring that all major projects, such as multi-purpose reservoirs or flood control structures, have been incorporated into the basin plan before permits or funding for the projects are provided. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key actions for the agency responsible for coastal zone planning are similar to those for river basin planning and include the following:
+•	Fostering institutional arrangements, in terms of the establishment of coastal planning authorities or regional coastal committees and ensuring that they receive adequate funding and training so that they effectively discharge their roles.
+•	Issuing regulations or guidance on coastal planning processes, covering topics such as the appropriate coastal stretches for planning, how often a plan needs to be prepared, the general scope and format of the plan, and the review and approval process. The role of the natural resources management agency in the coastal planning process should clarified, in terms of technical and financial assistance.
+•	Providing technical planning guidelines for coastal planning, including general methodology, sources of data, coastal modelling approaches, linkages with other sectors, and other planning processes. The guidelines should include specific guidance on coastal flood mitigation actions and contingency plans, particularly taking climate change and sea level rise into account.
+•	Establishing formal roles for other national agencies, such as water resources, agriculture, disaster risk management, and hydro-met agencies. These could include formal review processes or co-formulation of the basin plan with the natural resources management agency in coordination with the coastal planning authority or committee.
+•	Ensuring public outreach and stakeholder engagement by providing guidance on consultations, responding to feedback, and ensuring transparency. The process should ensure all relevant stakeholder groups are meaningfully engaged, including local governments and groups that rely on coastal resources (such as fisher people, the tourist industry, the shipping industry, civil society, and the general public). Special efforts should be made to accomplish social inclusion by ensuring culturally meaningful participation of marginalized groups. 
+•	Requiring the inclusion of all major structural flood control infrastructure in coastal zone management plans, such as sea dikes, sluice gates, and dredging operations. These should be incorporated into the plan before permits or funding for projects are provided. </t>
+  </si>
+  <si>
+    <t>Depending on the prevailing national framework, either the WRM agency or the national WSS agency should be responsible for overseeing UWSPs/WSCPs. Key agency actions include:
+•	Developing regulations to guide the UWSPs/WSCPs process, specifying requirements such as (1) which utilities are required to prepare the plans; (2) the frequency of the plans; (3) the general scope and content of the plans; (4) the process for submitting and reviewing the plans; and (5) sanctions for not complying with the regulations.
+•	Providing technical support to the water utilities by preparing guidelines, conducting workshops, developing tools, and providing program staff to help water utilities prepare comprehensive and useful water management plans, implement water conservation programs, and understand their legal requirements. The development of technical guidance should be done in close collaboration with the national water utility association, which in some cases may take the lead in certain technical areas.
+•	Ensuring that UWSPs/WDCPs are informed by a public consultation process made available to the public, and that they are consistent with and help inform the river basin management plans. This is usually the responsibility of the WRM agency.
+•	Conditioning grant funding or loans to water utilities through the national government on satisfactory compliance with the regulations pertaining to the UWSP/WSCP.
+•	Ensuring that the WRM agency or responsible sector agency works with local governments to have a dedicated program to aid smaller utilities and rural communities at risk of drought and water shortages. Technical and financial assistance information could be provided to help these communities reduce their vulnerability to droughts, including upgrading water supply systems and preparation of contingency plans, which could identify emergency sources of water.</t>
+  </si>
+  <si>
+    <t>Key actions for either the WRM agency and/or agriculture agency include the following.
+Developing regulations to guide the IWSP process, specifying requirements such as: (1) which irrigation service providers are required to prepare the plans; (2) the frequency of the plans; (3) the general scope and content of the plan; (4) the process for submitting and review of the plans; and (5) sanctions for non-compliance with the regulations.
+Providing technical support to the irrigation service providers by preparing guidelines, conducting workshops, developing tools, and providing program staff to help irrigation service provides prepare comprehensive and useful IWSP, implement water conservation programs, and understand their legal requirements. 
+Ensuring that the content of IWSPs is informed by public consultation with the farmers and other users who rely upon the water provided by the irrigation provider. The IWSP should made available to the public and be consistent with and help inform the river basin management plans. This is usually the responsibility of the WRM agency.
+Conditioning grant funding or loans to irrigation service providers through the national government on satisfactory compliance with the regulations pertaining to the IWSP.</t>
+  </si>
+  <si>
+    <t>Agricultural activities are spread over wide areas involving large numbers of people, and thus traditional regulatory programs for land stewardship are difficult to implement. Agriculture agencies will need to develop economic policies and support programs for climate-resilient agriculture that meet the specific agricultural ecological and socioeconomic context using a variety of approaches. Some general considerations are highlighted below:
+•	Make environmental sustainability a core agricultural policy objective:  The environmental impacts of agricultural subsidy policies should be explicitly considered with an aim of gradually reducing subsidies that have negative environmental impacts. Input subsidies for water, fertilizer, and pesticides that provide incentives for overuse could be gradually scaled back. Output subsidies like price supports that encourage farmers to produce resource-intensive crops (such as sugar cane or rice) that may not be suitable for the specific agro-ecological zone could be adjusted. Conversely, agricultural policies could be utilized to promote the production of more environmentally sustainable and potentially more profitable and nutritious products such as fruits, vegetables, and pulses—potentially offering incentives for organic and sustainably produced food.
+•	Create partnerships with farmers and livestock producers: Agriculturalists need to be convinced that CSA activities not only contribute to healthy watersheds, but they must feel confident that these practices will benefit them economically, including becoming more resilient to hydro-climatic extremes. This requires extensive consultation with farmers and livestock producers to share knowledge on CSA programs but also adapt these approaches to meet the specific local needs.
+•	Develop CSA practice standards: As indicated above, there are many potential CSA practices, and the agriculture agency needs to develop clear standards of practice that are suitable for the local context and that can be used to help eligibility for grant funding. 
+•	Provide incentive funding or green payments for smaller operations: Many smallholder operations may not be able to implement CSA activities due to financial constraints, even when those activities are in their broader economic interests. The agriculture agency can develop specialized programs to provide technical and financial assistance to these agriculturists, making payments for activities that meet the practice standards.
+•	Promote farm sustainability plans: Larger and more sophisticated operations should be encouraged to develop farm sustainability plans that draw upon the practice standards. The agriculture agency can provide technical assistance or even grant funding for the formulation of these plans. In some cases, it may be a regulatory requirement to prepare and implement these plans with periodic monitoring by the agency. In some cases, larger farms could also be eligible to receive green payments for modified agricultural practices.
+•	Create linkages to WRM plans: Agricultural land use and practices should be addressed as appropriate in the National Strategic WRM Plans, as well as in river basin plans, to ensure recognition of the role of these practices in flood and drought risk management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some general considerations for the natural resources agency managing forests include:
+•	Establish dedicated forest management units: The agency should set up and maintain dedicated forest management units to oversee specific forest-related programs (such as in upper watersheds or in coastal forests). 
+•	Prepare a standalone national strategic forestry plan or policy: Standalone national strategic forestry plans or policies should be prepared and incorporated into the broader periodic national strategic natural resources management plan. 
+•	Identify forests at risk and prioritize responses: The relative importance of forests in ecological, social, and hydrological terms (including as regards flood mitigation) should be identified and the protection measures should then be prioritized and implemented accordingly. Such measures could include programs for reforestation.
+•	Designate forests as protected areas, where needed: Forests with the greatest need for protection should be designated as protected areas under the natural resources management or protected areas law, particularly those areas that serve as critical watersheds for urban water supplies.
+•	Adopt and implement forest management regulations: Standards of practice for sustainable forestry, including timber harvesting, should be developed. Significant timber harvests on private or public lands should permitted and regulated to ensure sustainability of forest ecosystems. Special approaches may be required for forests that are owned collectively by local communities.
+•	Create linkages to WRM plans: Forest management issues should also be addressed, as appropriate, in the National Strategic WRM Plans as well as in river basin plans to ensure recognition of forests’ role in flood and drought risk management. </t>
+  </si>
+  <si>
+    <t>•	Establish a dedicated wetlands management unit: The natural resources management agency should set up and maintain a dedicated wetland management unit to oversee wetland-related programs in the country. 
+•	Prepare a standalone national strategic wetlands plan: Standalone national strategic wetlands plans should be prepared and incorporated into the broader periodic national strategic natural resources management plan. 
+•	Develop a wetlands inventory and prioritize management of wetlands at risk: A wetlands inventory is instrumental in identifying and cataloguing wetlands as well as in establishing key indicators to monitor trends on the health and services provided by wetlands. The inventory can highlight the relative importance of wetlands in ecological, social, and hydrological terms (including as regards flood mitigation), and help identify the wetlands at risk requiring specific measures.
+•	Designate wetlands as protected areas: Wetlands with the greatest need of protection, including those relevant to the Ramsar Convention, should be designated as protected areas under the natural resource management or protected areas law. 
+•	Develop wetlands management plans for high priority wetlands: Multi-purpose wetlands management plans should be developed for areas where communities rely economically upon wetlands, for example fisheries, agriculture, tourism, or other activities. These plans need into account for the economic needs of the community while ensuring wetlands ecosystem integrity.
+•	Adopt and implement regulations relating to wetlands development: The agency should develop criteria and standards of practice for assessing proposed developments in wetlands, including reclamation (by filling in the wetland). Significant development activities should be subject to an environmental impact assessment and a permitting scheme.
+•	Create linkages to WRM plans. Wetlands management issues should also be addressed, as appropriate, in the National Strategic WRM Plans as well as in river basin plans to ensure recognition of wetlands’ role in flood and drought risk management.</t>
+  </si>
+  <si>
+    <t>Key policy and institutional considerations for the WRM agency include the following:
+•	Formulating WRM project planning guidance: Develop a comprehensive policy that outlines procedures and methodologies for assessing WRI that include, among other items, applicability, guiding principles, general requirements, environmental and social assessment, and relationship to other planning processes. This guidance should be supplemented by additional technical notes that provide more detailed information, for example on methodologies for economic assessment of different types of projects, addressing climate uncertainties and resilience, and valuing ecosystem benefits. Specific guidance on green infrastructure as a special component for different types of WRI would also be useful. This approach would help provide a common framework for assessment of WRI and ensure analytical rigor.
+•	Developing cost allocation and sharing policies: Formulate methodologies for allocating costs between different users for multi-purpose water resource infrastructure projects. The general approach is to consider two types of costs: (1) separable costs which are directly attributable to a single user, for example a hydropower plant for a multi-purpose reservoir; and (2) joint costs that are shared by multiple users, for example the dam that stores water for hydropower, flood control, and water supply for cities and farms. Separable costs are easy to allocate, but there are various approaches to sharing joint costs that can be considered. The WRM agency should have clear cost-sharing policies to ensure that project beneficiaries assume some share of the costs to help inform rational investment decisions. Cost-sharing percentages generally vary by sector according to its financial capacity, and typically go from highest to lowest in the following order: hydropower, urban water supply, agricultural water supply, flood control, and ecosystem protection.
+•	Using cost-sharing policies as incentives: Consider cost-sharing policies for WRI that help to create incentives for more comprehensive risk management approaches. For example, local governments that adopt sound floodplain management programs could be rewarded by having a lower cost-sharing percentage for flood infrastructure. In a similar manner, cities that adopt effective water conservation programs could be rewarded by having a lower cost-sharing percentage for multi-purpose water supply projects such as reservoirs or regional water conveyance facilities. Higher levels of subsidies for green infrastructure, due to its co-benefits and climate resilience, could also be considered.</t>
+  </si>
+  <si>
+    <t>Key policy and institutional considerations for the WRM agency or dam regulator include the following:
+•	Determining the applicability of dam safety regulations: The regulator will need to establish which dams are under its jurisdiction, including potentially different regulatory categories based upon risk. Typically dam height and amount of water impounded are the starting criteria, but evaluations of potential downstream risks in terms of population and assets exposed can also be considered.
+•	Systematically identifying dam owners: The next step is to set up a mechanism to clearly identify the owner or person responsible for dams within the jurisdiction concerned and to set this information out in a publicly accessible form such as a register. It will also be necessary to ensure that existing dams are brought within the dam safety program.
+•	Formulating engineering design and construction standards: The regulator will need to provide guidance on appropriate design criteria for different categories of dams. These design criteria typically include hydrologic, hydraulic, geotechnical, seismic, and structural considerations, along with instrumentation for the dam and its appurtenant structures. General guidelines for construction methodology are also required for regulatory purposes. The regulator may draw upon existing design standards from other organizations, for example the International Commission on Large Dams or the U.S. Bureau of Reclamation.
+•	Adopting regulations for reviewing and approving the design and construction of dams: The regulator will need to lay out clear procedures for the submittal and approval information related to the design, construction, and commissioning of either new dams or modifications to existing dams. There are typically many points in this process that require the formal approval of the regulator before the operator can proceed on to the next phase.
+•	Adopting regulations for dam safety inspection and monitoring: The regulator will need to lay out clear guidelines and procedures for the inspection and monitoring of dams. Dam owners are required to have adequate dam monitoring instrumentation, undertake frequent periodic dam safety inspections, and file reports to the regulator. The regulator in turn should review these reports and undertake its own independent inspections on a periodic basis following well-documented procedures.
+•	Adopting regulations for emergency management plans: The dam safety regulator, along with the national DRM agency, will need to work collaboratively to develop guidelines and procedures for the formulation of dam emergency management plans. These plans guide the actions of the dam operators, downstream communities, and civil defense authorities in the event of a dam emergency that may require release of emergency flows or in the case of a dam breech. Typically, downstream inundation maps are prepared that help guide emergency evacuations and response.
+•	Delivering dam safety training: The dam safety regulator should have a broad and comprehensive program to help its staff, engineering consultants, dam operators, inspectors, and disaster response personnel boost their capacity in all relevant dimensions of dam safety. Since dam safety is a highly technical subject, it requires specialized training in order to minimize the risks of catastrophic failure.
+•	Providing financial support for dam safety modifications: In some cases, a dam operator may not be able to afford the necessary structural modifications necessary to comply with dam safety standards. This is particularly common for smaller dams that provide a water supply for farmers or cities. The consequences of requiring a dam to cease operations due to safety reasons may be unacceptable. The dam safety regulator should thus be empowered to administer a program of financial support to qualified dam owners to help them meet safety standards. This could potentially be offered in the form of grants or concessionary loans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key actions for the WRM agency include: 
+•	Establishing and maintaining a national flood control infrastructure database or register that contains information on the location and ownership of flood control infrastructure. The database or register should be available for public inspection and should contain information about the general condition of the infrastructure and an assessment of the population and structures that would be adversely impacted by its failure.
+•	Setting up an interagency committee on flood control infrastructure safety that should include the DRM agency, local governments, and as appropriate natural resources management and agriculture agencies. 
+•	Establishing, implementing, and periodically reviewing a hazard potential classification system for existing flood control infrastructure to act as the basis of identifying funding needs for priority repairs, rehabilitation, and upgrading of flood control infrastructures. 
+•	Adopting regulations and technical guidelines for the maintenance, construction, modification, and rehabilitation of flood control infrastructure. The regulations and guidelines should also include risk assessment and require decision making based on flood system performance assessment, flood risk analysis, and risk attribution to system segments. 
+•	Setting out procedures for flood emergency responses linked to the Emergency Management System and Local Emergency Response Plans. Responses should be planned for the breaching of embankments and for undertaking emergency repairs. 
+•	Providing technical assistance and training to local governments and the owners of flood control infrastructure about such matters as asset management, maintenance, and risk identification and mitigation, along with the rehabilitation, improvement, or modification of flood control infrastructure. 
+•	Promoting public awareness of and involvement in flood safety programs including risk communication to beneficiary communities and local governments, and mechanisms to allow members of the public to alert the owner of signs of damage or failure.
+•	Certifying compliance with the relevant elements of the national flood control infrastructure safety program as a prerequisite for subsidized or mandatory flood insurance programs. </t>
+  </si>
+  <si>
+    <t>Key policy and institutional considerations for the WRM agency include the following:
+•	Harmonization with Basin Plans: As noted in Chapter 6, river basin management planning provides the foundation for water resources development and management. The WRM agency should ensure that the basin planning regulations include an assessment of available water resources. The WRM agency and the basin planning regulations also should govern how the water is used, including for meeting environmental requirements. The WRM agency should ensure that the basin planning process sets abstraction limits and avoids overallocating water to ensure resilience in the system. The basin plan should have a drought continency plan that flexibly reallocates water based on the level of drought severity and that is consistent with the system of water rights.
+•	Adopting regulations on water use permitting and water tenure: While the basic elements of water use permitting and other water tenure regimes are set out in the water resources law, the WRM agency will typically need to establish regulations to complete the legal framework for the issuance and enforcement of water permits. Some of the key issues include: (1) who is entitled and required to obtain a water permit; (2) the nature of the permit, including location, volume, flow, timing, use, and duration; (3) the level of security conferred by the permit during droughts, and ability to trade, transfer, or lease the permit; and (4) sanctions for non-compliance with water use permit conditions, including fines and potential loss of use rights if these are not provided for in the water resources law. It is important to have a well-defined procedure for ensuring that applications for new permits or the variation of existing permits are grounded in the relevant river basin management plan.
+•	Developing water use monitoring systems: Monitoring water use and ensuring users abide by their use permits is a key responsibility of the WRM agency. Typically, permit holders are required to self-report on their own water use with periodic WRM agency inspections. The WRM agency should develop technical requirements for water measuring devices, including for measuring flows in pipes and open surface flows in rivers and canals. Measuring open surface flows, for example canals in irrigation systems, can be a complex task and the WRM agency should develop standard designs to help ensure accuracy and reliability. Space-based monitoring, for example of cropping patterns and their evapotranspiration use, is an important complement to on-ground flow measurement. Finally, the WRM agency needs to ensure a comprehensive database of permit holders and their water use.
+•	Adopting regulations on water use and reallocation during droughts: Ideally, the basin drought contingency plan would provide a framework for conservation measures and water allocations corresponding to different drought levels, taking into account minimum or environmental flow requirements. The WRM agency should develop regulations to ensure that this process proceeds in an orderly and transparent fashion. One approach is to allocate water on a percentage share basis of the total available water resources rather than on a fixed volumetric amount. During drought periods, the WRM agency determines the total availability of water and each user gets its specified share of the total. This can be further refined so that some users, for example low-value agricultural crops, have their share percentages reduced according to the severity of the drought. In some countries, the WRM agency does not have the legal right to administratively reduce the allocation of water to a user. In these cases, the WRM agency may develop regulations for alternative mechanisms, such as a negotiated sale for temporary reallocation from a lower-value agricultural user to a higher-value urban or industrial user. In the most advanced cases, and where the physical context allows easy transfers of water, the WRM agency may set up water markets to allow for either the temporary or permanent reallocation of water.
+•	Adopting regulations for the permanent reallocation of water rights: The WRM agency should set up mechanisms to facilitate the long-term reallocation of water as necessary using the same general set of approaches: administrative reallocation, negotiated reallocation, or water markets. Longer term reallocations, however, can prove more politically complex, as their economic and social impacts are potentially more permanent. Under ideal conditions, water users should become more efficient and increase the productivity of water (in terms of “yield per drop” or “dollars per drop”) so that the transfer of water does not have negative economic consequences. Therefore, it is vitally important that the WRM agency work with cities, farms, and industries to constantly improve their water efficiency while limiting or even reducing their water allocations over time. Not only does this help the transition to more economically efficient allocations of water, but when droughts do occur the potential negative impacts are tempered as water users have already adapted to using less water.</t>
+  </si>
+  <si>
+    <t>Key policy and institutional considerations for the WRM agency include the following:
+•	Defining and characterizing groundwater aquifers: The WRM agency should undertake the necessary studies to define the basic characteristics of significant aquifers, including surface and sub-surface mapping, geological conditions, and storage volume. To the extent possible, the WRM agency should establish groundwater monitoring systems and look at historical and current groundwater levels, and identify groundwater uses. Based upon this analysis, the WRM agency should attempt to define a sustainable yield for the aquifer to help in the formulation of a groundwater management plan. Characterizing an aquifer is a complex and ongoing process, and thus the WRM agency will need to prioritize its efforts.
+•	Supporting groundwater management organizations: Based upon the defined aquifers, the WRM agency should facilitate the establishment of GwMOs. These organizations can take many forms, ranging from a committee advising the WRM agency, to a localized or village-based organization that has authority to set and enforce rules in accordance with the aquifer plan, to an aquifer-wide agency with responsibility for the overall enforcement of the aquifer management plan, with the general structure framed in the water resources law. The WRM agency will need to develop regulations governing and establishing the GwMOs and help facilitate their start-up and operation. The WRM agency should also provide financial and technical assistance to support GwMOs, for example by providing them with consultant support and funding flow measurement instruments for groundwater wells.
+•	Developing aquifer management plans: The WRM agency will need to work collaboratively with the GwMOs to develop sustainable aquifer management plans. This will require the WRM agency to issue regulations covering the process, objectives, scope, and methodology for developing the plan. The WRM agency may also need to develop technical guidance on specific issues, such as monitoring groundwater levels and water use, approaches to aquifer recharge, and the use of space-based observation tools to assess water use on the basis of crop evapotranspiration.
+•	Implementing the water use permitting regime for groundwater use: The WRM agency will need to implement the system for groundwater permitting, with permits being issued to individual groundwater users or GwMOs. Such permits will usually be similar those for surface water use. The issuance of such permits should take place in accordance with the relevant river basin management plan as well as the aquifer management plan if there is one.
+•	Incorporating groundwater into basin planning and drought contingency plans: The WRM agency should explicitly incorporate groundwater into the basin planning process, integrating information on groundwater and aquifer management plans as they develop over time. Critically, the WRM agency should proactively facilitate the natural and artificial recharge of aquifers wherever possible, for example by ensuring active floodplains and potentially using treated wastewater to recharge aquifers. The use of aquifers as supplemental or emergency supplies during droughts should also be considered in the drought contingency plan.</t>
+  </si>
+  <si>
+    <t>Key agency actions for the WRM or DRM agency include the following:
+•	Formulating a strategic mapping plan: The development of national flood maps is an enormous task that needs to be done systematically and strategically. Ideally, this is done through a periodically updated strategic plan—for example every five years—which identifies priority areas for flood mapping along with the general mapping parameters. The strategic plan should balance the need to produce useful information to guide floodplain development with the desirability of accuracy. For example, the first generation of maps might rely primarily on satellite photos, while the second generation could utilize modelling to estimate the extent and depth of flooding.
+•	Developing and regularly updating flood mapping technical standards: In order to ensure consistency and quality, the agency should develop detailed technical standards to guide the mapping process. There are many technical decision points involved in the mapping process and a consistent approach is required, for example how to calculate return flood periods, topographic mapping requirements, modelling approaches, and how to deal with a changing climate and watershed. Since the mapping process is a long-term process, there are likely to be different versions of technical standards that should be properly documented and understood in the interpretation of map results.
+•	Establishing an Interagency Task Force and Technical Advisory Committee: The agency should establish an interagency task force to help support and guide the mapping process. Neither the DRM agency nor the WRM agency will have all the required information to independently develop river and coastal flood maps, and the interagency task force will allow for the free exchange of information and support as required. The agency should also consider establishing a technical advisory committee of experts to help provide guidance on the technical challenges of flood mapping and potentially resolve any mapping disputes.
+•	Performing post-flood hazard verification: The agency should ensure that it has the capacity and methodology to lead a coordinated effort to collect and disseminate accurate flood data and risk information to aid response and recovery efforts after a flood disaster occurs. This information supports the “Post-Flood Disaster Needs Assessment” discussed in Chapter 11 but also provides actual flood information that complements the flood maps—which are an approximation of reality based upon a set of assumptions. The results of this post-flood hazard verification should be made available through the flood map center to provide additional information on floodplain risks.
+•	Creating communications and outreach programs: The agency should establish a flood map center which serves as the official public source for flood hazard information. The center could provide maps, databases, reports, educational resources, and other tools to help better understand flood risks. Coupled with this there should be an active communications and public outreach program to ensure that the floodplain information is conveyed to policy makers, developers, and the general public. This communications process should concentrate on the period during which maps are being developed or updated, so that communities can provide feedback on the mapping process and be made aware of the implications of floodplain designations. The agency should then work with the local governments to continuously remind the public of floodplain areas and potential risks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key actions for the DRM agency include the following:
+•	Developing model floodplain ordinances and guidelines: The agency should prepare model floodplain ordinances for local governments to build upon. The model ordinances should include various options depending upon the specific local circumstances, for example whether subject to river, coastal, or other flood hazards. The DRM agency should either require a set of national flood resilient codes and standards or identify other suitable national or international codes and standards that local governments can use.  
+•	Overseeing floodplain regulation programs: The agency should periodically visit the local government to provide technical assistance and assure adequate enforcement of floodplain management regulations. This typically consists of a tour of the floodplain, an inspection of permit files, and meetings with local officials. The DRM agency should actively work with the local government and other stakeholders to help them implement their programs, and in extreme cases, and where legally mandated, take enforcement action as necessary.
+•	Providing technical assistance to local communities: The agency should support local communities by providing floodplain information and helping to increase awareness of the perils of flooding and the importance of good floodplain management. The assistance could be provided in the form of outreach, education, general information, or site visits to assist on specific issues. As described in the next section, helping local governments develop flood mitigation plans is an important tool for improving floodplain management. 
+•	Supporting a professional association of floodplain managers: The practice of floodplain management is increasingly being recognized as distinct profession that draws upon expertise from different areas, including hydrology, land use planning, disaster management, civil engineering, and public administration. The agency should support an association of floodplain managers to build the community, share experiences, and build professional capacity. An example of this exists in the United States in the form of the Association of State Floodplain Managers, which offers professional certification on flood plain management. </t>
+  </si>
+  <si>
+    <t>Key agency actions for the DRM and WRM agencies includes the following:
+•	Preparing hazard mitigation planning regulations and guidelines: The DRM agency should prepare a set of regulations governing the preparation, review, and approval of local government hazard mitigation plans. The regulations should include items such as: (1) general plan requirements; (2) periodic planning process; (3) plan contents, including risk assessment, mitigation strategy, and local government approval; and (4) procedures for DRM agency review and approval.
+•	Providing technical assistance for the formulation of hazard mitigation plans: The DRM agency should proactively support local governments in the preparation of their hazard mitigation plans by providing guidelines, training, and support to the process so that local governments can tailor their hazard mitigation plans to specific local circumstances. Since the DRM agency may be responsible for approving the plan, it is important that the DRM agency becomes familiar with local circumstances and provides advice during the planning process.
+•	Integrating the Flood Mitigation Plan with the River Basin or Coastal Management Plan: The WRM agency will need to actively work with the DRM agency and the local government to ensure that flood mitigation actions, particularly with respect to new flood control infrastructure, are consistent with the overall basin or floodplain management plan. The DRM hazard mitigation plan regulations should ensure that the appropriate partner agencies are involved in the planning process, particularly the WRM agency where there are river flood hazards.
+•	Providing grant support program for the implementation of the Hazard Mitigation Program: The DRM agency or the WRM agency should establish a grant program for local governments to help implement priority actions in the flood mitigation plan. The agency will need to develop regulations to govern the administration of this program, including eligibility requirements and criteria for competitive selection of proposals. This will help motivate local governments to undertake flood mitigation plans and implement key actions.</t>
+  </si>
+  <si>
+    <t>Key actions for the Drought Committee and its constituent sector agencies include the following:
+•	Establishing the governance document (the charter and terms for reference) and procedures for the Drought Monitoring Subcommittee: The Drought Committee should establish a formal charter for its monitoring subcommittee, identifying its objectives, membership, procedures, and obligations of the different entities participating in the Monitoring Subcommittee. One of the specialized agencies should serve as the anchor or secretariat for the Subcommittee, typically the Hydromet or WRM agency. The Committee could also potentially include research institutes operating within or outside of the country. As discussed in Chapter 5, it is particularly important to develop linkages with international agencies or centers providing global weather information. In many cases, formal MOUs linking the specialized agencies and institutes to the Subcommittee may be useful. Clear operational procedures for the Subcommittee should also be established, including frequency of meetings, reporting, and decision-making process.
+•	Developing protocols and guidance for drought monitoring and impact assessment: The Subcommittee should develop protocols for operationalizing the production of a drought monitor, as well as risk assessments, that build cross-agency and cross-sectoral agreement on how droughts will be defined and characterized; identify the institutions involved with producing a drought monitor and procedures for updating the monitor; contain feedback mechanisms for validating the monitor with various stakeholder groups; and provide guidance for conducting vulnerability assessments, such as how to quantify costs and characterize the risks faced by key sectors and vulnerable populations. These protocols should also include procedures for constituting IAGs to examine drought impacts and risks in a specific region for a drought event, including the production of “drought situation reports”. These IAGs should include specialized agencies, local governments, and a broad spectrum of stakeholders, including business, agriculture, and civil society. The protocols should ensure that the IAGs produce periodic and structured situation reports over the course of the drought, including a final report after the drought is declared to be over that summarizes the overall social, economic, and environmental impacts of the drought as well as lessons learned. •	Operating a Drought Information Center: Information generated by the Drought Monitoring Program should be easily accessible and freely available to the public through an integrated information system or portal. The information should include the underlying hydrological and metrological data, current and historical drought maps, and situation reports generated by IAGs. The Drought Information Center can also serve a central function in drought education and awareness. During periods of drought, the Information Center has a critical role in disseminating information on the drought status, impacts, and potential risks. The Information Center should support the specialized agencies so they can provide the necessary information to their constituencies through their own public outreach programs. 
+•	Establishing procedures for drought declarations: The Drought Committee should establish clear procedures for agreeing on drought levels for specific regions based upon the recommendations of the Drought Monitoring Subcommittee. Determining a drought level is not a mechanical task, but rather should be a flexible process taking all social, economic, environmental, and political factors into consideration. Nevertheless, there should be a formal process for declaring a certain drought level, preferably including open hearings with public comment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The WRM agency often, but not always, serves as the anchor agency for the Drought Committee. In regions where cities, industries, and farms rely heavily on surface water or groundwater, particularly when delivered through regional water conveyance systems, the WRM agency has a critical role to play in drought response. As a core member of the Drought Committee, it should monitor and report on the implementation of the various drought management measures, as well as the overall water balance at the river basin level. The WRM agency also has a central role to play in drought communication and public outreach during droughts, reaching out through its various channels to create a culture of water conservation and water use efficiency. The WRM agency can build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship. </t>
+  </si>
+  <si>
+    <t>Key actions for the agriculture agency include the following:
+•	Establishing a partnership with the NMS/NMHS to provide agro-climatic services: The agriculture agency should work closely with the NMS/NHMS to develop a program to deliver customized weather, climate, and advisory services for agriculturalists. This typically requires interagency agreements so that the NMS/NHS can provide tailored information needed by the agriculture agency. The agriculture agency will then need to find effective and appropriate channels to disseminate this information, potentially in partnership with the private sector.
+•	Setting up an Agriculture Risk Management Program: The agriculture agency should set up a risk management program that can be used to provide support to farmers to help manage a variety or risks, including natural disasters. Some of the tools to support agriculturalists potentially include insurance or direct-support programs. The program should offer information to producers regarding markets and risk, technical assistance for coping with common risks including hydro-climatic risks, protection from the spread of animal and plant diseases and pests, and assistance for recovering from natural disasters.
+•	Developing tailored Agricultural Disaster Support Programs: The agriculture agency should develop customized support to disaster support programs for different types of producers, for example common annual crops, perennial crops, livestock producers, and specialized niche crops. Each of these programs should have their specific regulations for eligibility, verification, and payment based on sound risk assessment analysis. The different programs may need to be explicitly authorized by the agriculture law. For drought-related impacts, the triggering of support for these programs may be linked to the DMP.
+•	Facilitating an Agricultural Insurance Program: Where appropriate and feasible, the agriculture agency should facilitate the development of a national insurance program. The agency should develop the capacity to undertake agricultural risk assessments and decision support services, such as agricultural statistics and agro-climatic information services. Policies and regulations related to agricultural insurance programs should ensure appropriate risk assessments and encourage comprehensive analysis of agricultural risks to assess the viability of proposed insurance contracts. Typically, a joint task force including the agriculture agency, the finance agency, and insurance companies is necessary to coordinate the development of the agriculture insurance market. A multi-stakeholder working group should also be formulated to advise this task force, comprised of members from farmers’ organizations, (re)insurers, other financial institutions, public sector institutions, development partners, and sector experts. In the case of relatively small economies, the working group might also advocate for an enabling regional policy and regulatory framework to facilitate risk pooling by insurers in countries within the same region.</t>
+  </si>
+  <si>
+    <t>Key actions for the agriculture agency and the various social protection agencies include the following:
+•	Facilitating the provision of social safety nets during droughts: The agriculture agency, being on the front lines of rural development, and the social protection agencies should play facilitating roles in the provision of social safety nets during droughts. This includes coordinating across agencies and helping to define roles and responsibilities for all actors, as well as linkages and information-sharing arrangements with humanitarian actors. The country’s Executive and Cabinet also play crucial roles in coordination and funding support during periods of national crisis. 
+•	Ensuring the flexibility and adaptability of social protection programs: The agriculture agency and the social protection agencies should ensure that the social protection programs have the flexibility to rapidly scale up and are adapted to the needs following a major drought, with pre-established contingency plans and funding mechanisms.
+•	Targeting the rural chronic poor and most vulnerable households: Even when countries have well-established policies and institutions with respect to social protection, large overlaps often occur, along with significant inclusion errors. Resultant gaps leave some members of the poorest and most excluded groups without enough support. Policies that identify and target the poorest families and individuals within these groups during drought emergencies are a critical backstop to avoid devastation. This includes pre-negotiated contracts for hauling and distributing food and water, pre-planned mapping and logistics details for moving food and water, and thorough communications and outreach mechanisms around these emergency distributions.
+•	Ensuring sound governance and accountability mechanisms: The agriculture agency and the social protection agencies should ensure sound governance and accountability mechanisms, with the effective participation of beneficiary groups, proper communication and feedback mechanisms, clear guidelines and safeguards to reduce fiduciary risk, and a system of monitoring and evaluation that allows for measuring impacts and outcomes to inform future efforts.
+•	Building longer term adaptive capacity: During and following a drought, the agriculture agency should prioritize and target the climate-smart agriculture programs discussed in Chapter 6 on the socially vulnerable and drought-impacted population. This helps them recover more quickly and also increase their longer term adaptive capacity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some of the key actions for the NMS/NHS, WRM, and DRM agency include the following:
+•	NMS/NHS collaboration with Ocean Agency: In some countries, the ocean agency is separate from the NMS/NHS. However, since coastal storm surge warnings are both an atmospheric and oceanographic phenomenon, it is critical that the NMS collaborate with the ocean agency both in terms of developing storm surge models and of monitoring oceanographic conditions. This collaboration can be facilitated through an interagency agency agreement, which defines the protocols for information sharing and joint action during potential storm surge situations.
+•	NMS/NHS collaboration with the WRM Agency: In cases where the WRM agency is responsible for river flood forecasting, it will need to work closely with the NMS/NHS to obtain the necessary weather information. The NMS/MHS should provide not only its own weather forecasts, but also draw upon the broader “weather enterprise” to provide the WRM agency with as much information as possible to help inform river flood forecasts. Close collaboration between the NMS/NHS and WRM agency is also necessary during coastal storms, such as hurricanes, to consider potential coastal river interactions. This collaboration can be facilitated through an interagency agreement, or even better through an integrated Flood Forecasting Center.
+•	Consider establishing a National Flood Forecasting Center: Perhaps the most elegant approach to untangling the different forecasting agency responsibilities is to establish a National Flood Forecasting Center, combining meteorology, hydrology, and oceanographic expertise to provide a specialized service. This could function as a partnership between the different agencies and the Center could be equipped to handle all forms of flooding, quickly bringing together the expertise as needed to address specific flood hazard situations.
+•	Collaboration between the DRM agency and the NMS/NHS and WRM agency issuing flood forecasts: The DRM agency must have up-to-date information on flood forecasts to inform its emergency management decisions. This involves consulting with the agency responsible for the flood forecasting in the issuance of emergency warnings, including evacuation orders. The DRM agency typically has a multi-hazard emergency operations center (EOC) to help coordinate emergency responses to coastal or river floods (as well as other threats). To facilitate this cooperation, there should be interagency agreements between the forecasting agency and the DRM agency, ideally with DRM agency staff embedded within the forecasting agency, or vice versa. </t>
+  </si>
+  <si>
+    <t>Some of the key actions for the DRM and WRM agencies include the following:
+•	Formulate a National Disaster Response Plan: The DRM agency should work with key agencies, local governments, and other stakeholders to prepare a National Disaster Response Plan, which provides the framework for responding to natural or human-induced emergencies. Some of the key elements include: (1) identifying potential hazards and likely impacts; (2) defining an EMS, including levels, organizations, functions, activation procedures, and regional emergency operation centers; (3) outlining emergency preparedness actions, including planning, training, exercises, communications, and stockpiling resources and equipment; (4) preparing an “Emergency Response Concept of Operations”, including an alert and warning system, situation reporting, public information, and mutual aid arrangements; (5) presenting a “Relief and Recovery Framework” which outlines programs and actions, including Disaster Declarations; and (6) clarifying the roles of national agencies during disasters, including DRM, WRM, health, social protection, and agriculture agencies.
+•	Oversee the Emergency Management System (EMS): The EMS should be guided by the Emergency Response Concept of Operations, which provides the blueprint for responding to emergencies. The DRM agency should sustain and constantly improve the EMS and ensure that it is always functional and ready to deploy as necessary. This requires constant capacity building, training, and exercises at multiple levels to ensure that all agencies and local governments understand how the EMS works and what their roles are under different emergency situations. The EMS should include specific procedures and actions for river and coastal flooding. The EMS is usually anchored in regional Emergency Operations Centers that are managed by the DRM agency, thus requiring a certain level of decentralization by the DRM agency.
+•	Assist local governments in preparing emergency response plans: The DRM agency should help local governments prepare emergency plans, including specific plans for dealing with floods as appropriate. The plan should also help households, businesses, and other organizations prepare for and respond to floods. The floodplain mapping and local flood mitigation plans are key inputs into the local flood emergency plans. The DRM agency should provide a general format and technical and financial assistance to the local government. The WRM agency should work collaboratively with the DRM agency and local governments to ensure flood-specific issues are included in the plan. Where legally required, the DRM agency should establish clear regulations for the preparation, review, and approval of the local government emergency plans.
+•	Operate flood operations center: The WRM agency should establish flood operations centers as appropriate, for example at the basin level or national level, to serve as the nerve center for monitoring and responding to river floods. The flood center should ideally be co-staffed with NHS and DRM agency personnel so that forecasting, operations, and emergency responses are well coordinated. This usually requires a multi-agency agreement which clearly lays out the functions of the different agencies. The emergency operations center, which serves to respond to all emergencies, should be closely linked to the flood operations center.
+•	Prepare Rapid Impact Assessment (RIA) and PDNA protocols: The DRM agency should prepare procedures and protocols for ensuring rapid deployment of RIA and PDNA teams. This includes having generic terms of reference that can be adjusted to the specific emergency, and interagency agreements that will allow for the rapid mobilization of teams with functions and responsibilities clearly defined beforehand. Of importance in the RIA phase is temporarily restoring utilities and communications, clearing transportation access, and providing temporary housing.
+•	Attend to the needs of poor and marginalized communities: These groups not only tend to have less resilience and are more exposed to floods, but they also typically do not have easy access to formal flood disaster recovery programs or flood insurance. As part of the PDNA process, there should be a focused effort on identifying the most vulnerable households and communities and identifying both their relief and recover needs. This typically requires close collaboration with social and health agencies, as well as with local governments. The PDNA should include an action plan to help address the needs of the vulnerable populations in the relief and recovery process.
+•	Ensure access to resources and funding for emergency response and relief: The DRM agency should work with the national government to ensure access to funding to respond to emergencies and provide relief. As discussed in Chapter 13, it is important for the national government to have emergency funds available or have quick access to disaster financing to ensure that immediate relief needs can be addressed. The DRM agency should also facilitate mutual aid agreements between different national agencies (including the military) and local governments to ensure that they respond to emergencies and provide relief as required without consideration of funding. The DRM agency can help facilitate the reimbursement of costs based on these agreements, potentially drawing upon emergency funds and disaster financing mechanisms. 
+•	Develop a program to provide temporary relief to households: The DRM agency should have a program in place to provide temporary relief for impacted households with clear procedures and criteria that can be applied to any disaster. Potential areas of support include: (1) temporary housing assistance; (2) lodging expenses reimbursement; (3) subsistence payments to cover expenses; and (4) temporary employment opportunities. In cases where flood victims need to move into temporary shelter, there should be provisions for providing all the necessary support include public health and safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some key actions for the DRM agency include the following:
+•	Administer flood disaster recovery programs: The DRM agency should develop regulations to administer tailored recovery programs for different groups, including: (1) households; (2) businesses and other non-governmental organizations; and (3) public infrastructure and utilities. Each of these programs require: (1) clear eligibility criteria; (2) procedures for applying and receiving assistance; (3) requirements for use of funds in order to “build back better;” and (4) clear procurement rules for public infrastructure and utilities. The circumstances under which the DRM agency will directly administer the funds or transfer the responsibility to local governments or other specialized agencies needs to be clearly formulated. In some cases, the national government may directly allocate the funds to the specialized agencies, for example transport, health or energy, or local governments to facilitate rapid recovery. However, it is important that the DRM agency monitor the use of these funds to ensure that “build back better” principles and good floodplain management practices are followed.
+•	Administer a flood insurance program: The DRM agency should work with private insurers to help generate a flood insurance market. To promote informed sharing of risks, the DRM agency will need to work with insurance companies to utilize actuarial data related to flood frequency and damages to assess proposed flood insurance policies and premium rates. A strategic decision will need to be made regarding the level of government subsidy, if any, for the insurance policies. Typically, the policies are partially subsidized to ensure affordable premiums. However, subsidizing flood insurance may create economic incentives to take more risk. The mapping of floodplains, as described in Chapter 10, is essential for understanding flood hazards and assessing risks. 
+The DRM agency will need to clearly delineate who is eligible for flood insurance based upon their location in the floodplain and whether local governments have met minimum floodplain management requirements, such as functional floodplain regulations and ideally a flood mitigation plan. The DRM agency will also need to establish regulations regarding the use of insurance funds to ensure a “build back better” approach. The DRM agency should work closely with the private sector to ensure efficiency and financial stability of the insurance program. The policies can be sold through private insurers who can help market them and ensure rapid damage appraisals and payouts. In some cases, mortgage companies may require evidence of flood insurance if the borrower is in a floodplain. The private insurance companies can help facilitate this information to both the borrowers and mortgage companies. The DRM agency will need to work closely with, and help train, insurance companies so they can adequately sell and honor the insurance policies. To help manage future exposure to flood risks, the agency may transfer some of this risk to private reinsurance companies and capital markets investors; this provides an additional method to fund payment of flood claims after catastrophic flood events.
+•	Facilitating recovery for vulnerable groups: As part of the PDNA protocols, the DRM agency should work with local governments, social protection agencies, and the impacted communities themselves to assess the needs of poor, marginalized, and vulnerable populations. This interagency team, often composed of social, housing, health agencies with local governments, and non-governmental organizations, should develop and implement tailored plans to meet the needs of vulnerable populations. The DRM agency has an important role in monitoring these efforts and may also provide funding to help these organizations deliver necessary social protection measures. </t>
+  </si>
+  <si>
+    <t>Some of the key agency actions for the finance agency and the DRM agency include the following:
+•	Integrate disaster risk financing into the finance agency: Most finance agencies have created fiscal risk management departments to help analyze and mitigate the impact of macro-economic shocks. These departments should also be given the mandate to manage the economic and fiscal impacts of natural disasters. The finance agency will need to collaborate closely with the DRM agency, which is responsible for collecting information on the impacts of disasters and defining the country’s natural disaster risk profile.
+•	Develop a disaster risk financing strategy: The finance agency should develop a strategy for disaster risk financing. Some key elements include conducting a “Public Expenditure Review” to understand the extent of past disaster-related expenditures as well as clear understanding of the country’s disaster risk profile. The National DRM plan highlighted in Chapter 3 is a foundational document for helping to inform—and to reflect—the country’s hydro-climatic risk profile. It should be accepted that no single risk financing instrument can deal with the entire range of small and large disaster shocks. A country’s risk financing strategy should develop a multi-layered approach using a set of solutions in accordance with the contingent risk profile. Finance agencies should analyze the characteristics of each disaster risk financing instrument and develop a comprehensive combination of approaches that best meets their needs. The strategy may also include actions to help create or strengthen national disaster insurance programs.
+•	Regulate the use of disaster risk financing instruments: The finance agency should develop clear regulations for the different risk financing approaches. For example, the rules governing access to the National Disaster Fund should be clearly promulgated. Under some circumstances, the DRM agency may be authorized to directly access the Fund, for example to provide immediate relief, whereas in other circumstances the Executive may need to formally declare a “disaster” before funds are released. The finance ministry should also develop regulations to enable the insurance markets to function effectively and equitably. Establishing clear principles and procedures for the issuance of contingent disaster loans and sovereign CAT bonds is also necessary. 
+•	Consider international collaboration: Given the probabilistic and geographically-specific nature of most hydro-climatic events, countries in the same region are often not hit by disasters at the same time. International collaboration in disaster risk financing through regional risk pools can be a cost-effective and diplomatically interesting mechanism to help meet disaster risk financing needs. Governments should consider such collaborations with regional partners to explore possible international financing mechanisms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watershed Management </t>
+  </si>
+  <si>
+    <t>Drought Monitoring, Response and Recovery</t>
+  </si>
+  <si>
+    <t>Flood Monitoring, Response and Recovery</t>
+  </si>
+  <si>
+    <t>Does the DRM agency seek participation of other relevant agencies, including WRM, hydro-met, agriculture, natural resources management, social welfare, and finance to devleop National Strategic DRM plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM Plan include recommended actions to address critical, systemic and institutional challenges and foster inter agency collaboration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the national drought committe prepares and periodically update a National Strategic Drought Plan together with relevant agencies such as WRM, DRM, Agriculture, natural resources management and hydromet as well as other stakeholders? </t>
+  </si>
+  <si>
+    <t>In many countries, the combination of WRM, DRM, and Hydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
+The European Union’s Water Framework Directive  and Floods Directive , between them require member states to adopt a common approach to river basin management and flood risk assessment and management planning. As shown in figure 3.4, in Japan there are three major interlocking laws related to flood risk management, the DRM Act, the River Act (which acts as a water resources law), and a specific Flood Protection Act. In the United States, the Federal Interagency Floodplain Management Task Force helps bring together all water-related agencies and was established under the 1975 Water Resources and Development Act</t>
+  </si>
+  <si>
+    <t>Does the WRDM, DRM and hydro-met syncrhonized sector frameworks cover all the relevent aspects for flood risk management or is a specific FRM policy needed? if so, do the DRM, WRM, Hydro-met, Agriculture and natural resources management collaborate in the preparation of the FRM policy?</t>
+  </si>
+  <si>
+    <t>Does your agency maintain a scientific advisory committee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do the NMS and NHS, if separate entities, work together semeelsy through mandates included in the national frameworks as well as inter-agency coorperation agreements? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on clear mandates for open data included in national regulation, do the NHS/NMS have a specialized unit that focuses on open data? </t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with other agencies such as WRM, DRM, Agriculture in a national water data program with interagency agreements and operational protocols in placeto ensure the flow of information and water data?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS work closely with the WRM, agriculture and DRM agencies to gether both dryness conditions as well as its impact on farmers, cities and the environment in the national drought monitoring program?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS engage in the implementation of global collaboration initiatives (for example with the WMO)?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with the agricultural agency with clear interagency agreements and operational protocols to provide agro-climate services to farmers such us informing farmers of climate variability and/or extreme events?</t>
+  </si>
+  <si>
+    <t>Does the WRM provide support to basin agencies and committees to ensure public outreach and stakeholder engagement?</t>
+  </si>
+  <si>
+    <t>Does WRM issue regulations to ensure the inclusion of all water resources infrastructure projects, such as multipurpose reservoires or flood control structures, in river basin plans before permits or funding for the projects are provided?</t>
+  </si>
+  <si>
+    <t>Does the WRM Agency issue special guidance and provides support to accomplish social inclusion in river basin planning?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning foster institutional agreements to establish coastal planning authorities or regional coastal committees and ensure that they receive funding and training to fulfill their roles?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning provide technical planning guidelines for coastal planning?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue regulations or guidance on coastal planning processes covering topics such as the appropriate coastal streches for planning, how often a plan needs to be prepared the gneeral scope and format of the pland and the review and approval process?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the natural resources management agency or the agency responsible for coastal zone planning establish formal roles for other national agencies such as WRM, agriculture, DRM, and hydro-met? </t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning provide support to basin agencies and committees to ensure public outreach and stakeholder engagement?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue regulations to ensure the inclusion of all water resources infrastructure projects such as sea dikes, sluice gates and dredging operations, in coastal zone plans before permits or funding for the projects are provided?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue special guidance and provides support to accomplish social inclusion in river basin planning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM agency or the national WSS agency have a dedicated program to work with local government and aid smaller utilities and rural communities at risk of drought and water shortages by providing technical and financial assistance? </t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency developing regulations to guide the IWSP process specifying requirements such as which irrigation service providers are required to prepare the plans, the frequency of the plans, the general scope and content of the plans, the process for plan approval and sanctions for non-compliance?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency providing technical support to the irrigation service providers by preparing guidelines, and providing technical and financial support?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency ensuring that the content of the IWSPs is informed by public consultation with the farmers and other key users?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM agency make sure that the IWSP are consistent with the basin plans? </t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency conditioning grant funding or loans to irrigation service providers to the regulations pertaining the IWSP?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency make environmental sustainability a core agricultural policy objective?</t>
+  </si>
+  <si>
+    <t>Does agriculture agency create partnerships with farmers and livestock producers to implement climate-smart agriculture?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency develop CSA practice standards suitable to the local context and can be used to help eligibility for grant funding?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency provide targeted technical and financial assistance such as incentive funding or green payments for smaller operations?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agencies promote farm sustainability plans for larger and more developed operations by providing technical and financial support or making the preparation of plans a regulatory requirement?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency create likages to WRM plans so agricultural and land use and practices are addressed as appropriate in the National Strategic WRM Plan as well as river basin plans to ensure that these practices are recognized as fundamental part of flood and drought management?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency establish dedicated forest management units to oversee forest-related programs?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency prepare a standalone national strategic forestry plan or policy incorporated inthe the broader periodic national strategic natural resources management plan?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency identify forests at risk and prioritize responses incluidng programs for reforestation?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency designate forsests as protected areas where needed particularly those that serve as critical watersheds for urban water supplies?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency adopt and implement forest management regulations such as standards of practice for sustainable forestry including timber harvesting on private or public lands as wlel as with specific approaches for forests collectively owned by local communities?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency create linkages to WRM plans so forest management issues are addressed in National Strategic WRM Plans as well as river basin plans to ensure the recognition of forests in flood and drought risk management?</t>
+  </si>
+  <si>
+    <t>Does the wetlands management unit prepare a standalone national strategic wetlands plan incoporated in the broader periodic national strategic natural resources management plan?</t>
+  </si>
+  <si>
+    <t>Does  the wetlands management unit designate wetlands as protected areas following the mandate and requirements established in the natural resources management or protected areas law?</t>
+  </si>
+  <si>
+    <t>Does the wetlands management unit create linkages to WRM plans so wetlands management issues are addressed in National Strategic WRM Plans as well as river basin plans to ensure the recognition of wetlands in flood and drought risk management?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency foster institutional arrangements in terms of the establishment of WaMOs at the appropriate leel ensuring that they receive adequate resources to effectivily fulfill their functions?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency that is mandated to support watershed management adopt regulations regarding the watershed planning process?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency that is mandated to support watershed management provide technical watershed planning guidelines including general methodolgy, sources of data, modelling approaches, linkages with other sectors and other planning processes such as basin planning?</t>
+  </si>
+  <si>
+    <t>Does the  agriculture or natural resources agency  support people-centred healthy watershed management by providing guidance to WaMOs on how to work constantly with program beneficiaries to incorporate sucessfull local approaches and adapt healthy watershed programs to their needs?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency that is mandated to support watershed management establish formal roles for relevant national agencies including WRM, natural resources and agriculture?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency that is mandated to support watershed management ensure public outreach and stakeholder engagement by providing guidance on consultations, responding to feedback and ensuring consultations?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency formulate WRM project planning guidance outlining procedures and methodologies for assessmeng WRI that include applicability, guiding principles, general requirements, environmental and social assessment, and relationship wiht other planning processes? Does the WRM agency also prepares additional technical notes providing detailed methodologies on economic assessment, addresing climate uncertainties, valuing ecosystem services or the desing of green infrastructure?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency formulate methodologies for allocating costs between different users for multi-purpose water resources infrastructure projects and cost-sharing policies to ensure that project beneficiaries assume some share of the costos to help inform rational investment decisions?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency use cost-sharing policies as incentives for more comprehensive management approaches?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator determine the applicability of dam safety regulations incluidng different dam categories based upon risk?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator systematically identify dam owners?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regultor formulate enginieering design and construction standards?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator adopt regulations for reviwing and approving the design and construction of dams?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator  adopt regulations for dam safety instpection and monitoring?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator  adopt regulations for emergency management plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator deliver dam safety training?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator provide financial support for dam safety modifications?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency harmonize flexible water allocation with basin plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency formulate a strategic mapping plan that is periodically updated and identify priority areas for flood mapping along wiht the general mapping parameters?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency establish an interagency task force and technical advisory committee to help support and guide the mapping process?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency perform post-flood hazard verification?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency create communications and outreach program to ensure that floodplain information is conveyed to policy makers, developers and the general public? does the WRM or DRM agency support the the creation of a flood map center that provide maps, databases, educational resources and other tools to better undertand flood risks?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency devleop model floodplain ordinances tailored to specific local circumstances such as river, coastal or other flood hazards for local governments to build on? Does the DRM agency require a ser of national flood resilient codes and standards or identify international codes and standards that local government can build on?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency oversee floodplan regulation programs by periodically visiting the local government and provide technical and financial assistance to endure enforcement of floodplain management regulations?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency provide technical assistance to local communities by providing floodplain information and helping to increase awareness of the perils of flooding and the importance of good floodplain management?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency support a professional association of floodplain managers versed in hydrology, land use planning, disaster management, civil ingenieering, and public administration?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies prepare hazard mitigation planning regulations and guidelines that govern the content, preparation, review and approval of local govenrment hazard mitigation plans?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies provide technical assistance for the formulation of hazard mitigation plans by providing guidelines, training and technical support?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies provide grant support programs for local governments to help with the implementation of the hazard mitigation program?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM monitor and report on the implementation of the various drought management measures under its mandate including at the basin level? </t>
+  </si>
+  <si>
+    <t>Does the WRM actively participate in the drought communication and outreach during drought?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency  build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship?</t>
+  </si>
+  <si>
+    <t>Has the agriculture agency set up an agriculture risk management program to support farmers managing a variety of risks including insurance and direct support programs, information to prodicers regarding markets and risk, technical assistance to manage hydro-climatic risks and assistance to recover from natural disasters?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency develop tailored agriculture disaster support programs for different types of producers incluidng regulations for eligibility, verification and payment based on sound risk assessments?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency facilitate an agricultural insurance program where appropriate and feasible?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with the Ocean Agency in developing storm surge models and monitoring oceanographic conditions through an interagency agreement that defines protocols for information sharing  and joint action during potential storm surge situations?</t>
+  </si>
+  <si>
+    <t>Is there a collaboration between the NMS/NHS and the WRM Agency in cases where the WRM agency is responsible for flood forecasts so the NMS/NHS draws from the weather enterprise the information required by the WRM to deliver river flood forecasts as well as coastal storms for river coastal interactions? Is this collaboration facilitated through an inter agency agreement or through a Flood Forecasting Center?</t>
+  </si>
+  <si>
+    <t>Do the WRM, DRM and drought national strategic plans provide a platform to advocate for sustainable funding for hydro-met services?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,14 +1063,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,6 +1244,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1300,11 +1411,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1660,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,94 +1800,94 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
+        <v>117</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,13 +1895,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,13 +1909,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,13 +1937,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,13 +1951,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,13 +1965,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,125 +1979,125 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>235</v>
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>227</v>
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>229</v>
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>231</v>
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,153 +2105,150 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>233</v>
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
+        <v>47</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
+      <c r="D31" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
+        <v>106</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
+        <v>106</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,13 +2256,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>112</v>
+        <v>146</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2155,13 +2270,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
+        <v>146</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,13 +2284,13 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>114</v>
+        <v>146</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2183,13 +2298,13 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
+        <v>146</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,13 +2312,13 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
+        <v>146</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,13 +2326,13 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
+        <v>146</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,55 +2340,55 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
+        <v>147</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,13 +2396,13 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,13 +2410,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" t="s">
-        <v>123</v>
+        <v>147</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,1470 +2424,1629 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
-        <v>124</v>
+        <v>147</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>20</v>
+      <c r="B47" t="s">
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>89</v>
+        <v>147</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
       <c r="C58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
       <c r="C59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
         <v>21</v>
       </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
       <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>137</v>
+        <v>150</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
         <v>21</v>
       </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
       <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>138</v>
+        <v>150</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
         <v>21</v>
       </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
       <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
         <v>21</v>
       </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
       <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" t="s">
         <v>152</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>153</v>
+        <v>48</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" t="s">
-        <v>154</v>
+        <v>48</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" t="s">
-        <v>155</v>
+        <v>48</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" t="s">
-        <v>157</v>
+        <v>48</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" t="s">
-        <v>158</v>
+        <v>49</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
+        <v>49</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" t="s">
-        <v>160</v>
+        <v>49</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" t="s">
-        <v>161</v>
+        <v>49</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" t="s">
-        <v>162</v>
+        <v>23</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" t="s">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" t="s">
-        <v>165</v>
+        <v>24</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" t="s">
-        <v>170</v>
+        <v>154</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" t="s">
-        <v>71</v>
-      </c>
-      <c r="D95" t="s">
-        <v>172</v>
+        <v>24</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D104" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" t="s">
         <v>74</v>
-      </c>
-      <c r="D111" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" t="s">
-        <v>196</v>
+        <v>159</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" t="s">
-        <v>197</v>
+        <v>159</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121" t="s">
-        <v>92</v>
+        <v>159</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>78</v>
-      </c>
-      <c r="D122" t="s">
-        <v>198</v>
+        <v>159</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123" t="s">
-        <v>199</v>
+        <v>160</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
-        <v>78</v>
-      </c>
-      <c r="D124" t="s">
-        <v>200</v>
+        <v>160</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D125" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>79</v>
-      </c>
-      <c r="D126" t="s">
-        <v>202</v>
+        <v>160</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
+        <v>161</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D127" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>161</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" t="s">
+        <v>163</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" t="s">
         <v>36</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C138" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>170</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>164</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>165</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>165</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>165</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" t="s">
+        <v>166</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149" t="s">
+        <v>166</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154" t="s">
+        <v>166</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" t="s">
+        <v>167</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" t="s">
+        <v>167</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C128" t="s">
-        <v>79</v>
-      </c>
-      <c r="D128" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="C158" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" s="2" t="s">
+      <c r="C159" t="s">
+        <v>168</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="C160" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="D162" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3781,18 +4055,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4025,26 +4299,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/keyagencyactionsquestions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunezsan\OneDrive - Stichting Deltares\Documents\Floods and Droughts\EPIC Response Tool\Software\Excel Sheets\Key Agency Actions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{1F7A07A1-9CA8-439E-8F7D-AEDDCFBEE87C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{85BFA6A3-0461-4E7F-9A68-769F7E509732}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{1F7A07A1-9CA8-439E-8F7D-AEDDCFBEE87C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5B7F19F3-4736-4283-836F-5793DF389D85}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="250">
   <si>
     <t>Local Government</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Disaster Risk Financing</t>
-  </si>
-  <si>
-    <t>Disaster Risk Financing Instruments</t>
   </si>
   <si>
     <t xml:space="preserve">Local governments play pivotal roles in responding to flood and drought disasters (World Bank 2019). As highlighted in Chapter 12, local governments need to work in concert with national DRM agencies to respond to floods. They serve as one of many channels to warn about floods, to help evacuate residents, to ensure public safety, to provide relief to impacted people, and to help guide recovery efforts. Chapter 11 notes how local governments can work in concert with national agencies on drought issues; they can help disseminate information as the drought unfolds, implement emergency drought measures, administer drought assistance, and support social protection programs.
@@ -189,24 +186,9 @@
 Watershed planning should be done in a collaborative process with all relevant agencies, and in a participatory manner with a wide range of stakeholders including the local WaMOs. The watershed management plan should feed into the river basin plan and vice versa. This collaborative arrangement between the various agencies is a classic example of the type of joined-up government approach required to address hydro-climatic risk management.</t>
   </si>
   <si>
-    <t>Is the WRM agency of the national WSS agency developing regulations to guide the UWSP's/WSCP's process?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency of the national WSS agency providing support to the water utilities?</t>
-  </si>
-  <si>
-    <t>Is the WRM agency of the national WSS agency ensuring that UWSP's/WDCP's are informed by a public consultation process?</t>
-  </si>
-  <si>
     <t>Does the natural resources management agency establish a dedicated wetlands management unit?</t>
   </si>
   <si>
-    <t>Does the WRM agency establish and maintain a national flood control infrastructure and database or register?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency set up an interagency committee on flood control infrastructure safety?</t>
-  </si>
-  <si>
     <t>Does the WRM agency establish, implement and periodically review a hazard potential classification system for existing flood control infrastructure?</t>
   </si>
   <si>
@@ -219,12 +201,6 @@
     <t>Does the WRM agency provide technical assistance and training to local governments and the owners of flood control infrastructure?</t>
   </si>
   <si>
-    <t>Does the WRM agency adopt regulations on water use permitting and water tenure?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency develop water use monitoring systems?</t>
-  </si>
-  <si>
     <t>Does the WRM agency adopt regulations for the permanent reallocation of water rights?</t>
   </si>
   <si>
@@ -237,15 +213,9 @@
     <t>Does the WRM agency develop aquifer management plans?</t>
   </si>
   <si>
-    <t>Does the WRM agency implement the water use permitting regime for groundwater use?</t>
-  </si>
-  <si>
     <t>Do the DRM and WRM agencies integrate the Flood Mitigation Plan with the River Basin or Coastal Management Plan?</t>
   </si>
   <si>
-    <t>Do the drought committee and its constituent sector agencies establish the governance document and procedures for the drought monitoring subcommittee?</t>
-  </si>
-  <si>
     <t>Do the drought committee and its constituent sector agencies develop protocols and guidance for drought monitoring and impact assessments?</t>
   </si>
   <si>
@@ -270,43 +240,7 @@
     <t>Do the agriculture agency and the various social protection agencies ensure sound governance and accountability mechanisms?</t>
   </si>
   <si>
-    <t>Do the agriculture agency and the various social protection agencies build longer term adaptive capacity?</t>
-  </si>
-  <si>
-    <t>Do the NMS/NHS, WRM and DRM agency consider establishing a national flood forecasting center?</t>
-  </si>
-  <si>
-    <t>Is there a collaboration between the DRM agency and the NMS/NHS and WRM agency issuing flood forecasts?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies formulate a national disaster response plan?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies oversee the Emergency Management System (EMS)?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies assist local governments in preparing emergency response plans?</t>
-  </si>
-  <si>
     <t>Do the DRM and WRM agencies ensure access to resources and funding for emergency response and relief?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies develop a program to provide temporary relief to households?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency administer a flood insurance program?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency facilitate recovery for vulnerable groups?</t>
-  </si>
-  <si>
-    <t>Do the finance agency and the DRM agency integrate disaster risk financing into the finance agency?</t>
-  </si>
-  <si>
-    <t>Do the finance agency and the DRM agency regulate the use of disaster risk financing instruments?</t>
-  </si>
-  <si>
-    <t>Do the finance agency and the DRM agency consider international collaboration?</t>
   </si>
   <si>
     <t>Co-production of Services</t>
@@ -345,9 +279,6 @@
   <si>
     <t xml:space="preserve"> Modern water resources laws typically require the periodic formulation of a National Strategic WRM Plan that lays out a roadmap for future activities. Such a plan can help a country chart a path towards sustainable, equitable, and long-term WRM, and result in a broad and diverse portfolio of recommended actions to address critical, systemic, and institutional challenges. The formulation of the plan is usually led by the WRM agency but should involve the active participation of all other relevant agencies, including DRM, agriculture, natural resources management, and hydromet. A broad spectrum of other stakeholders should also participate in the process including local governments, the private sector, academia, civil society, and the general public.
 The National Strategic WRM Plan provides a roadmap for policy makers and agencies to help the sector advance and is an ideal mechanism to help foster interagency collaboration and a holistic approach to WRM. It provides an opportunity to assess how the country is performing with respect to flood and drought management, and to propose adjustments to the policies, laws, agencies, programs, and funding to ensure continuous advancement. The National Strategic Plan does not identify measures or make specific investment decisions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the national WRM agency prepares a periodic National Strategic WRM Plan together with relevant agencies such as DRM, Agriculture, natural resources management and hydromet as well as other stakeholders? </t>
   </si>
   <si>
     <t xml:space="preserve">Key Agency Actions Description </t>
@@ -366,40 +297,7 @@
 •	Improve drought response and recovery. The Plan should ensure that national agencies and local governments are coordinated properly and sufficiently resourced to provide effective and timely relief from droughts. This includes reviewing the effectiveness of programs to respond to droughts, including water conservation, water allocation, and emergency water supply for cities and towns; agricultural support programs, including insurance, contingency financing, and disaster relief; and social safety nets when vulnerable people lose their livelihoods or in extreme cases, when they face starvation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Does your agency have a public engagement or social unit in place? </t>
-  </si>
-  <si>
-    <t>Does your agency have a comprehensive training program so your technical staff know how to interact with the public and other stakeholders?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your agency have a program in place to collaborate with local governments in the implementation of its mandate? </t>
-  </si>
-  <si>
-    <t>Does your agency have a comprehensive training program so your technical staff know how to operationalize social inclusion within its mandate?</t>
-  </si>
-  <si>
-    <t>Does your agency have specific guidelines on how to operationalize public participation and stakeholder engagement within its mandate?</t>
-  </si>
-  <si>
-    <t>Does your agency have a recruitment program to ensure that the technical staff is representative of the communities it serves?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your agency have an education support plan identifying its priorities and efforts for public and professional education (e.g. direct delivery, partnerships, or funding)? </t>
-  </si>
-  <si>
-    <t>Does your agency promote and provide educational programs related to its mandate to the communities it serves as well as the general public?</t>
-  </si>
-  <si>
-    <t>Does your agency maintain an information unit promoting open data, interacting with other agencies and establishing cross-agency data platforms is appropriate?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Basic weather and hydrological services are the foundation for hydro-climatic risk management, but NMS/NHS also need to collaborate with other agencies to offer services on top of this foundation. Ideally, specific programs for the co-production of services should be included in the rmeteorological law as well as the relevent WRM, DRM and Agricultural laws. The way agencies collaborate needs to be further developed among the agencies and can take the form of executive decisions compalling agencies to collaborate, memoranda of understanding, and the promulgation of agency regulations defining the particular interaction between agencies </t>
-  </si>
-  <si>
-    <t>Does the WRM agency foster institutional agreements to establish river basin agencies and river basin committees and ensure that the receive adequate funding and training so they can effectively fulfill their roles?</t>
-  </si>
-  <si>
-    <t>Does the WRM Agency establish formal roles for other national agencies such as natural resources management, agriculture, DRM, and hydro-met such as formal review or co-formulation?</t>
   </si>
   <si>
     <t xml:space="preserve">Flood Forecasting and Warning </t>
@@ -596,64 +494,28 @@
     <t>Flood Monitoring, Response and Recovery</t>
   </si>
   <si>
-    <t>Does the WRM Plan include recommended actions to address critical, systemic and institutional challenges and foster inter agency collaboration?</t>
-  </si>
-  <si>
     <t>In many countries, the combination of WRM, DRM, and Hydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
 The European Union’s Water Framework Directive  and Floods Directive , between them require member states to adopt a common approach to river basin management and flood risk assessment and management planning. As shown in figure 3.4, in Japan there are three major interlocking laws related to flood risk management, the DRM Act, the River Act (which acts as a water resources law), and a specific Flood Protection Act. In the United States, the Federal Interagency Floodplain Management Task Force helps bring together all water-related agencies and was established under the 1975 Water Resources and Development Act</t>
   </si>
   <si>
-    <t>Does your agency maintain a scientific advisory committee?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Based on clear mandates for open data included in national regulation, do the NHS/NMS have a specialized unit that focuses on open data? </t>
   </si>
   <si>
-    <t>Does the NMS/NHS engage in the implementation of global collaboration initiatives (for example with the WMO)?</t>
-  </si>
-  <si>
-    <t>Does the NMS/NHS collaborate with the agricultural agency with clear interagency agreements and operational protocols to provide agro-climate services to farmers such us informing farmers of climate variability and/or extreme events?</t>
-  </si>
-  <si>
-    <t>Does the WRM provide support to basin agencies and committees to ensure public outreach and stakeholder engagement?</t>
-  </si>
-  <si>
-    <t>Does the WRM Agency issue special guidance and provides support to accomplish social inclusion in river basin planning?</t>
-  </si>
-  <si>
     <t>Does the natural resources management agency or the agency responsible for coastal zone planning foster institutional agreements to establish coastal planning authorities or regional coastal committees and ensure that they receive funding and training to fulfill their roles?</t>
   </si>
   <si>
     <t>Does the natural resources management agency or the agency responsible for coastal zone planning provide technical planning guidelines for coastal planning?</t>
   </si>
   <si>
-    <t xml:space="preserve">Does the natural resources management agency or the agency responsible for coastal zone planning establish formal roles for other national agencies such as WRM, agriculture, DRM, and hydro-met? </t>
-  </si>
-  <si>
     <t>Does the natural resources management agency or the agency responsible for coastal zone planning provide support to basin agencies and committees to ensure public outreach and stakeholder engagement?</t>
   </si>
   <si>
-    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue regulations to ensure the inclusion of all water resources infrastructure projects such as sea dikes, sluice gates and dredging operations, in coastal zone plans before permits or funding for the projects are provided?</t>
-  </si>
-  <si>
-    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue special guidance and provides support to accomplish social inclusion in river basin planning?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Does the WRM agency or the national WSS agency have a dedicated program to work with local government and aid smaller utilities and rural communities at risk of drought and water shortages by providing technical and financial assistance? </t>
   </si>
   <si>
-    <t>Is the WRM agency or the agricultural agency developing regulations to guide the IWSP process specifying requirements such as which irrigation service providers are required to prepare the plans, the frequency of the plans, the general scope and content of the plans, the process for plan approval and sanctions for non-compliance?</t>
-  </si>
-  <si>
     <t>Is the WRM agency or the agricultural agency providing technical support to the irrigation service providers by preparing guidelines, and providing technical and financial support?</t>
   </si>
   <si>
-    <t>Is the WRM agency or the agricultural agency ensuring that the content of the IWSPs is informed by public consultation with the farmers and other key users?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the WRM agency make sure that the IWSP are consistent with the basin plans? </t>
-  </si>
-  <si>
     <t>Is the WRM agency or the agricultural agency conditioning grant funding or loans to irrigation service providers to the regulations pertaining the IWSP?</t>
   </si>
   <si>
@@ -663,15 +525,9 @@
     <t>Does agriculture agency create partnerships with farmers and livestock producers to implement climate-smart agriculture?</t>
   </si>
   <si>
-    <t>Does the agriculture agency develop CSA practice standards suitable to the local context and can be used to help eligibility for grant funding?</t>
-  </si>
-  <si>
     <t>Does the agriculture agency provide targeted technical and financial assistance such as incentive funding or green payments for smaller operations?</t>
   </si>
   <si>
-    <t>Does the agriculture agencies promote farm sustainability plans for larger and more developed operations by providing technical and financial support or making the preparation of plans a regulatory requirement?</t>
-  </si>
-  <si>
     <t>Does the natural resources agency establish dedicated forest management units to oversee forest-related programs?</t>
   </si>
   <si>
@@ -690,9 +546,6 @@
     <t>Does the agriculture or natural resources agency that is mandated to support watershed management ensure public outreach and stakeholder engagement by providing guidance on consultations, responding to feedback and ensuring consultations?</t>
   </si>
   <si>
-    <t>Does the WRM agency use cost-sharing policies as incentives for more comprehensive management approaches?</t>
-  </si>
-  <si>
     <t>Does the WRM agency or dam regulator systematically identify dam owners?</t>
   </si>
   <si>
@@ -702,9 +555,6 @@
     <t>Does the WRM agency or dam regulator provide financial support for dam safety modifications?</t>
   </si>
   <si>
-    <t>Does the WRM agency harmonize flexible water allocation with basin plans?</t>
-  </si>
-  <si>
     <t>Does the WRM or DRM agency establish an interagency task force and technical advisory committee to help support and guide the mapping process?</t>
   </si>
   <si>
@@ -717,15 +567,6 @@
     <t>Do the DRM and WRM agencies provide technical assistance for the formulation of hazard mitigation plans by providing guidelines, training and technical support?</t>
   </si>
   <si>
-    <t>Do the DRM and WRM agencies provide grant support programs for local governments to help with the implementation of the hazard mitigation program?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the WRM monitor and report on the implementation of the various drought management measures under its mandate including at the basin level? </t>
-  </si>
-  <si>
-    <t>Does the WRM actively participate in the drought communication and outreach during drought?</t>
-  </si>
-  <si>
     <t>Does the agriculture agency facilitate an agricultural insurance program where appropriate and feasible?</t>
   </si>
   <si>
@@ -735,81 +576,21 @@
     <t>Questionnaire</t>
   </si>
   <si>
-    <t>Does the DRM agency seek participation of other relevant agencies, including WRM, hydro-met, agriculture, natural resources management, social welfare, and finance to develop National Strategic DRM plans?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the national drought committee prepare and periodically update a National Strategic Drought Plan together with relevant agencies such as WRM, DRM, Agriculture, natural resources management and hydromet as well as other stakeholders? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the National Strategic Drought Plan include the following aspects: description of drought risks and vulnerabilities; inter-agency coordination arrangements; plans, programs and projects to reduce drought hazards; drought monitoring and forecasting arrangements; and drought communication and education arrangements. </t>
-  </si>
-  <si>
-    <t>Does the WRDM, DRM and hydro-met synchronized sector frameworks cover all the relevant aspects for flood risk management or is a specific FRM policy needed? if so, do the DRM, WRM, Hydro-met, Agriculture and natural resources management collaborate in the preparation of the FRM policy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your agency have a team operationalizing social inclusion within its mandate? </t>
-  </si>
-  <si>
-    <t>Does your agency have specific guidelines on how to operationalize social inclusion within its mandate?</t>
-  </si>
-  <si>
-    <t>Does your agency partner with scientific organization to provide educational programs for professional development?</t>
-  </si>
-  <si>
-    <t>Does your agency have an open data program?</t>
-  </si>
-  <si>
-    <t>Does your agency engage with other agencies in a cross-agency data platform?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Do the NMS and NHS, if separate entities, work together seamlessly through mandates included in the national frameworks as well as inter-agency cooperation agreements? </t>
   </si>
   <si>
     <t xml:space="preserve">Does the NMS/NHS engage in public-private partnerships? </t>
   </si>
   <si>
-    <t xml:space="preserve">Does the NMS/NHS collaborate with other agencies (e.g. WRM, DRM, Agriculture, Drought Committee) to co-produce hydro-met services?  </t>
-  </si>
-  <si>
-    <t>Does the NMS/NHS collaborate with other agencies such as WRM, DRM, Agriculture in a national water data program with interagency agreements and operational protocols in place to ensure the flow of information and water data?</t>
-  </si>
-  <si>
-    <t>Does the NMS/NHS work closely with the WRM, agriculture and DRM agencies to gather both dryness conditions as well as its impact on farmers, cities and the environment in the national drought monitoring program?</t>
-  </si>
-  <si>
-    <t>Are national climate assessments periodically developed where the NMS/NHS collaborates with the WRM, DRM, Agriculture, Natural Resources and other key agencies to assess climate change impacts and risks?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the WRM Agency issue regulations regarding the basin planning process including period between plans, general scope and format, review and approval as well as the role of the WRM in providing technical and financial assistance? </t>
-  </si>
-  <si>
     <t>Does the WRM Agency provide technical planning guidelines including general methodology, sources of data, modelling approaches, linkages with other sectors and other planning processes?</t>
   </si>
   <si>
-    <t>Does WRM issue regulations to ensure the inclusion of all water resources infrastructure projects, such as multipurpose reservoirs or flood control structures, in river basin plans before permits or funding for the projects are provided?</t>
-  </si>
-  <si>
-    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue regulations or guidance on coastal planning processes covering topics such as the appropriate coastal stretches for planning, how often a plan needs to be prepared the general scope and format of the plan and the review and approval process?</t>
-  </si>
-  <si>
     <t>Is the WRM agency of the national WSS agency conditioning funding or loans to water utilities?</t>
   </si>
   <si>
-    <t>Does the agriculture agency create linkages to WRM plans so agricultural and land use and practices are addressed as appropriate in the National Strategic WRM Plan as well as river basin plans to ensure that these practices are recognized as fundamental part of flood and drought management?</t>
-  </si>
-  <si>
     <t>Does the natural resources agency prepare a standalone national strategic forestry plan or policy incorporated in the broader periodic national strategic natural resources management plan?</t>
   </si>
   <si>
-    <t>Does the natural resources agency identify forests at risk and prioritize responses including programs for reforestation?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency designate forests as protected areas where needed particularly those that serve as critical watersheds for urban water supplies?</t>
-  </si>
-  <si>
-    <t>Does the natural resources agency adopt and implement forest management regulations such as standards of practice for sustainable forestry including timber harvesting on private or public lands as well as with specific approaches for forests collectively owned by local communities?</t>
-  </si>
-  <si>
     <t>Does the wetlands management unit prepare a standalone national strategic wetlands plan incorporated in the broader periodic national strategic natural resources management plan?</t>
   </si>
   <si>
@@ -825,30 +606,9 @@
     <t>Does the wetlands management unit adopt and implement regulations related to wetlands development?</t>
   </si>
   <si>
-    <t>Does the national agriculture or natural resources agency foster institutional arrangements in terms of the establishment of WaMOs at the appropriate level ensuring that they receive adequate resources to effectively fulfill their functions?</t>
-  </si>
-  <si>
-    <t>Does the national agriculture or natural resources agency provide technical support to the WaMOs?</t>
-  </si>
-  <si>
-    <t>Does the national agriculture or natural resources agency build incentives to foster the establishment of WaMOs?</t>
-  </si>
-  <si>
-    <t>Does the agriculture or natural resources agency support people-centered healthy watershed management by providing guidance to WaMOs on how to work constantly with program beneficiaries to incorporate successful local approaches and adapt healthy watershed programs to their needs?</t>
-  </si>
-  <si>
     <t>Does the agriculture or natural resources agency that is mandated to support watershed management provide technical watershed planning guidelines including general methodology, sources of data, modelling approaches, linkages with other sectors and other planning processes such as basin planning?</t>
   </si>
   <si>
-    <t>Does the WRM agency formulate WRM project planning guidance outlining procedures and methodologies for assessment WRI that include applicability, guiding principles, general requirements, environmental and social assessment, and relationship with other planning processes? Does the WRM agency also prepares additional technical notes providing detailed methodologies on economic assessment, addressing climate uncertainties, valuing ecosystem services or the design of green infrastructure?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency formulate methodologies for allocating costs between different users for multi-purpose water resources infrastructure projects and cost-sharing policies to ensure that project beneficiaries assume some share of the costs to help inform rational investment decisions?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency or dam regulator determine the applicability of dam safety regulations including different dam categories based upon risk?</t>
-  </si>
-  <si>
     <t>Does the WRM agency or dam regulator formulate engineering design and construction standards?</t>
   </si>
   <si>
@@ -864,64 +624,295 @@
     <t>Does the WRM agency promote public awareness of and involvement in flood safety programs?</t>
   </si>
   <si>
-    <t>Does the WRM agency certify compliance with the relevant elements of the national flood control infrastructure safety program?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency adopt regulations on water ruse and reallocation during droughts?</t>
-  </si>
-  <si>
     <t>Does the WRM agency incorporate groundwater into basin planning and drought contingency plans?</t>
   </si>
   <si>
     <t>Does the WRM or DRM agency formulate a strategic mapping plan that is periodically updated and identify priority areas for flood mapping along with the general mapping parameters?</t>
   </si>
   <si>
-    <t>Does the WRM or DRM agency develop and regular update the flood mapping technical standards?</t>
-  </si>
-  <si>
-    <t>Does the WRM or DRM agency create communications and outreach program to ensure that floodplain information is conveyed to policy makers, developers and the general public? does the WRM or DRM agency support the creation of a flood map center that provide maps, databases, educational resources and other tools to better understand flood risks?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency develop model floodplain ordinances tailored to specific local circumstances such as river, coastal or other flood hazards for local governments to build on? Does the DRM agency require a ser of national flood resilient codes and standards or identify international codes and standards that local government can build on?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency oversee flood plan regulation programs by periodically visiting the local government and provide technical and financial assistance to endure enforcement of floodplain management regulations?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency support a professional association of floodplain managers versed in hydrology, land use planning, disaster management, civil engineering, and public administration?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies prepare hazard mitigation planning regulations and guidelines that govern the content, preparation, review and approval of local government hazard mitigation plans?</t>
-  </si>
-  <si>
-    <t>Does the WRM agency build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship?</t>
-  </si>
-  <si>
-    <t>Has the agriculture agency set up an agriculture risk management program to support farmers managing a variety of risks including insurance and direct support programs, information to producers regarding markets and risk, technical assistance to manage hydro-climatic risks and assistance to recover from natural disasters?</t>
-  </si>
-  <si>
-    <t>Does the agriculture agency develop tailored agriculture disaster support programs for different types of producers including regulations for eligibility, verification and payment based on sound risk assessments?</t>
-  </si>
-  <si>
-    <t>Does the NMS/NHS collaborate with the Ocean Agency in developing storm surge models and monitoring oceanographic conditions through an interagency agreement that defines protocols for information sharing and joint action during potential storm surge situations?</t>
-  </si>
-  <si>
-    <t>Is there a collaboration between the NMS/NHS and the WRM Agency in cases where the WRM agency is responsible for flood forecasts so the NMS/NHS draws from the weather enterprise the information required by the WRM to deliver river flood forecasts as well as coastal storms for river coastal interactions? Is this collaboration facilitated through an inter-agency agreement or through a Flood Forecasting Center?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies operate flood operations centers?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies prepare Rapid Impact Assessment (RIA) and PDNA protocols?</t>
-  </si>
-  <si>
-    <t>Do the DRM and WRM agencies attend to the needs of poor and marginalized communities?</t>
-  </si>
-  <si>
-    <t>Does the DRM agency administer flood disaster recovery programs?</t>
-  </si>
-  <si>
-    <t>Do the finance agency and the DRM agency develop a disaster risk financing strategy?</t>
+    <t>Disaster Risk Financing National Sector Framework and Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the national WRM agency prepare a periodic National Strategic WRM Plan? Does the WRM Agency prepare the National Strategic WRM Plan together with relevant agencies such as DRM, agriculture, natural resources management and hydro-met as well as other stakeholders? </t>
+  </si>
+  <si>
+    <t>Does the WRM Plan include recommended actions to address critical, systemic and institutional challenges and foster inter-agency collaboration?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency lead the periodic preparation of a National Strategic DRM plan? Does the DRM agency prepare the National Strategic DRM Plan together with relevant agencies such as WRM, hydro-met, agriculture, natural resources management, social welfare, and finance as well as other key stakeholders?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the national drought committee prepare and periodically update a National Strategic Drought Plan together with relevant agencies such as WRM, DRM, Agriculture, natural resources management and hydro-met as well as other key stakeholders? </t>
+  </si>
+  <si>
+    <t>Does national drought committee prepare a National Strategic Drought Plan? To what extent does the National Strategic Drought Plan include the following aspects: description of drought risks and vulnerabilities; inter-agency coordination arrangements; plans, programs and projects to reduce drought hazards; drought monitoring and forecasting arrangements; and drought communication and education arrangements. Consider adding ‘and mandatory public consultation/ stakeholder engagement procedures’</t>
+  </si>
+  <si>
+    <t>Do the WRDM, DRM and hydro-met sector frameworks cover all the relevant aspects for flood risk management or is a specific Flood Risk Management policy needed? if so, do the DRM, WRM, Hydro-met, Agriculture and natural resources management collaborate in the preparation of the FRM policy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the agency being evaluated have a program in place to collaborate with state/provincial and local governments in the implementation of its mandate? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the agency being evaluated have a public engagement or social unit in place? </t>
+  </si>
+  <si>
+    <t>Does the agency being evaluated have a comprehensive training program so its technical staff know how to interact with the public and other stakeholders and learned how to collect/read/interpret data, identify operational issues on equipment/infrastructure?</t>
+  </si>
+  <si>
+    <t>Does the agency being evaluated have specific guidelines on how to operationalize public participation and stakeholder engagement within its mandate with a special emphasis on vulnerable communities?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the agency being evaluated have a team/dedicated staff operationalizing social inclusion within its mandate? </t>
+  </si>
+  <si>
+    <t>Does the agency being evaluated have a comprehensive training program and specific guidelines and procedures so technical staff know how to operationalize social inclusion within its mandate?</t>
+  </si>
+  <si>
+    <t>Does the agency being evaluated have a recruitment program to ensure that the technical staff are representative of the communities the agency serves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the agency being evaluated have an education support plan identifying its priorities and efforts for public and professional education (e.g., direct delivery, partnerships or funding)? </t>
+  </si>
+  <si>
+    <t>Does the agency being evaluated promote and provide educational programs related to its mandate to the communities it serves as well as the general public, including vulnerable communities?</t>
+  </si>
+  <si>
+    <t>Does the agency being evaluated partner with scientific organizations to provide educational programs for professional development and research support?</t>
+  </si>
+  <si>
+    <t>Does the agency being evaluated maintain a scientific advisory committee?</t>
+  </si>
+  <si>
+    <t>Does the agency being evaluated have an open data program? Does your agency have a clear process for data and information sharing between different units within the agency and also with other entities and the public?</t>
+  </si>
+  <si>
+    <t>Does agency being evaluated maintain an information unit promoting open data, interacting with other agencies and establishing cross-agency data platforms?</t>
+  </si>
+  <si>
+    <t>Does agency being evaluated engage with other agencies in a cross-agency data platform?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS engage in the implementation of global collaboration initiatives (for example with the World Meteorological Organization?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the NMS/NHS collaborate with other agencies (e.g., WRM, DRM, agriculture, drought committee) to co-produce hydro-met services?  </t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with other agencies such as WRM, DRM and agriculture in a national water data program with interagency agreements and operational protocols in place to ensure the flow of information and water data?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS work closely with the WRM, DRM and agriculture agencies to gather both dryness conditions as well as its impact on farmers, cities and the environment in the national drought monitoring program?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with the agricultural agency with clear interagency agreements and operational protocols to provide agro-climate services to farmers such as informing farmers of climate variability and/or extreme events?</t>
+  </si>
+  <si>
+    <t>Are national climate assessments periodically developed where the NMS/NHS collaborates with the WRM, DRM, agriculture, natural resources and other key agencies to assess climate change impacts and risks?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency foster institutional agreements to establish river basin agencies and river basin committees and ensure that they receive adequate funding, technical assistance and training to effectively fulfill their roles?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM agency issue regulations regarding the basin planning process including period between plans, general scope and format, review and approval and the role of the WRM agency in providing technical and financial assistance? </t>
+  </si>
+  <si>
+    <t>Does the WRM Agency establish formal roles for other national agencies such as natural resources management, agriculture, DRM, and hydro-met, such as formal review or co-formulation?</t>
+  </si>
+  <si>
+    <t>Does the WRM Agency provide support to basin agencies and committees to ensure public outreach and stakeholder engagement?</t>
+  </si>
+  <si>
+    <t>Does the WRM Agency issue special guidance and provide support to accomplish social inclusion in river basin planning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does WRM Agency issue regulations to ensure the inclusion of all water resources infrastructure projects, such as multipurpose reservoirs or flood control structures, in river basin plans before permits or funding for the projects are provided? </t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue regulations or guidance on coastal planning processes covering topics such as the appropriate coastal stretches for planning, frequency of plan preparation, general scope and format of the plan and the review and approval process?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the natural resources management agency or the agency responsible for coastal zone planning establish formal roles for other national agencies, such as WRM, agriculture, DRM, and hydro-met? </t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue special guidance and provide support to accomplish social inclusion in river basin planning?</t>
+  </si>
+  <si>
+    <t>Does the natural resources management agency or the agency responsible for coastal zone planning issue regulations to ensure the inclusion of all water resources infrastructure projects, (e.g., sea dikes, sluice gates and dredging operations) in coastal zone plans before permits or funding for the projects are provided?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency of the national WSS agency developing regulations to guide the urban water supply plans and water shortage contingency plans process?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the national WSS agency providing support to the water utilities in the preparation of urban water supply plans and water shortage contingency plans?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency of the national WSS agency ensuring that urban water supply plans and water shortage contingency plans are informed by a public consultation process?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency developing regulations to guide the integrated water supply planning process specifying requirements, such as which irrigation service providers are required to prepare the plans, the frequency of the plans, the general scope and content of the plans, the process for plan approval and sanctions for non-compliance?</t>
+  </si>
+  <si>
+    <t>Is the WRM agency or the agricultural agency ensuring that the content of the integrated water supply planning is informed by public consultation with the farmers and other key users including vulnerable communities?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM agency make sure that the IWSPs are consistent with the basin plans? </t>
+  </si>
+  <si>
+    <t>Does the agriculture agency develop climate-smart agriculture practice standards suitable to the local context and can these be used to help eligibility for grant funding?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency promote farm sustainability plans for larger and more developed operations by providing technical and financial support or making the preparation of plans a regulatory requirement?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency create linkages to WRM plans so agricultural and land use and practices are addressed as appropriate in the National Strategic WRM Plan and river basin plans to ensure that these practices are recognized as a fundamental part of flood and drought management?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency identify forests at risk and prioritize responses including programs for reforestation, restoration or protection?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency designate forests as protected areas, particularly those that serve as critical watersheds for urban water supplies?</t>
+  </si>
+  <si>
+    <t>Does the natural resources agency adopt and implement forest management regulations, such as standards of practice for sustainable forestry including timber harvesting on private or public lands and specific approaches for forests collectively owned by local communities?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency foster institutional arrangements in terms of the establishment of Watershed Management Organizations at the appropriate level ensuring that they receive adequate resources to effectively fulfill their functions?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency provide technical support to the Watershed Management Organizations?</t>
+  </si>
+  <si>
+    <t>Does the national agriculture or natural resources agency build incentives to foster the establishment of Watershed Management Organizations?</t>
+  </si>
+  <si>
+    <t>Does the agriculture or natural resources agency support people-centered healthy watershed management by providing guidance to Watershed Management Organizations on how to work constantly with program beneficiaries to incorporate successful local approaches and adapt healthy watershed programs to their needs?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency formulate WRM project planning guidance outlining procedures and methodologies for assessment of water resources infrastructure that includes applicability, guiding principles, general requirements, environmental and social assessment, and relationships with other planning processes? Does the WRM agency also prepare additional technical notes providing detailed methodologies on economic assessment, addressing climate uncertainties, valuing ecosystem services and/or the design of green infrastructure?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency formulate methodologies for allocating costs between different users for multi-purpose water resources infrastructure projects and cost-sharing policies to ensure that project beneficiaries assume some share of the costs to help inform investment decisions?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency use cost-sharing policies as incentives to help inform rational investment decision and comprehensive risk management approaches (e.g. local governments that adopt sound floodplain management program have a lower cost-sharing percentage for flood infrastructure)?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency or dam regulator determine the applicability of dam safety regulations, including different dam categories based upon risk?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency establish and maintain a national flood control infrastructure database or register?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency stand up an interagency committee on flood control infrastructure safety?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency certify compliance with the national flood control infrastructure safety program?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM agency prepare regulations and guidelines ensuring that as part of river basin planning an assessment of available water resources is made and governing how water is used, including for meeting environmental requirements? Does the WRM agency ensure that the basin planning process sets abstraction limits and avoids overallocation of water? Does the WRM agency ensure that basin planning includes a drought contingency plan that reallocates flexibly water based on the level of drought severity and consistent with existing water rights? </t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations on the issuance and enforcement of water use permitting and water tenure ensuring that applications for new permits or the variation of existing permits are grounded in the relevant river basin management plans?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM agency develop water use monitoring systems, in addition to water quantity and quality, to ensure that users abide by their permits including inspections, technical requirements for water measuring devices, standard designs for measuring open surface flows, space-based monitoring (e.g. cropping patterns and their evapotranspiration use) as well as a database of permit holders and their water use? </t>
+  </si>
+  <si>
+    <t>Does the WRM agency adopt regulations on water ruse and reallocation during droughts based on the basin drought contingency plan (e.g. water allocation on a percentage share basis of the total available water resources, negotiated sale for temporary reallocation from lower-value users to huger-value users or water markets)?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency implement a water use permitting regime for groundwater use?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency develop and regularly update the flood mapping technical standards?</t>
+  </si>
+  <si>
+    <t>Does the WRM or DRM agency create communications and outreach programs to ensure that floodplain information is conveyed to policy makers, developers and the general public? does the WRM or DRM agency support the creation of a flood map center that provide maps, databases, educational resources and other tools to better understand flood risks?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency develop model floodplain ordinances tailored to specific local circumstances such as river, coastal or other flood hazards for local governments to build on? Does the DRM agency require a set of national flood resilient codes and standards or identify international codes and standards that local governments can build on?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency oversee flood plan regulation programs by periodically visiting the local government and provide technical and financial assistance to ensure enforcement of floodplain management regulations?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies prepare hazard mitigation planning regulations and guidelines that govern the content, preparation, review and approval of local government hazard mitigation plans? Do these planning and guidelines operationalize social inclusion within hazard mitigation planning?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies provide grant support programs for state/provincial and local governments to help with the implementation of the hazard mitigation program?</t>
+  </si>
+  <si>
+    <t>Do the drought committee and its constituent sector agencies establish the governance documents and procedures for the drought monitoring subcommittee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM Agency monitor and report on the implementation of the various drought management measures under its mandate, including at the basin level? </t>
+  </si>
+  <si>
+    <t>Does the WRM Agency actively participate in drought communication and outreach before and during drought events?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency build upon emergency water conservation activities during droughts to help promote the necessary policy, legal and institutional reforms to further the longer-term agenda of water stewardship?</t>
+  </si>
+  <si>
+    <t>Has the agriculture agency set up an agriculture risk management program to support farmers managing a variety of risks, including insurance and direct support programs, information to producers regarding markets and risk, technical assistance to manage hydro-climatic risks and assistance to recover from natural disasters?</t>
+  </si>
+  <si>
+    <t>Does the agriculture agency develop tailored agriculture disaster support programs for different types of producers, including regulations for eligibility, verification and payment based on sound risk assessments?</t>
+  </si>
+  <si>
+    <t>Does the NMS/NHS collaborate with the Ocean Observation Agency in developing storm surge models and monitoring oceanographic conditions through an interagency agreement that defines protocols for information sharing and joint action during potential storm surge situations?</t>
+  </si>
+  <si>
+    <t>Is there a collaboration between the NMS/NHS and the WRM Agency in cases where the WRM agency is responsible for flood forecasts, so the NMS/NHS draws the information required by the WRM to deliver river flood aand coastal storm forecasts for river coastal interactions? Is this collaboration facilitated through an inter-agency agreement or through a Flood Forecasting Center?</t>
+  </si>
+  <si>
+    <t>Do the NMS/NHS, WRM and/or DRM agency have an established national flood forecasting center?</t>
+  </si>
+  <si>
+    <t>Is there a collaboration between the DRM agency, the NMS/NHS and WRM agency issuing flood forecasts?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency formulate a national disaster response plan?</t>
+  </si>
+  <si>
+    <t>Does the DRM agency oversee an Emergency Management System (EMS)?</t>
+  </si>
+  <si>
+    <t>Do the DRM and WRM agencies assist state/provincial and local governments in preparing emergency response plans?</t>
+  </si>
+  <si>
+    <t>Does the WRM agency operate flood operations centers in collaboration with the NMS and the DRM agency?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM agency prepare protocols and guidelines for the preparation of Rapid Impact Assessment (RIA) and Post-Disaster Needs Assessments (PDNA)? </t>
+  </si>
+  <si>
+    <t>Does the PDNA include an action plan to help address the needs of the vulnerable populations in the relief and recovery process?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM agency develop a program to provide temporary relief to households? Does the DRM agency work with the national government to ensure access to funding to respond to emergencies and provide relief? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM agency administer flood disaster recovery programs for different groups including those vulnerable households and communities; business and other non-governmental organizations; and public infrastructure and utilities? Does the DRM agency ensure that disaster recovery programs include eligibility criteria, procedures for applying and receiving assistance, requirements for use of funds in order to build back better and clear procurement rules for public infrastructure utilities? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM agency administer a flood insurance program working with insurance companies to generate a flood insurance market and promoting the informed sharing of risks (e.g. data related to flood frequency and damages? Does the DRM delineate who is eligible for flood insurance, focusing on affordable premiums and additional support to vulnerable households? </t>
+  </si>
+  <si>
+    <t>Does the DRM agency work with local governments, social protection agencies, civil society organizations, and the impacted communities to facilitate flood recovery for vulnerable groups?</t>
+  </si>
+  <si>
+    <t>Does the finance agency collaborate with the DRM agency to integrate disaster risk financing into the overall finance agency operations?</t>
+  </si>
+  <si>
+    <t>Does the finance agency collaborate with the DRM agency to develop a disaster risk financing strategy with a multilayered financing approach in accordance with the country’s risk profile?</t>
+  </si>
+  <si>
+    <t>Do the finance agency in collaboration with DRM agency regulate and incentivize the use of disaster risk financing instruments (e.g. rules governing access to the National Disaster Fund)?</t>
+  </si>
+  <si>
+    <t>Do the finance agency and the DRM agency participate in international collaboration?</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1388,19 +1379,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1446,18 +1424,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,21 +1787,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D161"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1837,97 +1809,97 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1935,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1949,13 +1921,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1963,13 +1935,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1977,13 +1949,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1991,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2005,13 +1977,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2019,27 +1991,27 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2047,13 +2019,13 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2061,41 +2033,41 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2103,13 +2075,13 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2117,41 +2089,41 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2159,13 +2131,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2173,13 +2145,13 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2187,108 +2159,108 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2296,13 +2268,13 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2310,13 +2282,13 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2324,13 +2296,13 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2338,13 +2310,13 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2352,13 +2324,13 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2366,27 +2338,27 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2394,13 +2366,13 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2408,13 +2380,13 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2422,13 +2394,13 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2436,13 +2408,13 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2450,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2464,27 +2436,27 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2492,13 +2464,13 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2506,13 +2478,13 @@
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2520,13 +2492,13 @@
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2534,27 +2506,27 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2562,13 +2534,13 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2576,13 +2548,13 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2590,13 +2562,13 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2604,27 +2576,27 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2632,13 +2604,13 @@
         <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2646,13 +2618,13 @@
         <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2660,13 +2632,13 @@
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2674,13 +2646,13 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2688,27 +2660,27 @@
         <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2716,13 +2688,13 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -2730,13 +2702,13 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -2744,13 +2716,13 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2758,13 +2730,13 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -2772,27 +2744,27 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -2800,13 +2772,13 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2814,13 +2786,13 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -2828,13 +2800,13 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2842,13 +2814,13 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -2856,13 +2828,13 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2870,139 +2842,139 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D80" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -3010,13 +2982,13 @@
         <v>22</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -3024,41 +2996,41 @@
         <v>22</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -3066,13 +3038,13 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -3080,13 +3052,13 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -3094,13 +3066,13 @@
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -3108,13 +3080,13 @@
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -3122,41 +3094,41 @@
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>21</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
-      <c r="C94" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -3164,13 +3136,13 @@
         <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -3178,13 +3150,13 @@
         <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -3192,13 +3164,13 @@
         <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -3206,13 +3178,13 @@
         <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -3220,13 +3192,13 @@
         <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -3234,13 +3206,13 @@
         <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -3248,27 +3220,27 @@
         <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -3276,13 +3248,13 @@
         <v>26</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -3290,13 +3262,13 @@
         <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -3304,13 +3276,13 @@
         <v>26</v>
       </c>
       <c r="C106" t="s">
-        <v>128</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -3318,27 +3290,27 @@
         <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -3346,13 +3318,13 @@
         <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -3360,13 +3332,13 @@
         <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>129</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -3374,13 +3346,13 @@
         <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>129</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -3388,27 +3360,27 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -3416,13 +3388,13 @@
         <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3430,13 +3402,13 @@
         <v>29</v>
       </c>
       <c r="C115" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -3444,13 +3416,13 @@
         <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -3458,27 +3430,27 @@
         <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3486,13 +3458,13 @@
         <v>30</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -3500,41 +3472,41 @@
         <v>30</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -3542,13 +3514,13 @@
         <v>31</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -3556,534 +3528,492 @@
         <v>31</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>132</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
         <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>133</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B128" t="s">
         <v>32</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
-      </c>
-      <c r="C129" t="s">
-        <v>133</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
-      </c>
-      <c r="C130" t="s">
-        <v>133</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
         <v>33</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C132" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>33</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C133" t="s">
+        <v>101</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B134" t="s">
         <v>34</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B135" t="s">
         <v>34</v>
       </c>
       <c r="C135" t="s">
-        <v>135</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>135</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>135</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B138" t="s">
         <v>35</v>
       </c>
       <c r="C138" t="s">
-        <v>136</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C139" t="s">
-        <v>136</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140" t="s">
-        <v>35</v>
+        <v>102</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C140" t="s">
-        <v>136</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>142</v>
+        <v>103</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C141" t="s">
-        <v>136</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>142</v>
+        <v>103</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>136</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C144" t="s">
-        <v>137</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>137</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C146" t="s">
-        <v>137</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>138</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C148" t="s">
-        <v>138</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>138</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C152" t="s">
-        <v>138</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
-        <v>138</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
-        <v>138</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>139</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>139</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157" t="s">
+        <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>139</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>39</v>
+      <c r="B158" t="s">
+        <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>140</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C159" t="s">
-        <v>140</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C160" t="s">
-        <v>140</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C161" t="s">
-        <v>140</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="D162" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="D159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4092,6 +4022,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
     <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
@@ -4320,12 +4256,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4336,6 +4266,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6A13AE-37E0-4EFF-97D8-0C2932CFB4EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4354,23 +4301,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D48028-CB17-47FE-8640-1B6F042B0343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B50B3F-65EA-4DF6-B2B2-B86F192854FF}">
   <ds:schemaRefs>
